--- a/translations/2780710_translated.xlsx
+++ b/translations/2780710_translated.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D51"/>
+  <dimension ref="A1:D648"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -572,7 +572,7 @@
         <v>1</v>
       </c>
       <c r="B9" t="n">
-        <v>1023</v>
+        <v>1080</v>
       </c>
       <c r="C9" t="n">
         <v>1745887921</v>
@@ -900,7 +900,7 @@
         <v>1</v>
       </c>
       <c r="B29" t="n">
-        <v>785</v>
+        <v>798</v>
       </c>
       <c r="C29" t="n">
         <v>1745700711</v>
@@ -1074,7 +1074,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Very Gut :P</t>
+          <t>Sehr gut :P</t>
         </is>
       </c>
     </row>
@@ -1243,7 +1243,7 @@
         <v>1</v>
       </c>
       <c r="B50" t="n">
-        <v>358</v>
+        <v>399</v>
       </c>
       <c r="C50" t="n">
         <v>1745512578</v>
@@ -1267,6 +1267,9895 @@
       <c r="D51" t="inlineStr">
         <is>
           <t>Es macht Spaß, aber warum gibt es so wenige Karten, und am Ende des vierten Bildes dachte ich, ich wäre KO gegangen, aber es stellte sich heraus, dass es daran lag, dass dahinter keine Karte war</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="b">
+        <v>1</v>
+      </c>
+      <c r="B52" t="n">
+        <v>1729</v>
+      </c>
+      <c r="C52" t="n">
+        <v>1745498360</v>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>:)</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="b">
+        <v>1</v>
+      </c>
+      <c r="B53" t="n">
+        <v>326</v>
+      </c>
+      <c r="C53" t="n">
+        <v>1745483629</v>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Das Spiel macht ziemlich viel Spaß, aber leider sind die Errungenschaften nicht auf Chinesisch</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="b">
+        <v>1</v>
+      </c>
+      <c r="B54" t="n">
+        <v>927</v>
+      </c>
+      <c r="C54" t="n">
+        <v>1745481721</v>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Lustiges kleines Spiel Hoffe, es wird mehr Inhalte geben</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="b">
+        <v>1</v>
+      </c>
+      <c r="B55" t="n">
+        <v>498</v>
+      </c>
+      <c r="C55" t="n">
+        <v>1745466296</v>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Es gibt viel Raum für Verbesserungen</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="b">
+        <v>1</v>
+      </c>
+      <c r="B56" t="n">
+        <v>2568</v>
+      </c>
+      <c r="C56" t="n">
+        <v>1745459878</v>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Sehr gutes Produkt, sehr lustig, mit einem gewissen Schwierigkeitsgrad, kein hirnloses Mähspiel.</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="b">
+        <v>1</v>
+      </c>
+      <c r="B57" t="n">
+        <v>24</v>
+      </c>
+      <c r="C57" t="n">
+        <v>1745434747</v>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Dieses Spiel beinhaltet eine sehr große Map wenn man bedenkt das man ein Kleiner Krieger ist und die Fähichkeiten in diesem Spiel sind sehr gut einsetzbar dennoch wir des immer Schwieriger je weiter man kommt. Es kommen dann z.B. kleine Laufende Pilze. Aber egal im grunden und ganzen macht es mir spass kommt drauf an ob es euch Spass macht.
+Müsst ihr Wissen.</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="b">
+        <v>0</v>
+      </c>
+      <c r="B58" t="n">
+        <v>239</v>
+      </c>
+      <c r="C58" t="n">
+        <v>1745426207</v>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Die Stärke und die BD-Formgebung sind zu zufällig, und man kann nicht viel Spaß beim Bauen erleben</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="b">
+        <v>1</v>
+      </c>
+      <c r="B59" t="n">
+        <v>1292</v>
+      </c>
+      <c r="C59" t="n">
+        <v>1745424366</v>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>gut</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="b">
+        <v>1</v>
+      </c>
+      <c r="B60" t="n">
+        <v>981</v>
+      </c>
+      <c r="C60" t="n">
+        <v>1745418829</v>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Babachaya</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="b">
+        <v>1</v>
+      </c>
+      <c r="B61" t="n">
+        <v>1822</v>
+      </c>
+      <c r="C61" t="n">
+        <v>1745415619</v>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>es is abwechslungsreich und gute Mechanik, sowie gute Kombis der Fähigkeiten. Türlich is manches verbesserungswürdig, aber dies sind nur kleien Dinge</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="b">
+        <v>0</v>
+      </c>
+      <c r="B62" t="n">
+        <v>389</v>
+      </c>
+      <c r="C62" t="n">
+        <v>1745412232</v>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Es macht keinen Spaß, nehmen Sie einfach das Halbzeug</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="b">
+        <v>1</v>
+      </c>
+      <c r="B63" t="n">
+        <v>263</v>
+      </c>
+      <c r="C63" t="n">
+        <v>1745411393</v>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Cooler Look des Spiels und herausfordernde Bosskämpfe. Eines der besten Spiele seiner Art !!</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="b">
+        <v>1</v>
+      </c>
+      <c r="B64" t="n">
+        <v>673</v>
+      </c>
+      <c r="C64" t="n">
+        <v>1745406830</v>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>nett</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="b">
+        <v>1</v>
+      </c>
+      <c r="B65" t="n">
+        <v>1466</v>
+      </c>
+      <c r="C65" t="n">
+        <v>1745404601</v>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>⭐️⭐️⭐️⭐️⭐️ (5/5) Kam wegen der nordischen Vibes, blieb, weil RNGesus mir einen abgewetzten Blitz-Build gab, der irgendwie alles in Sichtweite zum Schmelzen brachte.  Asgard's Fall ist der Höhepunkt der Roguelike-Energie: 🪓 Schwach 💀 starten Stirb ⚡️ zufälliges OP-Upgrade 🔥 Werde versehentlich zu Gott ☠️ Stirb trotzdem für einen Ziegendämon mit 3 verbleibenden Lebenspunkten Keine Story, kein Händchenhalten, nur Vibes, Gewalt und gelegentliche "Wie funktioniert dieser Build überhaupt??"-Momente. Es ist auf die lustige Art und Weise verrückt, auf die beste Art und Weise chaotisch und gefährlich süchtig machend.  Wenn du dumme OP-Builds, Clutches in letzter Sekunde und das Schreien "ONE MORE RUN" um 3 Uhr morgens liebst – dann ist dies dein Spiel.  10/10, RNG hat mich kaputt gemacht und ich mochte es.</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="b">
+        <v>1</v>
+      </c>
+      <c r="B66" t="n">
+        <v>898</v>
+      </c>
+      <c r="C66" t="n">
+        <v>1745403203</v>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Absolute Empfehlung für alle, die Survivors-Like feiern! Obwohl sich das Spiel aktuell noch im Early Access befindet, wird hier schon super viel Content geliefert: Drei Charaktere, einige Karten, mehrere Meta-Progression Skill-Trees und eine Fülle an unterschiedlichen Gegnern, Bossen und die Möglichkeit sich vor Beginn jeder Runde mit Blutopfern selbst das Leben zur Hölle, äh, Valhalla zu machen.
+Auf der anderen Seite habe ich aber auch Verbesserungsvorschläge und Ideen. Ich hoffe die Entwickler lesen das auch:
+Die Menüführung fühlt sich manchmal janky an, ist nicht so intuitiv: Menüs lassen sich oft nur öffnen, wenn ich zuerst ein Anderes Schließe. Da wäre es flüssiger von Jedem Menü aus Jedes Menü öffnen zu können. Das Kompenduum Menü ist unnötig versteckt.
+In vielerlei Hinsicht würde ich das Game gerne sowohl nur mit der Maus, als auch nur mit der Tastatur spielen können, Runen z.B. auch mit dem Mausrad rotieren und mit Rechtsclick löschen. Dass man Runen nur mit ESC löschen kann, hat manchmal dazu geführt, dass ich versehentlich das Runenmenü verlassen habe.
+Balance: Aktuell kommen mir bestimmte Kombos so OP vor, dass alles andere nicht viable ist. Ich skille fast immer zwangsläufig auf physische Abilities, weil nur die den Knoten haben, der den Cooldown aller Fähigkeiten verringert, was irgendwann so krass snowballed, dass alles andere egal wird. Wenn ich auf Statuseffekte gehe und versuche darüber mein Angriffstempo zu erhöhen, bin ich immer am Boss gescheitert (Knoten, der Angriffstempo pro Gegner mit Statuseffekt erhöht könnte dies auch "hoch zwei" machen bei mehreren Effekten auf einem Gegner).
+Auch finde schade, dass wenn man eine Fusion erreicht, man diese nicht weiterskillen kann oder beide Fähigkeiten zusammengelegt werden, wodurch wieder ein Fähigkeitsslot frei würde und man weitere Fusionen versuchen könnte zu erreichen. Vielleicht sogar Fusionen fusionieren?:o Da stelle ich mir noch einen komplexeren Skillbaum vor. Insgesamt finde ich die Auswahl an Fähigkeiten und Fähigkeitsupdates noch begrenzt. Ich würde mir mehr Updates wünschen, die das Potential haben zu snowballen und gemeinsam würdige Effekte hervorzurufen. 
+Für mehr Rückmeldung baut gerne ein Reviewtool ein, was man z.B. nach jeden Run ausfüllen darf^^ LG Krawnless</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="b">
+        <v>1</v>
+      </c>
+      <c r="B67" t="n">
+        <v>851</v>
+      </c>
+      <c r="C67" t="n">
+        <v>1745402626</v>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Geiles Game! Die Funktion mit den Runen am Anfang ist richtig geil. Der Berserker mit Blut und Explosion macht mit Hand of Blood sehr viel Spaß. Jetzt auch mit Steamcloud mach es auch auf dem Steamdeck Spaß. 
+Ich kann es empfehlen, aber muss ihr Wissen! XD</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="b">
+        <v>1</v>
+      </c>
+      <c r="B68" t="n">
+        <v>275</v>
+      </c>
+      <c r="C68" t="n">
+        <v>1745377077</v>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Variieren Sie lustiges Spiel. Dieses Spiel kann auf meinem Vary Bad und alten PC zu einem 10/10 Spiel führen. :P</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="b">
+        <v>1</v>
+      </c>
+      <c r="B69" t="n">
+        <v>715</v>
+      </c>
+      <c r="C69" t="n">
+        <v>1745371143</v>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Für Fans solcher Spiele ein echter Suchtmacher.
+Wer diese Art von Games liebt, wird hier definitiv auf seine Kosten kommen. Aber auch für Neulinge, die mal reinschnuppern wollen, absolut empfehlenswert.
+Ich freue mich schon auf kommende Updates und Patches!</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="b">
+        <v>1</v>
+      </c>
+      <c r="B70" t="n">
+        <v>825</v>
+      </c>
+      <c r="C70" t="n">
+        <v>1745362965</v>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Wenn du NORDIC ASHES magst, ist dieses Spiel genau das Richtige für dich.</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="b">
+        <v>1</v>
+      </c>
+      <c r="B71" t="n">
+        <v>351</v>
+      </c>
+      <c r="C71" t="n">
+        <v>1745349675</v>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>gutes vampirähnliches Spiel</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="b">
+        <v>1</v>
+      </c>
+      <c r="B72" t="n">
+        <v>1095</v>
+      </c>
+      <c r="C72" t="n">
+        <v>1745348028</v>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>Geiles Game, freue mich auf alle Updates!</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="b">
+        <v>1</v>
+      </c>
+      <c r="B73" t="n">
+        <v>637</v>
+      </c>
+      <c r="C73" t="n">
+        <v>1745347136</v>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>Nach oben</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="b">
+        <v>1</v>
+      </c>
+      <c r="B74" t="n">
+        <v>964</v>
+      </c>
+      <c r="C74" t="n">
+        <v>1745346201</v>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Es macht Spaß</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="b">
+        <v>1</v>
+      </c>
+      <c r="B75" t="n">
+        <v>627</v>
+      </c>
+      <c r="C75" t="n">
+        <v>1745345421</v>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Ich habe dieses Spiel wegen wnaderbots bekommen und ich habe es geliebt und freue mich auf mehr Inhalte!</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="b">
+        <v>0</v>
+      </c>
+      <c r="B76" t="n">
+        <v>28</v>
+      </c>
+      <c r="C76" t="n">
+        <v>1745341812</v>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>Ich werd nicht warm mit dem Spiel im aktuellen Zustand. Die Runs sind von Beginn an öde und es gibt viel zu wenig auf der Karte. Wenn ihr wenig Content anbietet, dann priorisiert doch bitte die Erkundung damit die fehlenden Build-Möglichkeiten zumindest nicht direkt durchscheinen. Werde es in 2-3 Monaten nochmal probieren, aber zum derzeitigen Zeitpunkt kann ich es leider nicht empfehlen.</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="b">
+        <v>1</v>
+      </c>
+      <c r="B77" t="n">
+        <v>459</v>
+      </c>
+      <c r="C77" t="n">
+        <v>1745339545</v>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="b">
+        <v>1</v>
+      </c>
+      <c r="B78" t="n">
+        <v>252</v>
+      </c>
+      <c r="C78" t="n">
+        <v>1745332941</v>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>Bisher ist es eine solide Grundlage, ich mag die Fähigkeiten und den Meta-Fortschritt, den jeder Charakter gut zu spielen hat, aber das Web of Wyrd braucht wirklich etwas Arbeit, es braucht wirklich die Möglichkeit, Wyrd-Knoten entweder zu ersetzen oder zu verlegen, was dich blaue Kristalle kosten könnte, oder auch die Fähigkeit, sie mit diesen blauen Kristallen aufzuwerten.</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="b">
+        <v>1</v>
+      </c>
+      <c r="B79" t="n">
+        <v>372</v>
+      </c>
+      <c r="C79" t="n">
+        <v>1745323274</v>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Gut gemacht. Es macht noch nicht viel Spaß, aber es hat den Charme, dass Sie 4 Stunden durchhalten.  Die Kraft der einzigartigen Knoten ist stark, so dass es einige ungewöhnliche Ausrüstungen gibt, die nicht nur eine Fertigkeit oder ein passiver numerischer Klick sind, also war es frisch.  Die Wiederherstellungsmittel sind auch gut ausgestattet, aber wenn mein Deal nicht so stark ist, werden die Mobs in Echtzeit stark, man muss also etwas streng spielen. Trotzdem sind die Reroll-Kosten sehr günstig, so dass du jedes Mal, wenn du aufbesserst, einfach 2~3 Mal kostenlos rerollen kannst. Obwohl es also ein Juwel mit vielen Fähigkeiten und passiven Optionen ist, war es gut, dass es einfach war, Carrick in die Richtung zu kultivieren, die ich wollte.  Leider ist die Lautstärke des Spiels unvermeidlich. Ich habe es etwa 6 Stunden lang genossen, aber alle Carricks sind freigeschaltet und es ist Materialfarming, um die restlichen Muster freizuschalten, aber es gab immer noch einige Dinge, von denen ich dachte, dass ich sie freischalten sollte.  Die erste Verbesserung, die ich gespielt habe, Giant's Tooth + Whirlwind Slash = Burning Chaos Blade Der Knoten, der sofort nach dem Anwenden des Punktstatus-Ailments auf diese Fähigkeit Gesamtschaden verursacht, hat am meisten Spaß gemacht.  Der Preis ist günstig, so dass Sie es kaufen und eine Weile genießen und später ausprobieren können.</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="b">
+        <v>1</v>
+      </c>
+      <c r="B80" t="n">
+        <v>1036</v>
+      </c>
+      <c r="C80" t="n">
+        <v>1745319365</v>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>Super Spiel nur zu empfehlen</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="b">
+        <v>0</v>
+      </c>
+      <c r="B81" t="n">
+        <v>921</v>
+      </c>
+      <c r="C81" t="n">
+        <v>1745311513</v>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>Ein Spiel mit ein wenig Originalität, in dem du nicht nur deine Waffen auflevelst, sondern auch Fähigkeiten erwirbst. Dies ist jedoch ein Gauner, und jedes Mal, wenn du aufsteigst, werden deine Waffen und Fähigkeiten abwechselnd verstärkt, so dass du selbst wenn du Level 70 bist, deine Waffe nur etwa 35 Mal aufrüsten kannst. Das macht es schwierig, zwei Waffen zu erwerben und sie dann zu stärken, um neue Waffen zu erschaffen, und es kommt nicht nur gelegentlich vor, dass man eine Waffe nicht bekommen kann, egal wie oft man überhaupt nachlädt, sondern häufiger. Darüber hinaus reicht die Erhöhung der Waffenfähigkeit beim Aufleveln von normal bis legendär, und der Boss kann nur besiegt werden, wenn er sorgfältig ausgewählt wird, und die Fähigkeitserhöhung ist zufällig, unabhängig davon, ob die Anzahl der Züge zunimmt, die Angriffskraft zunimmt oder die Abklingzeit abnimmt.  Mit anderen Worten, es ist ein Spiel, in dem man nicht die gesamte Ausrüstung hat, und selbst wenn man sie hat, kann man seine Fähigkeiten nicht gut verbessern und das Waffenlevel nicht erhöhen.</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="b">
+        <v>0</v>
+      </c>
+      <c r="B82" t="n">
+        <v>1024</v>
+      </c>
+      <c r="C82" t="n">
+        <v>1745287274</v>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>Kritischer Fehler beim Speichern von Cloud-Speichern Die Initialisierung des Skills und die Stufen- und ausgegebenen Punkte wurden nicht zurückgegeben. Da es nicht initialisiert werden kann, war es eine Geldverschwendung, es für immer mit der ursprünglichen Fähigkeit zu tun. Der Fehler wurde durch das Update vom 26.04. verbessert, aber er fühlt sich weniger chaotisch und etwas langweilig an als Asgard's Fall: Origins</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="b">
+        <v>1</v>
+      </c>
+      <c r="B83" t="n">
+        <v>317</v>
+      </c>
+      <c r="C83" t="n">
+        <v>1745280177</v>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>Das Spiel selbst ist Vampire Survivors sehr ähnlich und hat einige Aspekte, die meiner Meinung nach besser sind, z. B. ein flüssigeres Gameplay mit der Verwendung von Bindestrichen und auch die Möglichkeit, den Mauszeiger als Fadenkreuz zu verwenden, wodurch ein Teil der Monotonie beseitigt wird. Was zu einem kleinen Problem wird, ist das Balancing von Gegenständen und Feinden, bei denen man im Grunde genommen der Neo der Matrix sein und ausweichen muss. Auch die Items mit ihren Kombos, die meist so schwach und vergesslich sind, dass man ehrlich gesagt das ganze Spiel mit nur einem Gegenstand abschließen könnte. Allerdings befindet sich das Spiel noch im Early Access, und ich glaube, dass es sich im Laufe der Zeit verbessern kann, wenn man das im Hinterkopf behält, empfehle ich das Spiel Spielern, die Vampir-Überlebende mit einem Gefühl von Enter the Gungeon mögen...</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="b">
+        <v>1</v>
+      </c>
+      <c r="B84" t="n">
+        <v>1928</v>
+      </c>
+      <c r="C84" t="n">
+        <v>1745260472</v>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>Es macht Spaß, der Dieb macht Spaß und es fühlt sich an, als würde man Vampire Survivor + Online-Spiele spielen</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="b">
+        <v>0</v>
+      </c>
+      <c r="B85" t="n">
+        <v>356</v>
+      </c>
+      <c r="C85" t="n">
+        <v>1745260322</v>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>Ich bin auf einen Fehler gestoßen Zurzeit bin ich ein Krieger der Stufe 11, ein Jäger ist der Stufe 4 und ein Prophet ist der der Stufe 15, aber meine Attributspunkte haben nur 14 Punkte für den Propheten, und die Attributspunkte des Kriegers und des Jägers sind weg, und es ist sinnlos, sie zurückzusetzen, was bedeutet, dass mein Krieger und Jäger verschwendet sind und ich nur den Propheten spielen kann</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="b">
+        <v>1</v>
+      </c>
+      <c r="B86" t="n">
+        <v>1628</v>
+      </c>
+      <c r="C86" t="n">
+        <v>1745258210</v>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>Macht einfach richtig Bock! Der Skilltree ergibt zum Glück endlich mal Sinn. Der Rundenskilltree ist eine richtig geile Idee – ich liebe alles daran. Die Fähigkeiten knallen und die Skill-Kombos fühlen sich richtig wertig an! Die Runentasche habe ich zwar erst spät gecheckt, aber die ist eine top Idee fürs Lategame. Die Übersicht in Floor 3 mit +50% Gegnern ist zwar hart chaotisch, aber irgendwie hat’s mich irre lachen lassen – also auch alles richtig gemacht! xD
+Hat mich bisher in keinem Punkt enttäuscht. 10/10 für das Genre.</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="b">
+        <v>1</v>
+      </c>
+      <c r="B87" t="n">
+        <v>2829</v>
+      </c>
+      <c r="C87" t="n">
+        <v>1745257607</v>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>Nach oben</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="b">
+        <v>1</v>
+      </c>
+      <c r="B88" t="n">
+        <v>745</v>
+      </c>
+      <c r="C88" t="n">
+        <v>1745256107</v>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>wer solche spiele mag dem wird das gefallen</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="b">
+        <v>1</v>
+      </c>
+      <c r="B89" t="n">
+        <v>763</v>
+      </c>
+      <c r="C89" t="n">
+        <v>1745248766</v>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>Cooler Pinsel, sehr cool</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="b">
+        <v>1</v>
+      </c>
+      <c r="B90" t="n">
+        <v>5007</v>
+      </c>
+      <c r="C90" t="n">
+        <v>1745245600</v>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>10/10</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="b">
+        <v>1</v>
+      </c>
+      <c r="B91" t="n">
+        <v>1432</v>
+      </c>
+      <c r="C91" t="n">
+        <v>1745245431</v>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>fühlt sich poliert an.  Hat einen guten Lauf und Meta-Fortschritt.   Hat zusätzliches Prestige wie Modifikatoren für eine zusätzliche Herausforderung.  wird nicht alt, viele verschiedene Builds und mögliche Kombinationen.  Lustiges Spiel mit einzigartiger Mechanik.</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="b">
+        <v>1</v>
+      </c>
+      <c r="B92" t="n">
+        <v>825</v>
+      </c>
+      <c r="C92" t="n">
+        <v>1745242855</v>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>Top Spiel</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="b">
+        <v>1</v>
+      </c>
+      <c r="B93" t="n">
+        <v>253</v>
+      </c>
+      <c r="C93" t="n">
+        <v>1745239065</v>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>Eine neuere und bessere Version von Vampire Survivors! Ich liebe es verdammt nochmal!</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="b">
+        <v>1</v>
+      </c>
+      <c r="B94" t="n">
+        <v>492</v>
+      </c>
+      <c r="C94" t="n">
+        <v>1745238206</v>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>Das Spiel ist sehr lustig und Innovativ, ich würde mir für den Nächsten Patch aber eine sortier Möglichkeit für die Runen Wünschen weil sie sonst schnell unübersichtlich werden</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="b">
+        <v>1</v>
+      </c>
+      <c r="B95" t="n">
+        <v>939</v>
+      </c>
+      <c r="C95" t="n">
+        <v>1745233768</v>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>Das Spiel macht absolut Spaß und ist auf einem guten Weg.
+Die magnetischen Schädel könnten etwas häufiger droppen und es wäre schön, wenn die Balance der einzelnen Fähigkeiten weiter verfeinert werden. Die Balliste macht angemessen Schaden, während die Bossfights mit anderen Fähigkeiten eine gefühlte Ewigkeit dauern können.
+Mfg 
+Macht weiter so</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="b">
+        <v>0</v>
+      </c>
+      <c r="B96" t="n">
+        <v>17</v>
+      </c>
+      <c r="C96" t="n">
+        <v>1745231252</v>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>In meinem ersten Durchlauf im Kreis zum ersten Boss gerannt. Auf den Chef? Ja, lief noch ein bisschen im Kreis – nahm kaum Schaden. Ich wählte eine zufällige Heilfähigkeit, und es reichte, um langweilig im Kreis zu laufen, während ich meine Maus durch feindliche Horden zog. Schnappte mir ab und zu ein paar Früchte für zusätzliche Heilungen, nur um mit noch mehr Begeisterung im Kreis zu laufen. Die Angriffe der Feinde haben diese winzige Verzögerung, wenn du also im Kreis läufst, können sie nicht einmal einen Treffer landen, und es gibt keinen Kontaktschaden. Also rannte ich im Kreis. Wich ein paar Flächenangriffen auf den Boss mit einem schnellen Sprint aus – und rannte dann wieder im Kreis. Ich habe mir zufällig Fähigkeiten ausgesucht, da ich ein Anfänger und ahnungslos bin, aber im Kreis renne? Totale Meta. Willst du dich im Kreis drehen? Dieses Spiel ist für dich. Sonst ist es so langweilig, dass selbst YouTube im Hintergrund es nicht speichern kann. Wenn das Spiel nach Stunden gut wird, bin ich zu faul, um 10 Minuten pro Durchlauf mit Gähnen und Zerquetschen von W-A-S-D in einer Schleife zu verschwenden.</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="b">
+        <v>1</v>
+      </c>
+      <c r="B97" t="n">
+        <v>311</v>
+      </c>
+      <c r="C97" t="n">
+        <v>1745231228</v>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>Ich bin ein Fan von Horden-Survivals, ich weiß nicht, wie viele Stunden ich Vampire gespielt habe, 20 min und vor allem Brotato... Von den dreien, die ich erwähnt habe, liegt dieser weit darunter... Ich denke, sie haben die Grundlagen, aber irgendetwas fehlt... Vielleicht bekommt es mit der Zeit "das", was es einzigartiger macht.</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="b">
+        <v>1</v>
+      </c>
+      <c r="B98" t="n">
+        <v>731</v>
+      </c>
+      <c r="C98" t="n">
+        <v>1745230035</v>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>Hallo,
+Das Game macht echt richtig Spaß!
+Cool wäre, wenn man im Inventar die Runen Sortieren könnte. damit man sich die Runen passen zu verschiedenen Builds Sortieren kann.
+Aber auch so Bietet das Game schon sehr viele coole Komponenten.
+Gude</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="b">
+        <v>0</v>
+      </c>
+      <c r="B99" t="n">
+        <v>521</v>
+      </c>
+      <c r="C99" t="n">
+        <v>1745222981</v>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>Es gibt einfach nicht genug Inhalt im Vergleich zu anderen Titeln dieser Art von Spielen. Es gibt nur 3 Charaktere, deren Bäume nicht so aufregend sind und es eine Weile dauert, bis sie sich einzigartig anfühlen. Der Grind für die Runen und Skillpunkte ist einfach nur langweilig. "Death must Die" hat es mit ihrer Ausrüstungsbeute gut gemacht.    Es hat Potenzial und schöne Kunst, aber es ist meiner Meinung nach noch nicht so weit.</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="b">
+        <v>1</v>
+      </c>
+      <c r="B100" t="n">
+        <v>670</v>
+      </c>
+      <c r="C100" t="n">
+        <v>1745222373</v>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>Das Spiel ist durchaus interessant, aber der Inhalt ist so klein, dass es ein völlig halbfertiges Produkt ist</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="b">
+        <v>0</v>
+      </c>
+      <c r="B101" t="n">
+        <v>1759</v>
+      </c>
+      <c r="C101" t="n">
+        <v>1745205108</v>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>Es gibt zu wenig Inhalt,</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="b">
+        <v>1</v>
+      </c>
+      <c r="B102" t="n">
+        <v>942</v>
+      </c>
+      <c r="C102" t="n">
+        <v>1745202866</v>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>Gutes spiel für den anfang 
+-man könnte mehr fähigkeiten upgrades ect ein führen würde zu mehr abwechslung führen 
+-Mehr Runen seiten wären schön das man z.b eine zeite für Fire shock und Cold hat 
+-Runen sortieren wäre auch noch ein punkt sodass man Legendäre Epic und normale runen im inventar sortieren kann 
+hoffe das bald neue Level dazu kommen kein bock dauerhaft beim endboss in level 4 geoneshooted zu werden x)</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="b">
+        <v>1</v>
+      </c>
+      <c r="B103" t="n">
+        <v>311</v>
+      </c>
+      <c r="C103" t="n">
+        <v>1745197090</v>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>3.5 / 5</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="b">
+        <v>1</v>
+      </c>
+      <c r="B104" t="n">
+        <v>961</v>
+      </c>
+      <c r="C104" t="n">
+        <v>1745191193</v>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>Sehr geiles Game! Viel potential nach oben und bisher läuft es spitze. Hätte noch keinen spürbaren Bug gemerkt und die verschiedenen Inhalte machen wirklich Spaß.</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="b">
+        <v>1</v>
+      </c>
+      <c r="B105" t="n">
+        <v>1602</v>
+      </c>
+      <c r="C105" t="n">
+        <v>1745185715</v>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>Die Beta-Version war etwas weniger pixelig, aber es gab viel mehr Funktionen! Wir warten auf neue Dinge und ein wenig aktualisierte Grafiken))) Ich mochte das Spiel, es spielt sich mit einem Knall, es ist aufregend!</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="b">
+        <v>1</v>
+      </c>
+      <c r="B106" t="n">
+        <v>1024</v>
+      </c>
+      <c r="C106" t="n">
+        <v>1745184837</v>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>geil</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="b">
+        <v>1</v>
+      </c>
+      <c r="B107" t="n">
+        <v>875</v>
+      </c>
+      <c r="C107" t="n">
+        <v>1745180610</v>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>Super Spiel, sehr guter Anfang für eine Early-Access-Phase!</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="b">
+        <v>0</v>
+      </c>
+      <c r="B108" t="n">
+        <v>407</v>
+      </c>
+      <c r="C108" t="n">
+        <v>1745179661</v>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>Nachdem ich 5 Stunden gespielt hatte, kombinierte ich eine super Kampfsportart.</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="b">
+        <v>1</v>
+      </c>
+      <c r="B109" t="n">
+        <v>986</v>
+      </c>
+      <c r="C109" t="n">
+        <v>1745172380</v>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>Eigentlich mag ich solche Spiele nicht so gerne. Aber weil Hänno das beworben hat dachte versuche es mal. 
+Und es macht richtig fun. Es ist so satisf. wie man Combos erstellen kann und dann einfach ein riesen Gemäzel hat. 9/10. (Die Musik ist mir etwas zu soft)</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="b">
+        <v>1</v>
+      </c>
+      <c r="B110" t="n">
+        <v>1131</v>
+      </c>
+      <c r="C110" t="n">
+        <v>1745165914</v>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>Dieses Spiel hat einige meiner Lieblings-Sprites! Ich werde dieses Spiel unterstützen und wahrscheinlich den DLC kaufen, den sie herausbringen, weil ich den Look des Spiels einfach so sehr mag. (z.B. würde ich für zusätzliche Zeichen bezahlen - 1,99$)    Ich finde es sehr gut, dass die Bosse tatsächlich Mechaniken haben.    Verpassen Sie das Level, das die erste Demo hatte. Das derzeitige Niveau scheint fad.    Ich habe die Level-Up-Benutzeroberfläche in der ersten Demo mehr genossen als die aktuelle, aber die Mechanik hat sich zu einem Board-Setup geändert, also kann ich verstehen, warum es sich geändert hat.    Weiße Runen sind sehr glanzlos. Lila Runen scheinen sich auch selten zu lohnen. Stat-Runen sind sehr gut. Legendäre Runen scheinen wertlos zu sein. Epische Runen sind den Platz nicht wert. Es sieht wirklich so aus, als ob das Runensystem überarbeitet oder neu ausbalanciert werden sollte. Die Werte basieren eher auf dem Platz, den die Rune einnimmt, als auf den Wertestufen. Der Wert könnte immer noch gestaffelt werden, aber die Wertsteigerung nach Stufe scheint zu fehlen. Das ist meiner Meinung nach der Grund, warum die Stat-Runen völlig besser sind als alle anderen Runen.    Wäre schön, wenn ich eine Auto-Dematerialisierungsoption für weiße Runen \ lila Runen umschalten könnte.    Ich empfehle, das Ausweichen auf dem Stat-Sheet mit (MAX: 35%) zu markieren. Es wird Ihnen erst mitgeteilt, nachdem Sie den Maximalwert erreicht/überschritten haben. Würde dies für jeden Wert tun, der kein offensichtliches Maximum hat (wie kritische Trefferchance oder Statuseffektchancen).    Ich brauche eine leichte Verzögerung für Eingaben, wenn der Level-Up-Bildschirm erscheint, da ich fälschlicherweise Fähigkeiten ausgewählt habe, weil ich Runen vom Boden aufgesammelt habe. Ich würde empfehlen, Runen einfach automatisch zu sammeln.    Wäre schön, wenn sich das Spiel merken würde, welchen Charakter ich das letzte Mal verwendet habe.    Wäre schön, wenn das Spiel mich so einstellen würde, dass die Statistiken immer auf dem Runenbrett für den Levelaufstieg angezeigt werden.    Außerdem wäre es schön, meine Werte auf dem Warpaint-Board sehen zu können.    Es wäre auch schön, wenn beim Entfernen einer Rune vom Warpaint-Brett die Auswahl an dieser Stelle bleiben würde. Wenn Sie ein Muster auswählen, platzieren Sie den Cursor/Selektor automatisch an der Stelle, an der es auf die Platine passt, oder stellen Sie es auf Standard um. Nachdem Sie ein Muster platziert haben, bewegen Sie den Cursor zurück auf das zuvor ausgewählte Muster.    Der Runenbeutel könnte eine Art Filter benötigen? Oder Massendematerialisierungsoption basierend auf bestimmten Kriterien? Als ob ich alle Runen dematerialisieren könnte, die nur Tier-1-Werte haben. Oder alle Runen der Seltenheitsklasse Weiß.</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="b">
+        <v>1</v>
+      </c>
+      <c r="B111" t="n">
+        <v>477</v>
+      </c>
+      <c r="C111" t="n">
+        <v>1745164673</v>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>Erstklassiges Spiel. Motiviert durch variable Schwierigkeitsstufen. Ausgezeichnete Bewegung. Nun, es ist einfach ein gutes Spiel und ein Muss, wenn du Rogue-lites/likes magst.    Aber am Ende: müsst ihr wissen.    Liebe Grüße an Hänno!</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="b">
+        <v>0</v>
+      </c>
+      <c r="B112" t="n">
+        <v>330</v>
+      </c>
+      <c r="C112" t="n">
+        <v>1745158218</v>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>Ziemlich langweiliges Spiel. Der RNG ist viel zu hoch und es gibt begrenzte Fähigkeiten, was es umso schwieriger macht, einen guten Lauf zu bekommen.</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="b">
+        <v>1</v>
+      </c>
+      <c r="B113" t="n">
+        <v>1209</v>
+      </c>
+      <c r="C113" t="n">
+        <v>1745157923</v>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>Ausgezeichnet Bullet Hell!  Seit der Veröffentlichung des Spiels Vampire Survivors haben viele Studios begonnen, diese Art von Spielen zu entwickeln. Viele sind passabel, aber nur wenige sind wirklich gut!  Asgards Fall ist wahrscheinlich der am einfachsten zugängliche von allen, aber bei weitem nicht der am wenigsten interessante!  Was mir in erster Linie in Erinnerung bleibt, ist die Effizienz, alles ist lesbar und verständlich. Besonders gut gefällt mir die Tatsache, dass man einen kompletten Build aus einem bestimmten Element (Blitz, Feuer, Eis) bauen kann.  Außerdem befindet sich das Spiel noch in der Entwicklung, ich hoffe, es hält noch einige gute Überraschungen für uns bereit!  Der einzige Punkt, den ich kritisieren könnte, ist, dass man nur eine von fünf Techniken pro Durchlauf entwickeln kann.  Herzlichen Glückwunsch an das Studio, ich kann es kaum erwarten, den Rest des Inhalts zu sehen!</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="b">
+        <v>1</v>
+      </c>
+      <c r="B114" t="n">
+        <v>556</v>
+      </c>
+      <c r="C114" t="n">
+        <v>1745157191</v>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>Gute-Nacht-Spiele, Spaß</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="b">
+        <v>1</v>
+      </c>
+      <c r="B115" t="n">
+        <v>215</v>
+      </c>
+      <c r="C115" t="n">
+        <v>1745156752</v>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>Ausruf</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="b">
+        <v>1</v>
+      </c>
+      <c r="B116" t="n">
+        <v>1055</v>
+      </c>
+      <c r="C116" t="n">
+        <v>1745153270</v>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>Das Spiel macht nicht nur Spaß, es ist auch noch super Toll</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="b">
+        <v>1</v>
+      </c>
+      <c r="B117" t="n">
+        <v>1005</v>
+      </c>
+      <c r="C117" t="n">
+        <v>1745149970</v>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>macht laune</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="b">
+        <v>1</v>
+      </c>
+      <c r="B118" t="n">
+        <v>1295</v>
+      </c>
+      <c r="C118" t="n">
+        <v>1745148155</v>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>Spaß und Spaß Die Entwickler schätzen auch die Vorschläge chinesischer Spieler~</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="b">
+        <v>0</v>
+      </c>
+      <c r="B119" t="n">
+        <v>341</v>
+      </c>
+      <c r="C119" t="n">
+        <v>1745145664</v>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>Das Spiel ist im Vergleich zum Vampirkörper zu niedrig.,Das Highlight ist, dass es mehr als 2 Möglichkeiten gibt, im Spiel zu bauen.,Es wird empfohlen, eine Weile zu warten, um wieder in die offizielle Version des Spiels zu gelangen.。</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="b">
+        <v>1</v>
+      </c>
+      <c r="B120" t="n">
+        <v>1552</v>
+      </c>
+      <c r="C120" t="n">
+        <v>1745144549</v>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>Dieses Spiel, zumindest für mich, ist wie "super einfach", aber es gibt immer noch dieses Gefühl, mehr zu wollen und besser zu werden, und es waren nur 4-6 Stunden am Stück mit automatischem Schießen/Zielen.    Der wichtigste Teil des Spiels ist nicht einmal das "Spielen", es geht darum, gute Würfe zu bekommen und für schlechte Würfe zu sparen</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="b">
+        <v>1</v>
+      </c>
+      <c r="B121" t="n">
+        <v>1490</v>
+      </c>
+      <c r="C121" t="n">
+        <v>1745144194</v>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>Knaben und Mädchen, ihr seid hübsch, sage ich euch!  Ich lerne das Spiel seit Origins Alle Erwartungen wurden übertroffen, das Spiel ist ein Buzz, ich hoffe auf seine weitere vollständige Entwicklung Class Warrior High Archer wird gehen (ahhh Frau :D )  HABEN SIE KOLUD GESEHEN? Dies ist eine magische Minigun PU PU PU PU es war nicht in anderen Versionen, es ist interessant erfunden (Sie werfen sich Status, machen Heilungen, schlagen Totems im Tamburin, setzen Totems) Nach ihren Balanets scheint alles in Ordnung zu sein, das heißt, Sie können die Kabine auf jedem zerbrechen, aber als ob der Krieger stärker ist, aber es ist noch besser, der erste immerhin, VERBRANNT)) Das Raster mit Fähigkeiten ist einfach und verständlich,  aber wohl noch nicht so ein Ohr und vielfältig, wenn man auf allen verfügbaren Welten mindestens 20-55 Opfer zum Altar hat EINE Sache stört mich so sehr, dass kombinierte Fähigkeiten nicht mehr als 2x zu schaffen sind, natürlich, wenn man mit 2 Blöcken spielt, dann macht es keinen Sinn, aber es wäre mit einem Buzz bestenfalls natürlich, naja, als Idee, für so etwas würde man ein "allgemeines Leveling" machen, das für alle als dauerhafter Buff funktionieren würde:  + zusätzliche Kombination von Fähigkeiten + die Fähigkeit eines anderen ausleihen + die Hilfe eines besiegten Bosses und so weiter, so etwas wie dieser Tauscher wäre gut, ich werde 10k+ der üblichen Ressource aus jeder Welt für die voll aufgepumpten Perser benötigen, nach diesem Prinzip zum Beispiel - 1000 in den nächsten 100 in den letzten Münzen von Ihnen, das Spiel lohnt sich auf jeden Fall!</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="b">
+        <v>1</v>
+      </c>
+      <c r="B122" t="n">
+        <v>990</v>
+      </c>
+      <c r="C122" t="n">
+        <v>1745141473</v>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>Sein Höhepunkt</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="b">
+        <v>1</v>
+      </c>
+      <c r="B123" t="n">
+        <v>1904</v>
+      </c>
+      <c r="C123" t="n">
+        <v>1745140178</v>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>Zu aller erst: Sehr geiles Game!
+Ich habe bereits in die Demo mehr als 20 Std. reingesuchtet. Das RNG macht es manchmal sowohl bei den Knoten, sowie bei den Skills etwas fordernd, für mich persönlich aber ein umso größerer Ansporn. 
+Durch den immer höheren selbsteinzustellenden Schwierigkeitsgrad ist auch eine dauerehafte Zockung weiterhin suchtgefährdend.
+Spannend wäre es für mich, was in Zukunft noch eingebaut wird. Für mich persönlich wäre eine Speicherung der Runen als Blaupause sehr interessant, um so verschiedene Muster für verschiedene Builds zu speichern. 
+Bin auch sehr gespannt auf die nächsten Welten und Bosse.
+Oooooooodiiiiin!!!!</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="b">
+        <v>1</v>
+      </c>
+      <c r="B124" t="n">
+        <v>600</v>
+      </c>
+      <c r="C124" t="n">
+        <v>1745134514</v>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>Geben Sie zuerst eine gute Bewertung ab, es ist nicht schlecht zu spielen, aber der Fertigstellungsgrad ist nicht hoch BD-Formgebung ist nicht schwierig, es ist sehr cool zu spielen, aber einige der Designs sind sehr unvernünftig 1, derzeit kann es daran liegen, dass die späteren Levels noch nicht entworfen wurden, und es wird nach dem 4. Level vorbei sein, aber warum lassen Sie mich nicht den Boss des 4. Levels spielen? WARUM? Das aktuelle Design sieht so aus, dass der Charakter direkt stirbt, nachdem er den Boss in Level 4 gesehen hat, aber es gibt keinen Hinweis!! Es gibt keine Erklärung!!  Ich finde dieses Design sehr unvernünftig.,Du setzt hier einfach einen Pfahl, ich finde es in Ordnung.,Ich dachte, es wäre ein Auslöser für den Seckill-Mechanismus des Bosses auf den ersten Blick.,Wiederholte Versuche und schließlich zu dem Schluss gekommen, dass es nicht zum Kämpfen war.,Es ist zu unangenehm.,Es ist nicht einfach, den Boss selbst zu sehen.,Ein Treffer auf 20 Minuten reicht aus, um zu zeigen, dass BD gebildet wurde.,Infolgedessen fühle ich mich zu diesem Zeitpunkt nicht cool???  2 、 Die BD-Balance ist sehr schwach.,Schwach genug, um überhaupt kein Interesse daran zu haben, andere Genres zu spielen.,Derzeit ist das Feuersystem Opa.,Physik ist Vater.,Alle anderen sind Enkel.,Und dann Giant's Tooth + Whirlwind Slash= Sengende Chaosklinge Es ist fast das einzige ausgewiesene Genre mit hohem Schwierigkeitsgrad.,Es kann mit fast allen mächtigen Genres des Knot of Destiny-Systems kombiniert werden Hier sind ein paar unbesiegbare Genres: -1 Blut pro Sekunde um 10% Lebensraub + Blutverlustchance + 1% Schaden zu erhalten, unendliches Wachstum ist ein Muss, stapele schnell mehr als 200% Schaden Töte und entzünde Feinde hat eine Chance, den Feuerschaden zu erhöhen, Mit der Scorching Chaos Blade ist es auch unendlich wachsend und schnell stapelbar Feuerverletzungen Release 10 feuerbasierte Fähigkeiten, um 1% Blut zurückzugeben, mit der Scorching Chaos Blade wirst du sehen, wie der Kopf hektisch wieder zu Blut springt, was fast unendlichem Blut entspricht Und der obige BD ist im Vergleich zu den anderen zu schwach, und es ist leicht, auf dem 10-minütigen Miniboss mit hohem Schwierigkeitsgrad stecken zu bleiben 3. Der Levelaufstieg ist zu langsam und die Charaktere teilen sich keine Skillpunkte, aber der Grundangriffsbonus im Skillbaum ist im Grunde ein notwendiges Produkt, was dazu führt, dass es schwierig ist, neue Charaktere zu spielen, und es ist sehr quälend zu spielen 4. Rucksacksystem, Dieses System führt zu einem zu langen und äußerst umständlichen Betrieb Zunächst einmal ist das Inakzeptabelste, die Geräterune abzubrechen, die ESC drücken muss, was dazu führt, dass der Betrieb dieses Systems nicht mit einer Hand bedient werden kann, und es ist noch ermüdender. . . Zweitens gibt es keine Gedächtnisfunktion, nachdem Sie in der mittleren und späten Phase mehr Runen erhalten und Runen geschmiedet haben, werden Sie definitiv Richtungsboni entsprechend Ihrer eigenen Genre-Tendenz auswählen, und es gibt keine Gedächtnisfunktion, die dazu führt, dass Sie jedes Mal, wenn Sie das Genre zum Spielen wechseln möchten, nur die Runen neu anordnen können, was weiter zu keiner Motivation für den Genrewechsel führt Zusammenfassung Die Grundlage ist sehr gut, aber es gibt auch viele Mängel, ich freue mich auf das spätere Update, es ist auf den ersten Blick sehr cool, aber der aktuelle Inhalt ist unzureichend, und es wird ein wenig müde sein, nachdem Sie lange gespielt haben Ändern Sie das Problem des 4. Level-Bosses so schnell wie möglich auf mich, was auch immer Sie setzen oder eine Entschuldigungserklärung hinzufügen möchten! Ändern Sie die !! so schnell wie möglich</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="b">
+        <v>0</v>
+      </c>
+      <c r="B125" t="n">
+        <v>1005</v>
+      </c>
+      <c r="C125" t="n">
+        <v>1745134331</v>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>Um es einfach auszudrücken: Es fühlt sich immer noch wie ein halbfertiges Produkt an. Wenn der Inhalt in Zukunft angereichert wird, wird er in einen empfohlenen Kauf geändert.  Lassen Sie uns zuerst über die Vorteile sprechen, der Kunststil und die Bosskämpfe dieses Spiels sind viel besser als bei der gleichen Art von Spielen, oder sehr nach meinem Appetit. Aber ich habe mich darauf gefreut, die offizielle Version zu kaufen, und ich habe festgestellt, dass nur zwei neue Karten und ein neuer Charakter hinzugefügt wurden und der Rest des Inhalts im Grunde nur angepasst wurde. Fähigkeiten, Fähigkeitsknoten und Runen haben sich im Grunde nicht viel verändert, und es gibt tatsächlich nur sehr wenige Gameplay-Inhalte.    Derzeit gibt es noch viele Dinge, die in diesem Spiel angepasst und optimiert werden müssen, wie z.B. das Runensystem ist sehr klein, der Unterschied zwischen den Charakteren ist gering und die Attribute des Runenbürstens sind zu zufällig. Aber ich denke, das sind kleinere Probleme, die langsam angepasst und optimiert werden können. Das größte Problem ist, dass bei einem Pinsel-und-Bürsten-Spiel die Gesamttiefe zu gering ist. Bei anderen Spielen kannst du entweder Ausrüstung farmen oder außerhalb des Spiels farmen, um zu wachsen, dieses Spiel ist für dich, um Runen zu farmen.    Aber im Moment ist das Runensystem noch in Arbeit. Zunächst einmal sind die Runen, die durch den Pinsel hergestellt werden können, die Anzahl der Auswahlmöglichkeiten sehr gering, und die angegebenen Attribute sind auch sehr schwach, und es fühlt sich so an, als könnten nur wenige verwendet werden. Die Runen, die im Spiel gespawnt werden, fügen weitere Attribute hinzu, aber die angegebenen Attribute sind zu zufällig. Im Grunde geht es darum, diese Dutzenden von Attributen aus dem Spiel in das Spiel zu stopfen, damit du es würfeln kannst...... Die seltensten Runen tauchen oft auf, was ihnen 4 Attribute verleiht, die nicht sehr zutreffend sind. Wenn man möchte, dass der Spieler zum Farmen motiviert wird, muss man die Anwendbarkeit der Runen erhöhen. Um die Anwendbarkeit zu verbessern, ist es am besten, bestimmte Attribute als primäre Attribute zu verwenden (z. B. Angriffskraft, Angriffsgeschwindigkeit, Lebensraub usw.) und dann eine bestimmte Art von Rune mit hoher Seltenheit an dieses primäre Attribut zu binden und dann andere sekundäre Attribute anzuhängen, die keinen so hohen Nutzen haben. In Zukunft werden einige schwierige Karten hinzukommen, und die Spieler können die Runen nutzen, um herauszufordern, die Spielbarkeit zu verlängern und die Herausforderungskurve zu setzen. Aber im Moment gibt es nur 4 Karten, die im ganzen Spiel herausgefordert werden können, und die Schwierigkeit, die Attribute des Feindes außerhalb des Spiels zu verbessern, und die Belohnung ist eine rein zufällige Rune mit Attributen, die zu einem negativen Kreislauf geworden ist, und das positive Feedback des gesamten Spiels ist sehr schlecht.  Die häufigste Situation ist, dass man 20 Minuten lang Dutzende von Pinseln mit hohem Schwierigkeitsgrad verwendet und drei oder vier Runen mit hoher Seltenheit herauskommen, und das Ergebnis ist, dass die Bürsten alle sehr hühnerartige Attribute haben. Zum Beispiel eine Rune mit der höchsten Seltenheit, z. B. Feuerattributschaden +18, kritischer Trefferkoeffizient +20%, Lebensregeneration +1 und HP +50, diese Attribute haben für den Spieler kaum eine Verbesserung und die Anwendbarkeit ist extrem schlecht. Schließlich hast du vielleicht nur ein oder zwei Fähigkeiten in einem Spiel, die Feuer oder Eis sind, und sie haben keine allzu hohe Chance auf einen kritischen Treffer. Dann gibt das Attribut 1 der Lebensrückgabe nur alle 2 Sekunden 1 Blut zurück...... Sie müssen wissen, dass die Außenseiter in diesem Spiel im Grunde genommen vier- oder fünfhundert Blut sind. Und der Ort, an dem man Runen platzieren kann, kann im Moment nicht erweitert werden, nur ein fester kleiner Ort. Wenn man sich die gesamte UI-Einstellung ansieht, sollte es einen Plan geben, den Spieler zu erweitern und zu erweitern und mehr Runen zu setzen, also freue dich ein wenig darauf.    Dann gibt es ein großes Problem mit dem Festlegen von Attributen, wie z.B. der oben erwähnten Blutrückgabe, bei der Runen verwendet werden, um 5 Punkte zu bilden, und wenn man sich die Attribute ansieht, wird alle 1,5 Sekunden 1 Punkt Blut wiederhergestellt...... Meine Krieger bestehen aus fast 550 Blut, und der Feind berührt dich mit Dutzenden oder Hunderten von Blut, und der Himmel dämmert, indem er das Blutattribut zurückgewinnt. Allerdings gibt es neben den völlig zufällig aufgefrischten Apfel-Items im Spiel nur eine Möglichkeit der lebensraubenden Gesundheitsregeneration: die Gesundheitsregeneration. Das vampirische Attribut ist auch sehr schwer zu bekommen, mit nur einem Fähigkeitsknoten, einer Blutegel-Fähigkeit und völlig zufälligen Runen. Und viele andere Attributspunkte sind auch sehr niedrig, wie z.B. der Schaden eines einzelnen Elementarattributs, der kritische Trefferkoeffizient und 4 Beeinträchtigungen (wie z.B. der Effekt des Schocks ist, dass der vom Monster erlittene Schaden um 25% erhöht wird, also warum erhöhe ich nicht einfach die Angriffskraft oder den Schadensfaktor?) ）。 Dieser Wert mit geringer Ausbeute sollte als Unterwert im Runensystem und in den Upgrade-Optionen erscheinen, anstatt vollständig mit anderen wichtigen Werten wie Angriffskraft, Angriffsgeschwindigkeit und Gesundheit vermischt zu werden. Diese Art von völlig chaotischer Lotterie wird die Spieler nicht dazu bringen, mehr Runen zu farmen, sondern einfach nicht farmen wollen, weil die Vorteile zu unklar sind, was zu einem hohen Maß an Frustration im gesamten Spiel führt. Manchmal fühle ich mich hilflos, wenn ich zwei oder drei Stufen hintereinander nach oben gehe und sehe, dass nur diese Attribute mit sehr geringen Renditen ausgewählt werden können. Schließlich muss diese Art von Spiel immer noch "bürsten" und "coolen" als größte Prämisse, man kann nicht nur daran denken, die Spieler bürsten zu lassen, nicht die Spieler glücklich sein zu lassen.    Der Kunststil dieses Spiels ist sehr nach meinem Appetit.,Ich spiele die Testversion seit mehr als 20 Stunden.,Die offizielle Version wurde 16 Stunden lang hart gebürstet, aber sie ist ein bisschen unantastbar.。 Ich hoffe, dass das Produktionsteam sich beeilt und es noch einmal aufpoliert, um ein so potenzielles Spiel nicht zu verschwenden.</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="b">
+        <v>1</v>
+      </c>
+      <c r="B126" t="n">
+        <v>691</v>
+      </c>
+      <c r="C126" t="n">
+        <v>1745120089</v>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>Ich liebe ein bisschen Bullet Hell Rouguelike, aber dieser hier hat tatsächlich Buffs, die deine Werte direkt beeinflussen, wie +Schaden, +HP, +Rüstung, all das gute Zeug. Die anderen Bullet Hell Rougelike scheinen eine Art Phobie vor der Verwendung dieser rohen Werte zu haben, sie scheuen sich immer, deinen Schaden/HP/Rüstung direkt zu erhöhen, aber nicht Asgard's Fall, sie wissen es besser</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="b">
+        <v>1</v>
+      </c>
+      <c r="B127" t="n">
+        <v>373</v>
+      </c>
+      <c r="C127" t="n">
+        <v>1745115377</v>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>Es ist ein gutes Spiel, aber es hat keinen Endlosmodus, also ist es nicht cool genug</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="b">
+        <v>1</v>
+      </c>
+      <c r="B128" t="n">
+        <v>408</v>
+      </c>
+      <c r="C128" t="n">
+        <v>1745112636</v>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>Ich hab das Spiel zum ersten mal in einem Livestream gesehen und fand es direkt ansprechend. Ich bin ein riesen Fan des Genres und das Game ist sehr gelungen. Schönes Setting und gute Abwechslung zu Genre-Ablegern. Das Game bietet sehr viele Möglichkeiten neue Builds zu testen und diese zu verfeinern. Ich freue mich schon auf mehr Content! :)</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="b">
+        <v>1</v>
+      </c>
+      <c r="B129" t="n">
+        <v>688</v>
+      </c>
+      <c r="C129" t="n">
+        <v>1745109616</v>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>Liebe Entwickler, dieses Game ist was besonderes. Seit Halls of Torment hat mich kein Vampire Survivorlike so gehooked! Ich liebe die Möglichkeit, sich durch Gegner durchbewegen zu können und das System mit den Knoten ist erfrischend für das Genre und Gleichzeitig bietet das so viele Möglichkeiten. Man hat nicht nur die Klassen die Einen Build ausmachen, sondern auch zB Das Runensystem greifen perfekt ineinander ein. Ich liebe den minimalistischen Pixelstyle der gleichzeitig von dem Phänomenalen Bossen und den schönen Effekten der Skills begleitet wird. Ich kann mir für die Zukunft nur großartiges Vorstellen. Multiplayer wäre pefekt. Ich würde mir eine Filterfunktion für die Runen wünschen. Zudem braucht es mehr Spezialknoten und ich freue mich schon unheimlich auf die nächsten Klassen die hoffentlich kommen werden. Ihr habt wirklich tolle Arbeit bisher gemacht und freue mich auf die Zukunft dieses Games. Fanboy Text Ende und jetzt kauft euch das wenn ihr Vampiresurvivor Games mögt! Müsst ihr wissen xD</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="b">
+        <v>1</v>
+      </c>
+      <c r="B130" t="n">
+        <v>399</v>
+      </c>
+      <c r="C130" t="n">
+        <v>1745104941</v>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>Ein großartiges Spiel zum Zeitvertreib, einfache, aber gut gemachte Mechaniken, eine sehr niedliche Grafik und coole Levels, jedes mit neuen Feinden und neuen Mechaniken, die man durchlaufen muss</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="b">
+        <v>1</v>
+      </c>
+      <c r="B131" t="n">
+        <v>1085</v>
+      </c>
+      <c r="C131" t="n">
+        <v>1745104574</v>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>Schöne Survivals wie</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="b">
+        <v>1</v>
+      </c>
+      <c r="B132" t="n">
+        <v>2162</v>
+      </c>
+      <c r="C132" t="n">
+        <v>1745103253</v>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>Würde mir noch ein Sortierungssystem und vielleicht und zusammenforgen für die Warpaints wünschen. Ansonsten mega geiles spiel Hänno</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="b">
+        <v>1</v>
+      </c>
+      <c r="B133" t="n">
+        <v>1831</v>
+      </c>
+      <c r="C133" t="n">
+        <v>1745098118</v>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>Liebes Entwicklerteam von Asgard's Fall, Ihr habt Eure Magie gewirkt. Euer Spiel ist am 9. April in den Early Access gegangen und ich finde es wunderbar. Ich habe es bereits über 20 Stunden gespielt und alle Erfolge freigeschaltet. Ich habe den Krieger bereits auf Level 30 (max) gebracht und die anderen beiden sind auch fast da. Mir fehlen nur noch zwei legendäre Runen. es macht einfach sehr viel Spaß und ich freue mich mit großer Vorfreude auf die Zukunft.   Ich bin unter anderem gespannt, wie ihr das Lategame gestalten werdet.   Du machst einen wirklich tollen Job.</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="b">
+        <v>1</v>
+      </c>
+      <c r="B134" t="n">
+        <v>614</v>
+      </c>
+      <c r="C134" t="n">
+        <v>1745098074</v>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>Tolles spiel! Aber bringt ihr noch Koop raus ?</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="b">
+        <v>1</v>
+      </c>
+      <c r="B135" t="n">
+        <v>670</v>
+      </c>
+      <c r="C135" t="n">
+        <v>1745098005</v>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="b">
+        <v>1</v>
+      </c>
+      <c r="B136" t="n">
+        <v>2150</v>
+      </c>
+      <c r="C136" t="n">
+        <v>1745087135</v>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>Einfach, rau und unterhaltsam, das Doppelrucksacksystem innerhalb und außerhalb des Spiels ist ein bisschen interessant, und die Details müssen noch poliert werden</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="b">
+        <v>1</v>
+      </c>
+      <c r="B137" t="n">
+        <v>581</v>
+      </c>
+      <c r="C137" t="n">
+        <v>1745086542</v>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>tolles spiel freu mich auf weiteren content</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="b">
+        <v>1</v>
+      </c>
+      <c r="B138" t="n">
+        <v>1882</v>
+      </c>
+      <c r="C138" t="n">
+        <v>1745084928</v>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>die besten rund 7 euro meines lebens xD. ein wirklich sehr sehr gutes game an eines an dem ich seit langem mal wieder ne menge spaß habe. es wird schon sehr vieles richtig gemacht! ich kann es wirklich nur empfehlen!
+vor allem die meta - progression macht es sehr gut! bin gespannt und voller vorfreude auf das, was uns noch erwartet!</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="b">
+        <v>1</v>
+      </c>
+      <c r="B139" t="n">
+        <v>588</v>
+      </c>
+      <c r="C139" t="n">
+        <v>1745083831</v>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>Das Spiel hat jetzt schon etwas süchtig gemacht, ist trotzdem cool für zwischendurch oder auch für einen längern Abend.
+Ich würde mir nur eine gekennzeichnete Mapborder wünschen ansonsten wirklich top.</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="b">
+        <v>1</v>
+      </c>
+      <c r="B140" t="n">
+        <v>420</v>
+      </c>
+      <c r="C140" t="n">
+        <v>1745082030</v>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>Nett, das Geld wert.</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="b">
+        <v>0</v>
+      </c>
+      <c r="B141" t="n">
+        <v>592</v>
+      </c>
+      <c r="C141" t="n">
+        <v>1745080944</v>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>Im Early-Access-Zustand ist es schreckliche Armut und Plackerei. Es hat Potenzial, aber Sie müssen bis zur Vollversion warten. 5/10</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="b">
+        <v>1</v>
+      </c>
+      <c r="B142" t="n">
+        <v>241</v>
+      </c>
+      <c r="C142" t="n">
+        <v>1745080840</v>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>definitiv ausbaufähiges survivors game da noch ea würde ich sagen wartet die nächsten majorpatches ab</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="b">
+        <v>1</v>
+      </c>
+      <c r="B143" t="n">
+        <v>592</v>
+      </c>
+      <c r="C143" t="n">
+        <v>1745080258</v>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>Top Spiel für ein Early Access-Titel, hoffe das es später noch mehr Chars,Skills und Angriffe gibt.</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="b">
+        <v>1</v>
+      </c>
+      <c r="B144" t="n">
+        <v>1085</v>
+      </c>
+      <c r="C144" t="n">
+        <v>1745067027</v>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>Die 4. Stufe des Königs ist ein Plot Kill, also erklären wir es uns, oder? Außerdem sind die Ausrüstungsrunen ohne Grund verschwunden, und das ist es auch, also ist es in Ordnung, eine Fußfarbe und eine Runenausrüstungsspalte zu haben, und wenn du die Fußfarbe änderst, musst du die Runen von allen Ausrüstungsgegenständen entfernen und neu konfigurieren</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="b">
+        <v>1</v>
+      </c>
+      <c r="B145" t="n">
+        <v>1696</v>
+      </c>
+      <c r="C145" t="n">
+        <v>1745065869</v>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>Ein wunderschön gestaltetes ARPG, das bereits unglaublich viel Spaß macht und viel Potenzial für die Zukunft hat.    Tolles Spiel und ich bin wirklich gespannt auf zukünftige Updates!    Dies ist das erste Spiel, das mich wirklich dazu gebracht hat, dieses Genre auszuprobieren. Ich habe die Demo vor einer Weile gespielt und konnte es seitdem kaum erwarten, dass der Early Access veröffentlicht wird. Jetzt, wo ich endlich eintauchen konnte, kann ich sagen, dass ich die Erfahrung wirklich genieße.    Ich liebe den Kunststil, und der Fortschritt fühlt sich lustig und lohnend an. Es gibt noch viel zu erkunden – ich habe noch nicht alle Karten durchgespielt oder jede Klasse vollständig ausprobiert, also gibt es definitiv noch mehr für mich zu entdecken.    Eines der Dinge, die mir am meisten Spaß machen, ist das Fähigkeitssystem. Ich mag es sehr, wie Fähigkeiten funktionieren – wie man sie auswählt, wie sich Seltenheiten auf sie auswirken und wie sie irgendwann immer noch ausgegrenzt werden, um die Balance zu halten. Jede Entscheidung, die man beim Aufleveln trifft, fühlt sich in jedem Durchlauf wirkungsvoll an, und ich liebe die Möglichkeit, sie zu ultimativen Versionen zu kombinieren, was dem Aufbau deines Charakters eine wirklich befriedigende Ebene verleiht.    Das Knotensystem ist ein weiteres Feature, das ich sehr schätze. Es gibt dir noch mehr Möglichkeiten, deinen Build zu verbessern, und die Vielfalt an Statuseffekten, Werten und einzigartigen Effekten sorgt für zusätzliche Tiefe. Ich hoffe, dass ich in Zukunft noch mehr davon sehen werde!    Was ich jedoch am meisten liebe, ist, wie mich der Prozess, meinen Build herauszufinden und daran zu arbeiten, tatsächlich zum Lächeln bringt. Es gibt so viele verschiedene Fähigkeiten, Elemente und Kombinationen, mit denen man herumspielen kann, und ich freue mich immer darauf, etwas Neues auszuprobieren und es zum Laufen zu bringen. Es ist ein großartiges Gefühl, wenn eine kreative Bauidee Klick macht und am Ende super effektiv ist.    Da sich das Spiel jedoch noch in der Entwicklung befindet, sehe ich bereits ein "Ende" in Sicht – vorerst. Derzeit sind 4 der geplanten 9 Karten verfügbar, und ich kann es wirklich kaum erwarten, den Rest zu spielen, sobald sie veröffentlicht werden!    Eine kleine Sorge, die ich habe, betrifft die Ressourcennutzung auf lange Sicht. Sobald du jede Rune freigeschaltet hast, ist nicht ganz klar, was du mit den übrig gebliebenen Materialien machen sollst. Ich würde mich freuen, wenn in Zukunft eine Art unendliche Ressourcensenke hinzugefügt würde. Außerdem wäre es toll, mehr Optionen zu haben, um das Blutopfer-Level zu erhöhen, um die Tiefe im späten Spiel zu erhöhen.    Ich habe nicht mit jedem Entwicklungsupdate Schritt gehalten, daher könnten einige dieser Dinge bereits geplant sein. Aber aus meiner Sicht als Spieler ist das der Punkt, an dem ich gerade stehe.    Insgesamt habe ich eine tolle Zeit mit Asgards Fall und bin gespannt, wie es wächst!</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="b">
+        <v>1</v>
+      </c>
+      <c r="B146" t="n">
+        <v>685</v>
+      </c>
+      <c r="C146" t="n">
+        <v>1745050552</v>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>super</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="b">
+        <v>1</v>
+      </c>
+      <c r="B147" t="n">
+        <v>442</v>
+      </c>
+      <c r="C147" t="n">
+        <v>1745049473</v>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>Abgesehen von der Situation, dass das Spiel noch nicht fertig ist, denke ich persönlich, dass dies ein Spiel mit Potenzial ist Der Mechanismus des Spielkampfes ist gut, Charaktere, Fähigkeiten, Knoten und die Kombination verschiedener Mechanismen ist auch sehr wichtig, und es bestimmt auch, wohin die Stärke des Spielers gehen kann Da die oberen und unteren Grenzen des Spiels hoch sind, beträgt die Spielzeit der fortgeschrittenen Version etwa 3,5 h ~ 7 h↑ Wenn jede Fähigkeit gut ist, wenn Sie Glück haben, glaube ich, dass Sie in der Lage sein werden, die aktuelle Version des Levels in 3 Stunden zu beenden Aber ich denke immer noch, dass es einige Mechanismen gibt, die perfekter und flexibler sein können Zum Beispiel die prozentuale Erhöhung des Knotens, Es ist nicht schlecht, wenn es in einer Reihe vererbt werden kann.,Es kann das Knotensystem formbarer machen Die Benutzererfahrung ist auch.,Wenn Sie es ein wenig besser machen, wird das Spiel als Ganzes komfortabler zu spielen Ich glaube, dass es keine Spieler geben sollte, die ihre Rucksäcke einen nach dem anderen leeren wollen.</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="b">
+        <v>1</v>
+      </c>
+      <c r="B148" t="n">
+        <v>307</v>
+      </c>
+      <c r="C148" t="n">
+        <v>1745040198</v>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>Es hat einige Details, die mich nicht überzeugen, aber das Spiel ist gut, es hat viel Potenzial</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="b">
+        <v>1</v>
+      </c>
+      <c r="B149" t="n">
+        <v>558</v>
+      </c>
+      <c r="C149" t="n">
+        <v>1745035855</v>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>Gutes Spiel, viele Stunden Unterhaltung</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="b">
+        <v>0</v>
+      </c>
+      <c r="B150" t="n">
+        <v>244</v>
+      </c>
+      <c r="C150" t="n">
+        <v>1745033626</v>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>+ Der Talentbaum im Spiel ist kreativ, und Sie müssen darüber nachdenken, wie Sie ihn anordnen und optimieren können - Es kann nur eine Kombination von magischen Fähigkeiten in einem Spiel geben, und oft kann man nicht die passende Kombination bekommen, - Es gibt zu wenige Fähigkeitskombinationen, und es gibt kein Gefühl, das die Leute nach der qualitativen Änderung begeistert - Es gibt keine Möglichkeit, die Fähigkeitskombination und den Charakterstatus jederzeit zu sehen - Die Karte ist zu eintönig und der Altar ist entbehrlich Fazit: Es gibt zu wenig Abwechslung, es gibt zu viele Stellen, die verbessert werden können, und es ist den Preis derzeit nicht wert, daher wird empfohlen, es mit einem Rabatt von mehr als 5% zu kaufen.</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="b">
+        <v>1</v>
+      </c>
+      <c r="B151" t="n">
+        <v>401</v>
+      </c>
+      <c r="C151" t="n">
+        <v>1745031242</v>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>Die Präsentation ist top und wirkt bereits sehr ausgereift mit einer sehr gelungenen Pixelgrafik. Das Highlight für mich sind die Bosskämpfe, die mit einzigartigen Mechaniken glänzen. Das Knoten- und Runensystem, sowie individuelle Skill Trees für die einzelnen Charaktere verleiten dazu, mit gefühlt unendlichen Möglichkeiten Builds zusammenzustellen und zu optimieren, doch hier habe ich leider einen Kritikpunkt: Ich würde mir wünschen dass sich verschiedene Builds Spielerisch mehr unterscheiden. Es ist zwar wichtig, auf Synergien zu achten, wobei die ausgewählten Runen und Knoten die Schadenstypen der ausgerüsteten Fähigkeiten verstärken, aber letztendlich laufen alle Builds, in meiner Wahrnehmung, darauf hinaus, möglichst viel Schaden an Gegnern zu verursachen. Dabei gibt es, meiner Meinung nach, noch viel Potential die vorhandenen Systeme, beispielsweise durch weitere Schadenstyp-spezifische passive fähigkeiten, zu erweitern, um einzelnen Spielstilen stärkere Identitäten zu verleihen. Doch das ist der einzige grobe punkt der mir nicht so sehr gefallen hat, in einem Spiel, das sonst echt Spaß macht.</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="b">
+        <v>1</v>
+      </c>
+      <c r="B152" t="n">
+        <v>88</v>
+      </c>
+      <c r="C152" t="n">
+        <v>1745029515</v>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>Das hat kein Recht, 6.99 zu sein, ein tolles Spiel</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="b">
+        <v>1</v>
+      </c>
+      <c r="B153" t="n">
+        <v>589</v>
+      </c>
+      <c r="C153" t="n">
+        <v>1745025062</v>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>Ausgezeichnetes Klassenüberlebensspiel mit eigenen Eigenschaften</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="b">
+        <v>1</v>
+      </c>
+      <c r="B154" t="n">
+        <v>504</v>
+      </c>
+      <c r="C154" t="n">
+        <v>1745015403</v>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>Mein erstes Spiel dieses Genres und ich liebe es! HOB sei Dank!</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="b">
+        <v>1</v>
+      </c>
+      <c r="B155" t="n">
+        <v>225</v>
+      </c>
+      <c r="C155" t="n">
+        <v>1745014419</v>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>Solider Inhalt für einen 6€, Indie veröffentlicht, wie Überlebende. Ich habe meine bisherigen Durchläufe des Spiels sehr genossen, obwohl ich das Gefühl hatte, dass es nur eine begrenzte Anzahl brauchbarer Fähigkeiten gibt, um viel Schaden zu verursachen, die beim Grinden für den Meta-Fortschritt langweilig werden könnten.  Was mir auch aufgefallen ist, wenn ich ein bestimmtes Upgrade gespielt habe, ist, dass die Angriffsgeschwindigkeit auf 500% begrenzt ist, obwohl es daneben angezeigt wurde, dass ich theoretisch 1700% erreicht habe. Ich würde es wirklich genießen, die Freiheit zu haben, Kombinationen von Fähigkeiten und "OP-Builds" auszuprobieren, ohne irgendwann hart begrenzt zu sein. Mein einziger anderer Wunsch wären mehr Erfolge für bestimmte Aktionen, anstatt nur "x Feinde zu töten" (ich bin mir bewusst, dass dies in dieser Phase des Early Access wahrscheinlich irgendwo auf einer Bucketlist steht und später hinzugefügt wird. Cool, schon so früh Erfolge zu haben)</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="b">
+        <v>1</v>
+      </c>
+      <c r="B156" t="n">
+        <v>1040</v>
+      </c>
+      <c r="C156" t="n">
+        <v>1745014117</v>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>Mega Geiles Geilo Spiel</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="b">
+        <v>1</v>
+      </c>
+      <c r="B157" t="n">
+        <v>827</v>
+      </c>
+      <c r="C157" t="n">
+        <v>1745013704</v>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>Macht einfach Spass und hat absolutes Suchtpotential!</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="b">
+        <v>1</v>
+      </c>
+      <c r="B158" t="n">
+        <v>1177</v>
+      </c>
+      <c r="C158" t="n">
+        <v>1745013571</v>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>Asgard's Fall - Viking Survivors: Ein Juwel im Early Access! Zunächst einmal ist dies ein unglaubliches Spiel! Ich konnte einfach nicht aufhören zu spielen. Ich verbrachte mehrere Stunden am Stück damit, vollständig in das Spiel einzutauchen. Meiner Meinung nach hat es ein riesiges Potenzial, noch besser zu werden.  Highlights: Süchtig machendes und flüssiges Gameplay: Der Core Loop ist bereits sehr ausgefeilt und macht Spaß beim Spielen. Die Kämpfe sind intensiv und befriedigend. 	Innovation: Ich mag das Web of Wyrd-Feature sehr. 	Tolle Leistung: Das Spiel läuft super flüssig. 	Wunderschöne Grafik: Die Pixelkunst ist wunderschön! (Nun, ich bin voreingenommen, weil ich Pixelkunst liebe, lol.) 	Immersiver Soundtrack: Er passt perfekt zur Atmosphäre des Spiels. 	Gute Vielfalt an Builds: Auch im Early Access gibt es tonnenweise Kombinationen von Kräften und Runen, mit denen du experimentieren kannst. Es macht Spaß, mitten im Lauf neue Synergien zu entdecken.   Was ich mir für die Zukunft wünsche: Neue Inhalte Neue Errungenschaften (aber bitte nicht super grindige oder frustrierende): Bisher sind die Errungenschaften super, nichts zu meckern. Ich hoffe nur, dass die neuen Spiele die gleiche Qualität beibehalten und nicht langweilig oder wütend zu beenden sind, wie in vielen anderen Spielen. 	Neue spielbare Charaktere und Karten. 	Neue Kräfte und Fähigkeiten. 	Neue Spielmodi: 1. Überlebensmodus ohne Zeitlimit; 2. Lokaler und Online-Koop, um mit Freunden zu spielen; 3. Schnellere Karten mit kürzeren Zeitlimits und mehr Feinden (z. B. eine 12-Minuten-Karte mit einem Mini-Boss bei 6 Minuten und einem Hauptboss bei 12 Minuten) usw.  Verbesserungen des Gameplays / der Runs Bessere Sichtbarkeit von feindlichen Projektilen, insbesondere von zielsuchenden, da es bei bestimmten Builds/Fähigkeiten sehr schwierig wird, sie zu sehen. 	Informationen zur Hauptwaffe des Charakters während des Kampfes anzeigen: Derzeit können wir nur die Fähigkeiten sehen, die wir im Durchlauf ausgewählt haben, aber nicht die Werte oder Details unserer Startwaffe von unserem Hauptcharakter. 	Option zur Anzeige des Gesamtschadens in Echtzeit, nicht nur am Ende eines Laufs. Dies würde helfen, zu bewerten, welche Fähigkeiten effektiver sind, während der Lauf noch läuft. 	Fähigkeitsstufen und Upgrades am Ende eines Durchlaufs anzeigen: Zur besseren Planung können wir den Mauszeiger über jede Fertigkeit bewegen, um die erreichte Maximalstufe, die Details zu den Upgrades und den verursachten Gesamtschaden zu sehen. 	Fusions-/Spezialfähigkeiten sind nicht in den Gesamtschadenswerten enthalten: Dies sollte behoben werden, damit die Zahlen alles widerspiegeln. 	Es besteht die Möglichkeit, zwei Fähigkeitsfusionen pro Durchlauf zu erhalten, anstatt nur eine. 	Verbesserungen am Fusionssystem: So wie es ist, fühlen sich einige einzigartige Fähigkeiten stärker an als die verschmolzenen. Fusionen sollten sich wie echte Upgrades anfühlen und es lohnt sich, sie anzustreben. 	Verschmolzene Fähigkeiten weiter aufleveln lassen: Manchmal sind einzigartige, nicht verschmolzene Fähigkeiten stärker als die verschmolzenen Versionen. 	Mehr Fusionskombinationen zwischen Fähigkeiten: Einige Fähigkeiten haben keine Fusionsoptionen, daher überspringe ich sie oft ganz. 	Möglichkeit, bestimmte Fähigkeiten während eines Durchlaufs zu verbieten oder zu blockieren: Für die Build-Kontrolle und die Vermeidung unerwünschter Kombos wäre dies wunderbar. 	Besseres Balancing zwischen Fähigkeiten/Knoten Drop-Chancen: Einige Fähigkeiten tauchen viel häufiger auf als andere, zumindest scheint es so. 	Mehr Spielgegenstände während der Durchläufe, mehr als nur Äpfel und Magnete (kleine Hilfs- oder Überraschungsgegenstände könnten mehr Tiefe verleihen).  Verbesserungen 🔥 des Hauptortes Lagerfeuer: Zeige detailliertere Werte der Hauptwaffe jedes Charakters an, wie Schaden, Abklingzeit, Durchschlagskraft, Menge usw.  🎒 Inventar: Option zum Erweitern oder Aktualisieren der Inventargröße. 	Bessere Organisation des Inventars: Möglichkeit, Runen nach Typ, Form oder Seltenheit zu sortieren oder zu verkaufen.  🎨 Warpaint: Verbesserung der Warpaint-Benutzeroberfläche und des Loadout-Managements: 1. Option zum Aufrüsten von Warpaint-Slots; 2. Benutzerdefinierte Kriegsbemalung pro Charakter: Vielleicht könnte jeder Charakter seine eigenen Ausrüstungsplätze haben, oder zumindest wäre es großartig, einfach mehr Ausrüstungsplätze im Allgemeinen zu haben. 	Verbesserungen am Runensystem: 1. Erstellen Sie benutzerdefinierte Runen: teurer, aber mit anpassbaren Form- und Wertechancen; 2. Bestehende Runen aufwerten: z.B. dir gefällt eine gewöhnliche Rune (weiß) und du möchtest sie auf die nächste Stufe verbessern (lila oder gelb) oder neue Werte hinzufügen; 3. Reroll die Werte von Runen; 4. Füge Runen hinzu, die die Erfahrung steigern: Runen, die entweder die Gefechts-EP (um während eines Durchlaufs schneller aufzusteigen) oder die Charakter-EP (um den Charakter außerhalb des Kampfes aufzuleveln) erhöhen.  📚 Kompendium: Füge ein "Skill Discovery Wiki" hinzu, um alle freigeschalteten Fähigkeiten zu verfolgen, vielleicht als zusätzliches Werkzeug über das aktuelle Kompendium hinaus. Und sie konnten nach Typ, Kurzdistanz, Langdistanz, Aura, Eis, Zünden, Physisch usw. sortiert werden. 	Füge ein "Skill Discovery Wiki" hinzu, um alle freigeschalteten Fähigkeiten zu verfolgen, vielleicht als detaillierteres Tool neben dem bestehenden Kompendium. Es könnte Filter oder Sortieroptionen nach Typ (z. B. Nahkampf, Fernkampf, Aura, Eis, Zünden, physischer Schaden usw.) enthalten, um das Studium und die Planung zukünftiger Builds zu erleichtern.  🕸️ Web of Wyrd: Füge die Option "Knoten entfernen" hinzu, um einen platzierten Knoten abzubrechen. 	Fügen Sie einen "Joker-Knoten" hinzu: ein seltener Knoten, an dem Sie den Knotentyp (Kraft, Echo, Schicksal usw.) auswählen können. 	Tastatur hinzufügen-</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="b">
+        <v>1</v>
+      </c>
+      <c r="B159" t="n">
+        <v>130</v>
+      </c>
+      <c r="C159" t="n">
+        <v>1745011299</v>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>Sehr gut</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="b">
+        <v>1</v>
+      </c>
+      <c r="B160" t="n">
+        <v>1926</v>
+      </c>
+      <c r="C160" t="n">
+        <v>1745010233</v>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>Wenn man erstmal reingekommen ist, mega spiel :-) 
+Multiplayer online oder wenigstens offline wäre mega . Freue mich auf weitere Updates.</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="b">
+        <v>1</v>
+      </c>
+      <c r="B161" t="n">
+        <v>706</v>
+      </c>
+      <c r="C161" t="n">
+        <v>1745008644</v>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>FUNNY</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="b">
+        <v>1</v>
+      </c>
+      <c r="B162" t="n">
+        <v>1153</v>
+      </c>
+      <c r="C162" t="n">
+        <v>1745006299</v>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>Guter Start für ein Vampir-Überlebensspiel. Am Anfang ist es schwierig, aber wenn man immer mächtiger wird und den richtigen Build macht, ist man nicht mehr aufzuhalten. Ich sehe darin eine vielversprechende Zukunft, ich liebe das nordische Thema, die Musik ist wirklich gut, der Kunststil ist schön, zu krank, behalte dieses Projekt trotzig im Auge.</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="b">
+        <v>1</v>
+      </c>
+      <c r="B163" t="n">
+        <v>266</v>
+      </c>
+      <c r="C163" t="n">
+        <v>1745005781</v>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>Macht richtig Bock</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="b">
+        <v>1</v>
+      </c>
+      <c r="B164" t="n">
+        <v>1154</v>
+      </c>
+      <c r="C164" t="n">
+        <v>1745003551</v>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>Hallo Liebes Team hinter Asgard Falls,
+ich bin nun 4 Stunden im Game und sehr verliebt. Es macht wirklich Lust auf mehr, vielen Dank dafür!
+Zwei Sachen sind mir aufgefallen: Wenn ich im Statmenü bin und sehen möchte was denn Schock eigentlich ist dann kann ich nicht mit dem Controller rüber scrollen sondern muss immer auf die Tastatur wechseln, bin ich da einfach zu doof oder geht das wirklich nicht? 
+Außerdem würde ich es cool finden wenn es ein Zusatzmenü gibt was einem beim Level Up die freigeschalteten Gegenstände anzeigt. Ich weiß suchen ist nicht schwer, aber wäre ein Nice to Have!
+Mit dem Design und der Atmosphäre bin ich sehr zufrieden, auch Handling und Spielgefühl sind toll. 
+Bereue keinen Cent und freue mich auf mehr Content! Weiter so. 
+Frohe Ostern und liebe Grüße aus der Hauptstadt. 
+Ps: Spandau gehört nicht dazu ;)</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="b">
+        <v>1</v>
+      </c>
+      <c r="B165" t="n">
+        <v>503</v>
+      </c>
+      <c r="C165" t="n">
+        <v>1745000647</v>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>habe es heute bei hänno gesehen und habe es mir sofort gekauft und habe direkt 4 stunden gesuchtet mega game morgen gehts weiter</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="b">
+        <v>1</v>
+      </c>
+      <c r="B166" t="n">
+        <v>1515</v>
+      </c>
+      <c r="C166" t="n">
+        <v>1745000419</v>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Würde mir Statistiken wünschen wo man z.b sehen kann wie viel schaden man mit einer Fähigkeit insgesamt schon gemacht hat oder wie viele Gegner man insgesamt schon getötet hat usw.
+Ansonsten würde ich mir noch eine art Pre-set System für die Kriegsbemalungen wünschen. Das man mehrer Kriegsbemalungs Sets bauen kann und dann zwischen 1, 2 und 3 wechsel kann in der Lobby.
+Eventuell noch eine Sortier Funktion bei den Kriegsbemalungen.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="b">
+        <v>1</v>
+      </c>
+      <c r="B167" t="n">
+        <v>628</v>
+      </c>
+      <c r="C167" t="n">
+        <v>1744997436</v>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>Ist ein sehr sehr krasses game was mit KNallern wie Brotato mithalten kann 
+allerdings finde ich das mehr prozentdetails zu einigen skills helfen würden bei éntscheiden sowie das zwischendurch einsehen der skills aber der rest baba lohnt sich 
+aber müsst ihr wissen ;)</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="b">
+        <v>1</v>
+      </c>
+      <c r="B168" t="n">
+        <v>405</v>
+      </c>
+      <c r="C168" t="n">
+        <v>1744996562</v>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>wahnsinnig</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="b">
+        <v>1</v>
+      </c>
+      <c r="B169" t="n">
+        <v>688</v>
+      </c>
+      <c r="C169" t="n">
+        <v>1744995800</v>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>Der Einsteig ist wirklich etwas holprig. Es fehlt an guten Erklärungen für Fähigkeiten und allgemein gibt es wenig Beschreibungen und es wird viel Wissen vorausgesetzt. Nach relativ kurzer Zeit hat man sich aber eingefunden und dann ist das Spiel wirklich so unfassbar gut und zeitlos. Ich habe in zwei Tagen direkt 8h Spielzeit erlangt. Dicke Weiterempfehlung! Trotzdem mit Bitte an den Entwickler, dass Beschreibungen und Details bei den Zaubern etc. hinzugefügt werden. Oft muss man raten, v.a. ob&amp;wie Dinge in kombination funktionieren könnten.</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="b">
+        <v>1</v>
+      </c>
+      <c r="B170" t="n">
+        <v>1018</v>
+      </c>
+      <c r="C170" t="n">
+        <v>1744993479</v>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>Als ich den Wolkenstand aufgewertet habe, habe ich 9 Fertigkeitspunkte meiner Krieger gefressen, und jetzt gibt es nur noch einen Fertigkeitspunkt auf Stufe 10, kannst du das beheben?</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="b">
+        <v>1</v>
+      </c>
+      <c r="B171" t="n">
+        <v>150</v>
+      </c>
+      <c r="C171" t="n">
+        <v>1744988361</v>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>Es gibt kein Hentai, BD ist Single, Super-Martial Arts ist nutzlos, stärkende Knoten sind unersetzlich, und Lob wird dir zuerst gegeben.</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="b">
+        <v>1</v>
+      </c>
+      <c r="B172" t="n">
+        <v>1092</v>
+      </c>
+      <c r="C172" t="n">
+        <v>1744987692</v>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>Ein super Game, vor allem für das Geld.
+Bin gespannt was noch alles kommt.</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="b">
+        <v>1</v>
+      </c>
+      <c r="B173" t="n">
+        <v>491</v>
+      </c>
+      <c r="C173" t="n">
+        <v>1744979578</v>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>Ich freue mich schon sehr auf die Vollversion!!</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="b">
+        <v>1</v>
+      </c>
+      <c r="B174" t="n">
+        <v>1859</v>
+      </c>
+      <c r="C174" t="n">
+        <v>1744977124</v>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>Ich hatte bis jetzt eine tolle Zeit mit dem Spiel. Natürlich gibt es eine Menge Verbesserungen, die in Zukunft gemacht werden könnten und sollten. Im Moment hoffe ich auf einen Warpaint-Filter, um das Sortieren der Warpoints zu erleichtern und zu entscheiden, welche verkauft werden können und welche behalten werden sollten. Außerdem würde ich mich über eine Beschreibung freuen, welche Stats jede Stufe eines Stats geben kann, wie z.B. 18% DMG ... ist tthat 3 x 6% oder 2 x 7% und 1x 4% ... Für Gelegenheitsspieler ist das Spiel super schön. Wenn Sie das Maximum minimieren möchten, hoffen wir, dass sie daran arbeiten, :D</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="b">
+        <v>1</v>
+      </c>
+      <c r="B175" t="n">
+        <v>950</v>
+      </c>
+      <c r="C175" t="n">
+        <v>1744976806</v>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>Spaßiges Spiel, Runden dauern nicht zu lange. Endlich auch Cloud Save dabei.</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="b">
+        <v>1</v>
+      </c>
+      <c r="B176" t="n">
+        <v>653</v>
+      </c>
+      <c r="C176" t="n">
+        <v>1744975595</v>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="b">
+        <v>0</v>
+      </c>
+      <c r="B177" t="n">
+        <v>519</v>
+      </c>
+      <c r="C177" t="n">
+        <v>1744975223</v>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>Extrem langweilig BD ist extrem langweilig, der Spielprozess ist wie in Akaishi, und es gibt keine Einführung</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="b">
+        <v>1</v>
+      </c>
+      <c r="B178" t="n">
+        <v>584</v>
+      </c>
+      <c r="C178" t="n">
+        <v>1744974540</v>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>macht Fun! coole Bosse und spürbarer Meta-Progress. Im Runen-Menü hätte ich gerne mehr Filter/Sortier optionen....zurzeit muss man alle Runen durchgehen wenn man seinen Build umstellen will.
+Sonst Top! Hab Bock auf die nächsten Maps</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="b">
+        <v>1</v>
+      </c>
+      <c r="B179" t="n">
+        <v>382</v>
+      </c>
+      <c r="C179" t="n">
+        <v>1744968533</v>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>Packt mich genauso wie Brotato es getan hat :)
+Hatte leider kurz vorm Boss Fight nen Gamecrash aber sonst läuft es sehr gut .
+Freu mich auf den Full Release !</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="b">
+        <v>1</v>
+      </c>
+      <c r="B180" t="n">
+        <v>375</v>
+      </c>
+      <c r="C180" t="n">
+        <v>1744966593</v>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>Sehr geiles Game. Macht viel Spaß zu zocken. Einzige Kritik: Zu hohes Suchtpotenzial ;)</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="b">
+        <v>1</v>
+      </c>
+      <c r="B181" t="n">
+        <v>726</v>
+      </c>
+      <c r="C181" t="n">
+        <v>1744958474</v>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>Sehr süchtig machendes Spiel. Welt 4 ist aktuell etwas op. Leichtes balancing an allen Stellen wäre gut. Des Weiteren eine leichte Story einflechten, die man über sie Metaebene über die Zeit entwickelt wäre wünschenswert. Aktuell mit 4 Welten ist es ein recht eingeschränkter Kontent aber die Roadmap offenbart ja noch einiges.</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="b">
+        <v>1</v>
+      </c>
+      <c r="B182" t="n">
+        <v>400</v>
+      </c>
+      <c r="C182" t="n">
+        <v>1744958464</v>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>Sehr spannend.</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="b">
+        <v>1</v>
+      </c>
+      <c r="B183" t="n">
+        <v>586</v>
+      </c>
+      <c r="C183" t="n">
+        <v>1744958219</v>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>Sehr ehrfürchtig Shauce</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="b">
+        <v>1</v>
+      </c>
+      <c r="B184" t="n">
+        <v>154</v>
+      </c>
+      <c r="C184" t="n">
+        <v>1744955181</v>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>+ Niedlicher Pixelstil + Fate Web-System, das dem Wachstum des Spiels etwas Spaß verleiht - Der Kollisionsschaden wurde aufgehoben, aber die seltsamen Kugeln, die die Kugeln abschießen, sind zu unauffällig oder zu verfolgend, und man kann ihnen oft nicht ausweichen, und die meisten Nahkampfmonster können sie fast ignorieren, solange sie sich die ganze Zeit mit einer gewissen Bewegungsgeschwindigkeit bewegen - Die Zufälligkeit des Schicksalsnetzes hängt zu sehr vom Glück ab - Der kleine Boss stürzte herbei, bevor er mit dem Kampf gegen das seltsame Meer fertig war, nicht nur konnte der Boss nicht sehen, wo es war, sondern er konnte nicht einmal den Fähigkeiten ausweichen - Es gab mehrere Altäre von unbekannter Bedeutung auf der Karte, und sie war außerdem zu leer1  Wir freuen uns auf mehr Helden und Fähigkeiten in der Zukunft</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="b">
+        <v>1</v>
+      </c>
+      <c r="B185" t="n">
+        <v>38</v>
+      </c>
+      <c r="C185" t="n">
+        <v>1744952974</v>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>Bisher viel Spaß gemacht, ich habe viel von der Demo gespielt. Wie der Name schon sagt, ist es direkt von Vampire Survivors inspiriert, aber es hat die Formel so innoviert, dass es frisch ist und sich nicht wie ein einfacher Aufguss anfühlt. Gutes Preis-Leistungs-Verhältnis, wird zweifellos stundenlang spielen.</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="b">
+        <v>1</v>
+      </c>
+      <c r="B186" t="n">
+        <v>927</v>
+      </c>
+      <c r="C186" t="n">
+        <v>1744948257</v>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>Es gibt einen Fehler, dass die Fähigkeiten, die nach gelegentlichen Upgrades geladen werden, nicht automatisch gewirkt werden können.,Später gibt es nur die anfängliche Fertigkeit, die hart getroffen wird, manchmal ist es eine einzelne Fertigkeit.,Manchmal sind es alle Fertigkeiten, Begegnungshäufigkeit: 2,5 Stunden zweimal.</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="b">
+        <v>0</v>
+      </c>
+      <c r="B187" t="n">
+        <v>289</v>
+      </c>
+      <c r="C187" t="n">
+        <v>1744943524</v>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>Halbzeuge im wahrsten Sinne des Wortes...</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="b">
+        <v>0</v>
+      </c>
+      <c r="B188" t="n">
+        <v>493</v>
+      </c>
+      <c r="C188" t="n">
+        <v>1744941222</v>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>Kein Spaß Ursache mit hohem Schwierigkeitsgrad</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="b">
+        <v>0</v>
+      </c>
+      <c r="B189" t="n">
+        <v>825</v>
+      </c>
+      <c r="C189" t="n">
+        <v>1744938546</v>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>Ein Hundespiel. Es gab einen Fehler, dass man sich nicht mit Hangul aus den Demo-Tagen verbinden konnte. Sie haben es immer noch nicht behoben? Die Symptome sind die gleichen wie in der Fehlermeldung. Ich weiß nicht, was sich von der Demo unterscheidet. Ein Charakter hinzugefügt? Es ist nur ein Fleck von außen, es ist Müll selbst.</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="b">
+        <v>1</v>
+      </c>
+      <c r="B190" t="n">
+        <v>1846</v>
+      </c>
+      <c r="C190" t="n">
+        <v>1744935907</v>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>Sehr schönes, simples Spiel um Abends nach der Arbeit abzuschalten. Man flitzt über die Map killt 1.000 von Mobs und kann diese auf verschiedenste Weisen immer wieder neu nieder metzeln. Die Knoten und Kombinierungsmöglichkeiten der Fähigkeiten und Schadensquellen ist ebenfalls top umgesetzt.</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="b">
+        <v>1</v>
+      </c>
+      <c r="B191" t="n">
+        <v>2426</v>
+      </c>
+      <c r="C191" t="n">
+        <v>1744929007</v>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>Schönes kleines Game, hoffentlich kommt bald ein update mit neuen Maps</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="b">
+        <v>1</v>
+      </c>
+      <c r="B192" t="n">
+        <v>1147</v>
+      </c>
+      <c r="C192" t="n">
+        <v>1744928176</v>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>Ich habe jedes bisschen davon genossen. Ich liebe die Bosskämpfe und kann es kaum erwarten, mehr Inhalt zu bekommen</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="b">
+        <v>0</v>
+      </c>
+      <c r="B193" t="n">
+        <v>143</v>
+      </c>
+      <c r="C193" t="n">
+        <v>1744918659</v>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>Ich wollte keine schlechte Bewertung abgeben, aber das unerklärliche Out-of-the-Box-Wachstum wurde auf 0 gelöscht. Das Level befindet sich immer noch im Attributpunkt, der weg ist, und es ist ein wenig schwierig, die Kommentare zu lesen, wenn es keine Ausnahme ist. Es wird nicht empfohlen, es jetzt zu kaufen.,Warten Sie auf die offizielle Version, um darüber nachzudenken (dieses B-Ding ist jetzt.,Ich habe die Demo noch nicht ausprobiert.,Wenn Sie spielen möchten, spielen Sie die Demo, um die Bedeutung zu erfahren)</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="b">
+        <v>1</v>
+      </c>
+      <c r="B194" t="n">
+        <v>567</v>
+      </c>
+      <c r="C194" t="n">
+        <v>1744915020</v>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>Schönes kleines Game. Immer nett auch mal für eine einzelne Runde.</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="b">
+        <v>0</v>
+      </c>
+      <c r="B195" t="n">
+        <v>699</v>
+      </c>
+      <c r="C195" t="n">
+        <v>1744914738</v>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>Mag das Spiel an sich sehr gerne! Macht enorm viel Spaß und hat hohen Suchtfaktor.
+Jedoch wurde nach dem Update heute (17.04) mein kompletter Speicherstand von 12 Stunden resettet. 
+Gestern war alles noch da und einwandfrei, aber nachdem ich es heute gestartet habe, musste ich erfahren, dass alles komplett weg ist.
+Es wurde von Seiten der Devs gesagt, dass sie Cloudservices etablieren wollten. 
+Habe bereits unter Diskussionen kommentiert, jedoch noch keine Antwort erhalten. 
+Andere scheinen vereinzelt auch dieses Problem zu haben
+All in all ein gutes Spiel, in dem ich auch gerne die Entwicklung mitverfolge würde, aber so wie es mir den Spielstand und somit auch den Spaß genommen hat, kann ich es aktuell nicht weiterempfehlen. 
+Wenn sich dies ändert, bin ich gerne bereit meine Rezension zu überarbeiten. - Bis dahin jedoch kann ich es nicht empfehlen</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="b">
+        <v>1</v>
+      </c>
+      <c r="B196" t="n">
+        <v>986</v>
+      </c>
+      <c r="C196" t="n">
+        <v>1744914551</v>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>So: nach dem ich dieses Spiel sehr ausgiebig ausgereizt habe, jeden Charakter auf Level 30 gebracht und alle Erfolge gesammelt habe kann ich sagen:
+Für 6€ ein absolutes Meisterwerk für alle Fans von Survivor-Likes!
+Das Knoten-System bringt ein wenig tiefe in den Run neben den Waffen/Waffenkombis.
+Ich freue mich jetzt schon auf die weiteren Updates mit mehr Welten und hoffentlich mehr Charakteren und Secrets!
+Anbei noch ein paar Punkte die ich gerne noch sehen würde in Zukünftigen Upgrades:
+-einen Button zum Sortieren der Runen nach gewissen Eigenschaften/Seltenheit
+-die Möglichkeits Waffen und Knoten beim Upgrade zu verbannen/Level-Ups zu skippen, es ist sehr frustrierend wenn man nur das bekommt was man nicht braucht
+-im Charakterauswahl-Bildschirm fände ich eine kleine Zusammenfassung der Werte und Skills des Charakters sehr nützlich, gerade wenn noch mehr dazu kommen. Bei meiner ersten RUnde Seher war ich sehr verwirrt was der lila Balken unter den Lebenspunkten war
+-eine Gesamtstatistik aller Runs (wie oft welche Waffe, wieviel Kills, etc...einfach nützliche Informationen) nicht zu guter Letzt weil der Erfolg mit 1.000.000 Kills mich minimal in den Wahnsinn getrieben hat lol
+-zu guter Letzt eine persönliche Präferenz(hab mich dabei nicht mit Balancing auseinander gesetzt): Die möglichkeit mehr als eine Waffenkombination zu schmieden oder auch die Möglichkeit diese Kombiwaffen aufzuleveln.
+So, alles in allem: ein unglaublich gutes Spiel, das für 6€ wahrlich geschenkt ist und auch in Zukunft meine Unterstützung bekommt, Lob an die Entwickler!</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="b">
+        <v>1</v>
+      </c>
+      <c r="B197" t="n">
+        <v>2360</v>
+      </c>
+      <c r="C197" t="n">
+        <v>1744912547</v>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>ö</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="b">
+        <v>1</v>
+      </c>
+      <c r="B198" t="n">
+        <v>489</v>
+      </c>
+      <c r="C198" t="n">
+        <v>1744911903</v>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>Ich gratuliere den Entwicklern, ich fand, dass es ein sehr angenehmes Spiel war</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="b">
+        <v>1</v>
+      </c>
+      <c r="B199" t="n">
+        <v>1203</v>
+      </c>
+      <c r="C199" t="n">
+        <v>1744911793</v>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>Süchtig machender neuer Survivors-like-Roguelite</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="b">
+        <v>1</v>
+      </c>
+      <c r="B200" t="n">
+        <v>205</v>
+      </c>
+      <c r="C200" t="n">
+        <v>1744910535</v>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>Kann ich nur empfehlen, sehr viel Content. 
+Macht echt Laune :)</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="b">
+        <v>1</v>
+      </c>
+      <c r="B201" t="n">
+        <v>102</v>
+      </c>
+      <c r="C201" t="n">
+        <v>1744909832</v>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>Ohne die Hinzufügung der Fähigkeitstransparenz und die Möglichkeit, die Fähigkeitsstufen im Gamepad-Kampf anzuzeigen, fehlt dem Spiel die Funktionalität. Nehmen Sie das erste Level als Beispiel, im ersten Level war ich von einer Schlange umgeben und spuckte und stieß, aber weil der BD relativ gesund ist, saugten die Blutläuse heftig und standen und schlugen mich, wie die Maus, die von mir und meiner Familie mit einem Becken gehalten wurde, als ich drei Jahre alt war. Ich gebe auch das Fleisch zurück.</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="b">
+        <v>1</v>
+      </c>
+      <c r="B202" t="n">
+        <v>673</v>
+      </c>
+      <c r="C202" t="n">
+        <v>1744908921</v>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>Solides Game. Läuft auch super auf dem SteamDeck.</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="b">
+        <v>1</v>
+      </c>
+      <c r="B203" t="n">
+        <v>1054</v>
+      </c>
+      <c r="C203" t="n">
+        <v>1744907849</v>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>Mega cooles und interessantes Spiel mit interessanten Mechaniken</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="b">
+        <v>0</v>
+      </c>
+      <c r="B204" t="n">
+        <v>382</v>
+      </c>
+      <c r="C204" t="n">
+        <v>1744900564</v>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>Ein Werk, das verschiedene Wendungen zu den stabilen Vansabalike Die +@はどれも好感の持てる出来であり sowie die gelegentliche Schadensfreiheit bei Feindkontakt sind auch gut für den Spaß daran, große Armeen besonders anzugreifen. Ich glaube nicht, dass das Spielgefühl allzu schlecht ist. Womit ich ein Problem hatte, waren die Entscheidungen, die ich beim Levelaufstieg hatte. Zufällige Levelaufstiegsgegenstände haben eine Seltenheit von Gewöhnlich bis Legendär Stopp, diese echte Glücksanforderung Es ist einfach ein irritierendes Element, wie zum Beispiel eine gute Fertigkeit in der normalen Stufenaufstiegsauswahl auszuwählen und eine Seltenheitsstufe zu verlangen. Ich bin nervös, also wenn ich hier keine gute seltene Fähigkeit für eine gute Fertigkeit bekomme, fange ich von vorne an, und wenn ich nicht rewürfeln kann, stoppe ich das Spiel. Ich bin in dieser Schleife stecken geblieben und das Spiel hat angehalten. Ich frage immer, Ich denke, dass die Zufallszahlen, die es in allen Spielen dieser Art gibt, ein angenehmer Stress für den Spieler sein sollten Dieses Spiel war in dieser Hinsicht enttäuschend Basierend auf dem oben Gesagten, der weitere Stress, von der Menge an Material erdrückt zu werden, wenn die Auswahl der Fähigkeiten zu schlecht ist und die Verstärkung nicht richtig voranschreitet Nun, die Spielbalance ist schlecht, ich denke, es ist in vielerlei Hinsicht eine Schande. Wenn man das Element der Seltenheit beim Levelaufstieg nicht hat und es auf etwa den Median anwachsen lässt, denke ich, dass es genau die richtige Balance mit der Menge an Material des Gegners sein wird. P.S. Außerdem ist es ein mittlerer Boss, der aussieht wie ein Erstschuss...... Warum ist es die Auswahl der Fähigkeiten (wenn Sie nicht über den Build nachdenken, bleibt er stecken), die Auswahl der Seltenheit und der Zwang, vor dem feindlichen PC wegzulaufen, der so weit kommt und leicht getötet wird (2 Seiten) Wie erwartet hat es die Grenze überschritten, die toleriert werden kann, also Anne Insko Ich sage es immer wieder, aber ich denke, die Spielbalance, die hergestellt wird, indem Sie gezwungen werden, vor dem Feind wegzulaufen, ist ein Spiel.</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="b">
+        <v>1</v>
+      </c>
+      <c r="B205" t="n">
+        <v>609</v>
+      </c>
+      <c r="C205" t="n">
+        <v>1744899921</v>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bisher habe ich sehr viel Spaß mit dem Game und finde die meta progression auch einen schmauß, der Grind is bisher nicht zu langwierig und im gesamten seh ich sehr viel potenzial in dieser kleinen perle
+Dinge die ich vlt Persönlich noch gerne sehen würde: 
+* keine ahnung ob das nur bei mir so ist aber in der Zweiten Map fehl mir die Musik was das ganze ein wenig akward macht 20 min. nur Waffen geräusche zu hören ist allerdings wohl auch nur ein bug denke ich.
+* 3 Equipment Tabs um es leichter zu machen builds "auf abruf" zu ändern oder für jede klasse ihren eigenden equipment/runen Tab, kleines quality of life feature. 
+* Eine leaderboard liste für normale spieler, kann auch gerne irgendwie in so 3 kategorien unterteilt sein wie zbs. Twitch/ Friends/ alle spieler
+* einen skill der deine base attack ein Element gibt auf das es dann basiert bzw sein schaden
+Naja nur kleine ideen die ich beim zocken hatte so oder so freue ich mich sehr auf die zukunft des games &lt;3 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="b">
+        <v>1</v>
+      </c>
+      <c r="B206" t="n">
+        <v>1180</v>
+      </c>
+      <c r="C206" t="n">
+        <v>1744899385</v>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>Genial, vielfältig, tiefgehend! Super cooles Game. Entweder man zockt es nebenbei oder man fokusiert sich komplett darauf! Einfach nur toll!</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="b">
+        <v>1</v>
+      </c>
+      <c r="B207" t="n">
+        <v>281</v>
+      </c>
+      <c r="C207" t="n">
+        <v>1744892992</v>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mega Game das einzige was stört ist das der Soundtrack nicht so ballert ansonsten 10/10
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="b">
+        <v>1</v>
+      </c>
+      <c r="B208" t="n">
+        <v>2108</v>
+      </c>
+      <c r="C208" t="n">
+        <v>1744888054</v>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>Warum starb ich, sobald der Endboss von Warner Divine Domain herauskam, voller Blut und ohne Skills</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="b">
+        <v>1</v>
+      </c>
+      <c r="B209" t="n">
+        <v>1494</v>
+      </c>
+      <c r="C209" t="n">
+        <v>1744880555</v>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>Definitiv eine klare Kaufempfehlung von mir, man sollte sich nicht von dem Look beirren lassen. Jeder der gerne Horde Survival Games zockt wird hier auf seine Kosten kommen. Man hat sehr viel Meta Progress zu erledigen und da die Entwickler stetig Updates raushauen kann man hier locker nochmal 20 Stunden abreißen.</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="b">
+        <v>1</v>
+      </c>
+      <c r="B210" t="n">
+        <v>1321</v>
+      </c>
+      <c r="C210" t="n">
+        <v>1744879891</v>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>macht fun</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="b">
+        <v>1</v>
+      </c>
+      <c r="B211" t="n">
+        <v>787</v>
+      </c>
+      <c r="C211" t="n">
+        <v>1744877657</v>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>Gutes Vampir-Überlebens-ähnliches Spiel</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="b">
+        <v>1</v>
+      </c>
+      <c r="B212" t="n">
+        <v>437</v>
+      </c>
+      <c r="C212" t="n">
+        <v>1744873047</v>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>:)</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="b">
+        <v>1</v>
+      </c>
+      <c r="B213" t="n">
+        <v>544</v>
+      </c>
+      <c r="C213" t="n">
+        <v>1744872671</v>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>'s gute :)</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="b">
+        <v>1</v>
+      </c>
+      <c r="B214" t="n">
+        <v>344</v>
+      </c>
+      <c r="C214" t="n">
+        <v>1744869442</v>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>Sehr geiles Game. Die verschiedenen Skilltrees sind umfangreich und die Zusätzlichen Booster in Form von Runen geben den Builds eine angenehme Art zum Perfektionieren.
+Schwierigkeitsgrad genau richtig und für alle Schwitzer gibt es eine Möglichkeiten sich selbst Gruben zur Hölle zu schaffen.</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="b">
+        <v>1</v>
+      </c>
+      <c r="B215" t="n">
+        <v>1079</v>
+      </c>
+      <c r="C215" t="n">
+        <v>1744866696</v>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>Das Spiel hat mich wirklich gepackt. es macht Spaß die unterschiedlichsten Kombinationen von Fähigkeiten und 
+Knotenpunkten ausprobieren. MMn. könnten hier noch mehr Knotenpunkte für ein wenig mehr Tiefe mit eingehen. 
+"Leider" sind z.Z. nur die ersten 4 Welten spielbar, was dem bisherigen Spaßfaktor aber nicht mindert.</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="b">
+        <v>1</v>
+      </c>
+      <c r="B216" t="n">
+        <v>1922</v>
+      </c>
+      <c r="C216" t="n">
+        <v>1744859202</v>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>Ich brauche nur einen Weg, um wieder Lieblingsrunen zu bekommen, und eine schnelle Methode, um Runen zu brechen. Einige Nerfs im physischen Build werden gut sein.</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="b">
+        <v>1</v>
+      </c>
+      <c r="B217" t="n">
+        <v>1002</v>
+      </c>
+      <c r="C217" t="n">
+        <v>1744851350</v>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>Ich habe es in der offenen Beta ausprobiert, die vor einer Weile war, und man kann die großartige Entwicklung sehen, die es hinter sich hat</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="b">
+        <v>1</v>
+      </c>
+      <c r="B218" t="n">
+        <v>882</v>
+      </c>
+      <c r="C218" t="n">
+        <v>1744847263</v>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>Das Spiel ist cool, ich mochte es, da es eine Zukunft hat. Die Entwickler aktualisieren es ständig.  Und was die Entwickler betrifft, so bitten wir euch, den Knoten des Schicksals zu nerfen, denn er sprengt das Gleichgewicht, ihr stapelt 500% Angriffstempo in 10 Sekunden, und in Verbindung mit dem Ausweichen ist es einfach beschissen. ICH HABE 9000% IN 10 MINUTEN GESTAPELT, DAS IST UNGLEICHGEWICHT. Für Entwickler: Ich bitte euch, den Knoten des Schicksals zu spüren, denn er stört das Gleichgewicht, ihr erhaltet 500 % eurer Angriffsgeschwindigkeit in 10 Sekunden, und in Kombination mit Ausweichen ist es einfach beschissen. ICH HABE IN 10 MINUTEN 9.000 % ERREICHT, WAS EIN UNGLEICHGEWICHT IST.</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="b">
+        <v>1</v>
+      </c>
+      <c r="B219" t="n">
+        <v>404</v>
+      </c>
+      <c r="C219" t="n">
+        <v>1744846241</v>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>Macht extrem süchtig</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="b">
+        <v>1</v>
+      </c>
+      <c r="B220" t="n">
+        <v>909</v>
+      </c>
+      <c r="C220" t="n">
+        <v>1744841478</v>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>Die Meta-Progression hat ein schönes Pacing. Man macht schon signifikant Fortschritt, aber auch nicht so übermäßig, wie in manchen Spielen.</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="b">
+        <v>1</v>
+      </c>
+      <c r="B221" t="n">
+        <v>561</v>
+      </c>
+      <c r="C221" t="n">
+        <v>1744836482</v>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>Analyse eines Vampire Survivors-ähnlichen Spiels, das sich frisch anfühlen will Negative Aspekte: -Inkohärente und grobe Animationen: Den Animationen von Waffen, Zaubersprüchen und Fähigkeiten mangelt es an Flüssigkeit und Gewicht. Sie vermitteln weder Wirkung noch visuelle Befriedigung, was die Immersion und den Spaß im Kampf verringert.    -Ineffizientes Runensystem: Das Runensystem ist völlig unnötig und nicht sehr funktional. Es wäre am besten, es ganz zu entfernen und dem Spieler zu erlauben, einfach die Werte zu erhöhen, die er bevorzugt, ohne willkürliche Komplikationen.    -Inkonsistente und RNG-abhängige Verbesserungen: Verbesserungen sind unbefriedigend und folgen keiner klaren Logik. Das Zufallssystem führt dazu, dass Buffs inkonsistente und unausgewogene Buffs gewähren, wie z. B. nur die Erhöhung des Radius, der Menge oder der Abklingzeit, ohne die Waffe oder den Zauber tatsächlich umfassend zu verbessern. Im Idealfall sollte jedes Upgrade mehrere kombinierte Vorteile bieten, die auf den Stil der jeweiligen Waffe zugeschnitten sind, damit der Fortschritt sinnvoll und kontrolliert ist.    -Schlechte Charakterentwicklung: Das Aufleveln ist frustrierend, da die Upgrades, die gewählt werden können, nicht sehr wirkungsvoll sind und sich im Laufe des Spiels nicht deutlich widerspiegeln. Darüber hinaus schränkt das aktuelle System die Möglichkeit ein, Waffen zu maximieren, da sie nicht in einem einzigen Durchgang vollständig aufgerüstet werden können, wodurch die zahlreichen verfügbaren Levels bedeutungslos werden.    -Unauffällige und repetitive Musik: Der Soundtrack trägt nichts Unvergessliches bei und wird schnell eintönig. Es wäre ratsam, die Musik zu überarbeiten, um die Atmosphäre und das Gesamterlebnis zu verbessern.    Positive Aspekte: -Interessante Charaktere mit Verbesserungszweigen: Obwohl es sich noch im Early Access befindet, bietet das Spiel bereits drei Charaktere mit eigenen Verbesserungslinien, was ein Erfolg ist, der für Abwechslung und strategische Tiefe sorgt.    -Herausfordernde und gut gestaltete Bosse: Die Bosse sind unterhaltsam und haben einen angemessenen Schwierigkeitsgrad sowie ein atemberaubendes visuelles Design, um das sie viele ähnliche Spiele beneiden würden.    -Hervorragende Steuerung: Die Handhabung des Charakters ist sehr komfortabel und reaktionsschnell, was das Spielerlebnis flüssig und zufriedenstellend macht.    -Richtiges Tempo und Dauer: Die Länge und das Tempo der Spiele sind gut ausbalanciert, so dass Sie trotz der oben genannten Probleme genießen können, ohne sich zu kurz oder übermäßig lang zu fühlen.</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="b">
+        <v>1</v>
+      </c>
+      <c r="B222" t="n">
+        <v>1062</v>
+      </c>
+      <c r="C222" t="n">
+        <v>1744836413</v>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>Müsst ihr wissen.</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="b">
+        <v>1</v>
+      </c>
+      <c r="B223" t="n">
+        <v>600</v>
+      </c>
+      <c r="C223" t="n">
+        <v>1744835673</v>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>[h1] Ein frischer Wind im Genre der Survival-Actionspiele [/h1]
+Das Spiel vermag es, ein hohes Suchtpotenzial zu entfalten – ein nicht zu unterschätzender Faktor im Bereich der Roguelite-Survival-Titel. Während ich bei Vampire Survival insbesondere das Movement als repetitiv und wenig inspirierend empfand, bringt dieser Titel eine wohltuende Brise Innovation mit sich. Die Steuerung ist dynamischer, das Spielgefühl flüssiger. Besonders hervorzuheben ist das Feedback der Zauber: Jeder Spell wirkt durchdacht, kraftvoll und trägt spürbar zur Immersion bei.
+Ein kleiner Wermutstropfen ergibt sich jedoch bei der Darstellung der Spielinformationen. Die Stats zu fusionierten Waffen oder die Übersicht über Knotenpunkte sind nur unzureichend einsehbar. Dass man zwischen Tab und Esc wechseln muss, um unterschiedliche Informationen und Einstellungen aufzurufen, wirkt nicht nur umständlich, sondern unterbricht den Spielfluss auf unangenehme Weise. Eine integrierte, intuitivere UI-Lösung wäre hier wünschenswert – idealerweise ohne das kurze Zurückspringen ins Spielgeschehen beim Wechsel der Ansichten.
+Auch der Endscreen lässt Tiefe vermissen. Eine detailliertere Auswertung der Schadensstatistiken wäre nicht nur für ambitionierte Spieler*innen von Interesse, sondern würde auch das strategische Element des Spiels sinnvoll ergänzen.
+[b] Trotz dieser kleinen Makel bleibt mir nur zu sagen: Ich würde es immer wieder kaufen. Müsst ihr wissen. [/b]</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="b">
+        <v>1</v>
+      </c>
+      <c r="B224" t="n">
+        <v>925</v>
+      </c>
+      <c r="C224" t="n">
+        <v>1744833307</v>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>10/10 Spiel</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="b">
+        <v>1</v>
+      </c>
+      <c r="B225" t="n">
+        <v>1339</v>
+      </c>
+      <c r="C225" t="n">
+        <v>1744833017</v>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>Süchtig machend... Ich hasse dich!! Machen Sie weiter so!</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="b">
+        <v>1</v>
+      </c>
+      <c r="B226" t="n">
+        <v>302</v>
+      </c>
+      <c r="C226" t="n">
+        <v>1744825213</v>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>Sehr gutes spiel wer brotato und spiele in die richtung mag fühlt sich hier genau richtig.
+Geile Idee mit den knotensystem muss man getestet haben
+müsst ihr wissen.</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="b">
+        <v>1</v>
+      </c>
+      <c r="B227" t="n">
+        <v>959</v>
+      </c>
+      <c r="C227" t="n">
+        <v>1744824756</v>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>Sehr süchtig machend.</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="b">
+        <v>1</v>
+      </c>
+      <c r="B228" t="n">
+        <v>905</v>
+      </c>
+      <c r="C228" t="n">
+        <v>1744823183</v>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>Habe das Game durch Handofblood gefunden.
+guter Zeitvertreib, geile Komplexität, bin fixxxxxxed.
+Jeden Euro wert. 
+Müsst ihr wissen 
+in dem sinne</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="b">
+        <v>1</v>
+      </c>
+      <c r="B229" t="n">
+        <v>418</v>
+      </c>
+      <c r="C229" t="n">
+        <v>1744822968</v>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>Habe ein Gameplay-Video auf YouTube bei Hänno gesehen und hab mir daraufhin die Demo geholt.  Diese hat schon großen Spaß gemacht. Habe dann gerne den Early Access gekauft und bin begeistert. Gerne mehr davon.  Zocke aktuell auf dem Steam Deck. Läuft alles sauber. Ich kann das Spiel jedem der auch mit Vampire Survivors Freude hatte uneingeschränkt empfehlen. 
+Müsst ihr wissen :D</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="b">
+        <v>1</v>
+      </c>
+      <c r="B230" t="n">
+        <v>337</v>
+      </c>
+      <c r="C230" t="n">
+        <v>1744821800</v>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>Ein großer Kugelhimmel. Mit verschiedenen Kombinationen von Builds und Spielmöglichkeiten. Ich liebe es.</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="b">
+        <v>1</v>
+      </c>
+      <c r="B231" t="n">
+        <v>522</v>
+      </c>
+      <c r="C231" t="n">
+        <v>1744821086</v>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>Kapitel 2 Der erste Boss des Blitzpfeils ist ein Mechanismus, den ich überhaupt nicht verstehe.,Kannst du ihm nicht ausweichen, wenn er grün wird.</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="b">
+        <v>1</v>
+      </c>
+      <c r="B232" t="n">
+        <v>835</v>
+      </c>
+      <c r="C232" t="n">
+        <v>1744818371</v>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>Vielversprechender Start mit Suchtpotenzial Dieses Spiel ist ein Knaller – die Zeit vergeht wie im Flug. Mit verschiedenen Kombinationen zu experimentieren und die Meta-Entwicklung voranzutreiben, ist super ermutigend. Es gibt immer noch ein paar Wachstumsschmerzen (Balance-Probleme, UI-Macken und einige Fähigkeiten oder Schicksalsknoten, die sich deutlich besser anfühlen als andere), aber das nimmt dem Gesamtspaß keinen Abbruch.    Das Blutopfer-Feature (Handicap = bessere Beute) ist eine tolle Ergänzung und erhöht zusammen mit dem Charakter-Meta-Fortschritt den Wiederspielwert erheblich. Es dauert ein wenig, bis man einige der Formulierungen und Mechaniken verstanden hat (z. B. AtkSpeed = Abklingzeitverringerung oder was Schock tatsächlich bewirkt), aber irgendwann fängt es an, Klick zu machen.    Alles in allem ein solider Early-Access-Start – wir freuen uns auf das, was als nächstes kommt!</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="b">
+        <v>1</v>
+      </c>
+      <c r="B233" t="n">
+        <v>730</v>
+      </c>
+      <c r="C233" t="n">
+        <v>1744814234</v>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>Dies ist das erste Mal, dass ich ein Spiel dieser Art spiele, und ich finde es großartig! Die Mechanik ist gut erklärt, man kommt schnell hinein und sobald man seine Strategie herausgefunden hat, läuft alles reibungslos ab.</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="b">
+        <v>1</v>
+      </c>
+      <c r="B234" t="n">
+        <v>518</v>
+      </c>
+      <c r="C234" t="n">
+        <v>1744813881</v>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>Ein wirklich sehr geiles Game, das einzige was mich stört ist es das man nur eine Kriegsbemalung hat. Es wäre geil wenn man für die verschiedenen Charaktere eine eigene Kriegsbemalung hat, aber sonst macht es sehr viel Spaß die massen an Gegnern mit den verschiedenen Builds zu zerstören :)</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="b">
+        <v>1</v>
+      </c>
+      <c r="B235" t="n">
+        <v>201</v>
+      </c>
+      <c r="C235" t="n">
+        <v>1744812583</v>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>GOOD</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="b">
+        <v>1</v>
+      </c>
+      <c r="B236" t="n">
+        <v>1537</v>
+      </c>
+      <c r="C236" t="n">
+        <v>1744812156</v>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>Mega sucht potenzial. klare Empfehlung. Artstyle und Setting mega und bietet viel Potenzial.
+Anbei Feedback für Verbesserungen:
+- Kriegsbemalungen brauchen mehrere Sets zum Abspeichern der Konfiguration.
+- Das Inventar braucht eine Filter Funktion. 
+- Die Fusionierten Waffen werden am ende nicht im DMG meter angezeigt. 
+- vorgeschlagene Knoten/Skills sollte man "locken" können, für die nächsten runden. 
+- Crafting erweitern und die Random Runen bearbeiten. Eigene Runen herstellen (wie z.b. Crafting in PathOfExile2)
+- bei Max Skill Lvl ein besonderes Unique Upgrade. 
+Danke und weiter so</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="b">
+        <v>1</v>
+      </c>
+      <c r="B237" t="n">
+        <v>1408</v>
+      </c>
+      <c r="C237" t="n">
+        <v>1744806960</v>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>Schwierige Fleischtaube Es ist einfach ein gutes Spiel Ich hoffe, dass die Folgeinhalte bald erscheinen</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="b">
+        <v>1</v>
+      </c>
+      <c r="B238" t="n">
+        <v>367</v>
+      </c>
+      <c r="C238" t="n">
+        <v>1744805099</v>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>Hab das spiel bei HOB im Video gesehen und musste es mir direkt holen.
+Totale Suchtgefahr geiles Spiel macht weiter so</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="b">
+        <v>1</v>
+      </c>
+      <c r="B239" t="n">
+        <v>1594</v>
+      </c>
+      <c r="C239" t="n">
+        <v>1744803156</v>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>Nach 7h Spielzeit kann ich nur sagen, dass es absolut Bock macht. Die Animationen sind Klasse und das setting ist stimmig. Kann es somit sehr empfehlen.</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="b">
+        <v>1</v>
+      </c>
+      <c r="B240" t="n">
+        <v>1142</v>
+      </c>
+      <c r="C240" t="n">
+        <v>1744799971</v>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>Zu Anfang muss ich gleich mal sagen: Sehr geiles Game.
+Dass es keinen Kontaktschaden gibt ist ein mega Prinzip, vor allem weil man dadurch den Spielstil von anderen Survivor-Likes mal komplett abschalten muss und erstmal drauf klarkommen. Die Kombis mit den Fähigkeiten sind auch ein super geiles Prinzip und macht Bock die auszubauen und ins Build reinzuklatschen.
+Es gäbe noch n paar Sachen die mir persönlich fehlen bzw. kleine Kritikpunkte:
+- Das Balancing der Waffen muss überarbeitet werden und auch die Rewards bei z.B. Legendären Verbesserungen. +3 Projektile ist bei einer Waffe die mit einem einzigen startet weit besser als 60% Schadenssteigerung.
+Aber So, ordentlich geiles Game und auch der Grind sitzt.</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="b">
+        <v>0</v>
+      </c>
+      <c r="B241" t="n">
+        <v>233</v>
+      </c>
+      <c r="C241" t="n">
+        <v>1744795381</v>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>Zuerst war es gut zu spielen, aber nach ein paar Stunden wurde ich müde davon und musste es allein im ersten Level viele Male bürsten, was langweilig war</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="b">
+        <v>1</v>
+      </c>
+      <c r="B242" t="n">
+        <v>767</v>
+      </c>
+      <c r="C242" t="n">
+        <v>1744793894</v>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>Alles top</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="b">
+        <v>1</v>
+      </c>
+      <c r="B243" t="n">
+        <v>906</v>
+      </c>
+      <c r="C243" t="n">
+        <v>1744793841</v>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>"10 Stunden geschwitzt – und ich will mehr. Bin ich noch normal?"
+Nach 10 Stunden Daueraction, Schweißausbrüchen und der ein oder anderen existenziellen Sinnkrise bin ich immer noch voll dabei. Mein Körper schreit „Hör auf!“, aber mein Herz (und der Highscore) sagen: Eine Runde geht noch.
+Ich wusste nicht, dass man gleichzeitig leiden und lachen kann – aber dieses Spiel hat’s mir gezeigt. Ich schwitze wie in der Sauna, fühle mich wie im Bootcamp, aber habe dabei mehr Spaß als bei jedem Wellnessurlaub.
+Definitiv kein Spiel für schwache Nerven oder trockene T-Shirts.
+Absolute Suchtgefahr. Würde wieder reinschwitzen. ❤️‍🔥🧼</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="b">
+        <v>1</v>
+      </c>
+      <c r="B244" t="n">
+        <v>194</v>
+      </c>
+      <c r="C244" t="n">
+        <v>1744791440</v>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>Illaoi wird mich nie wieder hitten, macht aus sonst viel Spaß</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="b">
+        <v>1</v>
+      </c>
+      <c r="B245" t="n">
+        <v>632</v>
+      </c>
+      <c r="C245" t="n">
+        <v>1744791286</v>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>Wir haben bisher einen Riesenspaß! Wirklich flottes Gameplay und ausgefeilte Menüs/UIs. Auch schon ein ziemlich anständiger Brocken Inhalt. Ich denke, die wichtigsten Dinge, die dieses Spiel braucht, sind: - Balancing/Pacing sowohl für die Läufe als auch für den Fortschritt - QoL: Ich muss in der Lage sein, die Namen der Fähigkeiten zu sehen, die ich gerade ausgerüstet habe!  - Ergänzung zum vorherigen: Im Moment finde ich es sehr schwer einzuschätzen, welchen Weg oder welche Fähigkeit ich während eines Laufs schieben soll. Manchmal ist es schwer zu sagen, wer derzeit den meisten Schaden verursacht. Vielleicht irgendein System dafür?  - Apropos Runen: Cooles System! Es wäre großartig, wenn die Kriegsbemalung PRO Charakter gespeichert würde und eine noch bessere Ausrüstungsfunktionalität wäre fantastisch!  - Visuelle Klarheit: Ich liebe die Grafik absolut. Aber irgendwann, wenn zu viele Feinde auf dem Bildschirm sind und viele Fähigkeiten ausgelöst werden, ist es wirklich schwer zu erkennen, wo mein Charakter manchmal Schaden nimmt.  Trotzdem sind das alles nur Verbesserungsvorschläge! So wie es gerade aussieht - vor allem für den Preis von rund 6 Euro - ist das ein wirklich gutes Spiel und ich kann es uneingeschränkt EMPFEHLEN!</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="b">
+        <v>1</v>
+      </c>
+      <c r="B246" t="n">
+        <v>700</v>
+      </c>
+      <c r="C246" t="n">
+        <v>1744786646</v>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>Derzeit, nach 4,6 Stunden Spielzeit, ist der Jäger freigeschaltet und dieses Spiel wird seit der letztjährigen DEMO gespielt. Als vampirähnlicher Survivor-Spieler habe ich das Gefühl, dass dieses Spiel viel Potenzial hat, um optimiert oder optimiert zu werden.  Die Vorteile werden nicht beschrieben, jetzt wird der Herr über die Stellen sprechen, die optimiert werden müssen, von hoch nach niedrig angeordnet, wenn ich falsch liege, bitte korrigieren: 1. Kann die Runenseite angepasst werden, um mehrere Seiten zu speichern, da verschiedene Genres völlig unterschiedliche Anforderungen an Runenattribute stellen. Und aufgrund des Rasterlimits dauert es wirklich sehr lange, jedes Mal einen Runensatz zu wechseln.  2. Vereinfachen Sie die Bedingungen für das Freischalten der ultimativen Waffe oder erhöhen Sie die Vielfalt. Für ein Überlebenstauben-Evolutionsspiel habe ich keine der ultimativen Waffen in 5 Stunden freigeschaltet. Zum einen weil ich gerne ein einziges Genre spiele, zum anderen weil ich aufgrund der Stärke der Feinde ein einziges Genre spielen muss und nicht die Möglichkeit habe, Fähigkeiten zwischen verschiedenen Attributen auszuprobieren, um die ultimative Waffe freizuschalten.  3. Du kannst neue Altäre im Spiel hinzufügen, nach jedem Boss ein paar aktualisieren oder weitere Attributaltäre hinzufügen, wie z.B. Ausrüstung, oder Runen kaufen und verkaufen usw.  4. Die Knoten im Bureau können nach dem Einlegen nicht mehr verschoben werden, was derzeit akzeptabel ist. Es ist jedoch wünschenswert, das Inlay überschreiben zu können und dann für einen einfachen Austausch an eine stärkere Verbindung zu gelangen.  Im Moment habe ich an so viel gedacht, ich hoffe, dass der Beamte den Appell für angemessen halten kann, gelöst!</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="b">
+        <v>1</v>
+      </c>
+      <c r="B247" t="n">
+        <v>1803</v>
+      </c>
+      <c r="C247" t="n">
+        <v>1744782586</v>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>Ich hoffe, dass der Offizielle die Fusionsfertigkeit optimieren kann, und die Eigenschaften dieser Art von Fertigkeit sind nicht herausragend. Gleichzeitig hoffe ich, die Artefaktfunktion zu erhöhen, schließlich ist Asgards Artefakt sehr berühmt und kann nicht nur in Form von Fähigkeiten erscheinen. Andere sind nicht schlecht, mach weiter so.</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="b">
+        <v>1</v>
+      </c>
+      <c r="B248" t="n">
+        <v>1323</v>
+      </c>
+      <c r="C248" t="n">
+        <v>1744779460</v>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>Hammer Spiel!
+Direkt reingesuchtet. 
+Klar ist early acces und ich kann mir an einigen Ecken Verbesserungen vorstellen, aber dafür ist es ja early access. Wird dran geschraubt.
+Kann man definitiv empfehlen!</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="b">
+        <v>1</v>
+      </c>
+      <c r="B249" t="n">
+        <v>936</v>
+      </c>
+      <c r="C249" t="n">
+        <v>1744776468</v>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>Erstens, dass ich das Gefühl habe, dass Super-Martial-Arts nutzlos sind, und zweitens, dass die aktuelle Spielzeit 15 Stunden beträgt, und ich habe das Gefühl, dass, obwohl ich noch nicht fertig gespielt habe, das Gameplay relativ gefestigt wurde und den größten Teil des Spaßes verloren hat</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="b">
+        <v>1</v>
+      </c>
+      <c r="B250" t="n">
+        <v>3801</v>
+      </c>
+      <c r="C250" t="n">
+        <v>1744775652</v>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>Nach 48 Stunden Spielspaß:
+Asgard's Fall ist meiner Meinung nach der das beste Spiel in diesem Genre.
+Das Spiel ist trotz der kleinen Bugs (manchmal wird eine andere Fähigkeit gewählt als man eigentlich gewählt hatte), unfassbar gut gelungen. Durch die verschiedenen Kombinationsfähigkeiten und die Schwierigkeitsgrade gibt es eine Art "Grindziel", den besten Run zu schaffen.
+Absolute Empfehlung</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="b">
+        <v>1</v>
+      </c>
+      <c r="B251" t="n">
+        <v>786</v>
+      </c>
+      <c r="C251" t="n">
+        <v>1744771208</v>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>Tolles Spiel. Bringt mich dazu, weiterzuspielen, obwohl ich weiß, dass ich in 4 Stunden zur Arbeit aufstehen muss.</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="b">
+        <v>1</v>
+      </c>
+      <c r="B252" t="n">
+        <v>342</v>
+      </c>
+      <c r="C252" t="n">
+        <v>1744766217</v>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>Eins der besten Spiele die weniger kosten als ein Döner</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="b">
+        <v>1</v>
+      </c>
+      <c r="B253" t="n">
+        <v>641</v>
+      </c>
+      <c r="C253" t="n">
+        <v>1744765634</v>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>nichtmal ein döner,perfekt auf dem steam deck</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="b">
+        <v>1</v>
+      </c>
+      <c r="B254" t="n">
+        <v>1803</v>
+      </c>
+      <c r="C254" t="n">
+        <v>1744762381</v>
+      </c>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>Macht mega süchtig. Jetzt schon ein Geiles Game. Danke Hänno</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="b">
+        <v>1</v>
+      </c>
+      <c r="B255" t="n">
+        <v>98</v>
+      </c>
+      <c r="C255" t="n">
+        <v>1744760962</v>
+      </c>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>Jo geiles Game halt</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="b">
+        <v>1</v>
+      </c>
+      <c r="B256" t="n">
+        <v>447</v>
+      </c>
+      <c r="C256" t="n">
+        <v>1744760454</v>
+      </c>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>Ich habe bereits die Demo gespielt und ich muss wirklich sagen, dass ich das Spiel sehr gut finde. Man merkt zwar noch dass es sich im Early Access befindet, aber das ist ja auch nicht schlimm.
+Ich finde es auch mega, wie motiviert die Entwickler sind. Einige Bugs/ Unstimmigkeiten die mir kurz nach Release aufgefallen sind, wurden bereits innerhalb der ersten Woche gefixt. Sowas finde ich immer sehr geil und es zeigt dass die Meinung der User dem Team am Herzen liegt.
+Weiter so, dann wird das ein mega Game in diesem Genre! :D</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="b">
+        <v>1</v>
+      </c>
+      <c r="B257" t="n">
+        <v>801</v>
+      </c>
+      <c r="C257" t="n">
+        <v>1744758820</v>
+      </c>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>wallah gutes game</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="b">
+        <v>1</v>
+      </c>
+      <c r="B258" t="n">
+        <v>1948</v>
+      </c>
+      <c r="C258" t="n">
+        <v>1744758674</v>
+      </c>
+      <c r="D258" t="inlineStr">
+        <is>
+          <t>Dies ist wirklich ein erstaunliches Rogue-Lite mit gutem Tempo und mehreren Meta-Progressionspfaden.  Außerdem kann ich es kaum erwarten, dass die Entwickler die vollständige Implementierung der Cloud Save-Funktionalität von Steam abgeschlossen haben. da ich es wirklich sowohl auf meinem Steamdeck als auch auf meinem Haupt-PC spielen möchte!  Hinweis: Die Entwickler haben bereits gesagt, dass dies ihre TOP-Priorität ist und bald umgesetzt werden sollte!    -SuFFiR</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="b">
+        <v>1</v>
+      </c>
+      <c r="B259" t="n">
+        <v>1248</v>
+      </c>
+      <c r="C259" t="n">
+        <v>1744757103</v>
+      </c>
+      <c r="D259" t="inlineStr">
+        <is>
+          <t>Dieses Spiel macht super Spaß und macht süchtig.   Ich wollte ein Spiel spielen, jetzt ist es 1 Uhr morgens und ich soll morgen arbeiten &gt;:(  Spaß beiseite, schließe dich dem Discord des Entwicklers an, er nimmt Feedback und Antworten an die Spieler entgegen, er hat bereits die meisten Unvollkommenheiten im Warpaint-Menü behoben</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="b">
+        <v>1</v>
+      </c>
+      <c r="B260" t="n">
+        <v>1202</v>
+      </c>
+      <c r="C260" t="n">
+        <v>1744756270</v>
+      </c>
+      <c r="D260" t="inlineStr">
+        <is>
+          <t>Maut</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="b">
+        <v>1</v>
+      </c>
+      <c r="B261" t="n">
+        <v>2178</v>
+      </c>
+      <c r="C261" t="n">
+        <v>1744754683</v>
+      </c>
+      <c r="D261" t="inlineStr">
+        <is>
+          <t>Durchaus was feines und macht länger Spaß als ein Döner, zum selben Preis!</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="b">
+        <v>1</v>
+      </c>
+      <c r="B262" t="n">
+        <v>1081</v>
+      </c>
+      <c r="C262" t="n">
+        <v>1744752654</v>
+      </c>
+      <c r="D262" t="inlineStr">
+        <is>
+          <t>Feedback: BITTE DAS INVENTAR SORTIERBAR MACHEN!. DANKE . Geiles game!</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="b">
+        <v>1</v>
+      </c>
+      <c r="B263" t="n">
+        <v>269</v>
+      </c>
+      <c r="C263" t="n">
+        <v>1744751847</v>
+      </c>
+      <c r="D263" t="inlineStr">
+        <is>
+          <t>Habe das Spiel als Sterblicher begonnen. 45 Minuten später schleuderte ich Donner und stellte meine Menschlichkeit in Frage. Ich dachte, es wäre nur ein Roguelite - es stellte sich heraus, dass es ein Vorstellungsgespräch war, um ein nordischer Gott zu werden. 10/10, ich habe den Job bekommen. - AußenseiterTroll, jetzt auf der Gehaltsliste der Götter</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="b">
+        <v>1</v>
+      </c>
+      <c r="B264" t="n">
+        <v>736</v>
+      </c>
+      <c r="C264" t="n">
+        <v>1744751462</v>
+      </c>
+      <c r="D264" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Macht schon sehr viel Spass!
+Coole lvl, mit coolem Grafikstil.
+Bin gespannt was noch kommt, nach 8 Stunden hab ich den Skillbaum fast komplett freigeschaltet.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="b">
+        <v>1</v>
+      </c>
+      <c r="B265" t="n">
+        <v>416</v>
+      </c>
+      <c r="C265" t="n">
+        <v>1744750863</v>
+      </c>
+      <c r="D265" t="inlineStr">
+        <is>
+          <t>Ich genieße solche Spiele wirklich, dieses hier macht viel Spaß, es macht Spaß, zu kämpfen und herumzurennen. Außerdem baust du deinen kleinen Kämpfer immer stärker auf.    Ich habe den ersten Boss genossen, es ist nicht so einfach, was es herausfordernd macht.    Ich habe einen Lauf 30+ Minuten absolviert, war großartig.  Wir freuen uns auf weitere Updates und mehr Inhalte 11/10</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="b">
+        <v>1</v>
+      </c>
+      <c r="B266" t="n">
+        <v>706</v>
+      </c>
+      <c r="C266" t="n">
+        <v>1744750550</v>
+      </c>
+      <c r="D266" t="inlineStr">
+        <is>
+          <t>Preis - Leistung Top, süßes Indie Game mit tollen Mechaniken. Hoffe auf regelmäßige Updates, dass mehr Kombos, vielleicht Endless Mode oder mehr Stages kommen. Würde es für den schmalen Taler aber sowas von empfehlen hab jetzt schon sehr viel Spielspaß!</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="b">
+        <v>1</v>
+      </c>
+      <c r="B267" t="n">
+        <v>1365</v>
+      </c>
+      <c r="C267" t="n">
+        <v>1744750115</v>
+      </c>
+      <c r="D267" t="inlineStr">
+        <is>
+          <t>Was mich am meisten hooked ist die modulare Schwierigkeit. Die Runs machen nie einen ''unmöglichen'' Eindruck sondern bleiben stehts Anspruchsvoll. Gameplay is smooth und nachvollziehbar. Fetter Daumen nach oben von mir!</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="b">
+        <v>1</v>
+      </c>
+      <c r="B268" t="n">
+        <v>269</v>
+      </c>
+      <c r="C268" t="n">
+        <v>1744748851</v>
+      </c>
+      <c r="D268" t="inlineStr">
+        <is>
+          <t>Ein interessantes Spiel, das auf der skandinavischen Mythologie basiert</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="b">
+        <v>1</v>
+      </c>
+      <c r="B269" t="n">
+        <v>364</v>
+      </c>
+      <c r="C269" t="n">
+        <v>1744746400</v>
+      </c>
+      <c r="D269" t="inlineStr">
+        <is>
+          <t>Brunnen</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="b">
+        <v>1</v>
+      </c>
+      <c r="B270" t="n">
+        <v>1016</v>
+      </c>
+      <c r="C270" t="n">
+        <v>1744745771</v>
+      </c>
+      <c r="D270" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Also mir macht dieses Spiel ultra Viel Spaß und ich würde es auch jedem empfehlen.
+Die Schwierigkeit ist perfekt es ist nicht zu schwer aber auch nicht zu leicht.
+Und das Gute daran ist das man seine Schwierigkeit auch individuell anpassen kann durch den Blood Sacrifice.
+Alle 3 Charakter haben ihre unterschiedlichen Stärken und Skilltrees was ich persönlich liebe.
+Jeder Run bittet Abwechslung durch die vielen verschiedenen Fähigkeiten die es gibt,man kann auch zwei kombinieren und hat so eine Stärkere Version von beiden Fähigkeiten.
+Bosse und Gegner sind mega designed.
+Freue mich schon auf die kommenden Welten und Patches die noch kommen werden :)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="b">
+        <v>1</v>
+      </c>
+      <c r="B271" t="n">
+        <v>408</v>
+      </c>
+      <c r="C271" t="n">
+        <v>1744744908</v>
+      </c>
+      <c r="D271" t="inlineStr">
+        <is>
+          <t>Ein sehr geiles Spiel!</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="b">
+        <v>1</v>
+      </c>
+      <c r="B272" t="n">
+        <v>871</v>
+      </c>
+      <c r="C272" t="n">
+        <v>1744744236</v>
+      </c>
+      <c r="D272" t="inlineStr">
+        <is>
+          <t>Asgard’s Fall – Viking Survivors, ein schönes Indie-Game, welches großen Spaß für einige Stunden bereitet. Durch den Early Access werden hoffentlich noch tolle features erscheinen, die das Spiel noch besser und vielschichtiger machen werden.
+Pros:
+-	Schnelles Gameplay, viele Mobs, dashes, upgrades – einfach auf die Fresse. Ist geil!
+-	Runensystem ist interessant und verleitet zum rumspielen für Upgrades
+-	Knotensystem ist auch cool gemacht und läd zum tüfteln und ausprobieren ein.
+-	Charaktere sind simpel, aber gut gestaltet und machen Spaß zu spielen
+-	Keine Laggs, Ruckler, FPSdrops o.Ä. bisher erlebt
+(Da ich eher Tipps als Contra habe, kommt es nun zu den Tipps)
+Tipps:
+-	Mehrere Runenseiten anlegen können, um zwischen Builds switchen zu können. Gerne auch freischalten können mit Craftingmaterialien.
+-	Bei den Runen allgemein anzeigen lassen, was die Range vom Mod ist (Ich hab bspw 2 T2 Blitzschaden Runen, die eine hat aber 10% und die andere 20%) Wo ist da die Range?
+-	Die vorgefertigten Runen sind cool, aber einige sind für das, was sie bringen, zu groß, weshalb man eher zu den Runen tendiert, die man droppt, was den Craftingmaterialien wenig Sinn verleiht. (Bis jetzt)
+-	Ich habe noch nicht drauf geachtet, aber mir kommt es vor, als wenn man im 4. Und im 1. Gebiet gleiche Runen droppt von dem Wertebereich her. Es ist also vollkommen random. Da vielleicht die Droppbarkeit von T3-mod Runen in den höheren Gebieten erhöhen oder beim Blood Sacrifice hinzufügen, dass mehr T3-mod Runen gedroppt werden.
+-	Die Sichtbarkeit von Skills runterscalen können, damit man weiß, wo gerade der Gegner angreift, da man manchmal einen riesigen Clusterfuck hat. Man überlebt es zwar (Bin bei BS 50), trotzdem ist es manchmal sehr unübersichtlich.
+-	Es ist möglich bis zu 5 Skills zu besitzen, man kann aber nur eine fusionieren. Wieso nicht auf 2 hochheben?
+-	Der fusionierte Skill nimmt die kombinierten Werte der beiden anderen Skills an. Wieso nicht die Abblinkzeit? Wenn man am Anfang kein Damage nimmt, weil man andere bessere Upgrades bekommen hat, ist der Fusion-Skill viel schlechter und bringt so gut wie kein Impact im run.
+-	Man kann entscheiden, wann man die Skills fusionieren möchte, damit man die Möglichkeit hat den Skill noch stärker zu machen. 
+-	Lasst uns im Kompendium sehen, was welcher Skill macht, welcher Stats er verleiht etc.
+-	Lasst uns am Anfang vom Game ein Layout haben, wo wir sehen können, welche Skills wir für welchen Fusion-skill benötigen
+-	Kein must-have, aber für die Zukunft am Anfang des Runs auswählen können, auf welchen Skill man sich fokussieren möchte und diesen dann bei der Auswahl beim Lvlup hervorheben, wenn dieser erscheint.
+-	Mir kommt es so vor, dass der Magnet ein wenig zu selten erscheint. Vielleicht die Rate der Erscheinung erhöhen.
+-	Für die Zukunft ein Skillbaum für die Runs, welcher uns bspw. noch mehr Monster, positive/negative Effekte gibt per Zufallsgenerator – Wie es jetzt  schon bei Twitch sein kann, das eben Ingame und per Zufallsprinzip, damit man noch eine größere Herausforderung hat.
+Für das, was es grade ist, ist Asgard’s Fall ein cooles spiel für einige Stunden, lässt aber schnell nach, da man nach dem lvln der Charaktere und ausprobieren verschiedenster Combos keinen Grund hat mehr zu grinden, da man noch nicht viel mit den Materialien machen kann. 
+Für den Preis ist es von meiner Seite aus eine absolute Empfehlung und wünsche den Entwicklern bei diesem Projekt weiterhin ganz viel Freude!</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="b">
+        <v>1</v>
+      </c>
+      <c r="B273" t="n">
+        <v>1339</v>
+      </c>
+      <c r="C273" t="n">
+        <v>1744743569</v>
+      </c>
+      <c r="D273" t="inlineStr">
+        <is>
+          <t>Generell ein sehr gutes Spiel braucht aber hier und da noch ein paar QoL features (Tastenbelegung anpassen? oder zumindest einsehen; Balancing; Fusionen im Run sehen können wäre auch super)
+Ansonsten TOP!</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="b">
+        <v>1</v>
+      </c>
+      <c r="B274" t="n">
+        <v>373</v>
+      </c>
+      <c r="C274" t="n">
+        <v>1744741583</v>
+      </c>
+      <c r="D274" t="inlineStr">
+        <is>
+          <t>Super Game mit riesen Suchtpotenzial.</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="b">
+        <v>1</v>
+      </c>
+      <c r="B275" t="n">
+        <v>734</v>
+      </c>
+      <c r="C275" t="n">
+        <v>1744741339</v>
+      </c>
+      <c r="D275" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Geil.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="b">
+        <v>1</v>
+      </c>
+      <c r="B276" t="n">
+        <v>963</v>
+      </c>
+      <c r="C276" t="n">
+        <v>1744741191</v>
+      </c>
+      <c r="D276" t="inlineStr">
+        <is>
+          <t>Sticht in dem Genre tatsächlich etwas mehr heraus als der Rest finde ich. Die Metaprogression macht Spaß und mit den zufällig gerollten Runen hat man sogar ziemlich gute Langzeitmotivation. Die Schwierigkeitszunahme zwischen den unterschiedlichen Gebieten ist angenehm fordernd und teilweise sehr überraschend. Die Bosskämpfe sind kreativ und eine willkommene Abwechslung zu den klassischen "Bossen" die lediglich normale Gegner mit gebufften Stats sind und dich runter rennen wollen.
+Beim Content und den fehlenden QoL Dingen merkt man den EarlyAccess doch manchmal recht doll raus, aber ich denke, da ist auf jeden Fall Potenzial da.
+Hier noch Feedback zu Dingen, die mir persönlich aufgefallen sind:
+- ein kleiner Cooldown nach LevelUp für die Auswahl des Upgrades wäre angenehm, weil es mal vorkommt das man eine Rune einsammeln will und ausversehen ein zufälliges Upgrade auswählt, weil gerade das LevelUp aufpoppt
+- das Balancing der lilanen Knoten haut noch nicht so ganz hin. Die aktuell geringe Auswahl sorgt dafür, dass ich am liebsten fast immer ein physisches/feuer Build gehen würde und die anderen Option deutlich schlechter wirken
+- das Runenlagerungssystem ist aktuell leider ziemlich schlecht und die gewünschen Runen zu finden im Inventar ist sehr anstrengend. Wird dann aber vermutlich mit dem Rework des Systems in Zukunft behoben
+- eine Art Wiki (ähnlich wie das Kompendium) zu allen bisher gefundenen Skills wäre praktisch
+- mehr Transparenz beim Skaling der Fusionsskills (Skalieren die mit den Upgrades der Basisversion?)
+- die Controllersteuerung gerade bei der Menüführung ist sehr dürftig und man muss regelmäßig zu Maus wechseln
+Alles in Allem trotzdem sehr gelungen und bin auf den finalen Release gespannt. Für den aktuellen Preis mehr als empfehlenswert</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="b">
+        <v>1</v>
+      </c>
+      <c r="B277" t="n">
+        <v>588</v>
+      </c>
+      <c r="C277" t="n">
+        <v>1744740071</v>
+      </c>
+      <c r="D277" t="inlineStr">
+        <is>
+          <t>All in all ist das spiel gut und macht spaß,  ich finde nur, dass die caps von den verschiedenen perks etwas schade ist. Ich hatte gerade eine runde bei der ich nur auf Angriffsgeschwindigkeit gegangen bin leider musste ich feststellen, dass es bei 500% gecapt worden ist( ich hatte 4000 oder so). Mir ist es egal wenn das spiel abstürtzt mir ist es egal wenn der run verloren geht, aber ich möchte das spiel brechen können.</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="b">
+        <v>1</v>
+      </c>
+      <c r="B278" t="n">
+        <v>413</v>
+      </c>
+      <c r="C278" t="n">
+        <v>1744739609</v>
+      </c>
+      <c r="D278" t="inlineStr">
+        <is>
+          <t>Das Spiel ist unglaublich. Das Gameplay ist herausfordernd, aber nicht zu schwierig und der Meta-Fortschritt macht super Spaß!</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="b">
+        <v>1</v>
+      </c>
+      <c r="B279" t="n">
+        <v>755</v>
+      </c>
+      <c r="C279" t="n">
+        <v>1744738336</v>
+      </c>
+      <c r="D279" t="inlineStr">
+        <is>
+          <t>Ein paar Stunden in Walhalla | Roguelike Fan Bewertung TL; DR: Solider Start mit einer wunderschönen Pixelwelt und spaßigen Systemen – ich freue mich auf zukünftige Updates!  Als jemand, der eine Menge Roguelikes gespielt hat – von Hades über Dead Cells bis hin zu Vampire Survivors – bin ich mit großen Hoffnungen in Asgard's Fall - Viking Survivors gekommen. Und ganz ehrlich? Es zeichnet sich bereits ab, ein herausragendes Stück in diesem Genre zu werden.    Was ich liebe Pixel Artstyle Die Pixel Art ist wunderschön gemacht. Die Animationen sind flüssig, die Umgebungen sind detailliert und die Kampfeffekte sind gestochen scharf, ohne dass es zu visuellem Rauschen kommt. Es trifft den Nagel auf die Wikinger-Ästhetik und ist gleichzeitig inmitten des Chaos immer noch klar und lesbar.  Web of Wyrd Dieses System ist eine clevere Art, Entscheidungen in der Mitte der Auflage zu treffen. Die Wahl deines Weges durch das Web fühlt sich sinnvoll an und fügt eine solide Strategieebene hinzu, wenn du entscheidest, wie du deinen Build während eines Laufs wachsen lassen möchtest.  Kriegsbemalungen lieben die Art und Weise, wie Kriegsbemalungen deine passiven Fähigkeiten beeinflussen. Sie vermitteln ein schönes Gefühl der Anpassung und des Experimentierens, ohne Sie zu überwältigen. Wenn die richtige Kombination trifft, fühlt es sich fantastisch an.  Charakter-Levelaufstieg Der Fortschritt zwischen den Durchläufen trägt dazu bei, dass sich die Dinge lohnend anfühlen. Ich mag es, langsam Macht aufbauen und in meine Lieblingscharaktere investieren zu können.    Vorschläge &amp; Wunschliste 1. Warpaint-Loadouts Den Spielern zu ermöglichen, zu speichern und zwischen Warpaint-Loadouts zu wechseln, wäre eine große Verbesserung der Lebensqualität, insbesondere beim Testen und Verfeinern von Builds.  2. Warpaint-Layout-Varianten Derzeit ist das Rastersystem in Ordnung, aber alternative Layouts würden die Strategie vertiefen und die Builds von Lauf zu Lauf interessanter machen.  3. Web of Wyrd-Varianten Unterschiedliche oder zufällige Layouts für das Web of Wyrd würden für Abwechslung sorgen und den Wiederspielwert erhöhen.  4. Verbannen / Sperren von Fähigkeiten und Knoten Eine Möglichkeit, unerwünschte Upgrades zu verbannen oder bevorzugte zu fixieren (entweder während oder vor einem Run), würde den Spielern mehr Kontrolle über ihre Builds geben und die RNG-Frustration reduzieren.  5. Vielfältigere Charaktere Ich würde gerne zusätzliche Charaktere mit einzigartigen Mechaniken oder Macken sehen, die das Gameplay drastisch verändern. Etwas Experimentelleres könnte die Dinge wirklich aufrütteln.  6. Upcycling von Kriegsbemalungen: Die Möglichkeit, niedrigstufige Kriegsbemalungen zu höherstufigen Versionen zu kombinieren oder aufzurüsten, würde ein großartiges Gefühl des Fortschritts vermitteln und das Aufblähen des Inventars beseitigen.  7. Endlos-Modus Bitte erwägen Sie, einen Endlos- oder Überlebensmodus hinzuzufügen. Zu sehen, wie weit ein Build ohne Kappe gehen kann, wäre eine fantastische Ergänzung für Fans von Langlebigkeit und dem Überschreiten von Grenzen.  8. Meta-Fortschrittsverbesserungen Werte-Upgrades, detailliertere Charakterverbesserungen und Systeme wie das Verbannen/Sperren von Fähigkeiten könnten die langfristige Fortschrittsschleife wirklich bereichern.    Abschließende Gedanken: Der Fall von Asgard hat bereits einen starken Start hingelegt. Es ist schnelllebig, visuell beeindruckend und mit interessanten Systemen ausgestattet, die sich sowohl zugänglich als auch tiefgründig anfühlen. Obwohl es noch nicht vollständig ist, ist das, was bereits da ist, sehr vielversprechend - und das Spiel hat eindeutig das Potenzial, ein Genre-Favorit zu werden.  Fazit: Wenn du Roguelikes, Pixelkunst und Wikingerchaos liebst, ist dieses Spiel deine Zeit wert. Die Entwickler scheinen engagiert und nachdenklich zu sein, was ein gutes Zeichen für zukünftige Updates ist.  9/10 – Würde wieder raiden.</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="b">
+        <v>1</v>
+      </c>
+      <c r="B280" t="n">
+        <v>481</v>
+      </c>
+      <c r="C280" t="n">
+        <v>1744738163</v>
+      </c>
+      <c r="D280" t="inlineStr">
+        <is>
+          <t>An sich ein nices Game um sich die Zeit totzuschlagen. Braucht aber noch definitiv 1-2 mehr Helden und ein paar mögliche Fusionen bei den Beschwörungen.</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="b">
+        <v>1</v>
+      </c>
+      <c r="B281" t="n">
+        <v>1592</v>
+      </c>
+      <c r="C281" t="n">
+        <v>1744737437</v>
+      </c>
+      <c r="D281" t="inlineStr">
+        <is>
+          <t>Übel geiles Game</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="b">
+        <v>1</v>
+      </c>
+      <c r="B282" t="n">
+        <v>237</v>
+      </c>
+      <c r="C282" t="n">
+        <v>1744735690</v>
+      </c>
+      <c r="D282" t="inlineStr">
+        <is>
+          <t>Super Spiel. Geile Umsetzung.
+Klar denkt man sich, schon wieder ein VS Game aber trotzdem setzt sich dieses Spiel von anderen ab.</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="b">
+        <v>1</v>
+      </c>
+      <c r="B283" t="n">
+        <v>1168</v>
+      </c>
+      <c r="C283" t="n">
+        <v>1744735631</v>
+      </c>
+      <c r="D283" t="inlineStr">
+        <is>
+          <t>Es macht Spaß~~ Komm schon!</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="b">
+        <v>1</v>
+      </c>
+      <c r="B284" t="n">
+        <v>906</v>
+      </c>
+      <c r="C284" t="n">
+        <v>1744732778</v>
+      </c>
+      <c r="D284" t="inlineStr">
+        <is>
+          <t>Scheiße-Spiel</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="b">
+        <v>1</v>
+      </c>
+      <c r="B285" t="n">
+        <v>962</v>
+      </c>
+      <c r="C285" t="n">
+        <v>1744732519</v>
+      </c>
+      <c r="D285" t="inlineStr">
+        <is>
+          <t>es ist nicht einfach, viel schwerer als vampire survivor. man verliert sehr schnell den überblick. alles in allen, solides spiel</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="b">
+        <v>1</v>
+      </c>
+      <c r="B286" t="n">
+        <v>537</v>
+      </c>
+      <c r="C286" t="n">
+        <v>1744732096</v>
+      </c>
+      <c r="D286" t="inlineStr">
+        <is>
+          <t>Macht sau viel spaß und macht süchtig &lt;3</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="b">
+        <v>1</v>
+      </c>
+      <c r="B287" t="n">
+        <v>1039</v>
+      </c>
+      <c r="C287" t="n">
+        <v>1744730894</v>
+      </c>
+      <c r="D287" t="inlineStr">
+        <is>
+          <t>Einfach nur genial</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="b">
+        <v>1</v>
+      </c>
+      <c r="B288" t="n">
+        <v>1311</v>
+      </c>
+      <c r="C288" t="n">
+        <v>1744729130</v>
+      </c>
+      <c r="D288" t="inlineStr">
+        <is>
+          <t>Gutes Spiel, ty)</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="b">
+        <v>1</v>
+      </c>
+      <c r="B289" t="n">
+        <v>772</v>
+      </c>
+      <c r="C289" t="n">
+        <v>1744728998</v>
+      </c>
+      <c r="D289" t="inlineStr">
+        <is>
+          <t>Es ist eines der besten Spiele, es gibt noch Raum für Verbesserungen, aber es hat viel Potenzial</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="b">
+        <v>1</v>
+      </c>
+      <c r="B290" t="n">
+        <v>74</v>
+      </c>
+      <c r="C290" t="n">
+        <v>1744728445</v>
+      </c>
+      <c r="D290" t="inlineStr">
+        <is>
+          <t>Das Gameplay fühlt sich wirklich bestrafend und frustrierend an. Ich kann nicht einmal die erste Karte nach so vielen Versuchen schaffen. Feinde sind viel zu viel für den Charakter selbst. Soll es ein überlebensähnliches Spiel sein, das die Spieler tröstet, oder ein seelenartiges Spiel, das die Spieler Niederlagen und Enttäuschungen schmecken lässt?</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="b">
+        <v>1</v>
+      </c>
+      <c r="B291" t="n">
+        <v>1271</v>
+      </c>
+      <c r="C291" t="n">
+        <v>1744726585</v>
+      </c>
+      <c r="D291" t="inlineStr">
+        <is>
+          <t>Einfach nur guter, altmodischer Spaß, wenn man gut wird und die richtigen Kombos spielt, ist das Gameplay unglaublich lohnend mit der perfekten Menge an Grind für mich persönlich</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="b">
+        <v>1</v>
+      </c>
+      <c r="B292" t="n">
+        <v>232</v>
+      </c>
+      <c r="C292" t="n">
+        <v>1744726101</v>
+      </c>
+      <c r="D292" t="inlineStr">
+        <is>
+          <t>Ich wollte nur kurz reinschauen… 6 Stunden später sitz ich halbnackt, mit Chips auf dem Bauch und hör epische Wikingermucke, während ich zum fünften Mal von irgendwelchen Untoten verprügelt werde.
+Besser als Fitnessstudio.
+Gameplay? Einfach: Du läufst rum, schnetzelst alles weg, sammelst Kram ein und fühlst dich dabei wie der uneheliche Sohn von Kratos und einem Baumstamm.
+Die Musik? So fett, dass ich sie bald bei Familienfeiern laufen lasse.
+Bugs? Klar, hier und da mal ein kleiner Odin-Glitch – aber nichts, was man nicht mit roher Gewalt ignorieren kann.
+🔥 Was geil ist:
+Soundtrack ballert wie Mjölnir
+Gegner kommen in Massen – genau wie meine Tode
+Immer was Neues zum Freischalten
+Wikinger-Level = 9000
+🪓 Was weniger geil ist:
+Mein PC hat geschwitzt. Ich auch.
+Manchmal hängt was – aber hey, Ragnarök ist auch nicht lagfrei.
+Fazit:
+Ich kam wegen der Mucke, blieb wegen der Axt – und sterbe jetzt regelmäßig mit Stil.
+Wikinger-Ehrenwort: Dieses Game macht süchtig.</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="b">
+        <v>1</v>
+      </c>
+      <c r="B293" t="n">
+        <v>620</v>
+      </c>
+      <c r="C293" t="n">
+        <v>1744724616</v>
+      </c>
+      <c r="D293" t="inlineStr">
+        <is>
+          <t>Achtung Suchtgefahr! Noch ein paar kleine Verbesserungen nötig aber bereits jetzt unglaublich gut. Freue mich schon auf die kommenden Welten.</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="b">
+        <v>1</v>
+      </c>
+      <c r="B294" t="n">
+        <v>1137</v>
+      </c>
+      <c r="C294" t="n">
+        <v>1744723176</v>
+      </c>
+      <c r="D294" t="inlineStr">
+        <is>
+          <t>verspielt</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="b">
+        <v>1</v>
+      </c>
+      <c r="B295" t="n">
+        <v>857</v>
+      </c>
+      <c r="C295" t="n">
+        <v>1744722440</v>
+      </c>
+      <c r="D295" t="inlineStr">
+        <is>
+          <t>Wir hatten eine lustige Zeit.  Danke für die Lokalisierung hat nur 1 Problem, da ich verstehe, dass das Spiel den Fortschritt in der Steam-Cloud nicht verlangsamt und daher beim Spielen über den Cloud-Dienst habe ich alle meine Spielstände in 6 Stunden Spielzeit verloren((</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="b">
+        <v>0</v>
+      </c>
+      <c r="B296" t="n">
+        <v>1001</v>
+      </c>
+      <c r="C296" t="n">
+        <v>1744722269</v>
+      </c>
+      <c r="D296" t="inlineStr">
+        <is>
+          <t>Reden wir nicht darüber, wie lästig die landwirtschaftlichen Materialien sind, sagen wir einfach, dass sich der Bogenschütze BOSS, der in 10 Minuten im zweiten Level angetroffen wird, hinter dem Eis versteckt, und der Angriff zeigt, dass er bereits grün ist, und ich kann mir mit einem Pfeil einen Vollblut-Sekunde geben Diese Spielkunst ist wirklich süß.,Es ist schade, dass die anderen Teile nicht ausreichen, um zu unterstützen.</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="b">
+        <v>0</v>
+      </c>
+      <c r="B297" t="n">
+        <v>152</v>
+      </c>
+      <c r="C297" t="n">
+        <v>1744721590</v>
+      </c>
+      <c r="D297" t="inlineStr">
+        <is>
+          <t>Zu unausgewogen. Wenn du keine Bewegungsgeschwindigkeit hast, bleibst du stecken, aber am Ende hast du zu wenig. Wer profitiert von einem System, das darauf basiert, Bewegungsgeschwindigkeit überhaupt erst zu erlangen?</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="b">
+        <v>1</v>
+      </c>
+      <c r="B298" t="n">
+        <v>619</v>
+      </c>
+      <c r="C298" t="n">
+        <v>1744720861</v>
+      </c>
+      <c r="D298" t="inlineStr">
+        <is>
+          <t>Die Mechaniken wie Kriegsbemalungen und Kombos lassen ein überaus komplexes Spielprinzip zu.  absolutes Suchtpotenzial.</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="b">
+        <v>1</v>
+      </c>
+      <c r="B299" t="n">
+        <v>740</v>
+      </c>
+      <c r="C299" t="n">
+        <v>1744720194</v>
+      </c>
+      <c r="D299" t="inlineStr">
+        <is>
+          <t>Spiel noch kurz</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="b">
+        <v>1</v>
+      </c>
+      <c r="B300" t="n">
+        <v>1101</v>
+      </c>
+      <c r="C300" t="n">
+        <v>1744717991</v>
+      </c>
+      <c r="D300" t="inlineStr">
+        <is>
+          <t>Die Sinisierung ist noch nicht sehr gefestigt.,Ich freue mich auf das weitere Update.</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="b">
+        <v>1</v>
+      </c>
+      <c r="B301" t="n">
+        <v>92</v>
+      </c>
+      <c r="C301" t="n">
+        <v>1744715308</v>
+      </c>
+      <c r="D301" t="inlineStr">
+        <is>
+          <t>Wunderbar, schwierig und lustig, eine Mischung aus Spielen wie I'm Knight und anderen Handyspielen mit Vampir-Überlebenden</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="b">
+        <v>1</v>
+      </c>
+      <c r="B302" t="n">
+        <v>715</v>
+      </c>
+      <c r="C302" t="n">
+        <v>1744715204</v>
+      </c>
+      <c r="D302" t="inlineStr">
+        <is>
+          <t>Danke HOB gutes GAME</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="b">
+        <v>1</v>
+      </c>
+      <c r="B303" t="n">
+        <v>1084</v>
+      </c>
+      <c r="C303" t="n">
+        <v>1744714993</v>
+      </c>
+      <c r="D303" t="inlineStr">
+        <is>
+          <t>Einfach mega gut das Game!
+Läuft flüssig, leicht verständlich! Nach einem langen Arbeitstag genau das richtige um einfach mal abzuschalten :D
+Freu mich schon auf mehr Content!
+Für Early Access sehr smooth!</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="b">
+        <v>0</v>
+      </c>
+      <c r="B304" t="n">
+        <v>223</v>
+      </c>
+      <c r="C304" t="n">
+        <v>1744712640</v>
+      </c>
+      <c r="D304" t="inlineStr">
+        <is>
+          <t>Ich kann dieses Spiel wirklich nicht empfehlen, die Spieleinstellung ist wirklich nicht gut. Das Intro ist so unklar und es gibt fast nichts, als einen zu zwingen, laaaange Zeit zu spielen</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="b">
+        <v>1</v>
+      </c>
+      <c r="B305" t="n">
+        <v>1145</v>
+      </c>
+      <c r="C305" t="n">
+        <v>1744709634</v>
+      </c>
+      <c r="D305" t="inlineStr">
+        <is>
+          <t>Worth Bug behoben</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="b">
+        <v>1</v>
+      </c>
+      <c r="B306" t="n">
+        <v>439</v>
+      </c>
+      <c r="C306" t="n">
+        <v>1744709339</v>
+      </c>
+      <c r="D306" t="inlineStr">
+        <is>
+          <t>Unfassbar geiles Game, bitte unbedingt dran weiterarbeiten. Neue Helden wie ein Paladin oder sonstiges wären geil. 
+Das einzige was ich dran auszusetzen hätte, ist das die Bewegungsgeschwindigkeit in dem Game halt todes Overpowered ist, das muss man irgendwie noch kontern.</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="b">
+        <v>1</v>
+      </c>
+      <c r="B307" t="n">
+        <v>1091</v>
+      </c>
+      <c r="C307" t="n">
+        <v>1744706184</v>
+      </c>
+      <c r="D307" t="inlineStr">
+        <is>
+          <t>macht wirklich bedeutend mehr spaß und ist doch schwerer, als man zu beginn vermuten sollte. überragend wäre es noch, wenn im Kompendium die namen der fähigkeiten stehen würden, wenn man mit der maus drüber geht... :D
+update: so wie ich den kommentar abgeschickt habe kam der patch, dass die fähigkeitsnamen angezeigt werden - ein zufall? gedankenlesen? auf jeden fall super :D dafür wird jetzt die stufe nicht mehr angezeigt, wenn man fähigkeiten erhält/verbesser (zb: 1 -&gt; 2), first world problems, aber das war auch nett :)
+auch nach weiteren stunden, macht laune!
+update 2: (mit controller) wenn gegenstände am boden liegen, man diese aufheben will und gleichzeitig der bildschirm zum auswählen der fähigkeiten kommt pickt man gerne unabsichtlich die linke fähigkeit, ohne zu wissen was das ist - sehr ärgerlich manchmal :D</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="b">
+        <v>1</v>
+      </c>
+      <c r="B308" t="n">
+        <v>565</v>
+      </c>
+      <c r="C308" t="n">
+        <v>1744704368</v>
+      </c>
+      <c r="D308" t="inlineStr">
+        <is>
+          <t>Macht wirklich sehr viel Spaß. Mehrere Charaktere zur Auswahl, Runen Crafting um seine Runs anzupassen. Einfach top. Kann es kaum erwarten, dass es mehr Level gibt.</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="b">
+        <v>1</v>
+      </c>
+      <c r="B309" t="n">
+        <v>703</v>
+      </c>
+      <c r="C309" t="n">
+        <v>1744701523</v>
+      </c>
+      <c r="D309" t="inlineStr">
+        <is>
+          <t>Genau die richtige Balance zwischen ohne Gedanken drauf hauen und der Sucht nur noch eine Runde mehr.</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="b">
+        <v>1</v>
+      </c>
+      <c r="B310" t="n">
+        <v>1311</v>
+      </c>
+      <c r="C310" t="n">
+        <v>1744700133</v>
+      </c>
+      <c r="D310" t="inlineStr">
+        <is>
+          <t>Sehr einfaches, sauberes Spiel, mit einer guten Auswahl an Komplexität.</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="b">
+        <v>1</v>
+      </c>
+      <c r="B311" t="n">
+        <v>375</v>
+      </c>
+      <c r="C311" t="n">
+        <v>1744692566</v>
+      </c>
+      <c r="D311" t="inlineStr">
+        <is>
+          <t>Tolles Spiel, ich kann es kaum erwarten zu sehen, wie es sich nach EA entwickelt.</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="b">
+        <v>1</v>
+      </c>
+      <c r="B312" t="n">
+        <v>1049</v>
+      </c>
+      <c r="C312" t="n">
+        <v>1744691493</v>
+      </c>
+      <c r="D312" t="inlineStr">
+        <is>
+          <t>Es ist wirklich ein bisschen schwierig zu spielen.,Es ist immer noch sehr cool, nachdem man lange gespielt hat.,Und wenn man dann das Gefühl hat, dass die Kraft nicht ausreicht, kann man es sich auch selbst schwerer machen.,Aber es wird nicht für den Heroic Soul Palace empfohlen.,Es sei denn, du bist sehr sicher in deiner Position.,Sonst wirst du wirklich ein kleines Monster sein.</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="b">
+        <v>1</v>
+      </c>
+      <c r="B313" t="n">
+        <v>734</v>
+      </c>
+      <c r="C313" t="n">
+        <v>1744687295</v>
+      </c>
+      <c r="D313" t="inlineStr">
+        <is>
+          <t>Ein wunderschönes Spiel.</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="b">
+        <v>1</v>
+      </c>
+      <c r="B314" t="n">
+        <v>1271</v>
+      </c>
+      <c r="C314" t="n">
+        <v>1744671840</v>
+      </c>
+      <c r="D314" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Das Spiel ist einfach super und ich kann es nur weiterempfehlen.
+Es gibt zwei Kleinigkeiten an Speile Entwickler die ich hätte:
++ Ein Zweispieler-Modus wäre cool.
++ Eine Markierung der Weltgrenze, durch einen Wald oder was ähnlichen fände ich schön.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="b">
+        <v>1</v>
+      </c>
+      <c r="B315" t="n">
+        <v>619</v>
+      </c>
+      <c r="C315" t="n">
+        <v>1744670719</v>
+      </c>
+      <c r="D315" t="inlineStr">
+        <is>
+          <t>Sehr nices Game, habs mir heute geholt bzw. gestern und bis jetzt (00:42) gesuchtet.
+Alles ist sehr schön aufgearbeitet nur würde ich mir eine bessere Einführung ins Game wünschen, da ich keine Ahnung von dem Spiel hatte und erstmal alles anlernen musste.</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="b">
+        <v>0</v>
+      </c>
+      <c r="B316" t="n">
+        <v>81</v>
+      </c>
+      <c r="C316" t="n">
+        <v>1744670561</v>
+      </c>
+      <c r="D316" t="inlineStr">
+        <is>
+          <t>Zu abhängig von äußerem Wachstum.,Die anfängliche Leistung kann keine fünf Minuten leben.,Ich bin nach kurzer Zeit unerfahren.,Du kannst keine Talentpunkte geben, wenn du keine Erfahrung hast.,Du kannst nicht leben, wenn du keine Talentpunkte zeigst Kunstdesign Ich mag es.,Das Gefühl des Schlages ist gut.,Die Wachstumskurve ist extrem unvernünftig.,Die Fähigkeiten verändern alle die Haut.,Das Rucksackmanagement ist ein Klumpen spärlich Da du ein Überlebender bist, lass die Leute nicht ins Gefängnis gehen, wenn du dein Gehirn verlierst Cyber-Meditationsspielkategorie.,Die ersten drei Minuten des Spiels sind weil der Wert nicht ausreicht, um zu sterben.,Die Erfahrung, mehrmals zu sterben, um einen Talentpunkt hinzuzufügen, ist wirklich zu stark Es gibt keine Überraschungen oder Coolness. , nichts als Kunst</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="b">
+        <v>1</v>
+      </c>
+      <c r="B317" t="n">
+        <v>444</v>
+      </c>
+      <c r="C317" t="n">
+        <v>1744669641</v>
+      </c>
+      <c r="D317" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Das game macht ultra spaß und ist sehr zu empfehlen für leute die gerne diese genre von games  mögen.
+ich freue mich schon auf die Komplette version vom spiel.
+Kleiner Kritikpunkt:
+Ich finde der Zwichen boss von der zweiten welt ist viel zu stark und muss noch mal überarbeiten werden und eine erklärung das man sich hinter die Eissäulen stellen muss wäre vielleicht auch besser gewesen sonst ist das Spiel sehr gut.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="b">
+        <v>1</v>
+      </c>
+      <c r="B318" t="n">
+        <v>1513</v>
+      </c>
+      <c r="C318" t="n">
+        <v>1744669097</v>
+      </c>
+      <c r="D318" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hab etwas gebraucht um klar zu kommen, da ich am Anfang mit Tastatur gespielt habe.
+Kann ich nicht empfehlen mit Pad deutlich entspannter.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="b">
+        <v>1</v>
+      </c>
+      <c r="B319" t="n">
+        <v>467</v>
+      </c>
+      <c r="C319" t="n">
+        <v>1744668577</v>
+      </c>
+      <c r="D319" t="inlineStr">
+        <is>
+          <t>Noch würde ich das Spiel empfehlen, da es anfangs echt Suchtpotenzial hat. Allerdings habe ich ein zwei Befürchtungen: Hat man einmal seinen Spielstil gefunden, gibt es nur wenig Motivationen diesen zu ändern, was auch an den nur drei Charakteren liegen könnte. Außerdem sind die Menüfindungen teils kompliziert und teils mit Controller gar nicht auswählbar. 
+Das Runensystem macht das Spiel divers und ermöglicht es einem seinen eigenen perfekten Build zu bauen. Allerdings sehe ich da keine Langzeitmotivation wie bsw bei Brotato mit seiner immensen Auswahl an unterschiedlichen Characteren</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="b">
+        <v>1</v>
+      </c>
+      <c r="B320" t="n">
+        <v>353</v>
+      </c>
+      <c r="C320" t="n">
+        <v>1744665318</v>
+      </c>
+      <c r="D320" t="inlineStr">
+        <is>
+          <t>Es ist in Ordnung. Nicht großartig im aktuellen Zustand. Aber gut.</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="b">
+        <v>1</v>
+      </c>
+      <c r="B321" t="n">
+        <v>739</v>
+      </c>
+      <c r="C321" t="n">
+        <v>1744665055</v>
+      </c>
+      <c r="D321" t="inlineStr">
+        <is>
+          <t>Lustiges kleines Spiel, hat viel Potenzial mit mehr Inhalt und etwas Feinschliff.</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="b">
+        <v>0</v>
+      </c>
+      <c r="B322" t="n">
+        <v>1502</v>
+      </c>
+      <c r="C322" t="n">
+        <v>1744664056</v>
+      </c>
+      <c r="D322" t="inlineStr">
+        <is>
+          <t>Ich bin wirklich bedient.,Ich spiele seit 15 Stunden.,Der höchste Jäger ist Level 19.,Die anderen beiden sind Level 10.,Ich werde es ertragen, wenn es schwer ist, aufzurüsten.,Ich spiele und spiele.,Meine Runen sind weg.,Ich vermute, dass dieser Autor ein Death Drop-Event gemacht hat.,Solange du es nicht schaffst, den Zoll zu passieren,Es besteht die Möglichkeit, Runen fallen zu lassen.,Ist das nicht ekelhaft?  Außerdem, können Sie den Leuten einige Hinweise im Runenrucksack geben, als ich anfing zu spielen, wusste ich nicht, dass es so etwas wie einen Runenrucksack gibt, ich dachte, es sei nicht einfach zu machen, und ich wollte den Autor nicht in Verlegenheit bringen, warten Sie einfach darauf, dass der Autor aktualisiert, Ihre Handkartenrune, es hat mich wirklich angewidert.</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="b">
+        <v>0</v>
+      </c>
+      <c r="B323" t="n">
+        <v>115</v>
+      </c>
+      <c r="C323" t="n">
+        <v>1744662928</v>
+      </c>
+      <c r="D323" t="inlineStr">
+        <is>
+          <t>An dieser Stelle fällt es mir schwer, Asgard's Fall zu empfehlen. Es erfordert eine Menge Arbeit und vielleicht wird sich meine Einschätzung nach einiger Zeit, wenn es als 1.0 herauskommt, ändern. Momentan gibt es nicht viel Inhalt und die Entwicklung ist sehr unmerklich. Ich mache einen weiteren Anlauf und sehe keine signifikanten Unterschiede, Fortschritte.</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="b">
+        <v>1</v>
+      </c>
+      <c r="B324" t="n">
+        <v>526</v>
+      </c>
+      <c r="C324" t="n">
+        <v>1744661780</v>
+      </c>
+      <c r="D324" t="inlineStr">
+        <is>
+          <t>Es ist in Ordnung</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="b">
+        <v>1</v>
+      </c>
+      <c r="B325" t="n">
+        <v>686</v>
+      </c>
+      <c r="C325" t="n">
+        <v>1744661287</v>
+      </c>
+      <c r="D325" t="inlineStr">
+        <is>
+          <t>Habe jetzt 7h gespielt und es gefällt mir sehr gut. Die Stimmung ist geil, geiler Stil, nice Musik.  Natürlich gibts es immer kleinigigkeiten, die mehr oder weniger schlimm sind, die aber trotzdem zu beanstanden sind.
+Das Weben in der Runde 8/10:
+Ich finde es sehr unausgeglichen welche Knotenpukte kommen, einige bekommt man gefühlt 5mal im Run, andere sehe ich 5 Runs gar nicht.
+Steuerung 5/10: Steuerung ansich einfach. Aber ich Spiele mit einem PS4 Controller und bei dem Funktioniert das Zielen nur Halbkreisförmig, um zb. die untere Hälfte des Chars zu bedienen, muss ich die Taste L2 drücken. Dodgen ist gar nicht belegt und im MEnü von seiner Rune die man ,,Zeichnet'' kann man die Tabs zwischen Normal, Episch, etc. nciht wechseln. Zudem ist die Steuerung teil ,,Invertiert'', auf meinem PS4 Con.
+Ps.: Zu diesem Abschnitt, viele konnte behoben werden. Durch mich Selber
+Design/Stimmung 10/10
+Im Gesamten ein sehr gutes Spiel, für 6€ geschenkt und die Steuerungsprobleme, können bestimmt irgendwie auch gefixt werden, vielleicht auch meiner seits, bisher keine Lösung gefunden.</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="b">
+        <v>1</v>
+      </c>
+      <c r="B326" t="n">
+        <v>506</v>
+      </c>
+      <c r="C326" t="n">
+        <v>1744658876</v>
+      </c>
+      <c r="D326" t="inlineStr">
+        <is>
+          <t>Äh, ich denke, es ist das beste Schlangendokument, das seit Snake Paper erschienen ist.  Es ist ein Spiel, auf das ich mich freue, es fertigzustellen.</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="b">
+        <v>1</v>
+      </c>
+      <c r="B327" t="n">
+        <v>173</v>
+      </c>
+      <c r="C327" t="n">
+        <v>1744657040</v>
+      </c>
+      <c r="D327" t="inlineStr">
+        <is>
+          <t>Tolles Spiel. Süchtig machender Gameplay Loop. Tolles Upgrade System.</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="b">
+        <v>0</v>
+      </c>
+      <c r="B328" t="n">
+        <v>256</v>
+      </c>
+      <c r="C328" t="n">
+        <v>1744655548</v>
+      </c>
+      <c r="D328" t="inlineStr">
+        <is>
+          <t>Es gibt zu viele zufällige Elemente.,Die Spielgrundlage ist sehr gut.,Die Textur und das Spielgefühl sind sehr gut.。 Aber ich verstehe wirklich nicht, warum neben der Tatsache, dass Upgrade-Fähigkeiten und Verbesserungsrunen zufällig sind, sogar die Art der Fähigkeitsverbesserung (Anzahl der Projektile, Schaden, CD) und der Wert des Upgrades steigen (er wird zufällig zum Wert des Erhöhungswerts entsprechend der Seltenheit von Weiß, Blau, Lila und Orange sein). Das hohe Maß an Zufälligkeit macht das Glück zum wichtigsten Teil, was es extrem schwierig macht, gut zu spielen. Die Spielzeit eines Spielers mit hoher Zufälligkeit zu erhöhen, ist nichts weniger als eine Folter. Ich mag dieses Spiel immer noch mehr und hoffe, dass das Produktionsteam unnötige Zufälligkeiten reduzieren wird. Es ist im Moment nicht sehr zu empfehlen.,Es ist eher eine Gefängniszeit zum Spielen.,Wenn du die Zufälligkeit änderst, änderst du das Lob.。</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="b">
+        <v>0</v>
+      </c>
+      <c r="B329" t="n">
+        <v>1865</v>
+      </c>
+      <c r="C329" t="n">
+        <v>1744654373</v>
+      </c>
+      <c r="D329" t="inlineStr">
+        <is>
+          <t>Dieses Spiel hat so einen schwerwiegenden Fehler und er wurde nicht behoben?  Die guten Attributrunen, an denen ich so hart gearbeitet habe, sind ohne Grund verschwunden? Die unerklärlichen Runen sind weg, entweder im Rucksack oder ausgerüstet (definitiv nicht von mir)</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="b">
+        <v>0</v>
+      </c>
+      <c r="B330" t="n">
+        <v>1047</v>
+      </c>
+      <c r="C330" t="n">
+        <v>1744652167</v>
+      </c>
+      <c r="D330" t="inlineStr">
+        <is>
+          <t>Ich kann keine einzige Runde beenden, da das Spiel nach etwa 16 Minuten im Spiel einfriert. Hatte so viel Spaß mit der Demo, war super gehyped für den Early Access, wurde aber wirklich enttäuscht. Bitte beheben Sie dies so schnell wie möglich</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="b">
+        <v>1</v>
+      </c>
+      <c r="B331" t="n">
+        <v>1788</v>
+      </c>
+      <c r="C331" t="n">
+        <v>1744651076</v>
+      </c>
+      <c r="D331" t="inlineStr">
+        <is>
+          <t>Rasenmähspiele, mehr Dekompression!</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="b">
+        <v>0</v>
+      </c>
+      <c r="B332" t="n">
+        <v>677</v>
+      </c>
+      <c r="C332" t="n">
+        <v>1744649510</v>
+      </c>
+      <c r="D332" t="inlineStr">
+        <is>
+          <t>solides Survivor, die immer wieder auftretenden Abstürze vermiesen leider den Spielspaß. Vielleicht ein zwei patches abwarten.</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="b">
+        <v>1</v>
+      </c>
+      <c r="B333" t="n">
+        <v>686</v>
+      </c>
+      <c r="C333" t="n">
+        <v>1744649195</v>
+      </c>
+      <c r="D333" t="inlineStr">
+        <is>
+          <t>ich finds toll</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="b">
+        <v>0</v>
+      </c>
+      <c r="B334" t="n">
+        <v>1294</v>
+      </c>
+      <c r="C334" t="n">
+        <v>1744647533</v>
+      </c>
+      <c r="D334" t="inlineStr">
+        <is>
+          <t>Startet oft nicht, ich weiß nicht warum</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="b">
+        <v>1</v>
+      </c>
+      <c r="B335" t="n">
+        <v>603</v>
+      </c>
+      <c r="C335" t="n">
+        <v>1744645201</v>
+      </c>
+      <c r="D335" t="inlineStr">
+        <is>
+          <t>Sehr lustiges Spiel, wenn du dich über die Pechsträhne eines Rivalen ärgerst, kannst du einige sehr lustige und schädliche Builds erstellen, könnte aber ein wenig mehr Abwechslung gebrauchen</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="b">
+        <v>0</v>
+      </c>
+      <c r="B336" t="n">
+        <v>274</v>
+      </c>
+      <c r="C336" t="n">
+        <v>1744644195</v>
+      </c>
+      <c r="D336" t="inlineStr">
+        <is>
+          <t>Als ich es getestet habe, hatte ich nicht viel zu spielen, und ich dachte, es macht viel Spaß, aber nach der formellen Prüfung fand ich es ziemlich langweilig...</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="b">
+        <v>1</v>
+      </c>
+      <c r="B337" t="n">
+        <v>990</v>
+      </c>
+      <c r="C337" t="n">
+        <v>1744643988</v>
+      </c>
+      <c r="D337" t="inlineStr">
+        <is>
+          <t>Sehr cooles Spiel!</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="b">
+        <v>1</v>
+      </c>
+      <c r="B338" t="n">
+        <v>487</v>
+      </c>
+      <c r="C338" t="n">
+        <v>1744642844</v>
+      </c>
+      <c r="D338" t="inlineStr">
+        <is>
+          <t>Geiles Game, freue mich schon zu sehen was wird.</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="b">
+        <v>1</v>
+      </c>
+      <c r="B339" t="n">
+        <v>422</v>
+      </c>
+      <c r="C339" t="n">
+        <v>1744640352</v>
+      </c>
+      <c r="D339" t="inlineStr">
+        <is>
+          <t>Es ist nicht schlecht, aber es gibt im Moment zu wenig Inhalt, daher ist es nicht empfehlenswert, damit anzufangen</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="b">
+        <v>1</v>
+      </c>
+      <c r="B340" t="n">
+        <v>2178</v>
+      </c>
+      <c r="C340" t="n">
+        <v>1744638168</v>
+      </c>
+      <c r="D340" t="inlineStr">
+        <is>
+          <t>Leute, Asgard's Fall: Viking Survivors ist wie ein Wikinger-Helm vom Discounter:
+Günstig, leicht schief, aber irgendwie verdammt cool!
+Hänno und seine Crew haben hier an einem Game mitgewirkt, das euch direkt in die nordische Mythologie katapultiert - mit einer ordentlichen Portion Humor und brachialer Action. Klar, es ist (noch) keine Hochglanzproduktion - das Spiel steckt schließlich noch mitten in der Entwicklung.
+Aber wenn ihr Bock auf chaotischen Wikinger-Wahnsinn, lustige Twitch Integration-Momente und ein bisschen Ragnarok-Feeling im Early-Access-Style habt, dann seid ihr hier genau richtig.
+Also: Äxte raus, Met rein und zeigt den Feinden, wo Thor den Hammer hängen lässt.
+Skål!</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="b">
+        <v>1</v>
+      </c>
+      <c r="B341" t="n">
+        <v>585</v>
+      </c>
+      <c r="C341" t="n">
+        <v>1744637450</v>
+      </c>
+      <c r="D341" t="inlineStr">
+        <is>
+          <t>Es macht ziemlich viel Spaß. Ich hoffe, dass mehr Waffen und Kombinationen hinzugefügt werden und nicht nur neue Karten. Das Spiel strebt nach Komplexität, und mehr wäre großartig</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="b">
+        <v>0</v>
+      </c>
+      <c r="B342" t="n">
+        <v>717</v>
+      </c>
+      <c r="C342" t="n">
+        <v>1744636190</v>
+      </c>
+      <c r="D342" t="inlineStr">
+        <is>
+          <t>Das Spiel startet oft nicht, und es braucht oft viele Neustarts, um einmal ins Spiel zu kommen</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="b">
+        <v>1</v>
+      </c>
+      <c r="B343" t="n">
+        <v>2837</v>
+      </c>
+      <c r="C343" t="n">
+        <v>1744632939</v>
+      </c>
+      <c r="D343" t="inlineStr">
+        <is>
+          <t>Spaß</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="b">
+        <v>0</v>
+      </c>
+      <c r="B344" t="n">
+        <v>934</v>
+      </c>
+      <c r="C344" t="n">
+        <v>1744632437</v>
+      </c>
+      <c r="D344" t="inlineStr">
+        <is>
+          <t>Sehr begrenzter Inhalt Der Spielinhalt ist sehr begrenzt, und man kann sich in den ersten Stunden freuen und dann gibt es nichts mehr</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="b">
+        <v>1</v>
+      </c>
+      <c r="B345" t="n">
+        <v>336</v>
+      </c>
+      <c r="C345" t="n">
+        <v>1744631339</v>
+      </c>
+      <c r="D345" t="inlineStr">
+        <is>
+          <t>Ich mag diesen Malstil.,Die Wolkensynchronisation ist wirklich ein bisschen mühsam.</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="b">
+        <v>0</v>
+      </c>
+      <c r="B346" t="n">
+        <v>660</v>
+      </c>
+      <c r="C346" t="n">
+        <v>1744630554</v>
+      </c>
+      <c r="D346" t="inlineStr">
+        <is>
+          <t>WARTEN Sie vor dem Kauf, lohnt sich in diesem Zustand nicht. Gebt den Entwicklern Zeit, die klugen Entscheidungen zu treffen (hoffentlich lol) und nicht nur unnötige neue Inhalte zu produzieren. Sehr coole Idee und Konzept, aber Junge, das braucht Arbeit. Ich erlebe schreckliche Warpaint-Bugs, bei denen sie einfach verschwinden und einzigartige Fehler für den gesamten Spielstand verloren gehen. Schreckliches Bedienlayout für den Controller und die Tatsache, dass wir die Tastenbelegung nicht ändern können, ist sicherlich... eine Wahl. Bestimmte Gegnertypen fühlen sich undankbar oder geradezu unmöglich an. Alles in allem ein sehr interessantes Spiel, das das Potenzial hat, in den Rängen der Survivorlikes aufzusteigen und an die Spitze zu gelangen, WENN die Entwickler weiter arbeiten und offensichtlich damit beginnen, die Fehler beim Brechen von Speichern auszumerzen, damit man es zumindest ausmerzen kann.</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="b">
+        <v>1</v>
+      </c>
+      <c r="B347" t="n">
+        <v>1069</v>
+      </c>
+      <c r="C347" t="n">
+        <v>1744623272</v>
+      </c>
+      <c r="D347" t="inlineStr">
+        <is>
+          <t>supi</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="b">
+        <v>1</v>
+      </c>
+      <c r="B348" t="n">
+        <v>1600</v>
+      </c>
+      <c r="C348" t="n">
+        <v>1744621751</v>
+      </c>
+      <c r="D348" t="inlineStr">
+        <is>
+          <t>Das Spiel macht Spaß. Allerdings fehlt es an Inhalten, und es gibt zu viele unfertige Looks.  -----------------------------------------------------------------------------------------------------------------------------------  1. Die Unterstützung der koreanischen Sprache ist unzureichend. Die Übersetzung erfolgt auf der Ebene von Google Translate, und es gibt Teile, die nicht übersetzt sind, und es gibt Kästchen ohne Text. (Sichtbar, wenn auf Englisch umgestellt)  2. Es gibt keine Erklärung des ersten Tutorials.   3. Der Chef-Gimmick ist nicht klar. (Keine Ahnung, er wurde vom Blitz getroffen und starb in Vanaheim)  4. Das Gleichgewicht ist durcheinander. Die Grundangriffe der drei Charaktere sind physisch, wenn du also eine andere Art von Deckbau bauen möchtest, musst du den Grundangriff ablegen und spielen, aber du kannst den Grundangriff nicht ausschließen, wenn du dich für einen Levelaufstieg entscheidest, also spielst du mit Fesseln. Wählt man jedoch das Muster "Gesichts-Make-up" hauptsächlich für Unterserien wie Beschwörung und Fernkampf, wird der zusätzliche Schadenseffekt von "Faden" nur in der Hauptattribut-Serie existieren, sodass man immer noch mit einem Nachteil spielt.  5. Unfreundliche Bilder. Die Grafiken bestehen aus Punkten, und es gibt keinen Text in den Kombinationsausdrücken, die im Spiel unterstützt werden. Es zeigt nur ein kleines Punktbild in einer vergrößerten Version, und der Name der Fähigkeit wird nicht einmal aufgeführt. Sie können das Rezept auch während des Spiels nicht überprüfen.   6. Es gibt zu wenige Inventarplätze, und die Bewertung des Emblems "Gesichts-Make-up" wird nur durch die Anzahl der Effekte bestimmt, und die Effekte sind in T1, T2 und T3 unterteilt, aber selbst bei einem hochgradigen Emblem bestehen alle vier Effekte aus Effekten der Klasse T1, so dass das Emblem mit der niedrigsten Stufe und einem Effekt der Stufe T3 effizienter sein kann, so dass die Klassifizierung der Gegenstände im Spiel, die Symbole und die Sichtbarkeit der Benutzeroberfläche am schlechtesten sind.  7. Es hat die Vollständigkeit einer "Open Beta". Wenn Asgards "Fall – Viking Survivors" ein Spiel ist, das für einen Fremden als "unfertig" gilt, der denkt, dass es mindestens ein Jahr Zeit, Kapital, Entwicklung und Planung erfordern würde.  Um ehrlich zu sein, denke ich, dass die kostenlose DEMO-Version von einer Qualität ist, die Applaus verdient, aber wenn Sie über die kostenpflichtige Version nachdenken, empfehle ich Ihnen, den Kauf noch einmal zu überdenken.</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="b">
+        <v>0</v>
+      </c>
+      <c r="B349" t="n">
+        <v>825</v>
+      </c>
+      <c r="C349" t="n">
+        <v>1744621425</v>
+      </c>
+      <c r="D349" t="inlineStr">
+        <is>
+          <t>Der zufällige König bist du, wie erreiche ich 500% Angriffsgeschwindigkeit, sag mal? Wenn Sie mir nicht einmal das Recht geben, Upgrades abzulehnen, wie kann dann der Kern funktionieren? Spiel mit dir 🐎, stinkender Idiot</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="b">
+        <v>1</v>
+      </c>
+      <c r="B350" t="n">
+        <v>895</v>
+      </c>
+      <c r="C350" t="n">
+        <v>1744620608</v>
+      </c>
+      <c r="D350" t="inlineStr">
+        <is>
+          <t>Das Spiel ist gut, dynamisch und interessant für sein Pumpen.    ABER, der große Nachteil ist, dass es keine Cloud-Speicherungen gibt. Es gibt keine Möglichkeit, den Übergang zwischen verschiedenen PCs fortzusetzen.</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="b">
+        <v>1</v>
+      </c>
+      <c r="B351" t="n">
+        <v>1156</v>
+      </c>
+      <c r="C351" t="n">
+        <v>1744613682</v>
+      </c>
+      <c r="D351" t="inlineStr">
+        <is>
+          <t>Einfach kaufen! Sie werden es nicht bereuen! Dies ist mit Sicherheit eines der besten Bullet Hell Spiele, die ich gespielt habe (Bullet Hell Spiele sind alles, was ich spiele, lol), also ja, den günstigen Preis absolut wert!</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="b">
+        <v>1</v>
+      </c>
+      <c r="B352" t="n">
+        <v>960</v>
+      </c>
+      <c r="C352" t="n">
+        <v>1744603587</v>
+      </c>
+      <c r="D352" t="inlineStr">
+        <is>
+          <t>Gefährliches Spiel: Macht süchtig! :D
+Nach 15 Stunden habe ich alle Errungenschaften erreicht. Please more!?</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="b">
+        <v>1</v>
+      </c>
+      <c r="B353" t="n">
+        <v>173</v>
+      </c>
+      <c r="C353" t="n">
+        <v>1744596102</v>
+      </c>
+      <c r="D353" t="inlineStr">
+        <is>
+          <t>Vampire Survivor Version Vikinga 10/10</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="b">
+        <v>0</v>
+      </c>
+      <c r="B354" t="n">
+        <v>1698</v>
+      </c>
+      <c r="C354" t="n">
+        <v>1744595267</v>
+      </c>
+      <c r="D354" t="inlineStr">
+        <is>
+          <t>Warum nimmt die Superwaffe, die aus Windhieb und Riesenzahn synthetisiert wird, einen so großen Teil des Sichtfensters ein? Und es ist so umwerfend!! Bitte ändern Sie es zurück, danke.</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="b">
+        <v>1</v>
+      </c>
+      <c r="B355" t="n">
+        <v>1254</v>
+      </c>
+      <c r="C355" t="n">
+        <v>1744590326</v>
+      </c>
+      <c r="D355" t="inlineStr">
+        <is>
+          <t>Schnelllebig, Schwärme... Ein wahrer Kugelhimmel mit exzellenten Meta-Upgrades, Deck-Builder im Spiel (Web of Wyrd) und Waffenfusion/-upgrades.    Triff in den ersten 6-7 Minuten eines Laufs die richtigen Entscheidungen und du solltest OP sein, um den Rest des Laufs wirklich zu knacken!</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="b">
+        <v>1</v>
+      </c>
+      <c r="B356" t="n">
+        <v>678</v>
+      </c>
+      <c r="C356" t="n">
+        <v>1744589071</v>
+      </c>
+      <c r="D356" t="inlineStr">
+        <is>
+          <t>Mehr Tiefe als erwartet, süchtig machend, lustig, gute Meta-Fortschritte.</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="b">
+        <v>1</v>
+      </c>
+      <c r="B357" t="n">
+        <v>667</v>
+      </c>
+      <c r="C357" t="n">
+        <v>1744579673</v>
+      </c>
+      <c r="D357" t="inlineStr">
+        <is>
+          <t>Ganz im Stil von Vampire Survivor erfüllt Asgard Fall alle Erwartungen zusätzlich zu diesem Roguelike-Stil. Einfach und befriedigend, perfektes Spiel, um sich die Zeit zu vertreiben</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="b">
+        <v>1</v>
+      </c>
+      <c r="B358" t="n">
+        <v>626</v>
+      </c>
+      <c r="C358" t="n">
+        <v>1744578738</v>
+      </c>
+      <c r="D358" t="inlineStr">
+        <is>
+          <t>übell entpannt zum daddeln , nicht groß nachdenken , einfach zocken !!!!</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="b">
+        <v>1</v>
+      </c>
+      <c r="B359" t="n">
+        <v>914</v>
+      </c>
+      <c r="C359" t="n">
+        <v>1744577911</v>
+      </c>
+      <c r="D359" t="inlineStr">
+        <is>
+          <t>Habe nicht erwartet, dass dieses Spiel mich so abholt. Der Sog ist wirklich fantastisch. Kaufen &lt;3</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="b">
+        <v>1</v>
+      </c>
+      <c r="B360" t="n">
+        <v>221</v>
+      </c>
+      <c r="C360" t="n">
+        <v>1744575852</v>
+      </c>
+      <c r="D360" t="inlineStr">
+        <is>
+          <t>Noch im Early Access, aber ein lustiges und grindiges Survivor-Spiel Aktueller Bug: Nach dem Pausieren des Spiels werden fast alle Fähigkeiten nicht mehr gecastet, die Hoffnung dass dies ;-; behebt</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="b">
+        <v>1</v>
+      </c>
+      <c r="B361" t="n">
+        <v>1286</v>
+      </c>
+      <c r="C361" t="n">
+        <v>1744574259</v>
+      </c>
+      <c r="D361" t="inlineStr">
+        <is>
+          <t>Unglaubliche Grafik und Gameplay, einige Balancen und Optimierungen sind erforderlich, aber das ist eine Early-Access-Phase. Das ist sehr vielversprechend</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="b">
+        <v>1</v>
+      </c>
+      <c r="B362" t="n">
+        <v>495</v>
+      </c>
+      <c r="C362" t="n">
+        <v>1744572885</v>
+      </c>
+      <c r="D362" t="inlineStr">
+        <is>
+          <t>Bisher großartig</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="b">
+        <v>1</v>
+      </c>
+      <c r="B363" t="n">
+        <v>392</v>
+      </c>
+      <c r="C363" t="n">
+        <v>1744570528</v>
+      </c>
+      <c r="D363" t="inlineStr">
+        <is>
+          <t>Das ist schon gut. Geben Sie dem Ganzen etwas Zeit und es wird ausgezeichnet.   Ich hoffe, dass sie die Inventarverwaltung und den Überblick über die Kriegsbemalung verbessern werden. Eine Sortieroption wäre sehr schön.</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="b">
+        <v>1</v>
+      </c>
+      <c r="B364" t="n">
+        <v>1167</v>
+      </c>
+      <c r="C364" t="n">
+        <v>1744569028</v>
+      </c>
+      <c r="D364" t="inlineStr">
+        <is>
+          <t>Bisher liebe ich dieses Spiel. Es macht Spaß und ist bis zu einem gewissen Punkt herausfordernd, aber wenn man erst einmal ein paar Builds gefunden und gelernt hat, wie die Knoten funktionieren, kann man extrem OP werden. Es gab einige Fehler, aber die Entwickler reagieren schnell, wenn Sie es in ihrem Discord posten. Sie nehmen auch die Ideen der Community ernst. Alles in allem ist es eine großartige Bereicherung für das Genre.</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="b">
+        <v>1</v>
+      </c>
+      <c r="B365" t="n">
+        <v>393</v>
+      </c>
+      <c r="C365" t="n">
+        <v>1744568208</v>
+      </c>
+      <c r="D365" t="inlineStr">
+        <is>
+          <t>Nachdem ich einige Rezensionen gelesen und diesem Spiel eine ehrliche Chance gegeben habe, muss ich sagen, dass ich sehr beeindruckt bin.   Alle beharrten auf der Tatsache, dass der Fortschritt mühsam ist? Aber ist das nicht der Sinn dieses Spielgenres? Wenn man in der Lage wäre, sofort ein Gott zu werden und alles mit einem Schuss zu erledigen, würde sich das Spiel nicht lohnend oder lustig anfühlen, da man grinden müsste, um Upgrades und Kriegsbemalungen zu bekommen, was dieses Spiel so lohnend macht. Wenn du den Stil von Vampire Survivors, Brotato, Soulstone Survivors oder TemTem Swarm magst, wirst du dieses Spiel lieben. Ja, es ist zermürbend, aber es ist eine fantastische Dopamin-Goldgrube.   Ich freue mich auf das, was dieses Spiel auf Lager hat, die Tatsache, dass es so gut läuft und so früh so viel Inhalt hat, gibt mir Hoffnung, dass dieses Spiel an die Spitze der Nahrungskette in diesem Genre aufsteigen wird.</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="b">
+        <v>1</v>
+      </c>
+      <c r="B366" t="n">
+        <v>773</v>
+      </c>
+      <c r="C366" t="n">
+        <v>1744567183</v>
+      </c>
+      <c r="D366" t="inlineStr">
+        <is>
+          <t>Fantastischer Start für dieses Spiel, das Web-System ist sehr einzigartig und lässt jeden Durchlauf einzigartig und anders erscheinen. Ich finde es toll, dass die Upgrades für jede Fähigkeit unterschiedlich sein können (Schaden, Menge, Abklingzeit usw.)    Sehr vielversprechend, würde es sehr empfehlen</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="b">
+        <v>1</v>
+      </c>
+      <c r="B367" t="n">
+        <v>403</v>
+      </c>
+      <c r="C367" t="n">
+        <v>1744564232</v>
+      </c>
+      <c r="D367" t="inlineStr">
+        <is>
+          <t>Es ist befriedigend</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="b">
+        <v>0</v>
+      </c>
+      <c r="B368" t="n">
+        <v>277</v>
+      </c>
+      <c r="C368" t="n">
+        <v>1744564122</v>
+      </c>
+      <c r="D368" t="inlineStr">
+        <is>
+          <t>In seinem jetzigen Zustand macht es nicht viel Spaß. Es fühlt sich an wie ein riesiger Grind und die Mobs sind Kugelschwämme, wenn man nicht die richtigen Upgrades trifft.</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="b">
+        <v>1</v>
+      </c>
+      <c r="B369" t="n">
+        <v>1065</v>
+      </c>
+      <c r="C369" t="n">
+        <v>1744563971</v>
+      </c>
+      <c r="D369" t="inlineStr">
+        <is>
+          <t>Sehr geiles Game...macht mega süchtig...man hat legit sooo viele Möglichkeiten für Builds usw und es ist erst Early Access! 10/10</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="b">
+        <v>1</v>
+      </c>
+      <c r="B370" t="n">
+        <v>1463</v>
+      </c>
+      <c r="C370" t="n">
+        <v>1744563567</v>
+      </c>
+      <c r="D370" t="inlineStr">
+        <is>
+          <t>Bisher wurden nur 4 von 9 Karten veröffentlicht, und es gibt verschiedene Builds... Es gibt... Man kann mit dem Build, den man will, nicht machen, was man will, aber es macht immer noch Spaß. Es fehlen viele Übersetzungen, und es gibt keinen Tutor, so dass es ein wenig mühsam war, alle Funktionen nacheinander ausprobieren zu müssen, aber es gibt keine Schwierigkeiten, auf das Spiel zuzugreifen.   Die Runeneinstellungen sind ein bisschen wie ein!! Bitte fügen Sie einen Runen-Massenbereinigungs-Button zu Inven hinzu!! Schade, dass das Inven-Fach auch sehr klein ist!! Die Preset-Funktion wurde ebenfalls hinzugefügt!! Wenn du dich wieder verbindest, kannst du zu einem anderen Charakter wechseln, aber die Rückkehr zu einem Krieger ist eine Verbesserung!!  Ja, abgesehen davon... Es ist alles gut.   Notepad Max. Angriffstempo : 500 % Max. Ausweichen: 33 % Max. Geschwindigkeit : 150 % (begrenzt mit Patch)</t>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="b">
+        <v>1</v>
+      </c>
+      <c r="B371" t="n">
+        <v>1497</v>
+      </c>
+      <c r="C371" t="n">
+        <v>1744563103</v>
+      </c>
+      <c r="D371" t="inlineStr">
+        <is>
+          <t>Spiel macht richtig Laune - saß gestern den ganzen Tag davor und habe nur gesuchtet. Es gibt allerdings noch einige Sachen, die mich (und scheinbar auch andere) stören:
+1. Es braucht unbedingt mehr Infos. 
+a) Das betrifft zum einen das Buch, indem lediglich die Icons der Fähigkeiten gezeigt werden, nicht aber die Namen aufgeführt sind. Hier könnte man auch z.B. beim Levelup die entsprechenden Kombis anzeigen, das fände ich ganz cool. 
+b) Zum anderen ist das die Steuerung: Ich habe erst in der dritten Stage notgedrungen erfahren, dass es einen Dodge gibt. Cool wäre eine Art Menü in den Einstellungen oder etwas ähnliches rund um das Campfire. 
+c) Außerdem wären mehr Infos im Bereich des Webens super - Unterkühlung, was genau macht das denn z.B.? Vom Ausweichen habe ich auch nur dort erfahren.
+d) Eine Art Stat-Menü wäre super, um zu sehen, wie viel Prozentpunkte etc. man bereits aggregiert hat.
+2. Die Schwierigkeit der Welten variiert stark. Während ich für den Clear der ersten Welt rund 4h gebraucht habe, hat mich die zweite Welt nahezu 9h gekostet und die dritte Welt habe ich nach dem dritten Try besiegt. Eventuell war das nur Glück, eventuell nicht. Sollte es noch anderen Leuten so gehen, empfände ich entweder ein stetiges oder ein steigendes Anforderungsniveau optimal.
+3. Klar gehört es zum Spiel dazu, dass es unübersichtlich ist, allerdings sind die orangenen Kreise des dritten Bosses nicht zu erkennen. Ich bin zwar nicht farbenblind, ein entsprechender Modus könnte dem aber Abhilfe schaffen. 
+4. Mir fehlt aktuell noch etwas die Varianz der Wellen insbesondere zwischen den Welten. Welt 1 und 2 sind sehr ähnlich und fühlen sich abgesehen von den Bossen so an, als wäre es lediglich eine etwas andere Farbpalette. Gleiches gilt für Welt 3 und 4, die sich gefühlt auch nur von den anderen beiden differenzieren, weil sie den Aspekt von Terrain mit hineinbringen. Cool wäre hier eine dynamischere Angriffsmuster von Feinden, mehr VArianz im allgemeinen und eventuell mehr Spiel mit den einzelnen Themen der neun Welten</t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="b">
+        <v>1</v>
+      </c>
+      <c r="B372" t="n">
+        <v>1314</v>
+      </c>
+      <c r="C372" t="n">
+        <v>1744561319</v>
+      </c>
+      <c r="D372" t="inlineStr">
+        <is>
+          <t>Hallo,
+das Game ist super und für 6 € geschenkt.
+3 Verbesserungswünsche hätte ich trotzdem:
+-für mich wäre es entspannter, wenn man auf der Minimap sehen könnte, wo man auf der Karte ist
+-es wär cool, wenn man die Runen innerhalb des Inventars zum sortieren, moven könnte
+-die gefundenen Runen würde ich gerne in einem weiteren Reiter, in denen man auch die herstellbaren Runen findet, angezeigt bekommen und am besten auch dort entnehmen zum puzzlen</t>
+        </is>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="b">
+        <v>1</v>
+      </c>
+      <c r="B373" t="n">
+        <v>1407</v>
+      </c>
+      <c r="C373" t="n">
+        <v>1744559378</v>
+      </c>
+      <c r="D373" t="inlineStr">
+        <is>
+          <t>Bei diesem Spiel ist es schwierig, das Ödland zu öffnen, im Gegensatz zu anderen Rasenmäherspielen, die das Gras bequem mähen können Natürlich können Sie das Gras immer noch bequem mähen, aber dazu müssen Sie bis zur "späten Phase" spielen Wenn die frühen Fähigkeiten und Runen nicht gut sind, sind Sie ein Klumpen, und es gibt nur wenige Möglichkeiten, Blut zurückzugeben Schlechte Erinnerung, der Körper wird nicht verletzt, wenn er den Mob trifft, blinken Sie einfach ihren roten Angriffsbereich auf, daher ist die Laufgeschwindigkeit sehr wichtig</t>
+        </is>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="b">
+        <v>0</v>
+      </c>
+      <c r="B374" t="n">
+        <v>170</v>
+      </c>
+      <c r="C374" t="n">
+        <v>1744557469</v>
+      </c>
+      <c r="D374" t="inlineStr">
+        <is>
+          <t>Wie viele ähnliche Spiele in diesem Genre hat es Leistungsprobleme, wenn ein Haufen Monster auftaucht. (wenn Sie Levels aus dem Menü verkomplizieren). Es kostet überhaupt kein Geld, man durchläuft zwei Levels und es ist nicht interessant, weiter zu gehen.</t>
+        </is>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="b">
+        <v>1</v>
+      </c>
+      <c r="B375" t="n">
+        <v>701</v>
+      </c>
+      <c r="C375" t="n">
+        <v>1744557401</v>
+      </c>
+      <c r="D375" t="inlineStr">
+        <is>
+          <t>Ein gutes Spiel für alle, die dieses Genre lieben. Eine Vielzahl von Waffen, drei Charaktere mit eigenen Entwicklungszweigen, angenehme Soundeffekte. Empfehlen!</t>
+        </is>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="b">
+        <v>0</v>
+      </c>
+      <c r="B376" t="n">
+        <v>2961</v>
+      </c>
+      <c r="C376" t="n">
+        <v>1744556465</v>
+      </c>
+      <c r="D376" t="inlineStr">
+        <is>
+          <t>Der Schwierigkeitsgrad ist zu hoch, die Anforderungen für das Freischalten neuer Charaktere sind zu unvernünftig und die Übergänge sind zu fließend.  Selbst wenn du Glück hast und früh bekommst, was du willst, musst du dich immer noch in Position bringen, und du kannst überhaupt nicht glücklich sein.</t>
+        </is>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="b">
+        <v>1</v>
+      </c>
+      <c r="B377" t="n">
+        <v>1300</v>
+      </c>
+      <c r="C377" t="n">
+        <v>1744556455</v>
+      </c>
+      <c r="D377" t="inlineStr">
+        <is>
+          <t>Gib mir den Unendlichkeitsmodus, neue Helden und neue Fähigkeiten und mein Leben gehört dir.</t>
+        </is>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="b">
+        <v>1</v>
+      </c>
+      <c r="B378" t="n">
+        <v>828</v>
+      </c>
+      <c r="C378" t="n">
+        <v>1744553197</v>
+      </c>
+      <c r="D378" t="inlineStr">
+        <is>
+          <t>Das spiel ist für mich ne 10/10 !!
+Liebe es das man sehr ins Kalte Wasser geworfen wird und nur minimalste Infos bekommt!
+Schwierigkeit ist auch nicht zu übertrieben!
+jedoch der  Oneshot Boss in Stage 2 ist böse solange man weiß wie es easy geht ^^
+Es kann sehr sehr Broken Skaliert werden, wenn man alles durchblickt hat =)
+Mir gefällt das der Shop sehr sehr Zufällig ist und wenn man den Dreh heraus hat.
+Und Besonders was mir als kleiner Streamer gefallen hat das heute einer der Dev´s im Stream war und um feedback gebeten und gefragt hatt ob es wo Bugs giebt ETC.
+Gefällt mir Sehr !!!!</t>
+        </is>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="b">
+        <v>1</v>
+      </c>
+      <c r="B379" t="n">
+        <v>397</v>
+      </c>
+      <c r="C379" t="n">
+        <v>1744552714</v>
+      </c>
+      <c r="D379" t="inlineStr">
+        <is>
+          <t>Sehr goog</t>
+        </is>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="b">
+        <v>1</v>
+      </c>
+      <c r="B380" t="n">
+        <v>694</v>
+      </c>
+      <c r="C380" t="n">
+        <v>1744551881</v>
+      </c>
+      <c r="D380" t="inlineStr">
+        <is>
+          <t>nett</t>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="b">
+        <v>1</v>
+      </c>
+      <c r="B381" t="n">
+        <v>597</v>
+      </c>
+      <c r="C381" t="n">
+        <v>1744549077</v>
+      </c>
+      <c r="D381" t="inlineStr">
+        <is>
+          <t>Es ist ein lustiges Spiel mit einer guten Balance zwischen Herausforderung und Belohnung. Es ist einfach, sich darauf einzulassen und Sie kommen immer wieder zurück, um mehr Kombinationen von Fähigkeiten zu entdecken.</t>
+        </is>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="b">
+        <v>0</v>
+      </c>
+      <c r="B382" t="n">
+        <v>452</v>
+      </c>
+      <c r="C382" t="n">
+        <v>1744546904</v>
+      </c>
+      <c r="D382" t="inlineStr">
+        <is>
+          <t>Ist der Überlebende, der nicht aufstehen kann, nicht Geschichte? Der Inhalt ist erbärmlich.,Es gibt zu viele zufällige Elemente in der ganzen Sache.,Es gibt nur wenige, die kombiniert werden können, um den Spieler konkav und konkav zu machen.,Wähle eine der drei Fertigkeitsqualitäten und teile sie in Weiß, Blau, Lila und Orange auf.,Nimm die Konkave einmal Die Kosten sind so teuer wie die Asche im Bestattungsinstitut Außerdem hat die Rucksack-Benutzeroberfläche so viele Leerzeichen.,Ich muss die ganze Beschreibungsbeschriftung mit der Maus verfolgen Was sich das Gehirn ausgedacht hat</t>
+        </is>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="b">
+        <v>1</v>
+      </c>
+      <c r="B383" t="n">
+        <v>48</v>
+      </c>
+      <c r="C383" t="n">
+        <v>1744542984</v>
+      </c>
+      <c r="D383" t="inlineStr">
+        <is>
+          <t>Schauen wir mal: https://youtu.be/-F90W-lJL1A Ich habe dieses Spiel sehr genossen! Ich dachte, der Spielraum für einen Early Access scheint groß zu sein. Ich weiß nicht, ob das Spiel so schwer sein soll, aber verdammt noch mal so brutal ist. Mein erster Lauf dauerte gut 3 Minuten. Deine Hitbox scheint riesig zu sein und es ist definitiv schwer zu sagen, wann oder wie du getroffen wirst. Ich freue mich darauf zu sehen, wohin das führt, weil mir das Thema und die Fähigkeiten dahinter Spaß machen.</t>
+        </is>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="b">
+        <v>0</v>
+      </c>
+      <c r="B384" t="n">
+        <v>365</v>
+      </c>
+      <c r="C384" t="n">
+        <v>1744542250</v>
+      </c>
+      <c r="D384" t="inlineStr">
+        <is>
+          <t>Ton... Ich empfehle es nicht.</t>
+        </is>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="b">
+        <v>0</v>
+      </c>
+      <c r="B385" t="n">
+        <v>1518</v>
+      </c>
+      <c r="C385" t="n">
+        <v>1744541857</v>
+      </c>
+      <c r="D385" t="inlineStr">
+        <is>
+          <t>Ich habe zwei Stunden lang gebürstet und konnte nicht den Buff putzen, den ich wollte.,Es ist nutzlos zu arbeiten, wenn Sie Pech haben.,Geben Sie zwei Gold, um den Zoll direkt zu passieren.,Wenn Sie es nicht haben, ist es ein direkter Trend.,Ich kann es nicht ertragen.</t>
+        </is>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="b">
+        <v>0</v>
+      </c>
+      <c r="B386" t="n">
+        <v>262</v>
+      </c>
+      <c r="C386" t="n">
+        <v>1744541756</v>
+      </c>
+      <c r="D386" t="inlineStr">
+        <is>
+          <t>Zufällig und ziemlich roh</t>
+        </is>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="b">
+        <v>0</v>
+      </c>
+      <c r="B387" t="n">
+        <v>850</v>
+      </c>
+      <c r="C387" t="n">
+        <v>1744538679</v>
+      </c>
+      <c r="D387" t="inlineStr">
+        <is>
+          <t>Ich mag die Designentscheidungen dieses Spiels nicht. Die Zufälligkeit ist zu brutal und bestrafend, während die Meta-Progression, um sie abzuschwächen, hinter Inhalten verborgen ist, die zu weit entfernt sind. Du musst dich bis zum Mittel- und Endspiel kämpfen, ohne nennenswerte Fortschritte zu machen, um grundlegende Upgrades freizuschalten. Dies führt zu vielen abgebrochenen Läufen. Das ist meine Zeit nicht wert. Da du nur eine begrenzte Anzahl von Runenplätzen pro Durchlauf hast, muss der Wert der Runen und Werte, die sie liefern, anders bewertet werden als bei anderen Horden-Survival-Spielen, bei denen du unbegrenzt Upgrades erhalten kannst. Aber das ist nicht der Fall, was viele Runen nutzlos oder sogar bestrafend macht, wenn man gezwungen wird, sie zu wählen.</t>
+        </is>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="b">
+        <v>0</v>
+      </c>
+      <c r="B388" t="n">
+        <v>79</v>
+      </c>
+      <c r="C388" t="n">
+        <v>1744537408</v>
+      </c>
+      <c r="D388" t="inlineStr">
+        <is>
+          <t>Es ist schmerzhaft, im Ödland zu spielen, und es ist langsam, aufzurüsten, und es ist überhaupt nicht cool, zu spielen</t>
+        </is>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="b">
+        <v>1</v>
+      </c>
+      <c r="B389" t="n">
+        <v>2069</v>
+      </c>
+      <c r="C389" t="n">
+        <v>1744537077</v>
+      </c>
+      <c r="D389" t="inlineStr">
+        <is>
+          <t>"Asgard's Fall" ist ein fesselndes Spiel, das die nordische Mythologie auf innovative Weise interpretiert. Die Grafik ist beeindruckend und schafft eine immersive Atmosphäre, die den Spieler sofort in die Welt der Götter und Legenden eintauchen lässt. Die Steuerung ist intuitiv, was es sowohl für Neulinge als auch für erfahrene Spieler zugänglich macht.
+Die Handlung ist spannend und bietet eine gelungene Mischung aus Action und Rätseln, die den Spieler herausfordert, ohne frustrierend zu sein. Besonders hervorzuheben ist die Tiefe der Charaktere, die gut ausgearbeitet sind und dem Spiel eine emotionale Note verleihen.
+Ein kleiner Kritikpunkt könnte die Spielbalance sein, da einige Kämpfe etwas herausfordernd sind, was jedoch auch den Reiz des Spiels ausmacht. Insgesamt ist "Asgard's Fall" ein gelungenes Erlebnis, das sowohl Fans von Action-Adventures als auch von Mythologie begeistern wird. Ich kann es nur empfehlen!</t>
+        </is>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="b">
+        <v>0</v>
+      </c>
+      <c r="B390" t="n">
+        <v>427</v>
+      </c>
+      <c r="C390" t="n">
+        <v>1744536777</v>
+      </c>
+      <c r="D390" t="inlineStr">
+        <is>
+          <t>。</t>
+        </is>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="b">
+        <v>0</v>
+      </c>
+      <c r="B391" t="n">
+        <v>555</v>
+      </c>
+      <c r="C391" t="n">
+        <v>1744534667</v>
+      </c>
+      <c r="D391" t="inlineStr">
+        <is>
+          <t>Kann man nur eine Superwaffe in einem Spiel verwenden? In der späteren Phase ist es nicht cool... Ein Durcheinander von Systemen mit begrenzter Tiefe.</t>
+        </is>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="b">
+        <v>1</v>
+      </c>
+      <c r="B392" t="n">
+        <v>696</v>
+      </c>
+      <c r="C392" t="n">
+        <v>1744534223</v>
+      </c>
+      <c r="D392" t="inlineStr">
+        <is>
+          <t>chillig</t>
+        </is>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="b">
+        <v>1</v>
+      </c>
+      <c r="B393" t="n">
+        <v>808</v>
+      </c>
+      <c r="C393" t="n">
+        <v>1744532864</v>
+      </c>
+      <c r="D393" t="inlineStr">
+        <is>
+          <t>Echter Geheimtipp mit hohem Suchtfaktor
+Askard Fall überzeugt mit hoher Wiederspielbarkeit, einem einzigartigen Runen-System und echtem Suchtpotenzial. Jeder Run fühlt sich frisch an und lädt zum Tüfteln ein.
+Ein paar kleine Schwächen gibt’s noch: Gibt man eine Runde auf, kann es passieren, dass man nicht mehr in den Hub zurückkommt – da hilft nur ein Neustart. Ein Kill-Tracker für Gegner wäre super, um Achievements gezielter zu verfolgen. Auch wäre es hilfreich,  wenn im Kompendium eine Hover-Funktion für Abilities da wäre – um direkt zu sehen, was sie machen, wie die finale Kombo aussieht und welche Stats sie hat.
+Fazit: Trotz kleiner Macken ein super gelungenes Roguelike mit viel Tiefgang und Langzeitmotivation.
+9/10 – Wird gesuchtet!</t>
+        </is>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="b">
+        <v>1</v>
+      </c>
+      <c r="B394" t="n">
+        <v>1095</v>
+      </c>
+      <c r="C394" t="n">
+        <v>1744532276</v>
+      </c>
+      <c r="D394" t="inlineStr">
+        <is>
+          <t>Das Ding kostet gerade 6/7 Euro. Ein Tag mal kein Döner, du bist eh zu Fett. Also mach deine Maus/Controller warm und Brenn deine Kalorien mit den unterschiedlichen Charakteren, die eigenen Skilltree haben weg. Es gibt anpassbaren Schwierigkeit, um den Materialiendrop zu erhöhen. Damit craftest du  "Runen", die Wahrscheinlichkeiten von Upgrades verändern und andere Sachen.
+Es gibt unterschiedliche Maps, die andere Drops, Monster und unterschiedliche Bosse haben.
+Halbe Bibel, ganzer Hs. , FÜR SPANDAU.</t>
+        </is>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="b">
+        <v>1</v>
+      </c>
+      <c r="B395" t="n">
+        <v>317</v>
+      </c>
+      <c r="C395" t="n">
+        <v>1744527528</v>
+      </c>
+      <c r="D395" t="inlineStr">
+        <is>
+          <t>Es ist alles vorbei, wenn du alle physischen Fähigkeiten auswählst, und du kannst Angriffsgeschwindigkeit hinzufügen und cd reduzieren, um eine Angriffsgeschwindigkeit von 2000+ zu bilden, und das ist auf dem Bildschirm nicht ungewöhnlich</t>
+        </is>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="b">
+        <v>1</v>
+      </c>
+      <c r="B396" t="n">
+        <v>1456</v>
+      </c>
+      <c r="C396" t="n">
+        <v>1744527448</v>
+      </c>
+      <c r="D396" t="inlineStr">
+        <is>
+          <t>Ich mach's kurz. Absolut süchtig machend das Game. Eigentlich wollte ich nur kurz rein schauen und knapp 10 Stunden später bin ich wieder im real Live. 
+Also Leude. Kauft Euch das Ding</t>
+        </is>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="b">
+        <v>1</v>
+      </c>
+      <c r="B397" t="n">
+        <v>1264</v>
+      </c>
+      <c r="C397" t="n">
+        <v>1744526307</v>
+      </c>
+      <c r="D397" t="inlineStr">
+        <is>
+          <t>Tolles Spiel!</t>
+        </is>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="b">
+        <v>1</v>
+      </c>
+      <c r="B398" t="n">
+        <v>1195</v>
+      </c>
+      <c r="C398" t="n">
+        <v>1744526038</v>
+      </c>
+      <c r="D398" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+"Asgard's Fall" ist ein beeindruckendes Spiel, das sowohl in der Grafik als auch im Gameplay überzeugt. Die detailreiche Welt und die fesselnde Story ziehen einen sofort in ihren Bann. Die Kombination aus actiongeladenen Kämpfen und strategischen Elementen sorgt für ein abwechslungsreiches Spielerlebnis. Besonders hervorzuheben ist die kreative Nutzung von Fähigkeiten und die Möglichkeit, verschiedene Spielstile auszuprobieren.</t>
+        </is>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="b">
+        <v>1</v>
+      </c>
+      <c r="B399" t="n">
+        <v>691</v>
+      </c>
+      <c r="C399" t="n">
+        <v>1744525212</v>
+      </c>
+      <c r="D399" t="inlineStr">
+        <is>
+          <t>Neben der grundlegenden Verstärkung im gut gemachten Hauptspiel, das mehrere Systeme hat, die es von den üblichen Schlangenpapieren unterscheiden, ist es kein System, das einfach durch Aufleveln stärker wird, wie z. B. das Herstellen und Setzen von Runen mit Ressourcen, die während des Spiels gesammelt werden, und die Knoteneinstellungen, die je nach Charakter unterschiedlich sein müssen, so dass zusätzliche Fähigkeiten aktiviert werden, wenn jede Fertigkeit um mehr als 5 Wiederholungen der Fähigkeiten unter Frische erhöht wird. Beispiel) Axtwurf 5 Wiederholungen + Dolchwurf 5 Wiederholungen = Axtwurf 5 + Dolchwurf 5 + Shatter Leviathan Axtwurf (kalt, Fernkampf) + Dolchwurf (physisch,  Fernkampf) ➡️ Zerschmetterte Leviathan-Axt (Kälte, Physisch, Fernkampf): Dolch, der von einer geworfenen Axt abgefeuert wird Flammenaxt (Feuer, Explosion) + Lokis Arkus-Illusion (Blitz, Fernkampf ➡️) Elektrische Axt (Feuer, Blitz, Fernkampf, Explosion) Riesenzahn (Feuer, Nahkampf) + Mahlstromhieb (physisch, Nahkampf) ➡️ Klinge des feurigen Chaos (Feuer, physisch, Nahkampf, Aura) Skadis Frostblitz (Kälte, Fernkampf) + Gungnir (Blitz, Fernkampf) ➡️ Odins Frostblitz (Frost,  Blitz, Fernkampf) Balliste (physisch, beschworen) + Yggdrasils Impuls (Blitz, Fernkampf ➡️) Sturmdurchdringer (Blitz, physisch, beschworen, Fernkampf) Boden spalten (physisch, Nahkampf) + Gletscherzerstörung (Kälte, Fernkampf) ➡️ Frostfangring (physisch, Kälte, Nahkampf, Fernkampf) Fenrirklaue (physisch, Fernkampf) + Thors Zorn (Blitz, Fernkampf) ➡️ Donnerklaue (Blitz, physisch, Fernkampf) Surts Flamme (Feuer, Fernkampf) + Frostsperrfeuer (Kälte, Nahkampf) ➡️ Höllensturm (Feuer, Frost, Fernkampf)  Beschwörung)</t>
+        </is>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="b">
+        <v>1</v>
+      </c>
+      <c r="B400" t="n">
+        <v>498</v>
+      </c>
+      <c r="C400" t="n">
+        <v>1744518497</v>
+      </c>
+      <c r="D400" t="inlineStr">
+        <is>
+          <t>Allgemein. Es gibt sehr wenig Inhalt. Es gibt nur drei Charaktere und nicht viele Fähigkeiten. Darüber hinaus werden die Fähigkeiten verschiedener Attribute miteinander vertauscht, und es gibt keinen Unterschied beim Spielen der einzelnen Genres. Nach ein paar Durchläufen ist es langweilig.</t>
+        </is>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="b">
+        <v>1</v>
+      </c>
+      <c r="B401" t="n">
+        <v>1382</v>
+      </c>
+      <c r="C401" t="n">
+        <v>1744516511</v>
+      </c>
+      <c r="D401" t="inlineStr">
+        <is>
+          <t>Dieses Spiel macht immer noch sehr viel Spaß.,Spielen Sie auf dem Steam Deck.,Es ist ziemlich haltbar, 60 Stiche zu öffnen.,Es ist nur so, dass es am Anfang ein bisschen niedrig ist.,Mehr Runen.,Es fängt an, mächtig zu werden.</t>
+        </is>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="b">
+        <v>1</v>
+      </c>
+      <c r="B402" t="n">
+        <v>1647</v>
+      </c>
+      <c r="C402" t="n">
+        <v>1744512888</v>
+      </c>
+      <c r="D402" t="inlineStr">
+        <is>
+          <t>Das Spiel ist überall gut, aber das Tempo ist zu langsam! Es dauert mehr als 20 Minuten, um ein Spiel abzuschließen</t>
+        </is>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="b">
+        <v>1</v>
+      </c>
+      <c r="B403" t="n">
+        <v>1015</v>
+      </c>
+      <c r="C403" t="n">
+        <v>1744511929</v>
+      </c>
+      <c r="D403" t="inlineStr">
+        <is>
+          <t>Es fühlt sich gut an, die Live-Übertragung von Huya Chuhe zu sehen, und ich bin heruntergekommen, um selbst zu spielen Derzeit gibt es viele unvernünftige Orte, an denen man unter der Erfahrung Vorschläge machen kann 1. Ob es sich um ein Lager oder ein Level handelt, Sie können das persönliche Attributfeld nicht sehen 2. Seltsame Multi-Skill-Minus-CD kann die Transparenz von Spezialeffekten nicht anpassen 3. Der Runenrucksack hat keine Ein-Klick-Auswahl, um Runen zu verkaufen, eine nach der anderen ist zu mühsam, Ausrüstungsrunen müssen jedes Mal mit Schlüsseln bedient werden, wenn sie nicht mit der Benutzeroberfläche bedient werden können, und es gibt nur eine Rune Seite 4. Kann fünf Fähigkeiten zusammenstellen, aber nur eine Superfähigkeit kombinieren (2 Fähigkeiten, die kombiniert werden können, können auf Stufe fünf aufgewertet werden, um Superfähigkeiten zu synthetisieren), und ich habe das Gefühl, dass es für eine Fähigkeit besonders schwierig ist, eine andere Fähigkeit zu haben, und es gibt keine Textbeschreibung in der Pixelkarte der Lagersynthesetabelle 5. Momentan spiele ich nur Krieger, und das Netz des Schicksals reduziert die Fähigkeit CD+ Bewegungsgeschwindigkeit + 10% Vampir ist im Grunde gleich Unbesiegbarkeit Beigefügt ist die vorhandene Tabelle mit acht Superfähigkeiten und Fertigkeitsbeschreibungen Scati Eispfeil + Gungnir = Odin-Eispfeil (Schieße Eispfeil auf ein zufälliges Ziel, Friert sie an Ort und Stelle ein, explodiert beim Aufprall und löst einen Schockeffekt aus) Giant's Fang + Whirlwind Slash = Sengende Chaosklinge (Schwingt die Sengende Chaosklinge um sich selbst, fügt Gegnern Schaden zu, setzt sie in Brand und blutet) Earth Crack + Glacier Crack = Frostfang Ring (Beschwört eine massive Frostwand um dich herum, die aus dem Boden hervorbricht und sich nach außen bewegt) Fenrirs Klaue + Thors Zorn = Donnerklaue (Fenrir ist aufgeladen und schlitzt zufällige Ziele brutal auf) Wurf-Leviathana-Axt + Wurfdolch = Zerschmetternde Leviatran-Axt   (Schleudert eine Leviathana-Axt auf ein zufälliges Ziel und feuert regelmäßig Fragmente in eine zufällige Richtung) Geschützturm + Weltenbaum-Impuls = Sturmdurchdringer (Beschwört einen Sturmdurchdringer, der regelmäßig elektrische Impulse auf Gegner in der Nähe abfeuert) Surtrs Feuer + Wind = Helstum (beschwört einen Feuertornado, der mit Hels Frost durchdrungen ist und durchdringende Eiszapfen abschießt) Glutaxt + Lokis Elektrophantom = Elektrische Axt (Wirft eine elektrifizierte brennende Axt, die beim Aufprall explodiert und ein Nachbild von sich selbst erzeugt) Zu guter Letzt ist der Chu-Fluss fantastisch!!</t>
+        </is>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="b">
+        <v>1</v>
+      </c>
+      <c r="B404" t="n">
+        <v>598</v>
+      </c>
+      <c r="C404" t="n">
+        <v>1744510932</v>
+      </c>
+      <c r="D404" t="inlineStr">
+        <is>
+          <t>Eine großartige Herangehensweise an das Genre, mit einigen der besten Fortschritte, die ich je bei Survivors gesehen habe. Zu diesem Zeitpunkt fehlt es an Inhalten, aber das hat die Grundlage, um ein unglaubliches Spiel zu machen. Ich würde sagen, dass es auch auf dem aktuellen Inhaltsniveau immer noch den Preis von 10 US-Dollar wert ist</t>
+        </is>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="b">
+        <v>0</v>
+      </c>
+      <c r="B405" t="n">
+        <v>79</v>
+      </c>
+      <c r="C405" t="n">
+        <v>1744510097</v>
+      </c>
+      <c r="D405" t="inlineStr">
+        <is>
+          <t>Ich bin gespannt, ob der Autor es fertigstellen kann. Als ich diese Art von Spiel zum ersten Mal sah, musste ich in Bewegung bleiben, sonst würde ich in einer Sekunde sterben</t>
+        </is>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="b">
+        <v>1</v>
+      </c>
+      <c r="B406" t="n">
+        <v>993</v>
+      </c>
+      <c r="C406" t="n">
+        <v>1744507835</v>
+      </c>
+      <c r="D406" t="inlineStr">
+        <is>
+          <t>Geiles Game diggah, voll viel geballer und gemetzel allah. Ne, Spielmechanik und der Grundgedanke dahinter sind ultra gut. Game macht ultra Laune und vor allem Laune auf mehr! Dick Potenzial hat der Lachs. Dicke Probs. 
+Müsst Ihr nicht wissen, müsst Ihr kaufen!</t>
+        </is>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="b">
+        <v>1</v>
+      </c>
+      <c r="B407" t="n">
+        <v>1864</v>
+      </c>
+      <c r="C407" t="n">
+        <v>1744506421</v>
+      </c>
+      <c r="D407" t="inlineStr">
+        <is>
+          <t>Es ist zu schwer QWQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="b">
+        <v>1</v>
+      </c>
+      <c r="B408" t="n">
+        <v>346</v>
+      </c>
+      <c r="C408" t="n">
+        <v>1744506079</v>
+      </c>
+      <c r="D408" t="inlineStr">
+        <is>
+          <t>Macht Spaß, eines der besseren Vampire Survival likes</t>
+        </is>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="b">
+        <v>0</v>
+      </c>
+      <c r="B409" t="n">
+        <v>912</v>
+      </c>
+      <c r="C409" t="n">
+        <v>1744505462</v>
+      </c>
+      <c r="D409" t="inlineStr">
+        <is>
+          <t>Es ist schwer, sich ein Fleischtauben-Überlebensspiel vorzustellen, das mich so sprachlos macht Es gibt überhaupt kein Gefühl von Coolness Jedes Spiel arbeitet mehr als zehn Minuten, nur um die letzten Minuten abzukühlen Die Werte sind ernsthaft unausgewogen Hat der Autor diesen Klumpen wirklich gespielt, den er selbst gemacht hat?</t>
+        </is>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="b">
+        <v>1</v>
+      </c>
+      <c r="B410" t="n">
+        <v>130</v>
+      </c>
+      <c r="C410" t="n">
+        <v>1744505434</v>
+      </c>
+      <c r="D410" t="inlineStr">
+        <is>
+          <t>Lustiges kleines Spiel Probieren Sie es aus</t>
+        </is>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="b">
+        <v>0</v>
+      </c>
+      <c r="B411" t="n">
+        <v>509</v>
+      </c>
+      <c r="C411" t="n">
+        <v>1744505123</v>
+      </c>
+      <c r="D411" t="inlineStr">
+        <is>
+          <t>Der Fall von Asgard ist abgestürzt. Ein Absturzbericht wurde an den Entwickler gesendet! Fehler: l32 argument is undefined 스킬조합이 합성시 버그같은오류가 생겼는데 이게 뭐에요.. 개발자님!</t>
+        </is>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="b">
+        <v>1</v>
+      </c>
+      <c r="B412" t="n">
+        <v>50</v>
+      </c>
+      <c r="C412" t="n">
+        <v>1744504979</v>
+      </c>
+      <c r="D412" t="inlineStr">
+        <is>
+          <t>Schlechtes Ukrainisch, muss korrigiert werden, und um ehrlich zu sein, es ist ein sehr schwieriges Spiel, es ist sehr schwierig, ich habe viel Superkraft gespielt, aber das ist das schwierigste der anderen. Vielleicht gefällt es natürlich jemandem, aber ich würde Ihnen raten, an der Balance zu arbeiten. Aber ansonsten ein cooles Spiel.</t>
+        </is>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="b">
+        <v>0</v>
+      </c>
+      <c r="B413" t="n">
+        <v>604</v>
+      </c>
+      <c r="C413" t="n">
+        <v>1744497253</v>
+      </c>
+      <c r="D413" t="inlineStr">
+        <is>
+          <t>Ah Minos, ich erläutere den Traum des Produzenten. Ein Spiel kann nur eine Super-Martial-Arts synthetisieren, vergiss es.,Es ist auch eine spezielle zwei Fähigkeiten.,Wenn du dich für eine der beiden Fähigkeiten entscheidest, verringert sich die Wahrscheinlichkeit für die andere.,Wirf viele Pinsel neu.,Nun, du kannst eine andere Schlüsselfertigkeit nicht wegwischen.,Es ist schwer, zwei Fähigkeiten herauszuholen.,Nachdem du eine von ihnen auf Stufe fünf aufgewertet hast, muss die andere Fertigkeit viele Male neu geworfen werden.,Es wird dringend empfohlen, dass Fu Qin das Xylophon des Herstellers nicht finden kann.,Du musst es viele Male neu werfen, bevor es erscheint.,Hehee (#^.^#)</t>
+        </is>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="b">
+        <v>1</v>
+      </c>
+      <c r="B414" t="n">
+        <v>736</v>
+      </c>
+      <c r="C414" t="n">
+        <v>1744495976</v>
+      </c>
+      <c r="D414" t="inlineStr">
+        <is>
+          <t>Zu cool!</t>
+        </is>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="b">
+        <v>0</v>
+      </c>
+      <c r="B415" t="n">
+        <v>1891</v>
+      </c>
+      <c r="C415" t="n">
+        <v>1744491435</v>
+      </c>
+      <c r="D415" t="inlineStr">
+        <is>
+          <t>Ich denke also, dass es viele Dinge gibt, die dieses Spiel nicht nur richtig macht, sondern meines Wissens auch neu für das Survival-Genre. Ich war beeindruckt von der Vielfalt der verschiedenen Klassen und dem Potenzial, das sie bei der Implementierung einzigartiger Mechaniken für zentrale Gameplay-Aspekte wie das Überleben zeigten (ok, es war nur der Seher, der mich mit seiner Alternative von Tränken zu goldenen Äpfeln beeindruckte). Aber unterm Strich denke ich, dass das, was mir hier am meisten Spaß gemacht hat, die Alternative zu den Standards des Kontaktschadens war - das ist ein Unterschied, den man bei der Standard-Kriegerklasse WIRKLICH spüren kann, denn die meiste Zeit mit ihm wird man tatsächlich ermutigt, durch seine Angreifer zu laufen, um Schaden zu verursachen und ihren Angriffen auszuweichen. Ganz zu schweigen davon, dass es hier auch eine Menge Angriffsvielfalt gibt, also ist das nicht immer der Ansatz, den man wählen sollte, um Feinde zu besiegen. Wenn man bedenkt, wie Phase 3 verläuft, wird dieser Aspekt nur noch deutlicher (ich versuche immer noch herauszufinden, welcher Feind dort die Feuerwände hat... Oder die SKULL STAMPEDES) Es ist eine sehr erfrischende Abwechslung zu den meisten anderen Auto-Survival-Spielen, in denen Charaktere des Nahkampf-Spielstils normalerweise nur auf Haltbarkeit oder Gegenangriffe setzen - nein, der Krieger kann eine Nahkampf-Glaskanone sein und darin aufblühen.  Nun, hier ist der Punkt, an dem mein Selbstvertrauen ins Wanken gerät. Ich werde hier vorsichtig sein - da ich weiß, dass sich das Spiel noch im Early Access befindet und dass die Dinge verbessert werden können - Dies gilt für seine Eigenschaften, die mit seinen Designentscheidungen verwoben sind: Erstens, Aspekte der Meta-Progression. Wenn es darauf ankommt, ist das Freischalten der Jägerin reiner Zufall, wenn es darum geht, die richtigen Knoten zu finden, und wenn du neue Charaktere freischaltest, müssen die drastischsten Upgrades, die es dir ermöglichen, die neuen Charaktere zu verwenden, die du erhältst (die eigentlichen "Levels" am Stein von Sedir), immer noch ausgeschliffen werden - was normalerweise bedeutet, dass du den Fortschritt zur Eroberung des neuesten Levels, das du hast und zu dem du normalerweise zurückkehrst, pausieren musst Midgard, damit sie eine Chance haben. Und warum wird die Körperbemalung von allen Charakteren im Allgemeinen geteilt, wenn es klar ist, dass jede Klasse es bevorzugt, auf eine bestimmte Auswahl an Waffen oder Angriffen hinzuarbeiten? Es gibt einige Ungeschicklichkeiten bei der Handhabung der Benutzeroberfläche des Spiels - ich habe ein paar Sekunden gebraucht, um zu erkennen, dass die Leertaste ein Bindestrich ist und es (noch) keinen Platz gibt, an dem der Spieler die Steuerung neu zuordnen kann. Es ist auch ein Spiel, das Aspekte der Inventarverwaltung hat, während du Runen sammelst, und es gibt anscheinend keine Möglichkeit, große Teile davon schnell zu recyceln - du musst jede einzelne RMB ausführen und mit der Maus bestätigen. Ich bin mir bewusst, dass dies etwas ist, das natürlich mit mehr Produktion behoben werden sollte, aber einige Erwartungen, wie z. B. die Verfügbarkeit meiner aktiven Effekte während eines Durchlaufs (von Knoten) oder sogar die Erinnerung an die geschmiedeten Waffenkombinationen, sind grundlegende QoL-Funktionen, die ich mir erhofft hätte. Das Vorhandensein des Inventars und der Runen knüpft an das letzte und meiner Meinung nach wichtigste Problem an, das ich habe: Das Qualitätssystem. Ironischerweise denke ich, dass es mit dem Runen-Drop-System am wenigsten problematisch ist. Es ist am problematischsten, wenn man aufsteigt, und in gewisser Weise nimmt es die Handlungsfähigkeit, für die andere Rougelite-Survival-Spiele in diesem Fall Rerolls verwenden. Denn manchmal erzeugt ein Wurf einen objektiv minderwertigen Satz von Upgrades oder Knoten von "üblicher" Qualität. Das ist bei Knoten am schlimmsten, denn die Aspekte der Knotenpositionierung neben zufällig generierten Werten bedeuten, dass man am Ende MÄCHTIGE Multiplikatoren oder Eigenschaften würfeln kann, aber dann nicht die richtige Positionierung auf dem Raster hat, damit es tatsächlich funktioniert - wenn eine der Freischaltbedingungen darin besteht, eine Erhöhung der Angriffsgeschwindigkeit um 500 % zu erhalten, wird es einfach frustrierend, damit umzugehen. Es gibt auch einige Stabilitätsprobleme, auf die ich gestoßen bin, als das Spiel für längere Zeit eingefroren hat - das könnte entschuldbar sein, wenn nicht alle meine Waffen nach dem Neustart des Spiels eine endlose Abklingzeit haben und ich nicht mehr angreifen kann.  Alles andere, womit ich Probleme habe, ist unbedeutend - schwer lesbare Symbole aufgrund des niedrig aufgelösten Stils, ein Mangel an Abwechslung bei den Waffen oder dem Sounddesign, aber das sind alles Dinge, die mit mehr Entwicklung leicht zu verbessern sind. Das Spiel hat einige starke Beine, die einen soliden Kern des Gameplays unterstützen - aber es muss vorsichtig mit ihnen umgehen, wenn man bedenkt, in welche Richtung es mit Meta-Fortschritt und Randomisierung geht.</t>
+        </is>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="b">
+        <v>1</v>
+      </c>
+      <c r="B416" t="n">
+        <v>957</v>
+      </c>
+      <c r="C416" t="n">
+        <v>1744481210</v>
+      </c>
+      <c r="D416" t="inlineStr">
+        <is>
+          <t>Solides Basisspiel, interessante Meta-Fortschritte. Ich bin gespannt, was sie sich einfallen lassen werden</t>
+        </is>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="b">
+        <v>1</v>
+      </c>
+      <c r="B417" t="n">
+        <v>3957</v>
+      </c>
+      <c r="C417" t="n">
+        <v>1744481039</v>
+      </c>
+      <c r="D417" t="inlineStr">
+        <is>
+          <t>Ich war sprachlos, dass es keinen Cloud-Speicher gab.......  Aber das Ganze macht Spaß, und der CP-Wert ist bei diesem Preis recht hoch</t>
+        </is>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="b">
+        <v>1</v>
+      </c>
+      <c r="B418" t="n">
+        <v>446</v>
+      </c>
+      <c r="C418" t="n">
+        <v>1744480687</v>
+      </c>
+      <c r="D418" t="inlineStr">
+        <is>
+          <t>Ich liebe dich Hänno!</t>
+        </is>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="b">
+        <v>0</v>
+      </c>
+      <c r="B419" t="n">
+        <v>591</v>
+      </c>
+      <c r="C419" t="n">
+        <v>1744479716</v>
+      </c>
+      <c r="D419" t="inlineStr">
+        <is>
+          <t>Nachdem du ein Spiel gespielt hast, öffne das Inventar, um zu sehen, welche guten Dinge du getroffen hast, und sieh, dass die Runen in der Ausrüstung verschwunden sind. Bin ich also traurig?</t>
+        </is>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="b">
+        <v>1</v>
+      </c>
+      <c r="B420" t="n">
+        <v>547</v>
+      </c>
+      <c r="C420" t="n">
+        <v>1744477458</v>
+      </c>
+      <c r="D420" t="inlineStr">
+        <is>
+          <t>Genau wie jede andere Bewertung... Es zwingt dich dazu, unglaublich viel zu grinden, weil der Schwierigkeitsgrad der Stufe nicht gut skaliert. Bereiten Sie sich darauf vor, 20-30 Minuten in einer Runde zu verbringen, um nicht aufzusteigen.  EDIT: Die Entwickler haben mit einem Patch geantwortet.</t>
+        </is>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="b">
+        <v>1</v>
+      </c>
+      <c r="B421" t="n">
+        <v>987</v>
+      </c>
+      <c r="C421" t="n">
+        <v>1744475386</v>
+      </c>
+      <c r="D421" t="inlineStr">
+        <is>
+          <t>Ist ganz Knorke</t>
+        </is>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="b">
+        <v>1</v>
+      </c>
+      <c r="B422" t="n">
+        <v>1894</v>
+      </c>
+      <c r="C422" t="n">
+        <v>1744475257</v>
+      </c>
+      <c r="D422" t="inlineStr">
+        <is>
+          <t>Gelobt, aber es wird nicht empfohlen, es jetzt zu kaufen, es gibt nicht genug Inhalt Der erste Boss des zweiten Levels hat eine Fähigkeit, die er hinter dem Eiszapfen verstecken kann, um auszuweichen.,Ich habe es ein paar Mal falsch versucht und nicht gefunden.,Schließlich habe ich es im Kommentarbereich herausgefunden.。 Der Boss am Ende des vierten Levels hat keine HP und wird mit einem Treffer getötet. Manchmal reicht der Schaden nicht aus.,Arbeite hart, um den ersten Boss bis zum Restblut zu zermahlen.,Etwa 12 Minuten werden weiterhin aus dem Mob herauskommen.,Sobald der Mob auftaucht.,Es gibt keinen Platz mehr, um sich zu bewegen, ist dieses Spiel vorbei.,Zehn Minuten vergeblich spielen.。 Es wird empfohlen, die Spielzeit für 10 Minuten zu pausieren, wenn du gegen den ersten Boss kämpfst, oder zu warten, bis der Boss gestorben ist, bevor du den Mob verlässt. Die Fusionsfähigkeit spiegelt nicht die Stärke der Fusionsfertigkeit wider, da sie denkt, dass es sich um einen Kohlenstoff im Schnee handelt, aber sie ist tatsächlich das Sahnehäubchen.  Andere Fertigkeiten als Aura, Feuerwolf und Rabe werden keinen Mangel an Leistung haben, solange sie weiterhin die Optionen für die blaue Qualität und höher auswählen, um auf ein hohes Level aufzusteigen. Zum Beispiel synthetisieren das Feuer von Surtr und der starke Wind eine Fusionsfähigkeit, ich fand die Fusionsfertigkeit sehr stark, und sie war der Schlüssel zur Ausgabe, aber sie war tatsächlich nicht so gut wie ein starker Wind auf hoher Stufe (etwa Stufe 7 oder 8), bei dem der Cursor zeigte, die Straße geöffnet wurde und die Ausgabeleistung beruhigender war als die Fusionsfertigkeit aus den Sinnen, und das Bild war zu chaotisch, nachdem ich auf die Fusionsfertigkeit geklickt hatte. Wenn du die Fusionsfertigkeit nicht als diese Art von Verbrauchsmaterial entwirfst, wird der Effekt der beiden einzelnen Fertigkeiten nach der Fusion eliminiert, was nur das Problem lösen kann, dass das Bild zu chaotisch ist.  Kannst du dir ein paar Fusionsfähigkeiten einfallen lassen, die die Spieler blenden werden? Nur zwei der acht Fertigkeiten in der Synthesetabelle haben unerwartete Schadenstypen, eine ist Hurstham und die andere ist die Sengende Chaosklinge Und als ich die Synthesetabelle erkundete, kam es vor, dass die Sengende Chaosklinge die letzte war, die freigeschaltet wurde, und als ich dachte, dass diese Fusionsfertigkeit auch wie eine andere Fusionsfertigkeit ist (die Fusion war etwas oberflächlich), hatte ich nicht erwartet, dass es eine Halo-Fähigkeit sein würde! Diese Fertigkeit ähnelt eher einer Fusionsfertigkeit als die anderen sieben Fusionsfertigkeiten! Wenn die Fusionsfertigkeit nicht nur eine Zwei-in-Eins-Fertigkeit ist, entwerfe weitere Fusionsfertigkeiten, wie z. B. eine Drei-in-Eins- oder sogar eine Vier-in-Eins-Fertigkeit, oder verschmelze zwei Zwei-in-Eins-Fertigkeiten und verschmelze sie dann zu einer neuen Fusionsfertigkeit. Das Spiel sollte interessanter werden. Die Stärke der Fertigkeit ist unausgewogen, wie der flammenbindende Blutegel einen blutsaugenden Effekt hat, ich wähle fast jedes Spiel aus und gebe dem Upgrade den Vorrang, um dann einige Feuerfertigkeiten mit dem Knoten des Schicksals auf eine wiederbelebende Flamme zu richten, solange man nicht den hohen Schaden des Bosses und des Monsters hintereinander frisst, ist es das Gleiche wie aufhängen. Aura und Beschwörungsfähigkeiten werden selten gewählt.  Leviathana-Axtwerfen (Kälteschaden/Fernkampf) + Wurfdolch (physischer Schaden/Fernkampf) = Zerschmetterte Leviathana-Axt (Kälteschaden/physischer Schaden/Fernkampf) Glutaxt (Feuerschaden/Explosion) + Lokis elektrodensierendes Phantom (Blitzschaden/Explosion) = Elektrische Axt (Feuerschaden/Explosion/Fernkampf) Giant's Fang (Feuerschaden/Nahkampf) + Wirbelwindhieb (physischer Schaden/Nahkampf) = Sengende Chaosklinge (Feuerschaden/physischer Schaden/Nahkampf/Aura) Scati Ice Arrow (Kälteschaden/ Fernkampf) + Gungnir (Blitzschaden/Fernkampf) = Odin Eispfeil (Kälteschaden/Fernkampf) Geschützturm (physischer Schaden/Beschwörung) + Weltenbaumimpuls (Blitzschaden/Fernkampf) = Sturmdurchbohrer (physischer Schaden/Fernkampf/Beschwörung) Erdriss (physischer Schaden/Nahkampf) + Gletscherzertrümmerer (Kälteschaden/Fernkampf) = Frostzahnring (physischer Schaden/Kälteschaden/Nahkampf/Fernkampf) Fenrirs Klaue (physischer Schaden/Fernkampf) + Thors Zorn (Blitzschaden/Fernkampf) = Donnerklaue (physischer Schaden/ Fernkampf) Feuer des Surters (Feuerschaden/Fernkampf) + Wind (Kälteschaden/Nahkampf) = Hurstham (Feuerschaden/Kälteschaden/Fernkampf/Beschwörung)</t>
+        </is>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="b">
+        <v>1</v>
+      </c>
+      <c r="B423" t="n">
+        <v>633</v>
+      </c>
+      <c r="C423" t="n">
+        <v>1744475173</v>
+      </c>
+      <c r="D423" t="inlineStr">
+        <is>
+          <t>我的建议 1，取消每局只能合成一个技能组合的限制 2，增加更多技能合成组合 3，技能合成图鉴增加文字说明 4，增加符文页（也可用资源解锁更多符文页） 5，单页符文页可以花费资源额外增加符文安放空间 6，添加一键删除或者多选删除背包里的符文功能 My advice 1. Entfernen Sie die Einschränkung, dass nur ein Skill-Set pro Spiel synthetisiert werden kann 2. Füge weitere Kombinationen zur Synthese von Fertigkeiten hinzu 3. Textbeschreibungen wurden dem Skill Synthesis Illustrated Book 4 hinzugefügt. Runenseiten hinzufügen (du kannst auch Ressourcen verwenden, um weitere Runenseiten freizuschalten) 5. Eine einzelne Runenseite kann Ressourcen ausgeben, um den Platz für Runenplatzierungen zu vergrößern 6. Fügen Sie das Löschen mit einem Klick oder die Mehrfachauswahl hinzu, um Runen im Rucksack zu löschen</t>
+        </is>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="b">
+        <v>1</v>
+      </c>
+      <c r="B424" t="n">
+        <v>319</v>
+      </c>
+      <c r="C424" t="n">
+        <v>1744472060</v>
+      </c>
+      <c r="D424" t="inlineStr">
+        <is>
+          <t>Diese Bewertung ist positiv, enthält aber ein großes ABER ... Hier ist, was ich nicht mag: - Der Spielstand der Demo lässt sich leider nicht auf das Hauptspiel übertragen - Charaktere müssen freigeschaltet werden - Für mich fühlt es sich so an, als hätten sie den Fortschritt in allen Aspekten verlangsamt - Abgesehen von zwei neuen Karten kann ich nicht einmal sagen, was anders ist als in der Demo - Ich kann immer noch keine neuen Fähigkeiten ziehen und sie gegen alte austauschen, sobald man in jedem Slot eine hat - Das Balancing einiger Fähigkeiten ist ... fraglich? - ...  Versteh mich nicht falsch, es ist übrigens immer noch ein lustiges Spiel</t>
+        </is>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="b">
+        <v>1</v>
+      </c>
+      <c r="B425" t="n">
+        <v>1470</v>
+      </c>
+      <c r="C425" t="n">
+        <v>1744471380</v>
+      </c>
+      <c r="D425" t="inlineStr">
+        <is>
+          <t>Es ist in Ordnung, ich freue mich auf mehr Inhalte.</t>
+        </is>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="b">
+        <v>0</v>
+      </c>
+      <c r="B426" t="n">
+        <v>99</v>
+      </c>
+      <c r="C426" t="n">
+        <v>1744468772</v>
+      </c>
+      <c r="D426" t="inlineStr">
+        <is>
+          <t>Kaufen Sie es nicht, es ist Müll</t>
+        </is>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="b">
+        <v>1</v>
+      </c>
+      <c r="B427" t="n">
+        <v>1126</v>
+      </c>
+      <c r="C427" t="n">
+        <v>1744468674</v>
+      </c>
+      <c r="D427" t="inlineStr">
+        <is>
+          <t>Ich mag dieses Spiel sehr! Ich kann es kaum erwarten, neue Updates zu sehen!</t>
+        </is>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="b">
+        <v>0</v>
+      </c>
+      <c r="B428" t="n">
+        <v>477</v>
+      </c>
+      <c r="C428" t="n">
+        <v>1744468480</v>
+      </c>
+      <c r="D428" t="inlineStr">
+        <is>
+          <t>Das erste Mal habe ich eine schlechte Bewertung des Spiels abgegeben.,Der Inhalt der öffentlichen Beta ist durch.,Infolgedessen steckt die offizielle Version immer noch 5 Stunden im dritten Level fest.,Ich möchte den Autor fragen, ob er hirntot ist.,Alle 10 Minuten, um das Monster zu treffen, war das Monster unbesiegbar und mäht das Gras.,Das Ergebnis ist, dass der Boss kratzt.,Von diesem Boss fast zwei Stunden lang ex gestorben.,Der Wert wird mit deinen Füßen ausgefüllt.</t>
+        </is>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="b">
+        <v>1</v>
+      </c>
+      <c r="B429" t="n">
+        <v>572</v>
+      </c>
+      <c r="C429" t="n">
+        <v>1744468463</v>
+      </c>
+      <c r="D429" t="inlineStr">
+        <is>
+          <t>Es ist in Ordnung, aber ich habe gerade herausgefunden, dass es keine Cloud-Speicherfunktion gibt, was nicht sehr freundlich für Spieler ist, die den Computer wechseln möchten, um weiterzuspielen. ps: Ich habe gerade den Cloud-Spielstand aktualisiert, aber ich habe ihn zuerst mit einem Computer aktualisiert, den ich nicht gespielt habe, und er hat möglicherweise meinen Spielstand verloren, und jetzt bin ich ein wenig in Panik</t>
+        </is>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="b">
+        <v>1</v>
+      </c>
+      <c r="B430" t="n">
+        <v>148</v>
+      </c>
+      <c r="C430" t="n">
+        <v>1744466405</v>
+      </c>
+      <c r="D430" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sehr gutes Spiel im Survivors Genre. Ich bin total begeistert. Das Spiel vereint viel und liefert soviel Potential für die Zukunft von neuen Charakteren, Fähigkeiten, Waffen bis hin sogar zu dem Schritt auch andere Mythologien einzubauen. Für mich als Liebhaber solcher sowie Spiele dieses Genres währe es ein Traum.
+Da das Spiel noch in der Early Accces ist sollte jedem klar sein das es noch nicht komplett ausbalanciert ist etc, dafür gibt es diese ja.
+Zu empfehlen wäre auch ein Tutorial, da das einzige Manko für mich aktuell ist das einem zu wenig erklärt wird. Klar findet man sich rein, aber es könnte einfacher werden.
+Ich hoffe die Entwickler lesen diesen Kommentar und denken darüber nach wie weit man sogar gehen kann in der Zukunft.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="b">
+        <v>1</v>
+      </c>
+      <c r="B431" t="n">
+        <v>1188</v>
+      </c>
+      <c r="C431" t="n">
+        <v>1744464386</v>
+      </c>
+      <c r="D431" t="inlineStr">
+        <is>
+          <t>Es macht Spaß! eine gute Möglichkeit, die Zeit totzuschlagen (ich spiele auf dem PC), aber es gibt auch viele Verbesserungen, die vorgenommen werden können, zum Beispiel sollte die "Enter"-Taste verwendet werden dürfen, um die Auswahl zu akzeptieren oder zu bestätigen, auf dem Buch sollten Sie den Namen der Fertigkeit sehen können, wenn Sie mit der Maus darüber fahren, die gesammelte Rune sollte manuell oder automatisch neu angeordnet werden können,  naja, der "Endlos-Modus" wie die Origin-Version sollte auch zurückgebracht werden.</t>
+        </is>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="b">
+        <v>1</v>
+      </c>
+      <c r="B432" t="n">
+        <v>10659</v>
+      </c>
+      <c r="C432" t="n">
+        <v>1744463267</v>
+      </c>
+      <c r="D432" t="inlineStr">
+        <is>
+          <t>Ich bin süchtig danach hier und warte auf ein Update!! Es fehlt nur noch eine Klasse, um sie zu veröffentlichen und voll zu machen. Zu gutes Spiel</t>
+        </is>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="b">
+        <v>1</v>
+      </c>
+      <c r="B433" t="n">
+        <v>1049</v>
+      </c>
+      <c r="C433" t="n">
+        <v>1744461792</v>
+      </c>
+      <c r="D433" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Einfach super geiles Game. Macht Spaß, man kann sehr viele combos nutzen, leicht zu lernen, man merkt den progress. Definitiv eine Empfehlung.
+Erste 10h und definitiv süchtig.
+Pro: Max 20min runs, dadurch auch mal schnell nebenbei eine runde spielen
+Vorschläge (vllt kommen die noch): 
+- eine bessere übersicht wo sein Char ist, da durch viele skills und enemy attacks das ganze sehr unübersichtlich wird und man so bei zB boss fights nicht ausweichen kann, da man deren attacks nicht sieht.
+- die % an mehr Gegnern nicht auf 50% cappen sondern auch auf 100% oder so machen. 
+- die Stats noch etwas genauer erklären, was sie tun - zB Schock
+- die Level von den Chars eventuell wenn man alle Skills geskillt hat und dann noch x lvl hat man so eine Art Global Level up zu machen, dass man dann wieder von vorne skillen kann aber einen Satz an Boost global bekommt. Sonst ist es schnell langweilig, wenn man die skills durch hat und nichts mehr mit dem Char machen kann.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="b">
+        <v>0</v>
+      </c>
+      <c r="B434" t="n">
+        <v>171</v>
+      </c>
+      <c r="C434" t="n">
+        <v>1744460642</v>
+      </c>
+      <c r="D434" t="inlineStr">
+        <is>
+          <t>Nicht empfohlen Es ist ein weiteres Spiel, das Sie zum Farmen zwingt, um das Spiel zu bestehen Die Fähigkeiten, die einfach zu bedienen sind, sind nur einige, die ich nicht immer als Laufgeschwindigkeit bezeichnet habe und nicht blinken kann, der Inhalt ist weniger und das Freischalten der Fußfarbe ist auch mühsam</t>
+        </is>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="b">
+        <v>0</v>
+      </c>
+      <c r="B435" t="n">
+        <v>571</v>
+      </c>
+      <c r="C435" t="n">
+        <v>1744460222</v>
+      </c>
+      <c r="D435" t="inlineStr">
+        <is>
+          <t>ich hab's zurückerstattet, aber kaufe es sofort wieder sobald cloudsave implementiert wurde. ohne macht's für mich keinen sinn.</t>
+        </is>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="b">
+        <v>1</v>
+      </c>
+      <c r="B436" t="n">
+        <v>785</v>
+      </c>
+      <c r="C436" t="n">
+        <v>1744457394</v>
+      </c>
+      <c r="D436" t="inlineStr">
+        <is>
+          <t>Sehr gutes Spiel, freue mich darauf, dass sich das Spiel weiter verbessert, wünsche mir, dass das Spiel beliebter wird</t>
+        </is>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="b">
+        <v>1</v>
+      </c>
+      <c r="B437" t="n">
+        <v>991</v>
+      </c>
+      <c r="C437" t="n">
+        <v>1744457031</v>
+      </c>
+      <c r="D437" t="inlineStr">
+        <is>
+          <t>Sehr gut, aber vorerst etwas weniger inhaltig</t>
+        </is>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="b">
+        <v>0</v>
+      </c>
+      <c r="B438" t="n">
+        <v>782</v>
+      </c>
+      <c r="C438" t="n">
+        <v>1744456573</v>
+      </c>
+      <c r="D438" t="inlineStr">
+        <is>
+          <t>-1.</t>
+        </is>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="b">
+        <v>1</v>
+      </c>
+      <c r="B439" t="n">
+        <v>305</v>
+      </c>
+      <c r="C439" t="n">
+        <v>1744455163</v>
+      </c>
+      <c r="D439" t="inlineStr">
+        <is>
+          <t>Also Asgards Fall triggered bei mir ja Happy Buttons - es sieht echt cool aus, spielt sich sehr flüssig und das Gameplay ist schon gut durchdacht und nachhaltig, vor allem wenn man bedenkt dass es noch in der early access Phase ist.
+Für alle Interessierten - das Game ist basically ein Hybrid aus Vampire Survivors und Death Must Die aber gerade im Vergleich zu DMD nochmal um einiges schneller, das Gameplay ist noch actionlastiger als bei den voran genannten Games aber da kommt man wirklich schnell rein. Was ich mega finde sind die vielen Synergien und Build Optionen, die man JETZT schon hat. Man levelt den Char ja pro Run auf 2 Ebenen, mit den aktiven Skills bzw. Verbesserungen in den Kategorien der Schadensklassen (Physisch, Kälte, Blitz und Feuer) und dann eben noch mit den Runen, mit denen man seine passiven Fähigkeiten (LP, Def, Speed, Crit und Triggered Effekte etc.) verbessert - immer abwechselnd eins pro Level Up. Das ermöglicht viele geile Möglichkeiten, das Game zu brechen (Dex - your call!) und motiviert auch immer weiter zu spielen. 
+Die Meta Progression mit den Kriegsbemalungen ist ebenfalls eine tolle Idee, hat mir extrem gut gefallen. Ich bin happy mit dem Game und freu mich auf alles, was noch kommt.
+Eine Info noch am Rande - Cloud Saves sind noch NICHT im aktuellen Release enthalten, sollen aber laut der Entwickler noch kommen deswegen gebe ich hier den Benefit of Doubt an die Entwickler und lasse das nicht in meine Bewertung einfließen.</t>
+        </is>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="b">
+        <v>1</v>
+      </c>
+      <c r="B440" t="n">
+        <v>490</v>
+      </c>
+      <c r="C440" t="n">
+        <v>1744453298</v>
+      </c>
+      <c r="D440" t="inlineStr">
+        <is>
+          <t>Interessante neue Mechanismen in dem Genre; wenn man 2-3 Runden gespielt hat, läufts so richtig :)</t>
+        </is>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="b">
+        <v>0</v>
+      </c>
+      <c r="B441" t="n">
+        <v>721</v>
+      </c>
+      <c r="C441" t="n">
+        <v>1744453277</v>
+      </c>
+      <c r="D441" t="inlineStr">
+        <is>
+          <t>Viele spielstörende Bugs im Moment. (wie das Verschwinden von Runen oder sogar das Beenden von Fehlern)   Warten Sie bis zur Vollversion, um zu kaufen Aber: Steam Cloud wurde hinzugefügt - gefällt mir</t>
+        </is>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="b">
+        <v>1</v>
+      </c>
+      <c r="B442" t="n">
+        <v>935</v>
+      </c>
+      <c r="C442" t="n">
+        <v>1744452670</v>
+      </c>
+      <c r="D442" t="inlineStr">
+        <is>
+          <t>Spielfeedback &amp; Vorschläge Fehler bei zusätzlichem Feindschaden: Zusätzlicher Feindschaden scheint auch den Schaden zu erhöhen, den Fähigkeiten wie "Blutpakt" erlitten haben. Es fühlt sich so an, als würde der gesamte Schaden verdoppelt und nicht nur der Feindschaden – ich bin mir nicht sicher, ob das Absicht oder ein Fehler ist.  Klarheit der Wiederbelebungsfähigkeit: Die Wiederbelebungsfähigkeit funktioniert entweder nicht richtig oder benötigt eine klarere Anzeige, wenn sie verwendet wurde.  Fehler bei Waffenfähigkeitsstufen: Manchmal scheinen Waffenfähigkeitsstufen zurückgesetzt oder zurückgesetzt zu werden. Zum Beispiel habe ich meine Ballistik/Hämmer von Level 4 auf 9 aufgerüstet, aber dann habe ich die Upgrades verloren und sie beim nächsten Betreten des Shops wieder auf Level 4 gefunden. Ich kann das nicht konsequent nachstellen, und obwohl es möglich ist, dass ich mich falsch erinnere, ist es schon so oft passiert, dass es sich unwahrscheinlich anfühlt. Könnte auch ein Problem auf meiner Seite sein, aber ich wollte es nur für alle Fälle markieren.  Verbesserungen der Lebensqualität: Platzierung von Gegenständen beim Kauf: Wenn du einen neuen Knoten/Gegenstand kaufst, solltest du in der Lage sein, ihn zu bewegen – zumindest im selben Zug – für den Fall, dass du ihn versehentlich an der falschen Stelle platzierst.  Knoten des Echos vs. Knoten des Verblassens: Der Knoten des Echos sollte Punkte für den Knoten des Verblassens geben (persönliche Meinung). Derzeit ruiniert die Verwendung von Echoknoten oft das Netz, da man aufgrund fehlender verfügbarer Punkte keinen Knoten des Verblassens daneben platzieren kann.  Bonus für den Knoten der Macht: Vielleicht gibt es einen kleinen Bonus, wenn man einem Knoten der Macht mehr Energie gibt, als nötig ist, um ihn zu aktivieren – obwohl dies das Spiel zu einfach machen könnte und eine gute Balance erfordern würde.  Waffenbalance: Einige Waffen fühlen sich viel stärker an als andere, so dass sich viele Läufe gleich anfühlen. Ein wenig auszubalancieren würde mehr Abwechslung und Experimentierfreude fördern. Das heißt nicht, dass jede Waffe gleich sein muss – nur auf der ganzen Linie brauchbarer. (Es ist auch möglich, dass ich einige der schwächeren Waffen nicht richtig verwende – hier zur Korrektur offen.)  Charakterbalance des Sehers: Speziell in Blood Sacrifice-Läufen hat der Seher zu Beginn des Spiels Probleme, wenn er zusätzliche Feinde einsetzt, um das Gefäß zu füllen – es gibt einfach nicht genug AoE, um mit dem feindlichen Schwarm fertig zu werden. Vielleicht könnte sein Gift eine Pfütze hinterlassen, die Gegnern Schaden zufügt, die durch sie hindurchgehen, und so mehr Kontrolle im frühen Spiel bietet.  Blutpunktbelohnungen durch Schwächungszauber: Die Blutpunkte (ich bin mir nicht sicher, ob das der richtige Begriff ist), die man durch Schwächungspunkte im Gefäß erhält, fühlen sich nicht immer ausgewogen an. Zum Beispiel fühlen sich Dinge wie reduzierte Levelaufstiegsmöglichkeiten oder der Valhalla-Modus viel schwieriger an, geben aber nicht genug Punkte, um sie lohnenswert zu machen.  Verbesserungen am Runensystem: Runenplatzierung und Übersicht: Das Platzieren oder Verschieben von Runen aus deinem Inventar ist wirklich klobig. Es wäre toll, einen Überblick über alle Runeneffekte zusammen zu haben und eine reibungslosere Benutzeroberfläche für deren Verwaltung zu haben.  Runenverkauf: Der Verkauf von Runen fühlt sich langsam und mühsam an. Eine Schnellverkaufsoption (z.B. alle Runen unter einem bestimmten Grad oder ohne einen bestimmten Wert verkaufen) wäre eine große Hilfe.  Runenlager: Ein separates Lager für Runen, die ihr für bestimmte Builds aufbewahren wollt (aber derzeit nicht verwendet), würde helfen, versehentliches Verkaufen zu verhindern.  Runen-Loadouts: Die Möglichkeit, Runen-Loadouts für verschiedene Charaktere oder Builds zu speichern, würde das Wechseln von Setups viel einfacher und weniger frustrierend machen.  UI/UX-Anpassungen: Shop Reroll Button: Der Reroll-Button ist zu nah an den Gegenständen im Shop. Ich habe versehentlich mehrmals darauf geklickt, anstatt einen Artikel zu kaufen – vielleicht liegt es nur an mir, aber es fühlt sich nicht intuitiv an.  Benutzerdefinierte Tastenbelegungen: Es wäre großartig, anpassbare Tastenbelegungen zu haben. Zum Beispiel ist das Öffnen des Inventars mit der "I"-Taste ziemlich unangenehm – sie ist weit entfernt von anderen häufig verwendeten Tasten.  Kompendium-Info: Im Kompendium ist es schwer zu sagen, welche Fähigkeiten für Kombos benötigt werden. Wenn Sie nur den Namen anzeigen, wenn Sie mit der Maus über sie fahren (nachdem sie freigeschaltet sind), würde dies dieses Problem lösen.  Ich hoffe, ihr nehmt das als konstruktives Feedback und nicht als Kritik am Spiel selbst. Ich weiß, dass es noch im Early Access ist, und ich genieße es insgesamt sehr. Ich bin gespannt, welche neuen Charaktere, Welten und Updates in Zukunft kommen werden!  LG</t>
+        </is>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="b">
+        <v>1</v>
+      </c>
+      <c r="B443" t="n">
+        <v>556</v>
+      </c>
+      <c r="C443" t="n">
+        <v>1744450720</v>
+      </c>
+      <c r="D443" t="inlineStr">
+        <is>
+          <t>Es macht Spaß, weil es ein mittlerer Schwierigkeitsgrad ist, nicht zu leicht und nicht schwer, aber es gibt einige unbefriedigende Punkte, weil es ein Ruck ist. Die Objekte, die auf der Karte angezeigt werden, sind zu einfach, und die Builds sind nicht vielfältig.  Es scheint, dass es beabsichtigt war, verschiedene Attribute durch Kombinationsfähigkeiten zu verwenden, aber es ist einfacher und stärker, Fähigkeiten mit nur einem Attribut zu komponieren.  Persönlich mag ich das Knotensystem, also wäre es vielleicht ziemlich gut, wenn es mehr aktualisiert würde..?</t>
+        </is>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="b">
+        <v>0</v>
+      </c>
+      <c r="B444" t="n">
+        <v>389</v>
+      </c>
+      <c r="C444" t="n">
+        <v>1744449118</v>
+      </c>
+      <c r="D444" t="inlineStr">
+        <is>
+          <t>Die Bewertung ändert sich erst, wenn der Absturz explodiert, während die Herstellung einer Kombinationswaffe behoben ist.</t>
+        </is>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="b">
+        <v>0</v>
+      </c>
+      <c r="B445" t="n">
+        <v>1050</v>
+      </c>
+      <c r="C445" t="n">
+        <v>1744448280</v>
+      </c>
+      <c r="D445" t="inlineStr">
+        <is>
+          <t>Die Genres hängen sehr von den Fähigkeiten ab, und es ist schwer, sogar das falsche zu treffen, aber es gibt nicht viele Möglichkeiten, sich zu treffen, so dass die coole Fleischtaube sehr unglücklich wird Die Anleitung ist sehr schlecht, und ich weiß erst im dritten Level, dass die Dinge, die ich im Rucksack aufsammle, in einen anderen Rucksack gelegt werden können, um zu wirken Die Kollision der Fähigkeiten des Bosses ist problematisch, und sie kann auch außerhalb der roten Warnung getroffen werden Das Design des Monsterangriffs ist unvernünftig, und die gesamte ultralange Angriffsreichweite der Fleischtaubenkarte, die Schuld ist mehr als eine rote Warnung im Vollbildmodus Das Ekelhafteste ist, dass einige Bosse einen Must-Hit-Mechanismus haben, einen Seckill-Mechanismus, aber es gibt keine prompten Informationen, und man kann die Strategie nicht finden Damit es sich oft wieder öffnet, und nach Dutzenden von Minuten der Qual in der Anfangsphase endlich cool ist, und der Chef herauskommt und zweimal lacht und mich direkt nach Hause schickt, was ist das für eine Herausforderung? Ich konnte es nicht mehr ertragen, bevor ich zur Bewertung kam. Weil ich 2 Stunden+ vergeblich verschwendet habe, hatte ich sogar das Gefühl, dass der Produzent mich bezahlen sollte!!</t>
+        </is>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="b">
+        <v>0</v>
+      </c>
+      <c r="B446" t="n">
+        <v>586</v>
+      </c>
+      <c r="C446" t="n">
+        <v>1744447076</v>
+      </c>
+      <c r="D446" t="inlineStr">
+        <is>
+          <t>Finde selbst heraus, wer dein viertes Level meistern kann</t>
+        </is>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="b">
+        <v>1</v>
+      </c>
+      <c r="B447" t="n">
+        <v>140</v>
+      </c>
+      <c r="C447" t="n">
+        <v>1744444263</v>
+      </c>
+      <c r="D447" t="inlineStr">
+        <is>
+          <t>Es ist nicht genug Lautstärke, aber es ist ziemlich gut Es gibt nur drei Charaktere, und das Feuerattribut ist aus Gründen, die später erläutert werden, von Vorteil, daher sind die Optionen recht klein, aber dank des Fehlens von Kontaktschaden ist es recht komfortabel zu spielen. Es ist auch schön, dass die Runen, die von Feinden fallen gelassen werden, zufällig sind, so dass man viel Spaß haben kann. Ich denke, ihr solltet erstmal die Demoversion spielen und sehen, wie sie sich vom Original unterscheidet.  Wie beim ursprünglichen Vansaba ist die Angriffsgeschwindigkeit das Wichtigste beim Erobern, und du musst eine gewisse Menge an Bewegungsgeschwindigkeit haben, um den Angriffen des Bosses auszuweichen, der alle 10 Minuten an der nächsten Stelle erscheint, und das Feuerattribut Blutegel ist ausgezeichnet, und die Feuerattribut-Fähigkeit wie Blutegel und ihre Verbesserung sollten priorisiert werden. Alles andere kannst du ignorieren. In der Anfangsphase können Blutegel nur etwa alle 8 Sekunden etwa 1 heilen, was unerbittlich ist, aber wenn du sie stärkst, kannst du in Situationen heilen, in denen es keine Erholung gibt, oder sogar während Bosskämpfen, also ist es eine überwältigend starke Überlebensfähigkeit. Ich mache das erst seit einer Stunde, also gibt es vielleicht Heilfähigkeiten in anderen Attributen, aber ich denke, Blutegel sind immer noch die besten, weil es keine Einschränkungen wie die Entfernung gibt.  Mit etwa 10 weiteren Charakteren, und wenn es neben dem Feuerattribut auch Überlebensfähigkeiten wie Blutegel gibt, kann ich mich nicht beschweren, aber es ist toll, dass es einen anderen Charme als das Original hat, und das zu einem Preis, der dem Original nahe kommt.</t>
+        </is>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="b">
+        <v>0</v>
+      </c>
+      <c r="B448" t="n">
+        <v>340</v>
+      </c>
+      <c r="C448" t="n">
+        <v>1744441567</v>
+      </c>
+      <c r="D448" t="inlineStr">
+        <is>
+          <t>Hab mich schon sehr auf das Spiel gefreut kann es aber im Moment nicht empfehlen.
+Jedesmal wenn ein Boss erscheint fallen Attacken einzeln oder komplett aus und machen somit das Game unspielbar.
+Bosssequenz geht los, aber der Boss ist nicht zu sehen gar zu finden und plötzlich ist man Tot.
+Desweiteren passiert bei Lebensregeneration wenig bis gar nichts.
+Kann nur hoffen das diese gravierenden Fehler behoben werden und dann gibt es auch Daumen hoch.</t>
+        </is>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="b">
+        <v>1</v>
+      </c>
+      <c r="B449" t="n">
+        <v>766</v>
+      </c>
+      <c r="C449" t="n">
+        <v>1744438521</v>
+      </c>
+      <c r="D449" t="inlineStr">
+        <is>
+          <t>Liebes Team
+Ich versuche hier ein produktives Kommentar zu hinterlassen, welches sowohl die Entwickler als auch Konsumenten hilft. 
+Zuerst zu meinen positiven Punkten :) 
+1) Erfahrung und erster Eindruck nach 5 Stunden sind sehr gut :D
+2) Ich mag die Mechaniken sehr gerne was primär Fähigkeiten angeht als auch das Weben
+3) Das die Fähigkeiten mehrstufig sind und gerollt werden finde ich auch sehr gut 
+4) Menü Mechaniken wie Kriegsbemalung und Level System bringen auch noch mal interessante Buffs
+5) Fortschritt und Lernkurve nach einigen Runden sind für mich komplett okay (mag mehr das Herausfinden und die Herausforderung) und meiner Meinung auch der Sinn des Genres (da verstehe ich die negativ Kommentare einfach nicht, die ich bis jetzt gelesen habe - für mich einfach ein wenig Mimimimi) 
+6)  Die Kombinationsmechanik mit Fähigkeiten über Stufe 5 finde ich eine super gute Idee und macht mir sehr viel Freude :D 
+7) Allgemeines Danke für das Hirnschmalz das in das Spiel geflossen ist und bin auch ein Fan nordischer Mythologie. Also mein Geschmack wurde getroffen :D
+Negativ Punkte (eher als Anmerkungen zu sehen) Ist ja immer noch early Access :D 
+1) Habe das Gefühl das ab und zu noch die Menü Sachen bzw Auswahl der Fähigkeiten beim Drücken "spinnt" usw. (etwas nervig aber verkraftbar) 
+2) Beim Buch neben dem Lagerfeuer mit den Kombinationen wäre es schön wenn man die bei den Fähigkeiten mit dem Curser ein Info Dropdown-Menü bekommen würde mit Namen usw. (nicht nur das Symbol :))
+3) Letzter Punkt bei dem ich mich nicht sicher bin ob Ich selbst das Problem bin. Beim ersten Gegner der 2ten Welt (Bogenschützin) habe ich das Gefühl das mit dem einen Angriff etwas nicht stimmt. Man kann nicht Ausweichen und wird fast mit einem Schuss getötet. Einmal hatte ich eine Verfärbung vom Angriff welcher so wirke als wäre das das Doge timing. Aber sonst nie wieder. Komme über den Boss bis jetzt nicht hinweg (ca 8 mal versucht) 
+Sonst Danke für das Spiel. Es macht mir viel Spaß und weiter so :) Freue mich auf die Weiterentwicklung. 
+LG M</t>
+        </is>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="b">
+        <v>1</v>
+      </c>
+      <c r="B450" t="n">
+        <v>2000</v>
+      </c>
+      <c r="C450" t="n">
+        <v>1744438039</v>
+      </c>
+      <c r="D450" t="inlineStr">
+        <is>
+          <t>Der Rucksack muss eine Batch-Management-Funktion und ein Out-of-Office-Wachstum hinzufügen.,Es gibt zu wenige Charaktere.,Ein Haufen Käfer.,Heute ragt ein Rucksack aus einem Rucksack heraus, der genau die gleiche legendäre Rune hat.</t>
+        </is>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="b">
+        <v>1</v>
+      </c>
+      <c r="B451" t="n">
+        <v>932</v>
+      </c>
+      <c r="C451" t="n">
+        <v>1744437449</v>
+      </c>
+      <c r="D451" t="inlineStr">
+        <is>
+          <t>Ich habe nichts gegen den langsamen Fortschritt und das Schleifen. Aber ich kann die aktuelle UX nicht ausstehen, vor allem nicht darauf, wie dieses Spiel die Infos anzeigt. Brauche ein QOL-Update. Hier sind meine Vorschläge. 1. Fügen Sie im Pausenmenü Kompendiumsinformationen und Statistikinformationen hinzu. 2. Im Kompendium fügen Sie bitte Informationen hinzu, wenn wir mit der Maus über das Fertigkeitssymbol fahren. Momentan gibt es nur das Icon, das man sich nur schwer merken kann.</t>
+        </is>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="b">
+        <v>1</v>
+      </c>
+      <c r="B452" t="n">
+        <v>651</v>
+      </c>
+      <c r="C452" t="n">
+        <v>1744435400</v>
+      </c>
+      <c r="D452" t="inlineStr">
+        <is>
+          <t>Ich hoffe, dass es Vietnamesen geben wird</t>
+        </is>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="b">
+        <v>1</v>
+      </c>
+      <c r="B453" t="n">
+        <v>431</v>
+      </c>
+      <c r="C453" t="n">
+        <v>1744433545</v>
+      </c>
+      <c r="D453" t="inlineStr">
+        <is>
+          <t>Aber ich denke, es gibt Dinge, die verbessert werden müssen.  Das Knotensystem ist gut, aber ich wünschte, es gäbe ein Überschreiben. Es ist ein, aber es kann nicht abgebrochen, gelöscht oder überschrieben werden, also ist es verrückt.  Und zusätzlich zur Attributkombination möchte ich, dass Sie über das One-Build-Attribut nachdenken.  Wenn Sie ein Schlangendossier sind, ziehen Sie es vor, eines gerade zu graben und einen größeren Nutzen als den halbherzigen Hundejob Daiso zu erzielen, den Sie in Maßen verwenden können.  Ich weiß nicht, ob die physischen Attribute kombiniert werden, um eine höhere Waffe zu erhalten, aber ist es eine Waffe, die verschiedene Attribute kombiniert? Es gibt keinen Grund, andere Attribute zu verwenden, die keine Hunde verwenden, um sie zu entsperren.</t>
+        </is>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="b">
+        <v>0</v>
+      </c>
+      <c r="B454" t="n">
+        <v>123</v>
+      </c>
+      <c r="C454" t="n">
+        <v>1744432100</v>
+      </c>
+      <c r="D454" t="inlineStr">
+        <is>
+          <t>Hast du nicht gesagt, dass du ein wenig Blut pro Sekunde verlieren und 10% Blut hinzufügen würdest, also wie könntest du einfach Blut verlieren und kein Blut saugen?</t>
+        </is>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="b">
+        <v>1</v>
+      </c>
+      <c r="B455" t="n">
+        <v>574</v>
+      </c>
+      <c r="C455" t="n">
+        <v>1744431673</v>
+      </c>
+      <c r="D455" t="inlineStr">
+        <is>
+          <t>Die späte seltsame Flut ist sehr cool, aber es gibt auch viele Probleme. 1. Es gibt keine Synthesetabelle, also habe ich selbst eine Liste erstellt: Leviathan-Axt + Dolchwerfende Glutaxt + Lokis elektrisierendes Phantom Giant's Fang + Whirlwind Cleave Scati Ice Arrow + Gangenir Turret + World Tree Pulse Earth Crack + Glacier Crack Fenrirs Klaue + Thors Zorn, Surtr's Fire + Wind 2. Die Spezialeffekte können nicht ausgeschaltet oder transparent gemacht werden, und der spätere Vollbildmodus ist ein Waffen-Spezialeffekt, und die Fähigkeiten, Monstern auszuweichen, bestehen alle darin, sich ständig zu bewegen und der Rüstung zu widerstehen. 3. Nachdem du mehr Runen hergestellt hast, musst du 1-4 Runen ausrüsten, die fallen, und das System des Bürstens von Runen ist verschwendet. 4. Der dritte Charakter ist zu schwach und es ist schwierig, mit dem Monster mit dem hervorstehenden Gesicht in der Anfangsphase fertig zu werden. 5. In den letzten 8 Stunden beträgt die Gesamtstufe der 3 Charaktere nur Stufe 35, und die Gesamtzahl der Charaktere hat gerade einen Charakter angeklickt und das Upgrade ist zu langsam.</t>
+        </is>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="b">
+        <v>1</v>
+      </c>
+      <c r="B456" t="n">
+        <v>1104</v>
+      </c>
+      <c r="C456" t="n">
+        <v>1744421858</v>
+      </c>
+      <c r="D456" t="inlineStr">
+        <is>
+          <t>Trotzig ein 5-minütiges Spiel.</t>
+        </is>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="b">
+        <v>1</v>
+      </c>
+      <c r="B457" t="n">
+        <v>963</v>
+      </c>
+      <c r="C457" t="n">
+        <v>1744420717</v>
+      </c>
+      <c r="D457" t="inlineStr">
+        <is>
+          <t>Der Monsterfarming-Prozess ist gut Es ist nur so, dass die Gesamtarbeit ein bisschen schlecht ist Im Spiel müssen Sie mit der Maus auf Bestätigung drücken Fügen Sie eine Eingabetaste hinzu, um zu bestätigen, dass es nicht funktioniert, und ändern Sie sie dann in QWE-Auswahl Es ist besser, die Runen mit einem Klick zu ändern, um sie langsam zu verkaufen Eine nach der anderen Um die Runen zu ändern und langsam auf seine Funktionen zu schauen, eine nach der anderen, kann ich die Tabelle der Synthese von Großgeräten im Büro nicht sehen Es wird gesagt, dass es 4 Bezirke gibt Aber der 4. Bereich ist der zweite König, der das Gesicht sieht und mir sekundiert Nachdem ich ein paar Mal gespielt habe, weiß ich nicht, wie ich leben soll Ich weiß nicht, ob es ein Plot-Kill ist Er hat es nicht gesagt</t>
+        </is>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="b">
+        <v>1</v>
+      </c>
+      <c r="B458" t="n">
+        <v>1642</v>
+      </c>
+      <c r="C458" t="n">
+        <v>1744420289</v>
+      </c>
+      <c r="D458" t="inlineStr">
+        <is>
+          <t>Spaß</t>
+        </is>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="b">
+        <v>1</v>
+      </c>
+      <c r="B459" t="n">
+        <v>889</v>
+      </c>
+      <c r="C459" t="n">
+        <v>1744418835</v>
+      </c>
+      <c r="D459" t="inlineStr">
+        <is>
+          <t>Klasse Game ! Ich werde es auf Twitch ausgiebig suchten !</t>
+        </is>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="b">
+        <v>1</v>
+      </c>
+      <c r="B460" t="n">
+        <v>490</v>
+      </c>
+      <c r="C460" t="n">
+        <v>1744417860</v>
+      </c>
+      <c r="D460" t="inlineStr">
+        <is>
+          <t>Wenn du die Anfälle auslösenden Builds ignorierst, ist es ein gutes Spiel</t>
+        </is>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="b">
+        <v>1</v>
+      </c>
+      <c r="B461" t="n">
+        <v>267</v>
+      </c>
+      <c r="C461" t="n">
+        <v>1744414035</v>
+      </c>
+      <c r="D461" t="inlineStr">
+        <is>
+          <t>Ich mag es, dass dieses Spiel versucht, das Genre zu erweitern und verschiedene Dinge auszuprobieren. Könnte einige QoL-Dinge gebrauchen, aber ich bin sicher, dass diese mit der Zeit kommen werden. Der Schwierigkeitsgrad ist definitiv hoch, aber sobald man die verschiedenen Systeme nutzt, werden die Levels viel überschaubarer.</t>
+        </is>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="b">
+        <v>1</v>
+      </c>
+      <c r="B462" t="n">
+        <v>459</v>
+      </c>
+      <c r="C462" t="n">
+        <v>1744409886</v>
+      </c>
+      <c r="D462" t="inlineStr">
+        <is>
+          <t>Lustiges Spiel ein bisschen grindig</t>
+        </is>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="b">
+        <v>1</v>
+      </c>
+      <c r="B463" t="n">
+        <v>1002</v>
+      </c>
+      <c r="C463" t="n">
+        <v>1744405514</v>
+      </c>
+      <c r="D463" t="inlineStr">
+        <is>
+          <t>Einige QOL-Verbesserungen erforderlich, sonst 5/5</t>
+        </is>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="b">
+        <v>1</v>
+      </c>
+      <c r="B464" t="n">
+        <v>662</v>
+      </c>
+      <c r="C464" t="n">
+        <v>1744404537</v>
+      </c>
+      <c r="D464" t="inlineStr">
+        <is>
+          <t>Odin Go BRRRR</t>
+        </is>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="b">
+        <v>1</v>
+      </c>
+      <c r="B465" t="n">
+        <v>1184</v>
+      </c>
+      <c r="C465" t="n">
+        <v>1744403579</v>
+      </c>
+      <c r="D465" t="inlineStr">
+        <is>
+          <t>gut</t>
+        </is>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="b">
+        <v>1</v>
+      </c>
+      <c r="B466" t="n">
+        <v>912</v>
+      </c>
+      <c r="C466" t="n">
+        <v>1744399604</v>
+      </c>
+      <c r="D466" t="inlineStr">
+        <is>
+          <t>Es macht wirklich Spaß, nur die Legendenrunen fühlen sich etwas schwach an, auch eine Option zum Herstellen von zufälligen Runen wäre schön.</t>
+        </is>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="b">
+        <v>1</v>
+      </c>
+      <c r="B467" t="n">
+        <v>1177</v>
+      </c>
+      <c r="C467" t="n">
+        <v>1744397037</v>
+      </c>
+      <c r="D467" t="inlineStr">
+        <is>
+          <t>Chefs sind sehr hart Im Nehmen Und warum kann ich nicht die Fähigkeiten hervorheben, die man braucht, um sich weiterzuentwickeln? Bitte füge weitere Tabs für Warpaint hinzu (für andere Charakter-Builds)</t>
+        </is>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="b">
+        <v>1</v>
+      </c>
+      <c r="B468" t="n">
+        <v>728</v>
+      </c>
+      <c r="C468" t="n">
+        <v>1744396317</v>
+      </c>
+      <c r="D468" t="inlineStr">
+        <is>
+          <t>Das Spiel ist echt fordernd mit einem guten grad an Verbesserung sowohl meta Progression als auch die Spielmechaniken im Run.</t>
+        </is>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="b">
+        <v>1</v>
+      </c>
+      <c r="B469" t="n">
+        <v>630</v>
+      </c>
+      <c r="C469" t="n">
+        <v>1744395486</v>
+      </c>
+      <c r="D469" t="inlineStr">
+        <is>
+          <t>Die Zeit schmilzt sanft dahin, aber ich möchte die Speicherdaten auf eine andere Datei verschieben, aber was?</t>
+        </is>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="b">
+        <v>1</v>
+      </c>
+      <c r="B470" t="n">
+        <v>1305</v>
+      </c>
+      <c r="C470" t="n">
+        <v>1744391273</v>
+      </c>
+      <c r="D470" t="inlineStr">
+        <is>
+          <t>Ein sehr cooles game!
+Ich habe schon die demo gespielt und bin immer noch begeistert von dem game.
+Zu empfehlen.</t>
+        </is>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="b">
+        <v>1</v>
+      </c>
+      <c r="B471" t="n">
+        <v>520</v>
+      </c>
+      <c r="C471" t="n">
+        <v>1744389544</v>
+      </c>
+      <c r="D471" t="inlineStr">
+        <is>
+          <t>gut, etwas schleifig und nicht poliert, aber es ist gut</t>
+        </is>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="b">
+        <v>1</v>
+      </c>
+      <c r="B472" t="n">
+        <v>714</v>
+      </c>
+      <c r="C472" t="n">
+        <v>1744389314</v>
+      </c>
+      <c r="D472" t="inlineStr">
+        <is>
+          <t>Es gibt keinen Hinweis in der Super-Martial-Arts-Synthese.,Das Büro sollte so eingerichtet sein, dass es eine Kombination von Eingabeaufforderungen hat.,Jetzt ist es eine gute Wahl, welche Fertigkeit verwendet werden soll.,Es gibt auch ein Runensystem.,Kannst du ein anderes Ausrüstungssystem bekommen?</t>
+        </is>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="b">
+        <v>1</v>
+      </c>
+      <c r="B473" t="n">
+        <v>1172</v>
+      </c>
+      <c r="C473" t="n">
+        <v>1744387026</v>
+      </c>
+      <c r="D473" t="inlineStr">
+        <is>
+          <t>Die Fähigkeiten, die fusioniert werden können, sind nicht sehr klar, und die Pixelsymbole sind zu schwer zu erkennen und nicht offensichtlich zu sehen, daher ist es besser, bei der Auswahl direkt einen Hinweis zu geben, der sehr wichtig ist</t>
+        </is>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="b">
+        <v>0</v>
+      </c>
+      <c r="B474" t="n">
+        <v>490</v>
+      </c>
+      <c r="C474" t="n">
+        <v>1744386543</v>
+      </c>
+      <c r="D474" t="inlineStr">
+        <is>
+          <t>Solides Spiel, aber viel zu stark auf RNG.   Habe mehrere Spiele ohne ein einziges Schadens-Upgrade (egal in welcher Kategorie) gegen Grey Drop gehabt. Es ist nicht so, dass es in diesen Fällen nicht machbar wäre, das Problem ist, dass es in keiner Weise Spaß macht, wenn man sich vom Spiel bestraft fühlt.</t>
+        </is>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="b">
+        <v>1</v>
+      </c>
+      <c r="B475" t="n">
+        <v>408</v>
+      </c>
+      <c r="C475" t="n">
+        <v>1744385082</v>
+      </c>
+      <c r="D475" t="inlineStr">
+        <is>
+          <t>Fort</t>
+        </is>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="b">
+        <v>1</v>
+      </c>
+      <c r="B476" t="n">
+        <v>5588</v>
+      </c>
+      <c r="C476" t="n">
+        <v>1744384543</v>
+      </c>
+      <c r="D476" t="inlineStr">
+        <is>
+          <t>Das wird DER nächste rougelike Bullet Heaven!</t>
+        </is>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="b">
+        <v>1</v>
+      </c>
+      <c r="B477" t="n">
+        <v>711</v>
+      </c>
+      <c r="C477" t="n">
+        <v>1744378969</v>
+      </c>
+      <c r="D477" t="inlineStr">
+        <is>
+          <t>gut</t>
+        </is>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="b">
+        <v>1</v>
+      </c>
+      <c r="B478" t="n">
+        <v>425</v>
+      </c>
+      <c r="C478" t="n">
+        <v>1744378730</v>
+      </c>
+      <c r="D478" t="inlineStr">
+        <is>
+          <t>Kann die Superwaffen-Synthesetabelle Text und Bilder anzeigen?Mosaikbilder sind schwer zu lesen!Darüber hinaus fügen Sie bitte Erkennung und Unterscheidung zu verschiedenen Karten und Charakteren hinzu, und die Fähigkeiten der Physikabteilung sind weit mehr als andere Fähigkeiten nach dem Spielen</t>
+        </is>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="b">
+        <v>0</v>
+      </c>
+      <c r="B479" t="n">
+        <v>1052</v>
+      </c>
+      <c r="C479" t="n">
+        <v>1744378530</v>
+      </c>
+      <c r="D479" t="inlineStr">
+        <is>
+          <t>Skill-Synthese-Bug bringt das Spiel zum Absturz</t>
+        </is>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="b">
+        <v>1</v>
+      </c>
+      <c r="B480" t="n">
+        <v>652</v>
+      </c>
+      <c r="C480" t="n">
+        <v>1744378459</v>
+      </c>
+      <c r="D480" t="inlineStr">
+        <is>
+          <t>Ich spiele seit Beginn des "Asgardian Fall: Origins"-Tests, das Spiel ist klein, aber es ist immer noch recht interessant, und der Preis von 20 Yuan kann nicht gekauft werden, und man kann sich nicht mit Verlust täuschen lassen. Es gibt ein paar Vorschläge für dieses Spiel: 1. Optimieren Sie das Chinesisch, einschließlich, aber nicht beschränkt auf die Beschreibung des chinesischen Buches des Spiels, sowie Errungenschaften in der Community, jedes Mal veröffentlichte Patches, Neuigkeiten und Beschreibungen. 2. Fügen Sie dem Spiel ein Bestiarium hinzu, fügen Sie der Runenkonfiguration eine bestimmte Art der Sortierung hinzu, verwenden Sie überschüssige Materialien, um eine bestimmte Formqualität zu erzeugen, fügen Sie jedoch zufällige Runen hinzu, und fügen Sie eine Vorgruppenfunktion hinzu, die nach Wahl des Helden vorgeformt werden kann. 3. Die 10-minütige Boss-Fähigkeit in Warner Divine Domain ist nicht genau bestimmt, und du kannst auch dann verletzt werden, wenn du dich nicht im roten Cursor befindest. 4. Einzelne Beschwörungsfähigkeiten können nicht gefarmt werden, und es ist nur 1 Beschwörung erlaubt, wie z. B. Krähen- und Feuerwolf-Fähigkeiten, so dass der Schaden besonders in den Schritt zieht. 5. Optimiere die Beschreibung des Bestiariums für die Superwaffensynthese und gib nach dem Freischalten einen Hinweis in der Auswahlfähigkeit. 6. Erhöhe die Anzahl der Helden mit universellen Talenten, z. B. indem du sie in der Auswahl der Fähigkeiten und im Netz des Schicksals außer Gefecht setzt. 7. Der Ausdruck der Karte, die Beute von Gegenständen und die besonderen Richtlinien wurden optimiert, die Anzahl der Magnete entsprechend erhöht und die Anzahl der Aufwertungssteine beim Töten von Monstern außerhalb der Sichtweite deutlich reduziert. 8. Beschleunigen Sie das Update, optimieren Sie die Fähigkeiten, fügen Sie Karten, Charaktere und Superwaffen hinzu.</t>
+        </is>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="b">
+        <v>0</v>
+      </c>
+      <c r="B481" t="n">
+        <v>512</v>
+      </c>
+      <c r="C481" t="n">
+        <v>1744373950</v>
+      </c>
+      <c r="D481" t="inlineStr">
+        <is>
+          <t>Ich empfehle das Spiel vorerst nicht. Richtig gut wird es vielleicht mit Updates, die einige Probleme beheben, aber das hängt stark davon ab, dass der Entwickler von nun an die richtigen Entscheidungen trifft und ist nicht garantiert, daher kann ich das Spiel vorerst nicht empfehlen. Ich werde kurz die Guten auflisten, bevor ich mich den Schlechten zuwende: GUT : &gt; Alles an der Oberfläche ist großartig (die Designs, die Animationen, die Farben, die Soundeffekte, die Musik, ... Der erste Eindruck ist wirklich gut SCHLECHT: &gt; QoL-Funktionen und Benutzerfreundlichkeit. Hier sind einige Beispiele: 1) Tasten können nicht neu belegt werden (wenn Sie keinen Controller haben und z.B. auf einem AZERTY spielen ... ärgerlich) 2) Das Erscheinen der Statistiklisten ist nicht intuitiv. Wenn Sie die Pause-Taste drücken (Escape-Taste auf KB oder Start auf Controllern), wird im Pause-Menü die Liste der Statistiken und deren Funktion nicht angezeigt. Dies geschieht durch eine separate Taste (TAB auf KB, Auswahl auf Controllern), aber das Spiel gibt Ihnen diese Informationen nie, was dazu führt, dass einige neue Spieler die Existenz der Statistikliste einfach völlig ignorieren, bis sie in den Steam-Foren recherchieren, wie sie angezeigt werden können. Es gibt auch KEINEN GRUND, warum die Statistikliste nicht im Pausenmenü angezeigt wird, da es auf jeder Seite des Bildschirms zwei riesige leere Bereiche gibt, und das ist der intuitivste Ort, um sie für die Spieler sichtbar zu machen. 3) Einige Statistiken sind einfach unmöglich zu verstehen. Nehmen wir zum Beispiel Ignite. Er verursacht Feuerschaden über Zeit. Ok, aber was dann? Skaliert es mit dem Wert "Schaden" ? Lässt es sich stapeln? Wenn ja, wie hoch ist das Stack-Limit? Wie hoch ist die Basisschadenszahl dafür? Und das Gleiche gilt für Bleed. Es ist unnötig ärgerlich, die Effizienz dieser zu messen, nur weil das Spiel uns diese Informationen nicht gibt, mit denen wir arbeiten können. 4) Das Inventar ist ein Witz. Sie können keine Gegenstände darin verschieben, um sie von Hand zu organisieren. Sie können es nicht mit Filtertypen wie Seltenheit, Affixen, Stufen usw. filtern. Wenn du eine Rune in dein Puzzle einbauen möchtest (das ist der Weg, um mehr passive Werte zu bekommen), ist das Inventar NIRGENDWO sichtbar. Als ob es eines der Seitenmenüs sein könnte, das einfaches Drag &amp; Drop usw. ermöglicht. aber nein, du musst das Inventar separat öffnen (und der Button dafür ist zu diesem Zeitpunkt NICHT sichtbar), auf die Rune klicken und sie dann platzieren. Das bedeutet, dass du nie sowohl das Puzzle als auch das Inventar gleichzeitig sehen kannst. Also, komm schon, nimm einfach das Inventar im Seitenmenü mit dem Freischaltbaren auf der rechten Seite als eines dieser Fenster, es gibt keinen Grund, das Leben der Spieler so zu verkomplizieren. 5) Wenn du pausierst, kannst du normalerweise sehen, welche Zauber du bisher ausgewählt hast und was sie bewirken ... AUSSER wenn du während eines Levelaufstiegs ein neues auswählst. Mögen... WARUM??? Das ist buchstäblich der Moment, in dem wir überprüfen möchten, was wir bereits haben, um die neuen Fähigkeiten mit unserem Build zu vergleichen und zu sehen, ob es passt.  6) Soweit ich das beurteilen kann, kann man nicht mehrere "Build"-Seiten haben. Das heißt, wenn ich eine Runenseite für physische Builds haben möchte, eine für Fallen-Builds, etc etc ... Ich kann nicht? Oder handelt es sich um eine Funktion, die zwar existiert, aber seltsamerweise versteckt ist? Bedeutet das, dass ich mein Runenpuzzle jedes Mal neu zusammensetzen muss, wenn ich einen anderen Build machen möchte?  &gt; Statistiken: 1) Die Werte selbst sind einfach schlecht gestaltet. Wie jemand anderes in den Rezensionen sagte, ist der einzige defensive Wert, der zählt, die Bewegungsgeschwindigkeit. Zu Beginn des Spiels, wie in den ersten paar Stunden, kannst du vielleicht mit der Lebensregeneration und den HP herumfummeln ... Aber es wird schnell völlig irrelevant. 2) Die Werte sind nicht ausbalanciert. Die Seltenheit spielt manchmal gar keine Rolle. Ich habe bereits einen epischen Knoten der Angriffsgeschwindigkeit UND einen legendären Knoten der Angriffsgeschwindigkeit mit genau gleichen Werten (16%) fallen lassen. Mögen... hä??? Warum sollten Sie das überhaupt tun?  3) Die Werte sind nicht ausgeglichen (2). Ich glaube, hier gibt es mathematische Probleme (korrigieren Sie mich, wenn ich falsch liege). Die Chance auf einen kritischen Treffer ist zum Beispiel immer schlecht im Vergleich zu einem Knoten mit erhöhtem x-Schaden. Damit sich kritische Treffer bei einer ähnlichen Investition lohnen, wird immer die gleiche Investition in Schaden und Angriffsgeschwindigkeit vorherrschen. Die Folge davon ist, dass das Spiel nicht so flexibel ist und nicht so viele Werte es wert sind. Wenn das Spiel dich dazu zwingt, etwas anderes als ideal zu machen, kannst du wirklich spüren, dass du mit schlechten Werten arbeitest (kritische Trefferchance, Lebensregeneration, Rüstung, HP, Ausweichen) 4) Die Runen ... Oh mein Gott, die Runen. Ich habe etwa ein Dutzend "legendäre Runen" (gelbe) fallen lassen, die super selten und super gut sein sollen ... nur um sie alle zu verwerfen. Sie sind alle mit nutzlosen T1-Affixen gefüllt. Keiner von ihnen war brauchbar. Das liegt an der niedrigen Stufe, die er jedes Mal gewürfelt hat, sowie an der Anzahl der wertvollen Werte, die im Vergleich zu allen im Spiel verfügbaren Werten recht gering sind. Ich spiele mit einem Schwierigkeitsgrad von 20 bis 30 (Opferlevel ? idk) und ich habe den Unterschied in der Beute nicht gespürt. Sicher, es werden noch etwas mehr legendäre Runen fallen ... Aber was nützt es, wenn sie alle nutzlos sind?  Fazit : Das waren die Hauptprobleme, die ich mit dem Spiel habe, es gibt noch andere kleinere Probleme, aber diese sind meiner Meinung nach die dringendsten, die angegangen werden müssen. Ich denke t</t>
+        </is>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="b">
+        <v>1</v>
+      </c>
+      <c r="B482" t="n">
+        <v>611</v>
+      </c>
+      <c r="C482" t="n">
+        <v>1744371909</v>
+      </c>
+      <c r="D482" t="inlineStr">
+        <is>
+          <t>Ziemlich lustig zu spielen. Es erinnert mich an einige gute alte Läufe in brotato oder ähnlichen Spielen (z.B. deeprock galactic). Abgesehen davon hat das Spiel sein eigenes Flair und ist meiner Meinung nach, im Vergleich zu den anderen oben genannten, schwieriger. Die Bosse sind schwieriger und dieses Spiel macht es nicht einfach, alle Levels zu schnell zu meistern. Ich kann dieses Spiel ehrlich gesagt empfehlen, um nach einigen stressigen CS2-Spielen zu entspannen und zu spielen xD</t>
+        </is>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="b">
+        <v>1</v>
+      </c>
+      <c r="B483" t="n">
+        <v>4095</v>
+      </c>
+      <c r="C483" t="n">
+        <v>1744370706</v>
+      </c>
+      <c r="D483" t="inlineStr">
+        <is>
+          <t>Habe zum Vergleich mir einen Döner geholt und muss sagen, dass das Game beim Preis-/Leistungsverhältnis überzeugt hat.
+Der Döner mit einem Ø-Preis von 7€ war nach 13-20 Bissen weg und nicht mehr weiter interessant. Das Spiel war zu dem Zeitpunkt noch im ersten Run und war noch nicht mal zu 5% beim Fortschritt!
+Das Spiel "Asgard's Fall - Viking Survivors" ist sein Geld mehr als wert und der Spielspaß kommt auch nicht zu kurz.
+Kauft es. Danke.</t>
+        </is>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="b">
+        <v>1</v>
+      </c>
+      <c r="B484" t="n">
+        <v>737</v>
+      </c>
+      <c r="C484" t="n">
+        <v>1744368059</v>
+      </c>
+      <c r="D484" t="inlineStr">
+        <is>
+          <t>Ich bin sofort den charmanten Pixelgrafiken und butterweichen Animationen verfallen – das nordische Setting setzt dem Ganzen noch den gehörn­ten Helm auf. Man fühlt sich direkt wie ein kriegerischer Baustein unter lauter schnauzbärtigen Pixel-Wikingern!
+Allerdings ist das Progress-System anfangs eine kleine Axt im eigenen Fuß: Ohne Upgrades fühlt man sich öfter mal wie ein harmloses Hündchen vor lauter bissigen Trollen. Man muss halt fleißig Stage 1 grinden, um die nötigen Power-ups abzugreifen und nicht gleich wieder mit dem Pixel-Gesicht im Schnee zu landen. Aber hey, das Spiel ist im Early Access und wird noch kräftig weitergefeilt. Ich hab schon jetzt Bock auf die nächsten Updates und all die kleinen Verbesserungen, die es noch epischer machen werden!</t>
+        </is>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="b">
+        <v>1</v>
+      </c>
+      <c r="B485" t="n">
+        <v>1590</v>
+      </c>
+      <c r="C485" t="n">
+        <v>1744367140</v>
+      </c>
+      <c r="D485" t="inlineStr">
+        <is>
+          <t>Als jemand, der viele Bullet Hell-Spiele gespielt hat, kann ich sagen, dass dieses Spiel ein wirklich gutes Spiel ist, es ist 2 Tage her, seit es veröffentlicht wurde, obwohl es sich noch in der Early-Access-Phase befindet, hat es auch jetzt noch ein wirklich großes Potenzial. Es gibt Unterstützung für die türkische Sprache, es gibt einige Tippfehler, aber sie werden korrigiert. Was das Spiel betrifft, so gibt es Verbesserungen wie das Skill-System, das Wyrd-Netzwerk, die Kriegsbemalung und den Skill-Baum, die die Person, die spielt, wirklich zufrieden stellen. Fähigkeiten und Skill-Baum sind in vielen Bullet-Hell-Spielen verfügbar, aber es gibt 2 nette Mechaniken, die in anderen Bullet-Hell-Spielen nicht verfügbar sind, wie z. B. das Wyrd-Netz und die Kriegsbemalung. Es ist notwendig, sich im Wyrd-Netzwerk logisch zu verbinden, wenn Sie diese Verbindung nicht richtig herstellen, kann das Spiel für Sie die Hölle sein:) Da dies der wichtigste Teil des Spiels ist, verwandeln Sie Ihren Charakter in eine vollständige Maschine, nutzen Sie sie gut. Wenn du dich sowieso nicht gut entwickelst, wird dir das Spiel wahrscheinlich schwer fallen. Kriegsbemalung funktioniert so: Du sammelst wertvolle Pigmente aus den Spielen, die du spielst, sie fallen von den Bossen, die du tötest, du öffnest normalerweise Runen mit diesen Pigmenten, es gibt viele stärkende Runen wie Vitalitätsrunen, Regenerationsrunen. Ich war fasziniert von der Kriegsbemalung und der Wyrd-Netzmechanik und es hat mir sehr gut gefallen. Es ist wirklich gut durchdacht. Ich freue mich auf zukünftige Updates. EMPFEHLEN</t>
+        </is>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="b">
+        <v>1</v>
+      </c>
+      <c r="B486" t="n">
+        <v>1210</v>
+      </c>
+      <c r="C486" t="n">
+        <v>1744366928</v>
+      </c>
+      <c r="D486" t="inlineStr">
+        <is>
+          <t>QWER</t>
+        </is>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="b">
+        <v>1</v>
+      </c>
+      <c r="B487" t="n">
+        <v>979</v>
+      </c>
+      <c r="C487" t="n">
+        <v>1744366319</v>
+      </c>
+      <c r="D487" t="inlineStr">
+        <is>
+          <t>Geiles Spiel!!</t>
+        </is>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="b">
+        <v>1</v>
+      </c>
+      <c r="B488" t="n">
+        <v>774</v>
+      </c>
+      <c r="C488" t="n">
+        <v>1744365839</v>
+      </c>
+      <c r="D488" t="inlineStr">
+        <is>
+          <t>Obwohl etwas verzögert, immer noch spielbar, würde ich gerne die Fähigkeiten ändern können</t>
+        </is>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="b">
+        <v>1</v>
+      </c>
+      <c r="B489" t="n">
+        <v>1094</v>
+      </c>
+      <c r="C489" t="n">
+        <v>1744364898</v>
+      </c>
+      <c r="D489" t="inlineStr">
+        <is>
+          <t>Nichts weiter zu sagen, als dass das Spiel großartig ist.  Einige Dinge aus dem Prolog sind nicht in dieser Version gelandet und es ist ein bisschen schade, aber so viel wird später noch hinzugefügt, im Moment platziert sich das Spiel leicht sehr weit oben auf dem Survivor-ähnlichen Podium.</t>
+        </is>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="b">
+        <v>1</v>
+      </c>
+      <c r="B490" t="n">
+        <v>918</v>
+      </c>
+      <c r="C490" t="n">
+        <v>1744362697</v>
+      </c>
+      <c r="D490" t="inlineStr">
+        <is>
+          <t>Das Spiel ist sehr gut.,Aber ich hoffe, dass es noch mehr Charaktere gibt.,Und ich hoffe auch, dass das Produktionsteam eine Funktion einbaut, die Charakterdaten anzeigen kann.,Jedes Mal, wenn ich einen BUFF auswähle, bin ich verwirrt über die Angriffskraft, die Verteidigung, die Ausweichrate des Charakters oder so.</t>
+        </is>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="b">
+        <v>1</v>
+      </c>
+      <c r="B491" t="n">
+        <v>1140</v>
+      </c>
+      <c r="C491" t="n">
+        <v>1744361069</v>
+      </c>
+      <c r="D491" t="inlineStr">
+        <is>
+          <t>Alle Arten von Problemen, die noch poliert werden müssen, aber den Preis wert sind,</t>
+        </is>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="b">
+        <v>1</v>
+      </c>
+      <c r="B492" t="n">
+        <v>1298</v>
+      </c>
+      <c r="C492" t="n">
+        <v>1744359160</v>
+      </c>
+      <c r="D492" t="inlineStr">
+        <is>
+          <t>Dies ist ein sehr vielversprechendes Überlebensspiel. Ich war fasziniert von dem Kunststil, den flüssigen Animationen und Kämpfen und dem Thema der nordischen Mythologie.  Die einzige Verkleinerung, die mir im Moment einfällt, ist die Progression. Das Spiel ist ohne Charakter-Upgrades ziemlich schwer und es dauert einige Zeit, sie zu bekommen. Es kann also sein, dass du Stufe 1 ein wenig farmen musst, wenn du einen neuen Charakter ausprobierst. Ich bin mir bewusst, dass sich das Spiel im Early Access befindet und noch aktiv daran gearbeitet wird, was großartig ist. Wir freuen uns auf weitere Verbesserungen und QoL-Änderungen in naher Zukunft.</t>
+        </is>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="b">
+        <v>0</v>
+      </c>
+      <c r="B493" t="n">
+        <v>724</v>
+      </c>
+      <c r="C493" t="n">
+        <v>1744358440</v>
+      </c>
+      <c r="D493" t="inlineStr">
+        <is>
+          <t>EA Stage Tips Version Nr. 0.2 Es gibt drei Farben für Waffen-Upgrades: Weiß, Blau und Gold, wobei Gold das größte Upgrade hat. Waffen-Upgrades basieren auf einem der Auslöser, Reichweite, CD, Schaden usw., anstatt auf allen Upgrades. Schließe die erste Karte ab, um den Runen-Drop freizuschalten, und tippe auf den I-Schlüssel-Rucksack, um ihn mit der Flagge auszurüsten. Runen im Rucksack können durch Bewegen der rechten Maus zerlegt und in Bannermaterialien zerlegt werden. Die Artefaktsynthese verbraucht keine Waffen und Artefakte belegen keine Waffenplätze, die Artefaktsynthese kann nur einmal synthetisiert werden und die Synthesebedingung ist, dass zwei Waffen auf Stufe 5 sind. Die dritte Stufe beginnt mit Bodenfallen. Im vierten Level sollte der 20-Minuten-Boss ein bestimmtes Artefakt synthetisieren, sonst wird er von Odin getötet. Obwohl es mir gefallen hat, ist es insgesamt nicht sehr zu empfehlen. (1) In der Anfangsphase geht es um die Erfahrung des Todesstapel-Charakters, das Freischalten des überflüssigen Bonus des Charakters und das Aufwerten der Fähigkeit (auf Stufe 5) durch das Freischalten des Synthesebuchs, das sehr langweilig und langweilig ist und häufig die Frustration spürt, die durch den Tod verursacht wird. (2) Ich habe überall auf der Alphabettastatur gedrückt, und es gibt keine detaillierte Attributschnittstelle für das Zeichen, und ich weiß nicht, welchen numerischen Wert ich jetzt habe. (Aktualisiert (3) Die Aktualisierung des Rollpunkts ist unregelmäßig und wird nicht absichtlich Artefakte für Sie erfinden.) (4) Ich weiß nicht, welche Farbe das Waffen-Upgrade hat, reines Glück? (5) Gegenwärtig sind mehrere Karten im Grunde gleich, mit Ausnahme von Monstern... Es gibt keine Interaktion auf der Karte. (6) Das vierte Level des Bosses, in dem du in Sekunden getötet wurdest, um zusätzlichen Inhalt zu erstellen, ist gut, und das erste Mal, dass du die Hauptgeschichte nicht kennst, muss Sekunden dauern. (7)Es gibt eine kleine unvollständige Sinisierung.,Eine Eingabeaufforderung, die erscheint, wenn der Rechtsklick im Rucksack zerlegt wird.。 (8) In der Benutzeroberfläche der Menüeinstellung fehlen Elemente, es gibt derzeit keinen Unendlichkeitsmodus und der Rollpunkt kann nicht aufgegeben werden. (9) Waffensymbole (und möglicherweise Filmmaterial) sind verschwommen und undeutlich. (10) Im Kampf ist der Unterschied zwischen Freund und Feind und Kugeln nicht klar, und Verletzungen können nur anhand der Menge an Blut beurteilt werden. Wenn der rote Balken vorhanden ist, wird die Ladeanimation abgespielt, selbst wenn das Monster getötet wird. (11) Die Kosten für das Würfeln schwerer Würfel sind zu hoch, und du hast Zehntausende von blauen Kristallen, die du mit ein paar Klicks ausgeben kannst. (12) Wenn Sie es nicht vollständig erlebt haben, kann es falsch sein, beziehen Sie sich bitte auf die tatsächliche Situation.</t>
+        </is>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="b">
+        <v>0</v>
+      </c>
+      <c r="B494" t="n">
+        <v>344</v>
+      </c>
+      <c r="C494" t="n">
+        <v>1744355515</v>
+      </c>
+      <c r="D494" t="inlineStr">
+        <is>
+          <t>Bürsten Sie Überlebende ohne Seelen, Requisiten haben nur Attribute und das numerische Design im Spiel ist unvernünftig</t>
+        </is>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="b">
+        <v>1</v>
+      </c>
+      <c r="B495" t="n">
+        <v>801</v>
+      </c>
+      <c r="C495" t="n">
+        <v>1744354575</v>
+      </c>
+      <c r="D495" t="inlineStr">
+        <is>
+          <t>Die Benutzeroberfläche Ihrer kombinierten Fähigkeiten ist zu abstrakt, und ich verstehe nicht, um welche beiden Fähigkeiten es sich handelt</t>
+        </is>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="b">
+        <v>1</v>
+      </c>
+      <c r="B496" t="n">
+        <v>1353</v>
+      </c>
+      <c r="C496" t="n">
+        <v>1744353323</v>
+      </c>
+      <c r="D496" t="inlineStr">
+        <is>
+          <t>Übliches Danmaku, niedlich gemacht, wobei leider am Anfang nicht ganz ersichtlich ist, was man alles machen kann.. Für Menschen, die vielleicht gerade in das Genre einsteigen oder nicht ganz auf der Höhe sind, etwas anstrengend, herauszufinden, was man alles leveln kann und wofür die Knotenpunkte sind.. Aber ich habe mittlerweile sehr spannende 10 Stunden gespielt, die 3 freischaltbaren Chars und die zweite Map entdeckt.. ich hab immer noch Bock, weiter zu spielen, bin aber gespannt, ob und welche Chars noch in das Spiel kommen werden.. Für den Preis von 6,25 € im Release auf jeden Fall ein Must Have.. Allerdings denke ich, dass da noch Luft nach oben ist.. :-)</t>
+        </is>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="b">
+        <v>1</v>
+      </c>
+      <c r="B497" t="n">
+        <v>2019</v>
+      </c>
+      <c r="C497" t="n">
+        <v>1744350329</v>
+      </c>
+      <c r="D497" t="inlineStr">
+        <is>
+          <t>Lächerlich süchtig machend und lustig. Habe am ersten Tag 5 Stunden gespielt. Ich kann wirklich keine bessere Bewertung hinterlassen als das.</t>
+        </is>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="b">
+        <v>1</v>
+      </c>
+      <c r="B498" t="n">
+        <v>535</v>
+      </c>
+      <c r="C498" t="n">
+        <v>1744349850</v>
+      </c>
+      <c r="D498" t="inlineStr">
+        <is>
+          <t>Der Schaden hängt hauptsächlich von der Fertigkeit "Gold würfeln" und dem Schicksalsnetz ab (in der frühen Phase kann man es mit 20+ Bewegungsgeschwindigkeit abkratzen) Das Spielerlebnis ist durchschnittlich, die Fertigstellung ist etwas niedrig und die frühe Phase ist etwas eingesperrt. Es gibt keine Wolke außer SteamDeck, das Leberlevel erneut zu spielen, ist ein bisschen ekelhaft, und ich kann nicht sehen, um welche Art von Waffe es sich da drüben handelt (ich muss die Leute diese Fertigkeitssymbole identifizieren lassen, und die Kleinen werden sterben)</t>
+        </is>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="b">
+        <v>1</v>
+      </c>
+      <c r="B499" t="n">
+        <v>490</v>
+      </c>
+      <c r="C499" t="n">
+        <v>1744349100</v>
+      </c>
+      <c r="D499" t="inlineStr">
+        <is>
+          <t>Ein Wunder!!!! Empfehlen</t>
+        </is>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="b">
+        <v>0</v>
+      </c>
+      <c r="B500" t="n">
+        <v>37</v>
+      </c>
+      <c r="C500" t="n">
+        <v>1744347895</v>
+      </c>
+      <c r="D500" t="inlineStr">
+        <is>
+          <t>Es ist zu schwer, es macht keinen Spaß</t>
+        </is>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="b">
+        <v>1</v>
+      </c>
+      <c r="B501" t="n">
+        <v>341</v>
+      </c>
+      <c r="C501" t="n">
+        <v>1744346145</v>
+      </c>
+      <c r="D501" t="inlineStr">
+        <is>
+          <t>Weniger als ein Döner! - Hänno
+Kann man mir so gute Spiele verkaufen? - Ja... &lt;3</t>
+        </is>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="b">
+        <v>1</v>
+      </c>
+      <c r="B502" t="n">
+        <v>4926</v>
+      </c>
+      <c r="C502" t="n">
+        <v>1744344360</v>
+      </c>
+      <c r="D502" t="inlineStr">
+        <is>
+          <t>Spaß</t>
+        </is>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="b">
+        <v>1</v>
+      </c>
+      <c r="B503" t="n">
+        <v>1118</v>
+      </c>
+      <c r="C503" t="n">
+        <v>1744344303</v>
+      </c>
+      <c r="D503" t="inlineStr">
+        <is>
+          <t>1. Das Gameplay ist einzigartig, es gibt nur ein paar tolle Fähigkeiten und die Physikabteilung ist weit voraus. Die anderen Abteilungen sind entweder oder verzichtbar.  2, der Hexenmeister ist auch ein, seine Fähigkeiten können nicht verbessert werden und er kann sich im späten Gua Sha nicht bewegen.  3, ich schaffe das vierte Level nicht und der Boss wird in Sekunden getötet, wenn er herauskommt, ist es ein Plot-Kill? Einer wurde in die Luft gezwungen und lachte, und ich war weg. Nachdem du so viele tolle Fähigkeiten erworben hast, fang einfach von vorne an. Wann wurde es nach Level 4 aktualisiert? Ich will nicht mehr spielen.</t>
+        </is>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="b">
+        <v>1</v>
+      </c>
+      <c r="B504" t="n">
+        <v>1179</v>
+      </c>
+      <c r="C504" t="n">
+        <v>1744342836</v>
+      </c>
+      <c r="D504" t="inlineStr">
+        <is>
+          <t>Es ist ziemlich gud</t>
+        </is>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="b">
+        <v>1</v>
+      </c>
+      <c r="B505" t="n">
+        <v>235</v>
+      </c>
+      <c r="C505" t="n">
+        <v>1744339938</v>
+      </c>
+      <c r="D505" t="inlineStr">
+        <is>
+          <t>Es fehlen noch einige Übersetzungen, und wir freuen uns auf die Optimierung. --4.18 Das Spiel beenden oder Übersetzungen fehlen Es gibt keinen Cloud-Speicher, was nicht sehr freundlich ist. --4.18 Aktualisiert! Gut! Außerdem kann ich die Details der Synthese-Fähigkeit nicht lesen, und ich kann den Namen nicht lesen, möchtest du, dass wir uns die Pixel merken? --4.18 Aktualisiert! Gut! Lassen Sie uns weiter optimieren, wann wir es für immer ändern sollten, wann wir das Lob ändern sollten. --4.18 Hört auf das Entwicklerteam! Ich muss wieder zu guten Bewertungen wechseln!</t>
+        </is>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="b">
+        <v>1</v>
+      </c>
+      <c r="B506" t="n">
+        <v>148</v>
+      </c>
+      <c r="C506" t="n">
+        <v>1744335837</v>
+      </c>
+      <c r="D506" t="inlineStr">
+        <is>
+          <t>Ich habe die Riesenschlange in etwa 10 Sekunden getötet, es war ziemlich cool. Bitte füge die Steam Cloud bald hinzu &lt;3 EDIT: Sie haben es bereits innerhalb einer Woche hinzugefügt lol</t>
+        </is>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="b">
+        <v>1</v>
+      </c>
+      <c r="B507" t="n">
+        <v>1199</v>
+      </c>
+      <c r="C507" t="n">
+        <v>1744334521</v>
+      </c>
+      <c r="D507" t="inlineStr">
+        <is>
+          <t>Bisher hat es sehr, sehr viel Spaß gemacht.  Ich liebe das Level-Up-System</t>
+        </is>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" t="b">
+        <v>1</v>
+      </c>
+      <c r="B508" t="n">
+        <v>514</v>
+      </c>
+      <c r="C508" t="n">
+        <v>1744329801</v>
+      </c>
+      <c r="D508" t="inlineStr">
+        <is>
+          <t>Es ist ein guter Start in das Spiel, aber es ist noch nicht da, wo es sein sollte.   Vorteile: -Lustige Fertigkeitssysteme, die Kriegsbemalung ist eine großartige Idee für ein modulares System -Waffen fühlen sich gut an, einige haben interessante Mechaniken -Der Kunststil ist angenehm für die Augen, was es zu einem guten Spiel zum Entspannen macht -Das Wyrd-Websystem präsentiert ein Minispiel zu Ihrer Fähigkeitsauswahl, was eine großartige Idee ist Nachteile:  -Die Levels sind etwas überstimmt, man verbessert sich selten in der gleichen Geschwindigkeit wie der Level-Schwierigkeitsgrad. Dies wird durch einen erheblichen RNG für die stärkeren Fähigkeiten noch verschlimmert - Warpaint ist stark zufällig, ohne dass es eine wirkliche Möglichkeit gibt, einen Build einzugrenzen. Dies führt zu einer Menge Grinding für einen bestimmten Build - Genug Waffen, nicht genug Charaktere. Waffen haben keine großartigen passiven Fähigkeiten, ich habe nur eine Basiswaffe mit Heilung gesehen. Waffen brauchen coole passive Fähigkeiten und nur wenige haben sie. Ich genieße es immer noch, aber es ist noch nicht da, wo es sein sollte. Ich hoffe, es wird besser.</t>
+        </is>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" t="b">
+        <v>1</v>
+      </c>
+      <c r="B509" t="n">
+        <v>785</v>
+      </c>
+      <c r="C509" t="n">
+        <v>1744329220</v>
+      </c>
+      <c r="D509" t="inlineStr">
+        <is>
+          <t>Hinweis - Sie haben Cloud-Speicherstände hinzugefügt, seit ich diese Rezension geschrieben habe!  --------- Als Work in Progress ist es ziemlich gut. Benötigt jedoch dringend Cloud-Speicherstände - ich wusste ehrlich gesagt nicht einmal, dass das nicht für jedes Spiel gilt, da es so lange her ist, dass ich auf ein Spiel ohne es gestoßen bin. Es auf meinem PC zu spielen und dann zu meinem Steam Deck zu gehen, das ist ein Muss. Apropos Steam Deck, es läuft gut, würde aber von einer Seitenverhältnisoption von 16:10 profitieren - und alle Schriftarten größer machen - verdammt noch mal, auf meinem Desktop würde es von etwas größeren Schriftarten profitieren (sie sind nicht zu klein zum Lesen oder so, sondern würden nur davon profitieren, etwas größer zu sein). Auch die Musik ist mittelmäßig - aber ich höre generell Podcasts oder Hörbücher während des Spielens, also ist es für mich keine große Sache - aber bei Vampire Survivors ist es das nicht, wenn es um Musik geht. Aber ich liste nur Dinge auf, die sie verbessern können, da das Basisspiel sehr gut auf dem richtigen Weg ist. Wenn Sie Survivor-Spiele mögen, sollten Sie dieses mögen.</t>
+        </is>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" t="b">
+        <v>1</v>
+      </c>
+      <c r="B510" t="n">
+        <v>749</v>
+      </c>
+      <c r="C510" t="n">
+        <v>1744328623</v>
+      </c>
+      <c r="D510" t="inlineStr">
+        <is>
+          <t>Asgard's Fall — Viking Survivors macht einfach Spaß.
+Empfehle ich jeden,der diese Art von Spielen mag.
+Hier stand ein kleiner Kritikpunkt,haben Sie nach kurzer Zeit sofort behoben und bin wunschlos glücklich.
+Vielen Dank.
+Ansonsten läuft es einwandfrei und flüssig.
+Es ist nicht zu einfach aber auch nicht zu schwer und wenn man es doch noch schwerer haben möchte,
+kann man eine ordentliche Schippe oben drauf legen.
+Bin gespannt,was Asgard's Fall — Viking Survivors noch so an Updates heraus bringen wird.
+Vielen Dank</t>
+        </is>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="b">
+        <v>1</v>
+      </c>
+      <c r="B511" t="n">
+        <v>461</v>
+      </c>
+      <c r="C511" t="n">
+        <v>1744328591</v>
+      </c>
+      <c r="D511" t="inlineStr">
+        <is>
+          <t>Tolles Spiel, sehr unterhaltsam, es fehlt an Inhalt. Wir sollten auf neue Updates warten</t>
+        </is>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="b">
+        <v>1</v>
+      </c>
+      <c r="B512" t="n">
+        <v>2391</v>
+      </c>
+      <c r="C512" t="n">
+        <v>1744328110</v>
+      </c>
+      <c r="D512" t="inlineStr">
+        <is>
+          <t>Kann man nur weiter empfehlen ,  sucht kickt aufjedenfall :)</t>
+        </is>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="b">
+        <v>0</v>
+      </c>
+      <c r="B513" t="n">
+        <v>704</v>
+      </c>
+      <c r="C513" t="n">
+        <v>1744327485</v>
+      </c>
+      <c r="D513" t="inlineStr">
+        <is>
+          <t>Bisher ziemlich solide</t>
+        </is>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" t="b">
+        <v>0</v>
+      </c>
+      <c r="B514" t="n">
+        <v>268</v>
+      </c>
+      <c r="C514" t="n">
+        <v>1744326833</v>
+      </c>
+      <c r="D514" t="inlineStr">
+        <is>
+          <t>Ich lasse dich nicht einmal die Synthese der Fähigkeiten sehen, spiele mit deinem Pferd</t>
+        </is>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="b">
+        <v>1</v>
+      </c>
+      <c r="B515" t="n">
+        <v>951</v>
+      </c>
+      <c r="C515" t="n">
+        <v>1744326828</v>
+      </c>
+      <c r="D515" t="inlineStr">
+        <is>
+          <t>Demo gespielt. Ausgezeichneter kleiner Titel. Early Access gekauft, kein Fortschritt übertragen. Keine Ahnung, warum ich sterbe, laufe mit und bumm, du bist tot. Was ist passiert? Wer weiß. Es fühlt sich so an, als würde es einen fairen Grind geben, wenn du anfangen willst, außerhalb des Bull-Shit-Bereichs zu spielen</t>
+        </is>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" t="b">
+        <v>1</v>
+      </c>
+      <c r="B516" t="n">
+        <v>143</v>
+      </c>
+      <c r="C516" t="n">
+        <v>1744325106</v>
+      </c>
+      <c r="D516" t="inlineStr">
+        <is>
+          <t>!</t>
+        </is>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" t="b">
+        <v>1</v>
+      </c>
+      <c r="B517" t="n">
+        <v>753</v>
+      </c>
+      <c r="C517" t="n">
+        <v>1744325045</v>
+      </c>
+      <c r="D517" t="inlineStr">
+        <is>
+          <t>Asgard's Fall – Viking Survivors – Roguelike mit Potenzial, aber vielen Nuancen Ich spiele das Projekt seit Testversionen. Leider hat die Veröffentlichung es nicht vor einer Reihe von Problemen bewahrt. Die Eindrücke sind widersprüchlich: Es gibt interessante Mechaniken, die aber durch technische und Balance-Mängel verdorben sind.    Positive Aspekte: Skill-System: Eine große Auswahl an Fähigkeiten - physisch, Feuer, Eis, elektrisch. Unausgewogene Fertigkeiten werden separat unterschieden (z. B. ein Blutegel, der effektiv Gesundheit wiederherstellt).     Optimierung: Im Vergleich zu Benchmarks sind die FPS stabiler, aber unter hoher Last (viele Gegner/Effekte) sind Microfreezes auch auf leistungsstarker Hardware möglich.   Nachteile: Lokalisierung: In der Demo funktionierte alles korrekt, aber jetzt enthält der Runen-Tab Fehler wie "ERROR: Localization Missing". Es ist nicht klar, womit die Regression zusammenhängt.     Balance: Der Zufall spielt eine Schlüsselrolle. Schwache Fähigkeiten machen die Passage mühsam, und starke Fähigkeiten machen das Spiel zu einem Spaziergang. Statuseffekte (Brandstiftung, Blutung) haben fast keinen Einfluss auf den Kampf, die Lebensraub-Mechanik funktioniert nicht korrekt.     Benutzeroberfläche und Grafik: Die Fertigkeitseffekte sind überladen, mit hellen Animationen, die das Geschehen auf dem Bildschirm überdecken. Die Entwicklung der Fähigkeiten muss anhand der Symbole ohne Beschreibungen erahnt werden.     Saves: Der Fortschritt von einem PC wird nicht auf einen anderen übertragen (ich musste den Charakter erneut aufwerten). Vielleicht ist es ein Fehler.   Besondere Hinweise: Charakterfreischaltung: Der Bogenschütze benötigt 500% Angriffsgeschwindigkeit, um freigeschaltet zu werden, was im Vergleich zu den Benchmarks zu hoch ist. Den dritten Charakter erhält man, indem man mehrere Effekte an den Feind hängt - der Kontrast im Schwierigkeitsgrad sieht seltsam aus.   Fazit: Das Spiel verdient die Aufmerksamkeit der Fans des Genres, muss aber verbessert werden. Zufälligkeit, visuelles Chaos und Bugs können dich abschrecken, aber die Vielfalt der Fähigkeiten und das Potenzial für Build-Experimente lassen Hoffnung auf Patches bestehen.    P.S. Die Entwickler haben den geheimen Modus "God of Regen" klar im Blutegel versteckt. Wie sonst wäre es zu erklären, dass sie mit einem erfolgreichen Leveln heilt, als hätte sie die Macht von Odin selbst gestohlen?  UPD: Ich werde die Rezension aktualisieren, sobald Updates veröffentlicht werden. Für den Moment drücke ich es unter Vorbehalt aus: Wenn Sie Bagels mögen und bereit sind, Rauheit in Kauf zu nehmen, nehmen Sie sie.    Asgard's Fall — Viking Survivors — Ein Roguelike mit Potenzial, aber Schwächen Ich spiele dieses Spiel seit der Beta-Version. Leider wurden in der offiziellen Version viele Probleme nicht behoben. Meine Eindrücke sind gemischt: Es gibt interessante Mechaniken, aber technische und Balance-Mängel halten sie zurück.    Vorteile: Skill-System: Eine breite Palette von Fähigkeiten - physisch, Feuer, Eis, elektrisch. Zu den herausragenden übermächtigen Fähigkeiten gehört der Blutegel, der die Gesundheit extrem effizient heilt.     Optimierung: Die FPS-Stabilität wurde im Vergleich zu Beta-Versionen verbessert, aber schwere Szenen (Menschenmassen/Feinde/Effekte) verursachen auch auf High-End-Hardware immer noch Mikroruckler.   Nachteile: Lokalisierung: Der Runen-Tab zeigt jetzt «ERROR: Lokalisierung fehlt» anstelle von Beschreibungen, die in der Demo funktioniert haben. Unklar, warum sich das zurückentwickelt hat.     Balance: Der Zufall dominiert das Gameplay. Schwache Fähigkeiten machen den Fortschritt mühsam, während starke das Spiel trivialisieren. Statuseffekte (Verbrennung, Blutung) sind vernachlässigbar und die Vampirismus-Mechanik fühlt sich kaputt an.     UI/Grafik: Übermäßig auffällige Fähigkeitseffekte verstopfen den Bildschirm. Pfade zur Entwicklung von Fähigkeiten sind Spekulationen – keine Beschreibungen, nur Symbole.     Paraves: Der Fortschritt wird nicht zwischen den SC übertragen (ich musste meinen Charakter neu leveln). Wahrscheinlich ein Fehler.   Bemerkenswerte Hinweise: Freischalten von Charakteren: Der Bogenschütze benötigt 500 % Angriffsgeschwindigkeit – eine steile Steigerung gegenüber den Beta-Schwellenwerten. In der Zwischenzeit wird der dritte Charakter freigeschaltet, indem er mehrere Effekte auf einen Feind anwendet – ein seltsamer Schwierigkeitskontrast.   Fazit: Fans des Genres mögen das Spiel trotz seiner Mängel genießen, aber seien Sie auf zufällige Frustration, visuelles Chaos und Fehler vorbereitet. Die Vielfalt der Fähigkeiten und das Build-Potenzial machen es immer noch einen Versuch wert, wenn du Ecken und Kanten tolerierst.    P.S. Die Entwickler haben eindeutig einen «God Mode Regen» im Blutegel versteckt. Wie sonst lässt sich seine Fähigkeit zu heilen erklären, als hätte er Odins eigene Kraft nach einem glücklichen Upgrade gestohlen?  UPD: Ich werde diese Rezension aktualisieren, sobald Patches erscheinen. Vorerst: Vorsichtig empfohlen für Roguelike-Enthusiasten, die nichts gegen Macken haben.</t>
+        </is>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" t="b">
+        <v>1</v>
+      </c>
+      <c r="B518" t="n">
+        <v>1527</v>
+      </c>
+      <c r="C518" t="n">
+        <v>1744324006</v>
+      </c>
+      <c r="D518" t="inlineStr">
+        <is>
+          <t>Das Gameplay ist sehr Nice. Beim Level-System muss man erstmal einen Moment schauen und durchsteigen, aber danach ist der Grind real.</t>
+        </is>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" t="b">
+        <v>1</v>
+      </c>
+      <c r="B519" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C519" t="n">
+        <v>1744316182</v>
+      </c>
+      <c r="D519" t="inlineStr">
+        <is>
+          <t>Ja, aber... Es gibt eine schmerzlich fehlende Wolke, um das Spiel zu retten. Im Moment ist es unmöglich, Ihr Spiel sowohl auf dem Steam PC als auch auf dem Steamdeck fortzusetzen.</t>
+        </is>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" t="b">
+        <v>1</v>
+      </c>
+      <c r="B520" t="n">
+        <v>801</v>
+      </c>
+      <c r="C520" t="n">
+        <v>1744315642</v>
+      </c>
+      <c r="D520" t="inlineStr">
+        <is>
+          <t>Sehr schönes Spiel mit Suchtgefahr</t>
+        </is>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="b">
+        <v>1</v>
+      </c>
+      <c r="B521" t="n">
+        <v>1364</v>
+      </c>
+      <c r="C521" t="n">
+        <v>1744314920</v>
+      </c>
+      <c r="D521" t="inlineStr">
+        <is>
+          <t>Asgard’s Fall eskaliert schneller als mein Blutdruck beim dritten Boss-Wave – pure Wikinger-Pixelliebe, absolut empfohlen!“ 🪓🔥</t>
+        </is>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" t="b">
+        <v>1</v>
+      </c>
+      <c r="B522" t="n">
+        <v>1336</v>
+      </c>
+      <c r="C522" t="n">
+        <v>1744314549</v>
+      </c>
+      <c r="D522" t="inlineStr">
+        <is>
+          <t>Das ist ein lustiges Spiel.</t>
+        </is>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" t="b">
+        <v>1</v>
+      </c>
+      <c r="B523" t="n">
+        <v>537</v>
+      </c>
+      <c r="C523" t="n">
+        <v>1744313147</v>
+      </c>
+      <c r="D523" t="inlineStr">
+        <is>
+          <t>Großartig!</t>
+        </is>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" t="b">
+        <v>1</v>
+      </c>
+      <c r="B524" t="n">
+        <v>770</v>
+      </c>
+      <c r="C524" t="n">
+        <v>1744313012</v>
+      </c>
+      <c r="D524" t="inlineStr">
+        <is>
+          <t>Sehr lustiger Überlebender wie</t>
+        </is>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" t="b">
+        <v>1</v>
+      </c>
+      <c r="B525" t="n">
+        <v>844</v>
+      </c>
+      <c r="C525" t="n">
+        <v>1744311993</v>
+      </c>
+      <c r="D525" t="inlineStr">
+        <is>
+          <t>Es ist auch fertig.,Es ist das Bild der Synthese von hochstufigen Waffen.,Können Sie den Namen direkt anzeigen?,Das Pixelsymbol ist nicht leicht zu erkennen.。    Es ist so schwer, in der Anfangsphase zu spielen!</t>
+        </is>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" t="b">
+        <v>0</v>
+      </c>
+      <c r="B526" t="n">
+        <v>343</v>
+      </c>
+      <c r="C526" t="n">
+        <v>1744310201</v>
+      </c>
+      <c r="D526" t="inlineStr">
+        <is>
+          <t>sortieren</t>
+        </is>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" t="b">
+        <v>1</v>
+      </c>
+      <c r="B527" t="n">
+        <v>412</v>
+      </c>
+      <c r="C527" t="n">
+        <v>1744309463</v>
+      </c>
+      <c r="D527" t="inlineStr">
+        <is>
+          <t>Gud Spiel</t>
+        </is>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" t="b">
+        <v>1</v>
+      </c>
+      <c r="B528" t="n">
+        <v>4248</v>
+      </c>
+      <c r="C528" t="n">
+        <v>1744307868</v>
+      </c>
+      <c r="D528" t="inlineStr">
+        <is>
+          <t>VS wie bei Hack-Elementen. Es ist ein ziemlich gutes Spiel, aber aus irgendeinem Grund ist die japanische Rezension wie ein Schrei, also werde ich einige Tipps zum Spielen für diejenigen schreiben, die noch nicht in den Genuss dieses Spiels gekommen sind. Der Autor gräbt in der vierten Stufe nur Runen im Schwierigkeitsgrad 75, also bitte verstehe vorab, dass es sich nicht um eine erschöpfende Strategie für DIE Stärksten handelt.  1. Die Kombinationstechnik ist ein Bonus. Es ist nicht notwendig, es zu löschen, daher ist es besser, nicht zu versuchen, es zu erzwingen. Wenn du es bekommst, ohne es zu übertreiben, solltest du Glück haben, und du solltest aufhören, herumzuspielen, um es zu nehmen.  2. Lassen Sie uns in der Anfangsphase weinend um die erste Phase herumgehen. Die erste Priorität deiner Werte ist die Bewegungsgeschwindigkeit, also musst du in der ersten Phase tot oder tot weinen, bis du ein paar Runen mit Bewegungsgeschwindigkeit aufsammeln kannst. Wie auch immer, wenn du deine Bewegungsgeschwindigkeit erhöhen möchtest, kann diese Rune weiß sein. Ich denke, das ist eine ziemliche Buße. Mit zunehmender Bewegungsgeschwindigkeit kannst du treffen und weggehen, ohne von einem Angriff getroffen zu werden, was deine Strategie dramatisch erleichtert, da du keinen Schaden erleidest, selbst wenn du einen Feind triffst.  3. Auch wenn du die erste Stufe schaffen kannst, gehe nicht sofort zur nächsten Stufe, sondern erhöhe den Schwierigkeitsgrad der ersten Stufe und suche nach starken Runen. Ich denke, es ist eine gute Idee, die anderen Parameter zu erhöhen, ohne die Bewegungsgeschwindigkeit zu verringern. Was die Erhöhung des Schwierigkeitsgrads betrifft, so wäre es einfacher, den Fertigkeitsslot und die Anzahl der Feinde zu erhöhen, und selbst wenn du den Schaden, die Angriffsreichweite und die Bewegungsgeschwindigkeit erhöhst, wird dies den eigentlichen Schwierigkeitsgrad nicht stark beeinflussen, und die Angriffsgeschwindigkeit, die Feuergeschwindigkeit und Valhalla werden dramatisch zunehmen, wenn du den Schwierigkeitsgrad erhöhst. Es ist einfacher, den Reroll nicht zu erhöhen, aber ich habe das Gefühl, dass es kein Problem ist, ihn zu schaffen, selbst wenn man ihn um eine Stufe erhöht.  4. Sobald du genug Runen hast, um einen Sinn zu ergeben, lass uns durch die Phase gehen. Die Runen, die du herstellen kannst, sind nicht ganz dumm, aber es gibt eine Menge Dinge, die du nicht nur mit den Materialien aus der ersten Stufe herstellen kannst. Insbesondere die Statusrune ist hervorragend, weil sie die Lücken füllt, die übrig bleiben, egal wie sehr du versuchst, das Rätsel zu lösen. Außerdem empfehle ich meiner Meinung nach die kreuzförmigen Runen von Epic. Wenn du das nimmst, die Skill-Slots auf 3 eingrenzst und jeweils einen Feuer-, Eis- und Blitz-Skill nimmst, kannst du die Anzahl der Skill-Rerolls reduzieren, und er ist sehr stark, wenn du also Schwierigkeiten hast, ihn zu schaffen, probiere es bitte aus.  Es ist hart, aber ich denke, es sollte so gemacht werden. Es gibt einen Bußaspekt, bis du die Bewegungsgeschwindigkeit bis zu einem gewissen Grad erhöhst, aber wenn du sie bewusst erhöhst, kannst du schnell aus der Bußzone herauskommen. Und wenn du noch stärkere Runen anbringst, erwartet dich ein aufregendes Musou-Spiel, in dem du mit hoher Geschwindigkeit zwischen Feinden hindurchlaufen und sie mit einem Hauch von Rüstung begraben kannst. Nachträglich alles Gute zum Geburtstag!</t>
+        </is>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" t="b">
+        <v>1</v>
+      </c>
+      <c r="B529" t="n">
+        <v>1916</v>
+      </c>
+      <c r="C529" t="n">
+        <v>1744307708</v>
+      </c>
+      <c r="D529" t="inlineStr">
+        <is>
+          <t>Einfach geil und soweit alle Chars oben lust auf mehr davon</t>
+        </is>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" t="b">
+        <v>1</v>
+      </c>
+      <c r="B530" t="n">
+        <v>477</v>
+      </c>
+      <c r="C530" t="n">
+        <v>1744307455</v>
+      </c>
+      <c r="D530" t="inlineStr">
+        <is>
+          <t>Es hat das Potenzial, eines der besseren Survivor-ähnlichen Spiele zu werden. Im Moment gibt es noch nicht allzu viele Inhalte, aber was wir haben, ist ziemlich schön. Ich werde mir sicherlich die zukünftigen Updates des Spiels ansehen.  Das Balancing für den Fortschritt ist soweit in Ordnung, wenn du irgendwelche Probleme hast, dann optimierst du das Web of Wyrd einfach zu 100% nicht genug.   Es gibt auch einen Mangel an QoL, zum Beispiel: Keine Neubelegung von Knöpfen, eine DPS-Anzeige während des Kampfes für jede Fertigkeit wäre wünschenswert, Auslösen von Level-Ups in großen Mengen und nicht nacheinander, Farbenblind-Modus (zumindest habe ich keinen gesehen), keine Kriegsbemalungs-Loadouts, keine automatische Verschrottung der Seltenheit X für Runen sowie keine Mehrfachauswahl beim Verschrotten von Runen.</t>
+        </is>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" t="b">
+        <v>1</v>
+      </c>
+      <c r="B531" t="n">
+        <v>875</v>
+      </c>
+      <c r="C531" t="n">
+        <v>1744307197</v>
+      </c>
+      <c r="D531" t="inlineStr">
+        <is>
+          <t>Ist es in Ordnung, das Problem zu lösen, das Sie nicht in der Cloud speichern können?</t>
+        </is>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" t="b">
+        <v>0</v>
+      </c>
+      <c r="B532" t="n">
+        <v>368</v>
+      </c>
+      <c r="C532" t="n">
+        <v>1744306552</v>
+      </c>
+      <c r="D532" t="inlineStr">
+        <is>
+          <t>Das Freischalten des Jägers ist etwas zu schwierig, und der Unterschied zwischen den verschiedenen Charakteren wird in der späteren Phase aufgrund des Geschenksystems des Weltenbaums nicht offensichtlich genug, und man kann den Unterschied in der frühen Phase sehen, aber egal welche Rolle zu ähnlich ist, nachdem die spätere Konstruktion gebildet wurde, es wird empfohlen, dass die Fähigkeiten zwischen verschiedenen Charakteren unterschiedlich sein können, oder einige Anpassungen von der Wahrscheinlichkeit des Erscheinens der Fähigkeit vornehmen. Natürlich bin ich als Spieler von Natur aus ein wenig gierig, und es wäre schön, unterschiedliche Skill-Builds zwischen verschiedenen Charakteren zu haben.</t>
+        </is>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" t="b">
+        <v>0</v>
+      </c>
+      <c r="B533" t="n">
+        <v>103</v>
+      </c>
+      <c r="C533" t="n">
+        <v>1744305917</v>
+      </c>
+      <c r="D533" t="inlineStr">
+        <is>
+          <t>Spielbalance ist nicht existent. Zu viele Skills bringen gefühlt überhaupt nichts, andere sind hingegen überstark. Warum sollte ich den Schaden einer Ballista oder eines Hammers skillen, wenn ich mit dem gleichen Update auch einfach 2-3 weitere Ballisten oder Hämmer bekommen kann? (Schadenszuwachs 100% pro Waffe)
+Das Spiel wird zum puren Grindfest. Ich liebe Bulletheaven und bedeutungsvolle Metaprogression, also Grind ist mir nicht fremd. Sobald man hier sieht wie wenig Materials droppen, wenn die Progression freigeschaltet ist, kann man sich ausmalen, wie es später wird.
+Ein paar Ansätze sind gut. Kein Kollisionsschaden ermöglicht neue Strategien, die neugierig auf das Gameplay machen. Leider gab mir das Bossdesign in Welt Zwei (Niflheim) aber der Motivationstodesstoß: 10 Minuten spielen, um von einem bestimmten Angriff one-shotted zu werden. OK, irgendwas übersehen. Nochmal. Wieder tot! Warte, sind da Barrieren, um sich dahinter zu verstecken!? Dritter Versuch System verstanden, aber RNG war vorher gegen mich und dps zu niedrig.
+Ne, das Spiel hat sich für mich zu keinem Moment belohnend angefühlt. Ist EA, aber ich sehe die Vision hier nicht. Vielleicht auch, weil das Spiel ingame viel zu wenig erklärt. Gibt zu viel Konkurrenz in dem Genre, als dass ich auf mehr hoffe. Eventuell ist ist 1.0 später der Kracher. Jetzt nutze ich die Rückerstattung, da ich noch im Zeitrahmen bin. Eventuell in ein paar Monaten nochmal.</t>
+        </is>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" t="b">
+        <v>1</v>
+      </c>
+      <c r="B534" t="n">
+        <v>204</v>
+      </c>
+      <c r="C534" t="n">
+        <v>1744305875</v>
+      </c>
+      <c r="D534" t="inlineStr">
+        <is>
+          <t>Ein atmosphärischer Roguelike mit Wikinger-Setting – schnelles, forderndes Gameplay trifft auf düstere nordische Mythologie. Jeder Run ist anders, das Clansystem bringt Tiefe, und die Pixelgrafik ist absolut stimmig. Soundtrack? Episch!</t>
+        </is>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" t="b">
+        <v>1</v>
+      </c>
+      <c r="B535" t="n">
+        <v>830</v>
+      </c>
+      <c r="C535" t="n">
+        <v>1744302227</v>
+      </c>
+      <c r="D535" t="inlineStr">
+        <is>
+          <t>ist sehr gut &lt;3 ich hätte nur gerne für jeden Charakter eine eigene Runen page. denn der Krieger will Rüstung,
+die Huntress will Movement Speed, und der mage will doge, und alle wollen crit. also wäre es schön wenn jeder Charakter eine eigene Runen page bekommen könnte, oder mehrere.</t>
+        </is>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" t="b">
+        <v>1</v>
+      </c>
+      <c r="B536" t="n">
+        <v>1185</v>
+      </c>
+      <c r="C536" t="n">
+        <v>1744300793</v>
+      </c>
+      <c r="D536" t="inlineStr">
+        <is>
+          <t>Geiles Game für Zwischendurch.
+Leider noch ein paar Bugs, aber ist ja auch Early Access.</t>
+        </is>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" t="b">
+        <v>1</v>
+      </c>
+      <c r="B537" t="n">
+        <v>531</v>
+      </c>
+      <c r="C537" t="n">
+        <v>1744300680</v>
+      </c>
+      <c r="D537" t="inlineStr">
+        <is>
+          <t>Spielt sich gut auf dem Steamdeck!</t>
+        </is>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" t="b">
+        <v>1</v>
+      </c>
+      <c r="B538" t="n">
+        <v>136</v>
+      </c>
+      <c r="C538" t="n">
+        <v>1744299744</v>
+      </c>
+      <c r="D538" t="inlineStr">
+        <is>
+          <t>Tolle Spiele Es macht Spaß zu spielen:) Viel Potenzial für 8 Dollar, viel Spaß!</t>
+        </is>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" t="b">
+        <v>1</v>
+      </c>
+      <c r="B539" t="n">
+        <v>915</v>
+      </c>
+      <c r="C539" t="n">
+        <v>1744298837</v>
+      </c>
+      <c r="D539" t="inlineStr">
+        <is>
+          <t>Ich habe die DEMO gespielt, und ich habe alle Level gespielt, die es bisher gab. Es gibt ein paar Probleme: 1. Die Sinisierung ist unvollständig.,Einzelne Inhalte werden immer noch auf Englisch angezeigt.,Obwohl es das Spiel nicht beeinflusst.,Aber ich hoffe, es so schnell wie möglich abzuschließen; 2. Die Fertigstellung ist gering, verglichen mit der DEMO, es gibt zwei weitere Karten, und die Hälfte der Karten wurde noch nicht freigeschaltet; 3. Kriegssprühfarbe sieht zu gesichtsartig aus, sie kann zersetzt und hergestellt werden, aber die Kriegssprühfarbe, die herausplatzt, kann die Einträge nicht waschen, und ich hoffe, ähnliche Funktionen hinzufügen zu können; 4. Das Design ist unvernünftig, erstens wird die Rollenentwicklung separat entwickelt und der Upgrade-Prozess muss wiederholt werden. Zweitens kann die Kombination der Fähigkeiten nicht angezeigt werden, nur das Symbol wird angezeigt, es ist schwer zu identifizieren und es kann im Spiel nicht angezeigt werden, auch wenn der Spieler danach tasten muss, aber Sie müssen es sich selbst merken, dieses Design ist sehr unvernünftig. Zu guter Letzt: Ist der Endboss von Warner God's Online ein Plot-Kill auf der vierten Karte? Der Boss kam gerade heraus und hat mich direkt mit vollem Blut getötet.,Ich bin gerade hier.,Ich weiß nicht, ob es ein Mechanismus ist oder was.。 Als Vampir-Survivor-Spiel denke ich, dass das Design sehr erfolglos ist, wenn der Boss nicht getötet werden kann. 5. Es gibt einen bösartigen FEHLER.,Es besteht die Wahrscheinlichkeit, dass die Kriegssprühfarbe auf dem Körper nach der Zollabfertigung verschwindet.,Das ist mehr als einmal passiert.。</t>
+        </is>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" t="b">
+        <v>0</v>
+      </c>
+      <c r="B540" t="n">
+        <v>95</v>
+      </c>
+      <c r="C540" t="n">
+        <v>1744297701</v>
+      </c>
+      <c r="D540" t="inlineStr">
+        <is>
+          <t>In der aktuellen Version nicht empfohlen.  Die Demo fühlt sich sehr potentiell an.,Warum fühlt es sich so an, als wären die Werte rauer, wenn es um die offizielle Version geht? Der Wert des Feindes im Spiel ist unvernünftig, und wenn Sie Pech haben, werden Sie entweder in den ersten Minuten gewaltsam sterben, oder Sie werden lange gegen den Boss und Gua Sha kämpfen. Das Wachstum außerhalb des Spiels ist wichtiger.,Infolgedessen erben Sie das Demo-Archiv nicht.,Levels und Runen sind alle weiß.,Das Whiteboard zu betreten und keinen guten Start hinlegen zu können, ist wirklich eine Tortur.,Verlieren Sie die Motivation zum Spielen.。  Die einfach zu bedienenden Fähigkeiten wurden gestrichen, die Runen sind weniger gesunken und sogar die Leistung des Pinsels wurde gesehen, was es zu einem Spiel macht, das wiederholtes Bürsten von Ressourcen erzwingt. Die Demoversion hat viele gute Orte verändert.,Es gibt nicht viel mehr Inhalt in der offiziellen Version.,Ich verstehe es nicht.。</t>
+        </is>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" t="b">
+        <v>1</v>
+      </c>
+      <c r="B541" t="n">
+        <v>1704</v>
+      </c>
+      <c r="C541" t="n">
+        <v>1744297508</v>
+      </c>
+      <c r="D541" t="inlineStr">
+        <is>
+          <t>沒雲端後台 有點小失望..</t>
+        </is>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" t="b">
+        <v>1</v>
+      </c>
+      <c r="B542" t="n">
+        <v>624</v>
+      </c>
+      <c r="C542" t="n">
+        <v>1744296961</v>
+      </c>
+      <c r="D542" t="inlineStr">
+        <is>
+          <t>Ich habe die beiden Demos schon einmal gespielt, und nachdem ich wahrscheinlich verstanden habe, wie man mit diesen Knoten herumfummelt, werde ich nicht mehr kratzen, wenn ich sie spiele. Ich habe immer noch Erwartungen an den Nachfolger, aber Sie sagten, dass Sie es nicht zwei oder drei Jahre lang kostenlos aktualisieren können, wenn Sie es für 25 Yuan verkaufen</t>
+        </is>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" t="b">
+        <v>0</v>
+      </c>
+      <c r="B543" t="n">
+        <v>386</v>
+      </c>
+      <c r="C543" t="n">
+        <v>1744296096</v>
+      </c>
+      <c r="D543" t="inlineStr">
+        <is>
+          <t>Was zur Hölle?,Der erste Boss mit Pfeil und Bogen im 2. Level.,Es gibt eine Locking-Fähigkeit.,Du bewegst dich, um dich direkt zu sperren.,Du triffst die Skill.,Und dann sehe ich, wie sie sagen, bewege dich nicht.,Ich bewege mich nicht und schlage mich nicht.。 Wie man den Boss gestaltet. 5 6 Und so starben sie. Boxenmann-Spiel</t>
+        </is>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" t="b">
+        <v>1</v>
+      </c>
+      <c r="B544" t="n">
+        <v>355</v>
+      </c>
+      <c r="C544" t="n">
+        <v>1744293882</v>
+      </c>
+      <c r="D544" t="inlineStr">
+        <is>
+          <t>Es ist nicht schlecht und kann spielen.</t>
+        </is>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" t="b">
+        <v>1</v>
+      </c>
+      <c r="B545" t="n">
+        <v>1542</v>
+      </c>
+      <c r="C545" t="n">
+        <v>1744291569</v>
+      </c>
+      <c r="D545" t="inlineStr">
+        <is>
+          <t>Feedback für Entwickler / Spielfehler:
+gecraftete Runen werden als ausgerüstet angezeigt (sind recht grün hinterlegt), dadurch können sie nicht ausgerüstet werden</t>
+        </is>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" t="b">
+        <v>1</v>
+      </c>
+      <c r="B546" t="n">
+        <v>1572</v>
+      </c>
+      <c r="C546" t="n">
+        <v>1744291152</v>
+      </c>
+      <c r="D546" t="inlineStr">
+        <is>
+          <t>goil</t>
+        </is>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" t="b">
+        <v>0</v>
+      </c>
+      <c r="B547" t="n">
+        <v>1209</v>
+      </c>
+      <c r="C547" t="n">
+        <v>1744287573</v>
+      </c>
+      <c r="D547" t="inlineStr">
+        <is>
+          <t>Zu viele Abstürze... Ich bin bereits zweimal abgestürzt, um eine Kombinationswaffe zu erstellen, also muss ich die Bewertung erneut überarbeiten, nachdem dies behoben ist, ---- der Absturz behoben wurde, aber es gibt ein neues Phänomen, das nur kribbelt, so dass sich der Inhalt noch nicht wesentlich von der Demo unterscheidet, also scheint es richtig zu sein, es in 1 Jahr zu machen.</t>
+        </is>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" t="b">
+        <v>1</v>
+      </c>
+      <c r="B548" t="n">
+        <v>307</v>
+      </c>
+      <c r="C548" t="n">
+        <v>1744287036</v>
+      </c>
+      <c r="D548" t="inlineStr">
+        <is>
+          <t>Es macht Spaß.,Es ist nur so, dass ich das Gefühl habe, dass es ein bisschen In-Game-Konstruktion und Kultivierungsinhalte außerhalb des Spiels gibt.,Die Karte besteht aus 4 Kapiteln.,Die Bedeutung dieses Runenrätsels ist unbekannt.,Ich habe das Gefühl, dass die Runen, die man herstellen kann, nicht sehr nützlich sind.,Wenn du mächtig sein willst, musst du auf die Karte gehen, um zu kämpfen.。  Außerdem bin ich beim Spielen auf einen bösartigen Fehler gestoßen.,Er friert im Spiel plötzlich ein.,Alle Waffen können nach dem Fortsetzen des Spiels nicht mehr angreifen.,Es hat mir fast eine ganze rote Temperatur gegeben.。  Ich empfehle jedem beiläufig ein Baugenre.,Physischer Fluss + blutsaugender Blutegel,Physischer Fluss kann CD-Schäden reduzieren.,Unendliche Blutrückgabestation kann später verwendet werden.。</t>
+        </is>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" t="b">
+        <v>1</v>
+      </c>
+      <c r="B549" t="n">
+        <v>799</v>
+      </c>
+      <c r="C549" t="n">
+        <v>1744287023</v>
+      </c>
+      <c r="D549" t="inlineStr">
+        <is>
+          <t>Asgard's Fall — Viking Survivors ist ein großartiges Roguelite-Survivors-ähnliches Spiel. Auch wenn es in diesem Spiel im Vergleich zu anderen nicht viel "Neues" gibt, wurden die neuen Dinge wie Web of Wyrd, Warpaints und die Twitch-Erweiterung außergewöhnlich gut gemacht, und für den Preis, den das Spiel veröffentlicht hat, gibt es eine Menge Dinge in Bezug auf Inhalte wie Fähigkeiten und Welten.  Das Spiel ist flüssig und gut ausgefeilt, abgesehen von ein paar Dingen hier und da wie Runen, die von Kriegsbemalungen verschwinden, oder gelegentlichem Schaden, der außerhalb der Hitbox erlitten wird. Die Meta-Entwicklung ist in Ordnung, ich habe schon bessere gesehen, aber auch viel schlechter. Insgesamt ist das Spiel für den Preis großartig und ich würde es zu 100% empfehlen, wenn Sie wie ich ein Kugelhölle/Überlebender wie ein Spielejunkie sind. Ich hoffe, dass dieses Spiel es in Zukunft auch auf das Handy schafft</t>
+        </is>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" t="b">
+        <v>1</v>
+      </c>
+      <c r="B550" t="n">
+        <v>297</v>
+      </c>
+      <c r="C550" t="n">
+        <v>1744286635</v>
+      </c>
+      <c r="D550" t="inlineStr">
+        <is>
+          <t>A kann nur zu einer Super-Martial-Arts synthetisiert werden.,Brauche Kartenführung, goldene Äpfel und Sammler.,Das Büro braucht eine Synthesetabelle oder eine direkte Eingabeaufforderung.,Es ist ein bisschen wie ein Pinsel um des Bürstens willen.,Einige von ihnen sind auch ziemlich schwierig nach dem Formen.,Verbessern Sie es langsam.,Insgesamt ist das Spiel ziemlich cool.</t>
+        </is>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" t="b">
+        <v>1</v>
+      </c>
+      <c r="B551" t="n">
+        <v>686</v>
+      </c>
+      <c r="C551" t="n">
+        <v>1744286609</v>
+      </c>
+      <c r="D551" t="inlineStr">
+        <is>
+          <t>Echt geiles Game , macht richtig Spaß und der progess ist auch deutlich sichtbar. Jedes Mal wenn ich versuchte Midgard zu erobern, war the Style immer anders (Die Götter Fähigkeiten und Pearks).
+Im groben und Ganzen ein Sehr geiles Game und auch für den Preis sehr Lohnes wehrt.</t>
+        </is>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" t="b">
+        <v>1</v>
+      </c>
+      <c r="B552" t="n">
+        <v>854</v>
+      </c>
+      <c r="C552" t="n">
+        <v>1744286035</v>
+      </c>
+      <c r="D552" t="inlineStr">
+        <is>
+          <t>Triff eine Vampirrune mit Angriffsgeschwindigkeit als Erbstück Nachdem ich ein Spiel gespielt habe, kam sie heraus und verschwand Ich dachte, es sei meine eigene, versehentlich zersetzte Rune, bis er meine zweite goldene Rune löschte Die anderen Fehler werden nicht erwähnt Es ist alles Spaß 🤡</t>
+        </is>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" t="b">
+        <v>1</v>
+      </c>
+      <c r="B553" t="n">
+        <v>317</v>
+      </c>
+      <c r="C553" t="n">
+        <v>1744284910</v>
+      </c>
+      <c r="D553" t="inlineStr">
+        <is>
+          <t>Mashallah, günstiger als 'n Döner! xD</t>
+        </is>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" t="b">
+        <v>1</v>
+      </c>
+      <c r="B554" t="n">
+        <v>312</v>
+      </c>
+      <c r="C554" t="n">
+        <v>1744282700</v>
+      </c>
+      <c r="D554" t="inlineStr">
+        <is>
+          <t>Also das Game macht richtig Fun.
+Ich liebe Vampire Survivor Games.
+Ich hatte gerade einen Run nur auf physischen Schaden ausgelegt,
+mein Gott sind die Gegner geplatzt.
+Das Runen System gefällt mir auch, so hat man noch mehr Einfluss
+auf den Run den man spielen möchte.
+Von mir eine klare Kaufempfehlung, bin mal gespannt, was noch so kommt.</t>
+        </is>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" t="b">
+        <v>1</v>
+      </c>
+      <c r="B555" t="n">
+        <v>213</v>
+      </c>
+      <c r="C555" t="n">
+        <v>1744282388</v>
+      </c>
+      <c r="D555" t="inlineStr">
+        <is>
+          <t>Einfach und lustig</t>
+        </is>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" t="b">
+        <v>1</v>
+      </c>
+      <c r="B556" t="n">
+        <v>621</v>
+      </c>
+      <c r="C556" t="n">
+        <v>1744282173</v>
+      </c>
+      <c r="D556" t="inlineStr">
+        <is>
+          <t>Das Spiel ist nicht schlecht, aber der äußere Bewuchs ist sehr leberhaft</t>
+        </is>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" t="b">
+        <v>0</v>
+      </c>
+      <c r="B557" t="n">
+        <v>557</v>
+      </c>
+      <c r="C557" t="n">
+        <v>1744280822</v>
+      </c>
+      <c r="D557" t="inlineStr">
+        <is>
+          <t>Du musst die Geschwindigkeit verdoppeln, der Rucksack ist abnehmbar und der Synthesetisch wird im Spiel überprüft.,Es wird vermutet, dass der Schwierigkeitsgrad etwas zu hoch ist.,Triff das zweite Dorf mit geringem Schaden und willst schlafen.</t>
+        </is>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" t="b">
+        <v>0</v>
+      </c>
+      <c r="B558" t="n">
+        <v>407</v>
+      </c>
+      <c r="C558" t="n">
+        <v>1744277691</v>
+      </c>
+      <c r="D558" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" t="b">
+        <v>1</v>
+      </c>
+      <c r="B559" t="n">
+        <v>650</v>
+      </c>
+      <c r="C559" t="n">
+        <v>1744277520</v>
+      </c>
+      <c r="D559" t="inlineStr">
+        <is>
+          <t>zockne</t>
+        </is>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" t="b">
+        <v>0</v>
+      </c>
+      <c r="B560" t="n">
+        <v>1209</v>
+      </c>
+      <c r="C560" t="n">
+        <v>1744277446</v>
+      </c>
+      <c r="D560" t="inlineStr">
+        <is>
+          <t>Lass dich nicht von der Demo täuschen.,Die offizielle Version ist nicht so cool wie die Demo.,Und einige Skill-Beschreibungen sind problematisch.,Es gibt auch ein Problem mit der Beurteilung des seltsamen Angriffs.,Lass dich nicht täuschen.,Ist der Schleim auf der Vulkankarte aus der Urne des Herstellers Qinma? Schwer zu Tode Die Angriffsreichweite ist immer noch blutig und groß.,Um den Spieler aus einem Kreis herum ist es schwer, einen Rollstuhlturm zu spielen.,Infolgedessen hat der Endboss des vierten Levels es nicht gemacht oder hatte er irgendwelche besonderen Anforderungen.,Flieg direkt über einen byd Odin (gib auch einen Erfolg, der von Odin geblockt wurde) Gib mir einen Donnerkeil zum Sterben.</t>
+        </is>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" t="b">
+        <v>1</v>
+      </c>
+      <c r="B561" t="n">
+        <v>309</v>
+      </c>
+      <c r="C561" t="n">
+        <v>1744276852</v>
+      </c>
+      <c r="D561" t="inlineStr">
+        <is>
+          <t>Die überlebende Fleischtaube mit hohem Schwierigkeitsgrad ist schwer zu treffen, wenn du nicht die Fähigkeit dieses blutsaugenden Blutegels einsetzt. Aber das Nähen eines Runensystems ist ziemlich neu, als ob es das erste Mal wäre, dass man diese Art von Setting in der Überlebensklasse sieht? (Natürlich kann es auch sein, dass ich weniger spiele)</t>
+        </is>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" t="b">
+        <v>1</v>
+      </c>
+      <c r="B562" t="n">
+        <v>858</v>
+      </c>
+      <c r="C562" t="n">
+        <v>1744276598</v>
+      </c>
+      <c r="D562" t="inlineStr">
+        <is>
+          <t>Ein sehr spaßiges und süchtig machendes Survivor Like, vor allem für einen EA schon ein echt rundes Spiel.</t>
+        </is>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" t="b">
+        <v>1</v>
+      </c>
+      <c r="B563" t="n">
+        <v>383</v>
+      </c>
+      <c r="C563" t="n">
+        <v>1744276323</v>
+      </c>
+      <c r="D563" t="inlineStr">
+        <is>
+          <t>Super Spiel</t>
+        </is>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" t="b">
+        <v>1</v>
+      </c>
+      <c r="B564" t="n">
+        <v>155</v>
+      </c>
+      <c r="C564" t="n">
+        <v>1744275337</v>
+      </c>
+      <c r="D564" t="inlineStr">
+        <is>
+          <t>Das ist OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" t="b">
+        <v>1</v>
+      </c>
+      <c r="B565" t="n">
+        <v>905</v>
+      </c>
+      <c r="C565" t="n">
+        <v>1744274368</v>
+      </c>
+      <c r="D565" t="inlineStr">
+        <is>
+          <t>Nimmt Langsam fahrt auf aber dann nach 4-5 Durchläufen bockt das Spiel richtig. Die Kombinationen aus 2 auf Lvl 5 gepushten Fähigkeiten rocken richtig die Bude. Dann noch gute Runen mit drinn und ab der die Lutzi.
+Sag nur Blitz mit Abklingzeit bringt ein Donnerwetter :-)
+Würde mir mehr Charaktere Wünschen aber die 3 bisherigen sind schon für sich Bombe</t>
+        </is>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" t="b">
+        <v>1</v>
+      </c>
+      <c r="B566" t="n">
+        <v>759</v>
+      </c>
+      <c r="C566" t="n">
+        <v>1744274185</v>
+      </c>
+      <c r="D566" t="inlineStr">
+        <is>
+          <t>Endlich ein Survivors-Spiel, das ein paar neue Mechaniken und interessante Meta-Fortschritte ausprobiert.  Die Befriedigung, wenn man einen goldenen Multiplikator in sein Board einbaut und die Zoomies auf die Karte bringt, ist wirklich etwas :D   Für diesen Preis - ein Schnäppchen. Ich freue mich auf das, was kommen wird. :D</t>
+        </is>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" t="b">
+        <v>0</v>
+      </c>
+      <c r="B567" t="n">
+        <v>356</v>
+      </c>
+      <c r="C567" t="n">
+        <v>1744273120</v>
+      </c>
+      <c r="D567" t="inlineStr">
+        <is>
+          <t>Eine neue Form von Vansabalike Dieses Spiel hat völlig neue Spezifikationen, sodass du mit frischem Geist über den Build nachdenken kannst.  Diese neue Funktion hielt mich jedoch in gewisser Weise zurück, und ich hatte das Gefühl, dass sie nicht mit der "Wiederholung des Spiels" vereinbar war, die Vansablike eigen ist.  Übersetzung Seelenfrieden auf Japanisch ohne Unnatürlichkeit. Es gibt jedoch einige Teile, die nicht übersetzt wurden.  Einzigartige Spezifikationen dieses Spiels (1) Passive Funktion Mit steigen→dem Level kannst du deine Fähigkeiten abwechselnd → aktiv  passiv → aktiv passiv trainieren.  Beim Erwerb von Fertigkeiten ist es eine gängige Vorgabe, bis du aus drei Auswahlmöglichkeiten wählst, aber danach legst du die erworbene passive Fähigkeit auf eines der rautenförmigen Plättchen.  　 ◇◇◇◇◇◇ ◇◇◇◇◇◇◇ ◇◇◇◇◇◇◇◇ ◇◇◇◇◇◇◇ ◇◇◇◇◇◇ Es ist wie. Sie können es überall platzieren, wo Sie möchten.  Und einige passive Fertigkeiten sind "50% (100% und 150%) Verbesserung der Fertigkeit oben rechts (Richtung ist zufällig)", zum Beispiel, wenn du eine passive Fertigkeit mit "10% Erhöhung der Angriffskraft" platzierst und dann eine Fertigkeit mit "100% Erhöhung der Angriffskraft" links daneben platzierst, wird der Effekt von "10% Angriffskraft" um 100% erhöht.  Es gibt auch andere passive Fähigkeiten, die ihre Effekte aktivieren, wenn eine bestimmte Anzahl passiver Fähigkeiten um den Ort herum platziert wird, an dem sie platziert werden, daher ist es interessant, darüber nachzudenken, "wie man sie platziert" über eine lange Zeitspanne.  Selbst wenn dir eine Fähigkeit nicht gefällt, kannst du sie von Anfang an neu würfeln, und das zu geringen Kosten, so dass du ein hohes Maß an Freiheit hast. Trotzdem wird auch bei gleicher Fähigkeit die Stärke des Effekts in 1 bis 3 Stufen unterteilt, und die dritte Stufe ist effektiver, so dass es möglich ist, durch erneutes Würfeln sorgfältig auszuwählen, bis die dritte Stufe erscheint.  (2) Kriegsbemalung Während des Spiels erhaltet ihr gelegentlich "Pigmente", aber wenn ihr das erste Midgard abschließt, schaltet ihr die Herstellung von Kriegsfarbe frei, die mit Pigmenten hergestellt werden kann. Außerdem wird abgeschlossene Kriegsbemalung während des normalen Spiels fallen gelassen.  Diese Kriegsbemalung ist eine der beiden Arten von permanenten Upgrades, die in diesem Spiel verfügbar sind, und wenn du sie trägst, erhöht sich die Fähigkeit je nach Art der Kriegsbemalung (sie ist so konzipiert, dass sie in einem vorgegebenen Rahmen gefüllt werden kann, und jede Kriegsbemalung hat eine andere Rahmengröße, sodass du mehr als einen ausrüsten kannst).  Es ist jedoch nicht ohne Probleme, und sobald jedes freigeschaltet ist, wird es dauerhaft wirksam sein, aber da viele Pigmente benötigt werden, ist es unvermeidlich, "herumzuspielen, um Pigmente zu sammeln", und eine monotone Wiederholung des Spiels ist erforderlich.  Außerdem ist der Drop-Item Warpaint in der Regel mächtiger, also habe ich mir die Mühe gemacht, Materialien zu sammeln, um ihn herzustellen, aber es gibt einige Dinge, die schwer fassbar sind, und die Spezifikationen greifen nicht ineinander.  Schwierigkeitsgrad: Es ist wahrscheinlich schwierig, die Spezifikationen der einzigartigen passiven Fähigkeiten des Spiels herauszufinden.  Manche Leute sind vielleicht in der Lage, es beim ersten Mal zu verstehen, und sie können es nach dem zweiten oder dritten Mal begreifen.  Dieses Spiel dauert 20 Minuten pro Spiel, und die Bosse erscheinen nach 10 und 20 Minuten, und das Spiel ist beendet, wenn der Boss 20 Minuten lang besiegt ist.  Der Chef des 10-Minuten-Spiels ist jedoch ein Gauner, und wenn Sie bisher nicht gut trainieren, verlieren Sie oder sind gezwungen, ein langes Spiel zu spielen, ohne es zu besiegen.  Persönlich bin ich der Meinung, dass der Maßstab für "ob das Training gut läuft oder nicht" ist, "ob man sie um 12 Minuten schlagen kann oder nicht". Verschiedene Verstärkungen erscheinen in der 12. Minute, und es wird noch härter, aber wenn du gut erwachsen wirst, kannst du sie in 12 Minuten besiegen. Und die nächsten 12 ~ 20 Minuten werden auch eine Semi-Bonus-Etappe sein, also kann es eine gute Idee sein, dies als Leitfaden zu verwenden.  Selbst wenn das Training nicht gut läuft, ist es möglich, sie in etwa 15 Minuten zu besiegen, wenn du hartnäckig bleibst, aber danach wirst du gezwungen sein, einen harten Kampf zu führen.  Der Trick ist wie folgt: ・Es gibt drei Attribute, Feuer, Eis und Blitz, aber konzentriere dich auf eines und erhöhe sie ・Die Schwertfähigkeit "Buch des Blutes" der Ausgangswaffe ist schwach, daher ist die Verstärkungspriorität niedrig ・Erhöhung des Elementarschadens (oberste Priorität) ・HP-Regeneration und MAXHP sind wichtig, aber Rüstung ist wichtiger, wenn du Midgard erobern willst ・Die Bewegungsgeschwindigkeit ist auch wichtig, also solltest du sie bis zum 10-Minuten-Boss auf etwa +20% halten.   Was den 20-Minuten-Boss betrifft, so befindet sich der Boss nur an einem festen Ort, so dass Sie, wenn Sie gut trainiert sind, ihn in weniger als einer Minute besiegen können.  Darüber hinaus gibt es als dauerhaftes Upgrade für dieses Spiel einen "Seizu-Stein", der sich im Laufe des Spiels natürlich um +1 erhöht, und Sie erhalten 1 Punkt für jede Erhöhung von 1 und Sie können ihn auf verschiedene Weise stärken, so dass das Spiel selbst nicht verschwendet wird, selbst wenn Sie es nicht schaffen können, so dass Sie sicher sein können, dass es nicht verschwendet wird.  Probleme ・Die Spezifikationen der passiven Fähigkeiten sind einzigartig und interessant, aber das Spiel ist überhaupt nicht stabil, bis ein gewisses Maß an Training fortgeschritten ist, so dass es stressig ist, dass man selbst in Phasen, die bereits abgeschlossen wurden, normal verlieren kann, nachdem man ernsthaft gespielt hat.  ・ Kriegsbemalung, die durch normales Spielen erhalten werden kann, ist stärker als Kriegsbemalung, die nur mit Mühe hergestellt werden kann. Dies macht die Pigmentsammlung bedeutungslos. Es gibt keine Verwendung dafür, es sei denn, man macht es unabhängig voneinander, indem man es zu einem zweiseitigen System aus Fallkriegsfarbe und pigmentabgeleiteter Kriegsfarbe macht, oder es einfach macht, den Rahmen mit 1~2 Quadraten für aus Pigmenten gewonnene Kriegsfarbe zu füllen.  - Normales Spielen ist langweilig. Es gibt eine Funktion, um den Standardschwierigkeitsgrad zu erhöhen, aber sobald man die Theorie begreift und alle Rahmen der Kriegsbemalung ausfüllt, wird das Spiel stabil und langweilig, weil es zu einer langweiligen Aufgabe wird, weil es nur 20 Minuten kreisende Bewegung sind. Dennoch gibt es nur wenige Arten von Erfolgen, so dass es sich nicht lohnt, es zu tun.  - Das Boss-Sniping, das in der 10. Minute der zweiten Stufe auftaucht, ist nur ein unvernünftiges Element. Es ist schwer zu sagen, wann man Pfeil und Bogen abfeuern muss, und ein einziger Treffer reduziert die MAXHP um mehr als 50 %, also ist es kein gutes Spiel, um es richtig zu spielen.  Fazit Obwohl es Macken in den Spezifikationen gibt, hatte ich das Gefühl, dass es einfacher zu spielen war als die Konkurrenz, wie z. B. die große Auswahl an Item-Sammlungen von Anfang an und die Möglichkeit, viele Male zu geringen Kosten neu zu würfeln. Es gibt jedoch einige Schwierigkeiten mit der anfänglichen Bewegungsgeschwindigkeit, und obwohl es fast obligatorisch ist, sie zu verstärken, ist es manchmal schwierig, die Bewegungsgeschwindigkeit in passiven Spielen zu erhöhen, daher hatte ich das Gefühl, dass es ein wenig schwierig war, es zu spielen.  Die einzigartigen passiven Fähigkeiten des Spiels waren anfangs schwer zu verstehen, aber sobald man verstanden hatte, wie sie funktionierten, war es ein einzigartiges Feature, bei dem es Spaß machte, darüber nachzudenken, wie man sie platziert. Mir persönlich gefällt es ziemlich gut.  Aber selbst mit solchen neuen Funktionen ist das Gameplay selbst das gleiche wie bei konkurrierenden Titeln, und es gibt eine Reihe von Problemen, also seien Sie bitte vorsichtig beim Kauf.</t>
+        </is>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" t="b">
+        <v>1</v>
+      </c>
+      <c r="B568" t="n">
+        <v>803</v>
+      </c>
+      <c r="C568" t="n">
+        <v>1744272704</v>
+      </c>
+      <c r="D568" t="inlineStr">
+        <is>
+          <t>Habs am Steam Deck installiert, läuft jetzt schon ohne Probleme. Jetzt warte ich nur mehr auf Cloud-Savegame, dann bin ich voll dabei. :)</t>
+        </is>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" t="b">
+        <v>0</v>
+      </c>
+      <c r="B569" t="n">
+        <v>55</v>
+      </c>
+      <c r="C569" t="n">
+        <v>1744272250</v>
+      </c>
+      <c r="D569" t="inlineStr">
+        <is>
+          <t>Gutes Spiel, aber es ist ein bisschen albern, die Synthesetabelle nicht zu sehen, und es ist schwer auszuprobieren, wenn man seine Fähigkeiten in verschiedene Attribute aufteilt.</t>
+        </is>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" t="b">
+        <v>1</v>
+      </c>
+      <c r="B570" t="n">
+        <v>542</v>
+      </c>
+      <c r="C570" t="n">
+        <v>1744271123</v>
+      </c>
+      <c r="D570" t="inlineStr">
+        <is>
+          <t>Nicht schlecht, vor allem für 250 Rubel, außerdem gibt es Rabattsets mit anderen guten Bullet-Spielen und Roguelikes.  Vorteile: Angenehmes Gameplay, es gibt Auswirkungen von Schlägen, Optimierung auf der Stelle. Viele Fähigkeiten, ich habe bisher 3 Fähigkeitsbäume gesehen (Feuer, Blitz, physischer Schaden), jeder hat etwa 6-7 Fähigkeiten, es gibt Synergien zwischen den beiden Fähigkeiten (Evolution wie bei den Streitkräften).  Negativ:: Graphon, was mich betrifft, hätte man etwas ehrenwerter machen können, naja, komplett verpixelt, zuerst verstand ich nicht einmal, als wen ich spielte, irgendein Quadrat lief. Und nein, ein Wikingermodell, wenn man genau hinschaut.  Es gibt auch keine Beschreibung der Evolution, man kann auf das Tablet schauen, aber es gibt keine Beschreibung der Fähigkeiten. Nur ihre Bilder und unter Berücksichtigung der Grafiken dort werden Sie nicht verstehen, was auf ihnen abgebildet ist.  Features: Es gibt einen Skill-Baum mit Nodes, die du nach und nach selbst sammelst. Zum Beispiel bekommst du eine legendäre passive Fähigkeit für +25 Angriffstempo, stoße sie in die Mitte des Baumes. Und mit Modifikationen à la +50 % an der Effektivität der Fertigkeit könnt ihr diese passive Fähigkeit umgehen und beschleunigen. Und die Modifikatoren sind auch unterschiedlich, von 50% bis 150%, im Allgemeinen kann man einen Fleischwolf arrangieren) Es gibt auch IMB-Dinge, wie eine Chance von 5%, +1% Angriffsgeschwindigkeit zu erhalten, wenn man physischen Schaden verursacht, die zurückgesetzt wird, wenn man dem Charakter Schaden zufügt. Wenn du geschickt ausweichst, kannst du die Angriffsgeschwindigkeit auf kosmische Werte beschleunigen... Außerdem erleidet der MC keinen Schaden durch eine direkte Kollision mit dem Feind, so dass Sie sicher durch Mobs gehen können, die Hauptsache ist, nicht unter den roten Angriffsbereich zu gelangen.  Im Allgemeinen ist es sehr gut, vor allem für den Preis einer Tasse Kaffee.</t>
+        </is>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" t="b">
+        <v>1</v>
+      </c>
+      <c r="B571" t="n">
+        <v>7</v>
+      </c>
+      <c r="C571" t="n">
+        <v>1744262779</v>
+      </c>
+      <c r="D571" t="inlineStr">
+        <is>
+          <t>Asgard’s Fall hat mich absolut positiv überrascht. Besonders gut gefallen haben mir die abwechslungsreichen Quests und das dynamische Kampfsystem, fordernd, aber nie frustrierend. Technisch lief das Spiel bei mir stabil, und auch die Steuerung war direkt und präzise.
+Eine klare Empfehlung!</t>
+        </is>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" t="b">
+        <v>1</v>
+      </c>
+      <c r="B572" t="n">
+        <v>256</v>
+      </c>
+      <c r="C572" t="n">
+        <v>1744261799</v>
+      </c>
+      <c r="D572" t="inlineStr">
+        <is>
+          <t>Es ist fast nicht gestärkt.,Der zweite hat das erste Level bestanden.,Angenommen, du kannst 3 Minuten nicht leben, wie viele Gerichte gibt es? Es macht Spaß.,Nachdem der Krieger aufgestanden ist, ist Kuku ein zweites Monster.,Cool fliegen.,Ich weiß nur nicht, wie tief die Konstruktion ist.,Ich werde es noch einmal studieren.</t>
+        </is>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" t="b">
+        <v>1</v>
+      </c>
+      <c r="B573" t="n">
+        <v>1809</v>
+      </c>
+      <c r="C573" t="n">
+        <v>1744261760</v>
+      </c>
+      <c r="D573" t="inlineStr">
+        <is>
+          <t>Gutes Spiel, aber es hat einige Probleme.  Ich werde es vorerst positiv bewerten, weil es so viel Spaß macht und dass das manuelle Zielen aus der Demo behoben wurde.  Die Dinge, die sie noch angehen müssen, sind die folgenden, basierend auf meiner Erfahrung, die ich an Tag 1 ausgiebig gespielt habe.  1) Runen, die aus deiner Kriegsbemalung verschwinden (wo du sie einsteckst).  Wenn das mit Stat-Runen passiert, kannst du nur 3/3 einsockeln lassen und das Spiel zählt sie trotzdem, obwohl sie nicht da sind.  Es erfordert viel Fummelei mit der Maus und KB, um es zu beheben (kann nicht mit dem Controller durchgeführt werden).  2) Die Steuerung auf dem Controller ist wackelig.  Es gibt auch Tasten, die keinen Zweck erfüllen und R3 (Stick-Klick) zugeordnet sind, die Sie versehentlich drücken und die Aktion immer wieder unterbrechen.  Es bringt den Runenrucksack hoch, aber du kannst die Runen während der Runde nicht wechseln... Warum gibt es das überhaupt so?  Wenn es dort sein muss, legen Sie es unter das Pausenmenü oder eine andere Registerkarte eines vorhandenen Bildschirms.  Es gibt auch keine Tooltip-Informationen an Stellen, an denen sie sein sollten, weder für M&amp;KB noch für Controller.  3) Ich bin überzeugt, dass hier eine gewisse Gewichtung mit dem Blutopfer-Level (aka - Map Power Level) stattfindet.  Wenn du Karten meisterst und zur nächsten aufsteigst, verschwindet die Seltenheit von Upgrades und Knotendrops, es sei denn, du erhöhst den Schwierigkeitsgrad manuell, indem du die Blutopferstufe um mindestens 1 Stufe erhöhst.  Wenn du nicht aufsteigst, bekommst du am Ende fast nur weiße Upgrades, was den Fortschritt viel schwieriger macht.  Passen Sie also auf, dass Sie eine Karte nicht schlagen, wenn sie zu hoch eingestellt ist, bis sie etwas dagegen unternehmen.  Derzeit müsst ihr den Schwierigkeitsgrad um mindestens 1 erhöhen, wenn ihr blaue, violette oder legendäre Drops sehen wollt.  Sie werden kaum welche bekommen, wenn Sie es nicht tun.  Und das Spiel wird einfacher, indem man den Schwierigkeitsgrad so erhöht, wie es ist, also macht das wirklich keinen Sinn.  Das Spiel ist bei mir auch einmal halb eingefroren, nachdem ich die Lavakarte besiegt habe, aber ich bin mir sicher, dass sie das ziemlich schnell beheben werden.  Im Grunde konnte ich mich nicht bewegen, egal welche Eingabemethode ich verwendete... Ich denke, das könnte mit dem Runenproblem zusammenhängen, das ich oben aufgelistet habe.    Die Entwickler haben auch einen Patch während der Hauptsendezeit am Tag der Veröffentlichung veröffentlicht, der das Spiel zum Absturz brachte, während sie mitten in der Runde auf mir spielten, also sollten sie ihre Patches auch wirklich so planen, dass die Leute sie hinzufügen können, wenn sie bereit sind.  Hoffentlich war das nur ein Versehen und sie werden in Zukunft besser damit umgehen.  Ansonsten ist es ein lustiges Spiel und scheint eine Menge Inhalt zu haben.</t>
+        </is>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" t="b">
+        <v>1</v>
+      </c>
+      <c r="B574" t="n">
+        <v>1028</v>
+      </c>
+      <c r="C574" t="n">
+        <v>1744257920</v>
+      </c>
+      <c r="D574" t="inlineStr">
+        <is>
+          <t>Solides Spiel mit ausgewogenem Schwierigkeitsgrad und lohnender Spielschleife!</t>
+        </is>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" t="b">
+        <v>1</v>
+      </c>
+      <c r="B575" t="n">
+        <v>754</v>
+      </c>
+      <c r="C575" t="n">
+        <v>1744254992</v>
+      </c>
+      <c r="D575" t="inlineStr">
+        <is>
+          <t>Tolles Spiel, sehr zu empfehlen</t>
+        </is>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" t="b">
+        <v>1</v>
+      </c>
+      <c r="B576" t="n">
+        <v>307</v>
+      </c>
+      <c r="C576" t="n">
+        <v>1744252502</v>
+      </c>
+      <c r="D576" t="inlineStr">
+        <is>
+          <t>Gutes Spiel.</t>
+        </is>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" t="b">
+        <v>1</v>
+      </c>
+      <c r="B577" t="n">
+        <v>993</v>
+      </c>
+      <c r="C577" t="n">
+        <v>1744252213</v>
+      </c>
+      <c r="D577" t="inlineStr">
+        <is>
+          <t>Wenn die Demo gut war, ist dieser Early Access wunderbar!   Ich hoffe, dass sie bald die neuen Welten hinzufügen, denn ich freue mich schon auf die Zukunft dieses kleinen Spiels.</t>
+        </is>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" t="b">
+        <v>1</v>
+      </c>
+      <c r="B578" t="n">
+        <v>191</v>
+      </c>
+      <c r="C578" t="n">
+        <v>1744251263</v>
+      </c>
+      <c r="D578" t="inlineStr">
+        <is>
+          <t>Das erste Bild ist gerade ausgeräumt und stecken geblieben.,Es gibt keinen Fortschritt beim erneuten Spielen des Spiels.,Aber die Errungenschaften wurden abgeschlossen 6.,Was ist das für ein neuer Fehler? Es gibt noch kein Cloud-Archiv,</t>
+        </is>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" t="b">
+        <v>1</v>
+      </c>
+      <c r="B579" t="n">
+        <v>446</v>
+      </c>
+      <c r="C579" t="n">
+        <v>1744248317</v>
+      </c>
+      <c r="D579" t="inlineStr">
+        <is>
+          <t>Leuchtete den ersten Überlebenden an, den ich lustig 👍 fand</t>
+        </is>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" t="b">
+        <v>1</v>
+      </c>
+      <c r="B580" t="n">
+        <v>300</v>
+      </c>
+      <c r="C580" t="n">
+        <v>1744247230</v>
+      </c>
+      <c r="D580" t="inlineStr">
+        <is>
+          <t>So ein erstaunliches Spiel! Ich kann nicht aufhören, es zu spielen, es hat eine große Tiefe und macht überall Spaß!</t>
+        </is>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" t="b">
+        <v>0</v>
+      </c>
+      <c r="B581" t="n">
+        <v>1753</v>
+      </c>
+      <c r="C581" t="n">
+        <v>1744244854</v>
+      </c>
+      <c r="D581" t="inlineStr">
+        <is>
+          <t>Das Spielen mit dem Steam Deck ist zu klein, um es klar zu lesen, und es gibt zu wenig Inhalt.</t>
+        </is>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" t="b">
+        <v>1</v>
+      </c>
+      <c r="B582" t="n">
+        <v>890</v>
+      </c>
+      <c r="C582" t="n">
+        <v>1744244411</v>
+      </c>
+      <c r="D582" t="inlineStr">
+        <is>
+          <t>Death must die 2.0 mit krank viel potential</t>
+        </is>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" t="b">
+        <v>1</v>
+      </c>
+      <c r="B583" t="n">
+        <v>1764</v>
+      </c>
+      <c r="C583" t="n">
+        <v>1744242795</v>
+      </c>
+      <c r="D583" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gekauft und direkt für 10 Stunden gefesselt. 
+Nur noch schnell einen Run "sind ja nur 20 Minuten", natürlich die Zeit fürs skillen nicht mit gezählt.
+Geile Mechaniken die echt süchtig machen den nächsten Run noch schwerer zu absolvieren. 
+10/10 absolute Kaufempfehlung! 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" t="b">
+        <v>1</v>
+      </c>
+      <c r="B584" t="n">
+        <v>1666</v>
+      </c>
+      <c r="C584" t="n">
+        <v>1744241816</v>
+      </c>
+      <c r="D584" t="inlineStr">
+        <is>
+          <t>Ich mag das Spiel sehr, aber ähnlich wie bei Asgard's Fall – Origins habe ich das Gefühl, dass man bei kürzeren Durchläufen zu wenig Erfahrung sammelt.    Wenn ein Lauf eher kürzer ist, erhältst du so wenig Erfahrung, dass es mehrere (erfolglose) Versuche braucht, um nur einmal aufzusteigen. Auf der anderen Seite, wenn du einen guten Lauf hast, bei dem du lange überlebst, sammelst du aufgrund der großen Anzahl von Feinden in den späteren Phasen deutlich mehr Erfahrung.    Ich denke, das könnte ein bisschen mehr Balancing gebrauchen. Abgesehen davon macht das Spiel eine Menge Spaß!</t>
+        </is>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" t="b">
+        <v>1</v>
+      </c>
+      <c r="B585" t="n">
+        <v>750</v>
+      </c>
+      <c r="C585" t="n">
+        <v>1744238827</v>
+      </c>
+      <c r="D585" t="inlineStr">
+        <is>
+          <t>Ich habe es gerade gekauft und einen Arbeitstag investiert, die Meinung ist klar, wir müssen nur warten, bis sie es fertiggestellt haben.</t>
+        </is>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" t="b">
+        <v>1</v>
+      </c>
+      <c r="B586" t="n">
+        <v>703</v>
+      </c>
+      <c r="C586" t="n">
+        <v>1744238397</v>
+      </c>
+      <c r="D586" t="inlineStr">
+        <is>
+          <t>Ja Mann, das ist ein besseres Spiel aus dem Survivor-Genre.  Wenn du Nordic Ashes gespielt hast, ist es ein bisschen so, aber wo sich Nordic Ashes schwebend und schwer anfühlt, fühlt es sich bissig und leicht an.   Die Upgrade-Mechanik, um während des Laufs ein Brett zu bauen, das eine gewisse Tiefe hat, die Tatsache, dass man die XP zum Sammeln verwendet, um dann neu zu würfeln, und dass der Neuwurf immer zu einem niedrigen Preis beginnt, macht jeden Durchlauf wirklich lustig und fesselnd. Es ist ziemlich einfach, sich auf bestimmte Dinge zu konzentrieren. Es gibt auch schon eine ganze Reihe von Fähigkeiten.   Es fehlen einige Dinge, aber es sind vor allem QOL-Funktionen, die ich gerne sehen würde, wie eine bessere Statistikübersicht, die Möglichkeit, das Kompendium während eines Laufs zu sehen usw.  Ich freue mich auf das, was hinzugefügt wird, aber es ist schon das Geld wert, wenn man diese Art von Spielen mag,</t>
+        </is>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" t="b">
+        <v>1</v>
+      </c>
+      <c r="B587" t="n">
+        <v>224</v>
+      </c>
+      <c r="C587" t="n">
+        <v>1744237859</v>
+      </c>
+      <c r="D587" t="inlineStr">
+        <is>
+          <t>Maut</t>
+        </is>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" t="b">
+        <v>1</v>
+      </c>
+      <c r="B588" t="n">
+        <v>1374</v>
+      </c>
+      <c r="C588" t="n">
+        <v>1744237838</v>
+      </c>
+      <c r="D588" t="inlineStr">
+        <is>
+          <t>Asgard's Fall ist ein absolutes Meisterwerk!
+Ich kann Asgard's Fall jedem empfehlen, der auf der Suche nach einem fesselnden Roguelike ist. Es ist ein Spiel, das man nicht verpassen sollte!
+Ein paar Verbesserungen kann es noch vertragen aber es ist ja auch noch im "Early Access", also sehe ich dem ganzen sehr positiv entgegen.</t>
+        </is>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" t="b">
+        <v>1</v>
+      </c>
+      <c r="B589" t="n">
+        <v>175</v>
+      </c>
+      <c r="C589" t="n">
+        <v>1744237584</v>
+      </c>
+      <c r="D589" t="inlineStr">
+        <is>
+          <t>Wahrscheinlich das beste Survivors-Spiel, das ich bisher gespielt habe. - Hochglanz - Fühlt sich UNGLAUBLICH an (super wichtig). Fähigkeiten, Animationen, Feinde, Bosse. - Eine Menge Build-Vielfalt - eine DPS/Schadenszusammenfassung am ENDE??????????  Kratzt auch mehr am Juckreiz von Path of Exile als PoE2.  Scheiße ist verrückt.</t>
+        </is>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" t="b">
+        <v>1</v>
+      </c>
+      <c r="B590" t="n">
+        <v>950</v>
+      </c>
+      <c r="C590" t="n">
+        <v>1744235227</v>
+      </c>
+      <c r="D590" t="inlineStr">
+        <is>
+          <t>Es gab keinen Kommentar auf Französisch, also habe ich es versucht.  Bearbeitet nach einem ersten Patch.  Insgesamt sehr angenehm zu spielen, wenn man bedenkt, dass es sich um einen Early Access handelt. Die Basis ist solide und solide, sie war schon in der Demo angenehm, jetzt ist sie es noch mehr, alles zu einem sehr günstigen Preis. Die Art von Spiel, die man regelmäßig neu starten kann, wenn man sich nicht mit einem Triple A herumschlagen will, und bei der man am Ende 2 Stunden hintereinander verbringt, weil man sich nicht sicher ist, ob man die Fallenmechanik wirklich ausgenutzt hat.  Natürlich können wir, wie die Tausenden von Überlebenden, die in letzter Zeit veröffentlicht wurden, sagen, dass es im Vergleich zu Vampir-Überlebenden leicht ist, aber nachdem ich letzteres auch früh gespielt habe, erinnere ich mich, dass es nicht die Tausenden von Dingen gab, die wir heute finden, und dass es trotz allem schon angenehm war.  Kurz gesagt, ein großartiges Versprechen von Tag 1, ich kann es kaum erwarten zu sehen, was passieren wird.  Wir hoffen auf: - ein paar mehr Charaktere (3 ist ein bisschen leicht) - mehr Sichtbarkeit der Werte der Kräfte, um besser über Ihren Build nachzudenken - ein Kompendium, in dem es nicht nur Symbole UND im Spiel darstellbar gibt --&gt; Bearbeiten: Es ist geschafft - die Möglichkeit, die Steuerung zu ändern --&gt; Bearbeiten ist es erledigt - vielleicht etwas mehr Verbrauchsgegenstände während des Spiels (im Moment haben wir die Äpfel, die das Leben wiederherstellen, und die Magnete) auf XP). - Verrückte Dinge, die durch das Ausführen bestimmter Aktionen freigeschaltet/zugelassen werden können</t>
+        </is>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" t="b">
+        <v>1</v>
+      </c>
+      <c r="B591" t="n">
+        <v>606</v>
+      </c>
+      <c r="C591" t="n">
+        <v>1744234650</v>
+      </c>
+      <c r="D591" t="inlineStr">
+        <is>
+          <t>Der Fertigstellungsgrad ist zu niedrig, es gibt zu wenig Inhalt zum Spielen, ich habe die Demo gespielt, also ist die offizielle Version sehr schnell, und ich habe vorübergehend alle vier Welten geöffnet. Und dann das Blutopfer von 25 Es sind etwa viereinhalb Stunden Prozess, es ist sehr kurz, und ich fühle mich nicht gut genug. Ich glaube zu sehen, wie der Boss der vierten Welt herauskommt, und plötzlich bin ich tot??? (Wahrscheinlich nicht erledigt) Es ist schwer zu bewerten Es ist cool, nach dem Formen aufzufrischen, aber es ist nervig, überall auf der Karte nach Dingen zu suchen Ich habe Angst, dass etwas ausläuft Die Requisiten, die zufällig erscheinen, haben ein Zeitlimit Wenn die Zeit verschwindet, ist es am besten, sie aufzuheben, wenn Sie sie sehen Ich wollte ein wenig mehr Erfahrung herumbürsten und zurückkommen, um zu essen und die Erfahrung der Requisiten aufzunehmen Es stellte sich heraus, dass es weg war. Beeilen Sie sich und aktualisieren Sie diesen Inhalt reicht nicht aus, um zu spielen!!!! ——————————————————————————————————————————————————————— Dies ist ein Schatzfarmspiel im Fell einer Taube!!! Presse Ich habe Runen im Rucksack mit verschiedenen Attributen Ich dachte, es wäre nur dafür gemacht, es zusammen zu verwenden。。。。。。。。。。</t>
+        </is>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" t="b">
+        <v>1</v>
+      </c>
+      <c r="B592" t="n">
+        <v>395</v>
+      </c>
+      <c r="C592" t="n">
+        <v>1744234592</v>
+      </c>
+      <c r="D592" t="inlineStr">
+        <is>
+          <t>Das Game lässt einen nicht mehr los. 
+Die ersten paar Runden sorgen direkt für eine Loop Sucht. Schönes Optik, satisfying Soundeffects, coole Fähigkeiten die man mit einander kombinieren kann. Der Soundtrack geht richtig ab und passt super ins Gesamtpaket. Ich habe nur 3 Runden gespielt und bin gefangen in der Loop Sucht. Vielen Dank an Maxim und Hänno, dass ich bei euch wieder mal so eine Spiele Perle entdeckt und empfohlen bekommen habe. 
+Man schaltet Runden übergreifenden Progress frei und mit den Bemalungen schreit das förmlich nach geilen Kombi Möglichkeiten. 
+Ganz klare Empfehlung meinerseits. Ehre!</t>
+        </is>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" t="b">
+        <v>1</v>
+      </c>
+      <c r="B593" t="n">
+        <v>151</v>
+      </c>
+      <c r="C593" t="n">
+        <v>1744231966</v>
+      </c>
+      <c r="D593" t="inlineStr">
+        <is>
+          <t>Es muss noch poliert werden</t>
+        </is>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" t="b">
+        <v>1</v>
+      </c>
+      <c r="B594" t="n">
+        <v>313</v>
+      </c>
+      <c r="C594" t="n">
+        <v>1744231939</v>
+      </c>
+      <c r="D594" t="inlineStr">
+        <is>
+          <t>Ich habe wirklich nicht erwartet, es eines Tages in Steam zu sehen.,Ein Fleischtaubenspiel.,Weil die ganze Rolle am Anfang nicht freigeschaltet wurde.,Und eine schlechte Bewertung von Schimpfwörtern erhalten habe.,Speziell eine gute Bewertung dafür schreiben Derzeit gibt es zwei Probleme beim Spielen: 1. Ein Spiel von 20-30 Minuten.,Sie können den Fortschritt in der Mitte nicht speichern, um es zu beenden.,Es fühlt sich ein wenig lang an 2.Sie können die Skill-Synthesetabelle im Spiel nicht sehen.,Und der Skill-Name wird draußen nicht angezeigt.,Sie können sich nur auf Screenshots verlassen, um zu überprüfen, ob es ein wenig unvernünftig ist.</t>
+        </is>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" t="b">
+        <v>1</v>
+      </c>
+      <c r="B595" t="n">
+        <v>707</v>
+      </c>
+      <c r="C595" t="n">
+        <v>1744229632</v>
+      </c>
+      <c r="D595" t="inlineStr">
+        <is>
+          <t>Hammer Spiel!</t>
+        </is>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" t="b">
+        <v>1</v>
+      </c>
+      <c r="B596" t="n">
+        <v>176</v>
+      </c>
+      <c r="C596" t="n">
+        <v>1744229024</v>
+      </c>
+      <c r="D596" t="inlineStr">
+        <is>
+          <t>Dieses Spiel ist ein netter Ableger des Genres der Vampirüberlebenden, mit der gleichen Befriedigung, Hunderte von Feinden zu töten. Es hat ein enormes Potenzial, wenn der Early Access richtig genutzt wird und das Team auf das Feedback hört.   Im Moment gibt es ein paar Dinge, die ich vermisse, zum Beispiel, dass man seine Werte nicht im Menü oder im Lauf sehen kann, und es wäre schön, die Fähigkeiten und ihre Werte auch während eines Durchlaufs zu sehen, um das Spiel transparenter zu machen und Builds einfacher zu planen. Ich würde auch gerne die Namen der Fähigkeiten im Kompendium sehen (z.B. wenn ich mit der Maus darüber fahre), da ich mir am Anfang nicht alle Symbole für die Kombinationen merken kann.  Eine andere Sache, die verbessert werden kann, ist die Bewegung mit einem Controller. Ich kann nicht genau sagen, was es ist, aber es fühlt sich so an, als würde der Charakter beim Bewegen an der x- und y-Achse einrasten, was die Bewegung ein wenig unvorhersehbar und seltsam macht.   Alles in allem ist es ein großartiges Spiel, und ich muss noch den Fortschritt in der Meta sehen und kein Feedback dazu geben. In der Hoffnung, dass es sich in die richtige Richtung entwickelt.</t>
+        </is>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" t="b">
+        <v>1</v>
+      </c>
+      <c r="B597" t="n">
+        <v>2830</v>
+      </c>
+      <c r="C597" t="n">
+        <v>1744228472</v>
+      </c>
+      <c r="D597" t="inlineStr">
+        <is>
+          <t>Ich habe ein paar Stunden damit verbracht, die Demo zu spielen und auf das Spiel zu warten, und ich war wirklich nicht enttäuscht vom Endergebnis der Veröffentlichung. Ich empfehle das Spiel jedem, der bereits Spaß an Roguelike hat oder jedem, der diese Art von Spiel kennenlernen möchte.  Das Spiel hat eine sehr ruhige Karte, auf der man sich bewegen kann; Die Feinde, die auf den Bildschirm kommen, sind sehr intuitiv und mit einer kurzen Laufzeit lernt man ihre Mechanik, obwohl der Schwierigkeitsgrad nicht schnell steigt, muss man in der Entwicklung des Charakters voranschreiten, um den Wellen mit Ruhe standzuhalten.  Die Waffenkombinationen sind sehr gut und das erzeugt ein gutes Gefühl der Individualität, wenn man nur die Waffen auswählen möchte, die man mag und nicht die, die eher "meta" sind.</t>
+        </is>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" t="b">
+        <v>1</v>
+      </c>
+      <c r="B598" t="n">
+        <v>621</v>
+      </c>
+      <c r="C598" t="n">
+        <v>1744228120</v>
+      </c>
+      <c r="D598" t="inlineStr">
+        <is>
+          <t>Absoluter Kracher! Schon die Demo knapp 50 Stunden gezockt. Für mich das erste Vampire Survivor like welches besser ist als das Original.</t>
+        </is>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" t="b">
+        <v>1</v>
+      </c>
+      <c r="B599" t="n">
+        <v>549</v>
+      </c>
+      <c r="C599" t="n">
+        <v>1744227455</v>
+      </c>
+      <c r="D599" t="inlineStr">
+        <is>
+          <t>Nachdem der Bau abgeschlossen ist, geht es der Quacksalber-Monsterfarm sehr gut! Die Skill-Synthese-Tabelle kann nicht im Büro eingesehen werden, und es ist nicht klar, dass es außerhalb des Büros nur Pixel-Skill-Icons gibt, die optimiert werden können</t>
+        </is>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" t="b">
+        <v>1</v>
+      </c>
+      <c r="B600" t="n">
+        <v>382</v>
+      </c>
+      <c r="C600" t="n">
+        <v>1744227271</v>
+      </c>
+      <c r="D600" t="inlineStr">
+        <is>
+          <t>Okay für jetzt.  Hat schöne Konzepte und Mechaniken, aber es fehlt an Inhalten. Wenn Sie einfach nur neues/unberührtes zum Ausschleifen haben möchten, dann planen Sie vielleicht maximal 20-30 Stunden ein. Wenn du gerne Vielfalt aufbaust und mit Zahlen herumspielst, dann wahrscheinlich viel, viel mehr.  Ich lasse es vorerst fallen, da ich keine EA-Spiele mehr genießen kann, es ist einfach so mühsam, in kaum grundlegend fertige Spiele zu springen, ein süßes Stück Kuchen zu bekommen und dann etwa 2-3 Jahre warten zu müssen, bis der Inhalt wirklich einsetzt.  Das ist vielleicht nur mein Gefühl. Ich empfehle es immer noch aus einem bestimmten Grund und wenn du gerne Spiele im Aufbau hast, dann hast du mit diesem Spiel die richtige Wahl getroffen.</t>
+        </is>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" t="b">
+        <v>1</v>
+      </c>
+      <c r="B601" t="n">
+        <v>134</v>
+      </c>
+      <c r="C601" t="n">
+        <v>1744227221</v>
+      </c>
+      <c r="D601" t="inlineStr">
+        <is>
+          <t>Sehr kurzweilig. 
+So nach dem Motto "Eins geht noch und zack isses Mitternacht."</t>
+        </is>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" t="b">
+        <v>0</v>
+      </c>
+      <c r="B602" t="n">
+        <v>89</v>
+      </c>
+      <c r="C602" t="n">
+        <v>1744226809</v>
+      </c>
+      <c r="D602" t="inlineStr">
+        <is>
+          <t>Gibt es einen Unterschied zur Demoversion?</t>
+        </is>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" t="b">
+        <v>1</v>
+      </c>
+      <c r="B603" t="n">
+        <v>1001</v>
+      </c>
+      <c r="C603" t="n">
+        <v>1744226787</v>
+      </c>
+      <c r="D603" t="inlineStr">
+        <is>
+          <t>ALLES AUF ROT MUGA</t>
+        </is>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" t="b">
+        <v>1</v>
+      </c>
+      <c r="B604" t="n">
+        <v>1099</v>
+      </c>
+      <c r="C604" t="n">
+        <v>1744226698</v>
+      </c>
+      <c r="D604" t="inlineStr">
+        <is>
+          <t>dis gon sei gut.</t>
+        </is>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" t="b">
+        <v>1</v>
+      </c>
+      <c r="B605" t="n">
+        <v>682</v>
+      </c>
+      <c r="C605" t="n">
+        <v>1744226332</v>
+      </c>
+      <c r="D605" t="inlineStr">
+        <is>
+          <t>Gutes Survivors-like mit viel Potential, ich hoffe das Game wird auch dementsprechend weiterentwickelt.
+Kleine Kritik: 
+Vielleicht die Gegner nach verlassen des Upgrade-Menüs etwas vom Spieler zurückstoßen, da man häufig Schaden bekommt und nicht weiss wohin man ausweichen muss. 
+Auch stört mich das benutzen von der Tastatur in den Upgrade Menüs, sodass diese häufig präferiert wird und man die Maus zur Auswahl nicht funktioniert. 
+Auch die Balance im Spiel ist noch verbesserungswürdig (+5 Angriffe für eine Fähigkeit durch einen Skill / Lebensregeneration +5/10 bringt im gegensatz zu 2% Lebensraub garnichts)
+Habe das Spiel nun erst kurz gespielt, werde aber auf jeden Fall weiterspielen, sobald ich mehr Zeit habe und weitere auftretende Probleme melden.
+Auch einen Dank an den Publisher INSTINCT3 und insbesondere HandOfBlood fürs Förden und Präsentieren von solch vielversprechenden Spielen der Steam Indie-Game Szene!
+Müsst Ihr wissen ;)</t>
+        </is>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" t="b">
+        <v>1</v>
+      </c>
+      <c r="B606" t="n">
+        <v>51</v>
+      </c>
+      <c r="C606" t="n">
+        <v>1744225860</v>
+      </c>
+      <c r="D606" t="inlineStr">
+        <is>
+          <t>Es macht puren Spaß, macht super süchtig und macht einfach Spaß zu spielen!</t>
+        </is>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" t="b">
+        <v>1</v>
+      </c>
+      <c r="B607" t="n">
+        <v>42</v>
+      </c>
+      <c r="C607" t="n">
+        <v>1744225224</v>
+      </c>
+      <c r="D607" t="inlineStr">
+        <is>
+          <t>Sehr geiles Game. Fühlt sich seeehr Polished an und macht auch noch Spaß wer hätts gedacht. Die Art-direction ist insane gut und der Fakt dass man unlockables im Stile von "Risk of Rain" hat, macht mir nur noch umso mehr Freude. Werds DEFINITIV weiter spielen. PROPS an die Entwickler würde mich seeeehr freuen noch mehr in der Art zu sehen.
+müsst ihr wissen.</t>
+        </is>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" t="b">
+        <v>0</v>
+      </c>
+      <c r="B608" t="n">
+        <v>14</v>
+      </c>
+      <c r="C608" t="n">
+        <v>1744224385</v>
+      </c>
+      <c r="D608" t="inlineStr">
+        <is>
+          <t>Die Demo fühlte sich so viel schöner an, ich weiß nicht, was hier passiert ist.  Viele Waffenfertigkeiten funktionieren einfach nicht richtig oder haben so große Anti-Synergien, dass es einfach keinen Spaß macht, länger als 3 Minuten in einem Level zu spielen</t>
+        </is>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" t="b">
+        <v>0</v>
+      </c>
+      <c r="B609" t="n">
+        <v>105</v>
+      </c>
+      <c r="C609" t="n">
+        <v>1744223992</v>
+      </c>
+      <c r="D609" t="inlineStr">
+        <is>
+          <t>Seien Sie sich bewusst, dass Early Access bedeutet, dass das Sounddesign vor der Beta unterdurchschnittlich ist Hit/-Boxen oder was auch immer verwendet wird, manchmal wackelig sind Die visuelle Unordnung ist intensiv, was nicht gut zu meinem vorherigen Punkt passt Kern-Gameplay-Loop ist im Moment etwas langweilig, denn nachdem Sie ein paar Dinge von der Karte gesammelt haben, umkreisen Sie nur den Feind und nichts passiert, bis der nächste Boss spawnt oder das Spiel beginnt endet vielleicht ein paar Wochen/Monate zu warten, je nachdem, wie schnell die Entwickler an den Dingen arbeiten werden</t>
+        </is>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" t="b">
+        <v>1</v>
+      </c>
+      <c r="B610" t="n">
+        <v>683</v>
+      </c>
+      <c r="C610" t="n">
+        <v>1744223386</v>
+      </c>
+      <c r="D610" t="inlineStr">
+        <is>
+          <t>Ein sehr gutes Spiel mit innovativen Roguelike-Aspekten. Viele Karten sind trotz Early Access verfügbar.</t>
+        </is>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" t="b">
+        <v>1</v>
+      </c>
+      <c r="B611" t="n">
+        <v>340</v>
+      </c>
+      <c r="C611" t="n">
+        <v>1744222171</v>
+      </c>
+      <c r="D611" t="inlineStr">
+        <is>
+          <t>Gut an Deck</t>
+        </is>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" t="b">
+        <v>1</v>
+      </c>
+      <c r="B612" t="n">
+        <v>907</v>
+      </c>
+      <c r="C612" t="n">
+        <v>1744221839</v>
+      </c>
+      <c r="D612" t="inlineStr">
+        <is>
+          <t>Mega genial das Game, Suchtfaktor 100%</t>
+        </is>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" t="b">
+        <v>1</v>
+      </c>
+      <c r="B613" t="n">
+        <v>7</v>
+      </c>
+      <c r="C613" t="n">
+        <v>1744220404</v>
+      </c>
+      <c r="D613" t="inlineStr">
+        <is>
+          <t>GEIIIIL, kann es nur empfehlen habe die beta und sämtliche test Versionen gespielt absoluter banger! und von Monat zu Monat mehr Content. Preis Leistung vollkommen I.O 
+Viel spaß allen! die es suchten.</t>
+        </is>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" t="b">
+        <v>1</v>
+      </c>
+      <c r="B614" t="n">
+        <v>242</v>
+      </c>
+      <c r="C614" t="n">
+        <v>1744219986</v>
+      </c>
+      <c r="D614" t="inlineStr">
+        <is>
+          <t>Ein super Spiel für zwischendurch. Und bei dem Preis kann man absolut nichts sagen. Macht richtig Laune.</t>
+        </is>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" t="b">
+        <v>0</v>
+      </c>
+      <c r="B615" t="n">
+        <v>632</v>
+      </c>
+      <c r="C615" t="n">
+        <v>1744219790</v>
+      </c>
+      <c r="D615" t="inlineStr">
+        <is>
+          <t>Ich hatte eine Menge Spaß, aber gibt es viele Bosskampf-Bugs? Selbst wenn die Walküre von Mittelerde verschwunden war, hob sie schließlich ab und traf den Frostriesen, und nachdem sich Kopf und Körper des Frostriesen getrennt hatten, flog sie direkt aus dem Kreisfeld, und die Perspektive flog auch weg, und ich konnte meinen eigenen Bösewicht nicht sehen, also konnte ich mich nur ergeben. Sprachlos</t>
+        </is>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" t="b">
+        <v>1</v>
+      </c>
+      <c r="B616" t="n">
+        <v>318</v>
+      </c>
+      <c r="C616" t="n">
+        <v>1744219730</v>
+      </c>
+      <c r="D616" t="inlineStr">
+        <is>
+          <t>Ich hatte viel Spaß beim Spielen, aber es ist schade, dass immer noch viele Inhalte fehlen. Wenn Sie es ständig aktualisieren, wird es ein besseres Spiel sein.</t>
+        </is>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" t="b">
+        <v>1</v>
+      </c>
+      <c r="B617" t="n">
+        <v>393</v>
+      </c>
+      <c r="C617" t="n">
+        <v>1744219584</v>
+      </c>
+      <c r="D617" t="inlineStr">
+        <is>
+          <t>Wir freuen uns auf das nächste Update!</t>
+        </is>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" t="b">
+        <v>1</v>
+      </c>
+      <c r="B618" t="n">
+        <v>440</v>
+      </c>
+      <c r="C618" t="n">
+        <v>1744218897</v>
+      </c>
+      <c r="D618" t="inlineStr">
+        <is>
+          <t>Super reaktionsschnelles Gameplay! Sehr angenehmes Spiel zum Spielen &lt;3</t>
+        </is>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" t="b">
+        <v>1</v>
+      </c>
+      <c r="B619" t="n">
+        <v>702</v>
+      </c>
+      <c r="C619" t="n">
+        <v>1744218406</v>
+      </c>
+      <c r="D619" t="inlineStr">
+        <is>
+          <t>Sehr gut</t>
+        </is>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" t="b">
+        <v>1</v>
+      </c>
+      <c r="B620" t="n">
+        <v>748</v>
+      </c>
+      <c r="C620" t="n">
+        <v>1744217087</v>
+      </c>
+      <c r="D620" t="inlineStr">
+        <is>
+          <t>Ich liebe dieses Spiel, habe es schon 3 Stunden gespielt!</t>
+        </is>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" t="b">
+        <v>0</v>
+      </c>
+      <c r="B621" t="n">
+        <v>26</v>
+      </c>
+      <c r="C621" t="n">
+        <v>1744216599</v>
+      </c>
+      <c r="D621" t="inlineStr">
+        <is>
+          <t>Dummes Spiel, kannst du sterben, wenn du drei Charaktere für jeden öffnest? Am Anfang war der Kämpfer schwer zu bedienen</t>
+        </is>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" t="b">
+        <v>1</v>
+      </c>
+      <c r="B622" t="n">
+        <v>44</v>
+      </c>
+      <c r="C622" t="n">
+        <v>1744216072</v>
+      </c>
+      <c r="D622" t="inlineStr">
+        <is>
+          <t>Komplett unvoreingenommen rein gegangen und schnell warm geworden. Macht Bock und ist herausfordernd. Gefällt mir bis hier hin echt gut.</t>
+        </is>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" t="b">
+        <v>1</v>
+      </c>
+      <c r="B623" t="n">
+        <v>981</v>
+      </c>
+      <c r="C623" t="n">
+        <v>1744214743</v>
+      </c>
+      <c r="D623" t="inlineStr">
+        <is>
+          <t>Erster Lauf, beeindruckend! Schöne Balance, schönes Gefühl, butterweiche Kontrolle.  Ich liebe es!  Wird später aktualisiert!  Update: Benötigt einige Verbesserungen in QoL, aber abgesehen davon ein solides Spiel.</t>
+        </is>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" t="b">
+        <v>1</v>
+      </c>
+      <c r="B624" t="n">
+        <v>470</v>
+      </c>
+      <c r="C624" t="n">
+        <v>1744214061</v>
+      </c>
+      <c r="D624" t="inlineStr">
+        <is>
+          <t>Es macht Spaß zu sehen, wie die Feinde wie ein Schwarm angreifen, während sie sich überlappen. Da es keinen Kontaktschaden gibt, kannst du auch spielen, indem du in die Herde sprintest. Die Verstärkungsmethode ist ebenfalls einzigartig und es fühlt sich an, als müsste man sein Gehirn ein wenig benutzen. Es ist ein Modell aus der nordischen Mythologie, daher ist es schön zu wissen, dass 9 Welten garantiert sind!</t>
+        </is>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" t="b">
+        <v>1</v>
+      </c>
+      <c r="B625" t="n">
+        <v>239</v>
+      </c>
+      <c r="C625" t="n">
+        <v>1744213912</v>
+      </c>
+      <c r="D625" t="inlineStr">
+        <is>
+          <t>Sehr kreatives Schicksalsgeflecht, aber es wäre schön, wenn es mehr Spielmöglichkeiten gäbe</t>
+        </is>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" t="b">
+        <v>0</v>
+      </c>
+      <c r="B626" t="n">
+        <v>47</v>
+      </c>
+      <c r="C626" t="n">
+        <v>1744213904</v>
+      </c>
+      <c r="D626" t="inlineStr">
+        <is>
+          <t>1. Wenn du aufsteigst, wirst du ins Gefängnis gehen, und nachdem du mehrere ein- bis dreieinhalb Gua Sha gespielt hast, wenn du dich auf eine feste Routine verlässt, wirst du es führen, wenn es sich auf einen irrelevanten Bonus verlässt, dann kann ich nur sagen, dass das Ende auf einen Blick zu sehen ist; 2 、 Der Fertigstellungsgrad ist noch sehr gering.,Derzeit sollten es drei Rollen sein.,Jede Rolle wird separat gestärkt (in der Tat macht es keinen Sinn, die Frische von ein paar Handvoll wiederholtem Bürsten zu haben),Der Technologiebaum ist relativ kurz.,Die Maus gleitet durch ein paar Welten und sagt, dass sie noch nicht geöffnet ist.,Der Teil der Folgefunktion sollte nicht hinzugefügt werden; 3. Ich verstehe nicht zu sehr, warum der Multiplikator nur auf den Knoten des Mutes wirken kann, ich bürste Gold und Lila, nur um das mutige (ich habe vergessen, wie ich es nennen soll) Teng-Gitter zu verbinden, zu diesem Zeitpunkt füge ich dem gespeicherten Gitter einen Multiplikator hinzu, der nicht nur den positiven Effekt verstärken, sondern auch die Obergrenze erhöhen kann; Und wenn man nur den Knoten des Mutes benutzt, bedeutet das, dass ich "das Gitter verschwende" oder "das Gitter des nächsten Mutglieds quetsche", und das Eckgitter kann nur mit einem einzigen Knoten Mut gefüllt werden, der den Menschen für eine Weile unangenehm sein muss.  Ich denke immer an einen Satz, die aktuelle Spielumgebung, Spieler nicht in Verlegenheit zu bringen und den Spielern nicht beizubringen, Spiele zu spielen, ist zu einer wertvollen Industriemoral wie Gold geworden, ich kann nur sagen, dass es vorerst nicht empfohlen wird.</t>
+        </is>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" t="b">
+        <v>1</v>
+      </c>
+      <c r="B627" t="n">
+        <v>863</v>
+      </c>
+      <c r="C627" t="n">
+        <v>1744213843</v>
+      </c>
+      <c r="D627" t="inlineStr">
+        <is>
+          <t>Tolles Spiel kann es kaum erwarten, mehr Inhalt zu bekommen</t>
+        </is>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" t="b">
+        <v>1</v>
+      </c>
+      <c r="B628" t="n">
+        <v>876</v>
+      </c>
+      <c r="C628" t="n">
+        <v>1744213664</v>
+      </c>
+      <c r="D628" t="inlineStr">
+        <is>
+          <t>Es ist ein Vergnügen, einen ganzen Streifen herauszuziehen.,Mache den schlichten Malstil der Kartoffelbrüder perfekt wett.,Es ist cool für mich.</t>
+        </is>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" t="b">
+        <v>0</v>
+      </c>
+      <c r="B629" t="n">
+        <v>42</v>
+      </c>
+      <c r="C629" t="n">
+        <v>1744213585</v>
+      </c>
+      <c r="D629" t="inlineStr">
+        <is>
+          <t>Spiele ich das falsche Spiel? Habe N mal gespielt.,Ich schaffe das erste Level nicht.,Ich habe noch nie ein so schwieriges Vampir-Überlebensspiel gespielt.,Dieser Schaden kratzt den Creep.,Ganz zu schweigen vom Boss, der spielt und die Creeps bürstet Update 4.18.,Obwohl ich nicht weiß, wer dieser Community-Belohnung "Joker" gegeben hat, aber herzlichen Glückwunsch an dieses Spiel, dass es eines der wenigen Spiele ist, die ich nach einer schlechten Bewertung nicht ändern werde.</t>
+        </is>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" t="b">
+        <v>1</v>
+      </c>
+      <c r="B630" t="n">
+        <v>336</v>
+      </c>
+      <c r="C630" t="n">
+        <v>1744213345</v>
+      </c>
+      <c r="D630" t="inlineStr">
+        <is>
+          <t>Die Demo wird gespielt, und es macht immer noch sehr viel Spaß, die aktuelle Version zwei Stunden lang zu spielen. Es wurden viele Inhalte hinzugefügt, aber es ist ein bisschen schwierig, Super-Martial-Arts zu bekommen, vor allem, weil man den Synthesetisch im Büro nicht sehen kann und man den Namen der Requisite außerhalb des Büros nicht überprüfen kann (was dazu führt, dass ich ständig Fotos mit meinem Handy mache...). Die Pickup-Requisiten, die auf der Karte erscheinen, hoffen, direkt durch Pfeile auf dem Layout angezeigt zu werden, und nachdem ich zwei Stunden lang gespielt habe, habe ich das Gefühl, dass sich meine Augen eins nach links und eines nach rechts drehen werden. Der Outercore-Charakter-Skill-Baum wird nicht sehr schnell freigeschaltet. Es scheint, dass das Gemälde derzeit nur auf- und abgebaut wird, und ich hoffe, dass es in Zukunft synthetisiert werden kann, damit es nicht zu verschwenderisch ist. Ich hoffe, ich laufe nicht weg und kann weiter updaten</t>
+        </is>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" t="b">
+        <v>1</v>
+      </c>
+      <c r="B631" t="n">
+        <v>84</v>
+      </c>
+      <c r="C631" t="n">
+        <v>1744213227</v>
+      </c>
+      <c r="D631" t="inlineStr">
+        <is>
+          <t>Ich denke, es ist eines der am besten gemachten Survivor-Spiele, und Bosse erscheinen in 10 oder 20 Minuten, aber es war ziemlich gut, eine Änderung an einem Kriegsbemalungs- oder Knotensystem anzustreben, das mit Gegenständen hergestellt werden kann, die durch das Fangen von Bossen gesammelt werden.</t>
+        </is>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" t="b">
+        <v>1</v>
+      </c>
+      <c r="B632" t="n">
+        <v>20</v>
+      </c>
+      <c r="C632" t="n">
+        <v>1744212130</v>
+      </c>
+      <c r="D632" t="inlineStr">
+        <is>
+          <t>Der Fertigstellungsgrad ist etwas niedrig, was ist mit Ihrem Cloud-Speicher?</t>
+        </is>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" t="b">
+        <v>1</v>
+      </c>
+      <c r="B633" t="n">
+        <v>210</v>
+      </c>
+      <c r="C633" t="n">
+        <v>1744210957</v>
+      </c>
+      <c r="D633" t="inlineStr">
+        <is>
+          <t>Ich bin auf das Spiel wegen HandofBlood gestoßen.
+Und es ist extrem gut und für den Preis ist es fair.</t>
+        </is>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" t="b">
+        <v>1</v>
+      </c>
+      <c r="B634" t="n">
+        <v>811</v>
+      </c>
+      <c r="C634" t="n">
+        <v>1744208715</v>
+      </c>
+      <c r="D634" t="inlineStr">
+        <is>
+          <t>Ich weiß, dass diese Beta-Phase ziemlich lang war, aber es scheint, dass es viele Teile gibt, die fehlen, und die Balance der Fähigkeiten ist sehr gekippt, besonders die Beschwörungsseite, wenn man sie auswählt, ist es ein Minenstufen-Level, und es gibt viele andere Fähigkeiten, bei denen ich mich frage, was die Absicht ist, insbesondere Walküre...  Fast alle nützlichen Fähigkeiten sind in physischen Attributen, und es gibt eine gute Synergie im Netz, wie z.B. Cool auf der physischen Seite, ich denke, das liegt wahrscheinlich daran, dass alle Klassen physisch sind, aber wenn das der Fall ist, hätte die Aktivierungsbedingung auf "bei normalem Angriff" gesetzt werden sollen. Auch wenn du sagst, dass du es verwechseln kannst, macht die Natur dieses Edelsteins Rerolls sehr frei, also gibt es keinen Grund, einen schlechten zu wählen, und die Effizienz ist überwältigend höher, wenn man ihn mit einem einzigen Attribut fährt. Schwierigkeitseinstellung Wenn du anfängst, ihn zu berühren, musst du einen wirklich schwierigen Weg gehen, der über die Physik + den Build für kritische Treffer hinausgeht. Die Entwicklung der Fähigkeiten hätte in Kombination erfolgen sollen. Ich frage mich, ob ich es getan habe Weirds Netz war auch neuartig und gut auf den ersten Blick Aber als ich es spielte, bemerkte ich die unbequemen Verteidigungseigenschaften Es gibt keinen Grund, den Rest außer Sprint und doppelter Geschwindigkeit zu wählen, und sobald Sie es einfügen, können Sie die Position nicht mehr ändern, und der Komfort ist sehr gering Kriegsverbrennung ist auch ein Problem Wenn Sie sich den Fertigkeitsbaum ansehen, ist das beabsichtigte Konzept für jede Klasse deutlich anders, aber das Kriegsbefeuerungsinventar ist eine Kombination aus drei Klassen, Sie müssen es jedes Mal umdrehen, wenn Sie die Klasse wechseln, aber die Runen, die Sie durch das Fallen erhalten, sind nicht klar unterschieden, also müssen Sie sie eine nach der anderen mit der Maus finden Sie können sie einzeln finden Auch wenn Sie sie separat in der Ecke von Inven organisieren möchten, haben Sie nicht einmal eine solche Funktion.  Außerdem ist es nicht stressig, Tetris zu spielen, oder vielleicht ist es ein Übersetzungsfehler, es gibt nur eine Zahl im Tooltip, und es gibt auch einen Fehler, der beim Kombinieren bestimmter Fähigkeiten abprallt.   Da es wenige sind, habe ich nur die Nachteile aufgelistet, aber es ist interessant Es scheint ein gutes Spiel zu sein, wenn man es ein wenig mehr optimiert und modifiziert.</t>
+        </is>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" t="b">
+        <v>1</v>
+      </c>
+      <c r="B635" t="n">
+        <v>17</v>
+      </c>
+      <c r="C635" t="n">
+        <v>1744208240</v>
+      </c>
+      <c r="D635" t="inlineStr">
+        <is>
+          <t>für den Preis absolut fair und macht irre viel Spass :) klare Empfehlung von mir</t>
+        </is>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" t="b">
+        <v>1</v>
+      </c>
+      <c r="B636" t="n">
+        <v>413</v>
+      </c>
+      <c r="C636" t="n">
+        <v>1744208226</v>
+      </c>
+      <c r="D636" t="inlineStr">
+        <is>
+          <t>Nordische Mythologie Vansaba Die Pixelkunst ist niedlich Ungewöhnlich für diese Art von Spiel gibt es keinen Schaden, wenn du mit einem Feind in Berührung kommst Infolgedessen sind die Anzahl der Feinde und die Gesundheit ziemlich hoch, und Fernkampfangriffe mit schlechter Sicht fliegen auch mit Bonbons auf dich zu. Die Schwelle für Rerolls ist ziemlich locker, und wenn du in Bewegung bleibst, kannst du ziemlich viel überleben, also ist es genau die richtige Balance Beim Levelaufstieg ist die Wahl eine Fähigkeit (automatische Aktivierung, Wechsle zwischen der Auswahl von Teilen mit passiven Effekten (mit Synergie in bestimmten Platzierungen) Wie das Vansaba-System kann es durch Metaprogression dauerhaft verbessert werden, aber es ist auch ein Puzzle (Rucksackheld oder Tarkov-ähnliches Tetris) Runen, die durch das Besiegen von Bossen erhalten werden können, und Teile, die mit Pigmenten freigeschaltet werden können, die während der MAP-Eroberung erhalten werden. Es ist ein gutes Werk, das einen glauben lässt, es sei ein Überlebender des Gehirnkriegers, aber man ist gezwungen, ihm standhaft auszuweichen, und man hat Zeit, innezuhalten und sich eine Weile Sorgen zu machen.</t>
+        </is>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" t="b">
+        <v>1</v>
+      </c>
+      <c r="B637" t="n">
+        <v>1089</v>
+      </c>
+      <c r="C637" t="n">
+        <v>1744207888</v>
+      </c>
+      <c r="D637" t="inlineStr">
+        <is>
+          <t>Ein cooles Spiel. Das macht Lust auf mehr.</t>
+        </is>
+      </c>
+    </row>
+    <row r="638">
+      <c r="A638" t="b">
+        <v>1</v>
+      </c>
+      <c r="B638" t="n">
+        <v>703</v>
+      </c>
+      <c r="C638" t="n">
+        <v>1744207066</v>
+      </c>
+      <c r="D638" t="inlineStr">
+        <is>
+          <t>Das Spiel macht richtig Laune – obwohl ich selbst noch nie ein Survivor-Game gespielt habe, bin ich total hooked.
+Das Viking-Theme kommt richtig gut rüber, sei es durch die Maps oder die verschiedenen Skills.
+Für alle, die Survivor-Games mal ausprobieren wollen oder ohnehin schon Fans davon sind, ist es aus meiner Sicht auf jeden Fall eine Empfehlung wert.</t>
+        </is>
+      </c>
+    </row>
+    <row r="639">
+      <c r="A639" t="b">
+        <v>1</v>
+      </c>
+      <c r="B639" t="n">
+        <v>674</v>
+      </c>
+      <c r="C639" t="n">
+        <v>1744206914</v>
+      </c>
+      <c r="D639" t="inlineStr">
+        <is>
+          <t>[i]Dies ist eine subjektive Meinungsäußerung[/i]
+[h1]Würde ich mir erneut kaufen[/h1]
+Es handelt sich um ein Horde-Survivor mit mehreren Rogue-lite Systemen bzw Loot-Mechaniken.
+Ob einem das und zudem die Optik und das Setting gefällt, kann man ja mit YT und anderen Quellen checken.
+Ich persönlich finde den Mix ganz gut.
+Es ist ein EA-Artikel und somit hoffe ich auf weitere Inhalte. Ich habe zudem hier oder da grafische Artefakte bzw. Störungen während des Spiels.
+Es fehlen auch QoL-Features. Runen sortieren oder ein Suchfilter. Weiterhin finde ich, dass die Feuerrune ein S leicht verändert werden sollte. Der Hintergrund sollte klar sein.
+Von mir eine Kaufempfehlung für Genre-Fans. Wer jedoch zu viele Spiele dieser Art hat, kann auch auf einen Sale oder die Veröffentlichung warten.
+Um zu verstehen, welche Spiele ich zum Vergleich heranziehe kann man gerne [url=https://store.steampowered.com/curator/45150501/]  Bullet-Heaven Deutsch [/url] folgen und mir, wenn ich ein Spiel völlig verpasst habe, gerne Spiele-Tipps geben.</t>
+        </is>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" t="b">
+        <v>1</v>
+      </c>
+      <c r="B640" t="n">
+        <v>180</v>
+      </c>
+      <c r="C640" t="n">
+        <v>1744206823</v>
+      </c>
+      <c r="D640" t="inlineStr">
+        <is>
+          <t>Lustig und lebenslustig. Aber wie kann ich das Demo-Archiv des Materials, das ich schon lange gebürstet habe, nicht erben?。。。。 Die andere Runde ist zu lang, und es dauert etwa eine halbe Stunde, um Fähigkeiten und Talente auszuwählen</t>
+        </is>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" t="b">
+        <v>1</v>
+      </c>
+      <c r="B641" t="n">
+        <v>837</v>
+      </c>
+      <c r="C641" t="n">
+        <v>1744206796</v>
+      </c>
+      <c r="D641" t="inlineStr">
+        <is>
+          <t>Im Moment ist die Erfahrung schlecht (der Krieger am Anfang und seine ersten neun Levels haben nicht die geringsten Mittel, um die Leistung zu erhöhen.,Beseitigen Sie das Monster langsam.,Und die Leistung des Gesichts.,Das richtige Risiko ist hoch und die geringe Rendite),Das Eissystem ist im Grunde ein Klumpen.,Um keinen Schaden zu verursachen.,Verlangsamen Sie den Feind kann nicht beseitigt werden.,Es ist gefährlicher, sich auf einem Haufen zu sammeln.,Der erste Boss des zweiten Levels hat eine hirnlose Lock-Fähigkeit.,Sie müssen sich hinter dem Stein verstecken.,Erscheinen Sie zuerst nicht im Sichtfeld.,Außerhalb des Sichtfeldes.,Da es keine hirnlose Sperre gibt.,Warum legen Sie einen Vorschaubereich fest?,Und irreführend.,Denken Sie, dass Sie außerhalb der Reichweite sicher sind., Und dann wurde ich erschossen.,Beim zweiten Mal war ich kurz davor, ans Ausweichen zu denken (vielleicht war der Boss zuerst außer Sichtweite.,Wenn du das Gesicht des Bosses erreichst, ist die Steinbürste woanders),Guter Kerl.,Ziele direkt und nahtlos auf dich Der aktuelle Bonus im Spiel,Es gibt keinen Explosionsschaden.,Knoten mit Fernschaden.,Du kannst nur draußen sein.,Kann keine anderen Genres wie Explosionsströme spielen.。 Wenn der Start in einen Shooter geändert wird, wird es nicht so unangenehm sein, zu spielen (der Krieger sollte mit dem Spieler vertraut sein, und die andere Kultivierung ist voll, und dann den Krieger spielen, um die Herausforderung zu verfolgen, obwohl der Autor in der Anfangsphase vielleicht etwas fleischiger sein möchte, und der Anfänger wird lange leben, aber die Leistung des Klassenüberlebenden ist oft wichtiger als die Menge an Blut), es ist schwieriger zu spielen, ohne einen Flammensiphon unter hohem Schwierigkeitsgrad zu wählen, und es ist zu einfach zu wählen (wenn Sie zu viel spielen, werden Sie es leid sein, rücksichtslos zu sein), die Grundmaterialien fließen zu sehr über, und ich hoffe, dass es in der Folge einige Funktionen geben wird, die die überfüllten Materialien verbrauchen können (z. B. Lotterie, Ziehen Sie einige Dekorationen oder Anhänger usw.). Obwohl die aktuelle Version noch unausgereift ist und einige Stellen nicht sehr interessant sind, ist das Update des Autors in Ordnung, das Feedback der Spieler wird zeitnah bearbeitet und der Update-Plan ist relativ klar. Sie können auf das Update warten, oder Sie können auf das nächste Update warten, bevor Sie es starten.</t>
+        </is>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" t="b">
+        <v>1</v>
+      </c>
+      <c r="B642" t="n">
+        <v>1289</v>
+      </c>
+      <c r="C642" t="n">
+        <v>1744206587</v>
+      </c>
+      <c r="D642" t="inlineStr">
+        <is>
+          <t>Ich habe die Beta bereits gespielt und bin gespannt, was im Early Access hinzugefügt wurde. Definitiv eines der besten Roguelikes da draußen. Die Netzmechanik des Talentbaums ist etwas, das ich noch nie zuvor in einem Spiel dieses Genres gesehen habe, was jede Runde einzigartig anpassbar macht. In Kombination mit dem Meta-Fortschritt und dem Runensystem lässt es das Herz eines jeden überlebensähnlichen Spielers höher schlagen. Stundenlang, viele Stunden. Zu viele Stunden... vielleicht.</t>
+        </is>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" t="b">
+        <v>1</v>
+      </c>
+      <c r="B643" t="n">
+        <v>6</v>
+      </c>
+      <c r="C643" t="n">
+        <v>1744206111</v>
+      </c>
+      <c r="D643" t="inlineStr">
+        <is>
+          <t>Es hat mich schon bei der Demoversion über viele Stunden gefesselt.  Meine Meinung, nach ein paar Minuten in der veröffentlichten Vollversion - mehr neue Karten und Fähigkeiten... Großartig! Ich kann es kaum erwarten, also seht mehr!</t>
+        </is>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" t="b">
+        <v>1</v>
+      </c>
+      <c r="B644" t="n">
+        <v>578</v>
+      </c>
+      <c r="C644" t="n">
+        <v>1744206024</v>
+      </c>
+      <c r="D644" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ich hab schon die Demo bis zum Maximum gezockt und kann nur sagen was ich zu Demo schon gesagt habe,
+für dieses Game kann ich nur eine absolute Kaufempfehlung geben!!!
+Die Metaprogression ist seeeehr gut gemacht, so das man nicht zu stark oder zu schwach ist, 
+damit bietet es einen hohen Wiederspielwert !!!
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" t="b">
+        <v>1</v>
+      </c>
+      <c r="B645" t="n">
+        <v>813</v>
+      </c>
+      <c r="C645" t="n">
+        <v>1744205574</v>
+      </c>
+      <c r="D645" t="inlineStr">
+        <is>
+          <t>Addicting!
+Der Gameplayloop lässt einen nicht los! Ich mag das Setting des Games, besonders die Runenverzierungen machen echt was her. Die verschiedenen Progressionsysteme lassen nichts zu wünschen übrig, simple aber doch sehr viel Spielraum für Komplexität und geile Builds. Bisher hab ich die Spezialisierung auf Nahkampf ausprobiert, aber der Feuerbuild sieht auch sehr nice aus! :)</t>
+        </is>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" t="b">
+        <v>1</v>
+      </c>
+      <c r="B646" t="n">
+        <v>23</v>
+      </c>
+      <c r="C646" t="n">
+        <v>1744205484</v>
+      </c>
+      <c r="D646" t="inlineStr">
+        <is>
+          <t>Ich habe die Testversion gespielt, und diese hat bereits mehr Inhalte. Ich liebe es! Es fühlt sich an und spielt sich so, als hätte sich der Entwickler wirklich Gedanken gemacht.  Wenn du Bullet-Hell-Spiele oder Survivor-likes magst, solltest du es auf jeden Fall ausprobieren.</t>
+        </is>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" t="b">
+        <v>1</v>
+      </c>
+      <c r="B647" t="n">
+        <v>20</v>
+      </c>
+      <c r="C647" t="n">
+        <v>1744204908</v>
+      </c>
+      <c r="D647" t="inlineStr">
+        <is>
+          <t>Asgard´s Fall - Viking Survivors überzeugt mit packendem Gameplay, nordische Atmosphäre und abwechslungsreichen Helden. Ein muss für Fans von Action und Mythologie - Sucht potenzial pur!</t>
+        </is>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" t="b">
+        <v>1</v>
+      </c>
+      <c r="B648" t="n">
+        <v>4304</v>
+      </c>
+      <c r="C648" t="n">
+        <v>1744204272</v>
+      </c>
+      <c r="D648" t="inlineStr">
+        <is>
+          <t>Schon in der Demo gefeiert – jetzt geht’s richtig los!
+Hab das Game schon in der Demo gesuchtet, deswegen sieht’s nach wenig Spielzeit aus – aber ich war von Anfang an dabei 😄
+Jetzt im Early Access macht Asgards Fall direkt wieder Bock: geile Survivor-Action mit nordischem Flair, das Knotensystem im Web of Wyrd ist super durchdacht und der Hub mit Lagerfeuer &amp; Co. bringt richtig Atmosphäre rein. Die Charaktere spielen sich unterschiedlich und die Meta-Progression mit dem Warpaint-System ist clever gelöst.
+Bin gespannt, was noch alles kommt – das Ding hat richtig Potenzial!</t>
         </is>
       </c>
     </row>
